--- a/output/fhr_computer_requests.xlsx
+++ b/output/fhr_computer_requests.xlsx
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>PC-5CG4143GRG, SPC-5BJ8D14, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
+          <t>SPC-5BJ8D14, PC-5CG4143GRG, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>CPC-JOSEC-BGVEA, SPC-5CG4084VQJ, SPC-5CG40111C6, FHR-5CG30935LZ</t>
+          <t>CPC-JOSEC-BGVEA, FHR-5CG30935LZ</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>PC-5CD5100K77, FHR-5CG2261RYZ</t>
+          <t>FHR-5CG2261RYZ, PC-5CD5100K77</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>PC-33BYB25013M4, FHR-J2V03Z3, PC-2MQ514105T, FHR-MXL24156CF</t>
+          <t>FHR-J2V03Z3, PC-33BYB25013M4, PC-2MQ514105T, FHR-MXL24156CF</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">

--- a/output/fhr_computer_requests.xlsx
+++ b/output/fhr_computer_requests.xlsx
@@ -532,54 +532,54 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Victor Sauceda</t>
+          <t>Sammantha Reynolds</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>victor.sauceda@fhr.com</t>
+          <t>sammantha.reynolds1@fhr.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:03 AM</t>
+          <t>09-12-2025 08:18:55 AM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:33 AM</t>
+          <t>09-12-2025 08:19:25 AM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>FHR-5CD8522C54</t>
+          <t>PC-2MQ5040B5K, PC-5CG12814MW</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mitch O'Keefe</t>
+          <t>Victor Sauceda</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MITCH.OKEEFE@FHR.COM</t>
+          <t>victor.sauceda@fhr.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -589,22 +589,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:11 PM</t>
+          <t>09-11-2025 09:46:03 AM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:39 PM</t>
+          <t>09-11-2025 09:46:33 AM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FHR-MXL23843MP, MSP-CTLU27, FHR-5CG1344HQ7</t>
+          <t>FHR-5CD8522C54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -616,101 +616,101 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Joe Bedynek</t>
+          <t>Mitch O'Keefe</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JOE.BEDYNEK@FHR.COM</t>
+          <t>MITCH.OKEEFE@FHR.COM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:10 PM</t>
+          <t>09-10-2025 05:54:11 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:36 PM</t>
+          <t>09-10-2025 05:54:39 PM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FHR-5CD026KSTV</t>
+          <t>FHR-MXL23843M2, MSP-CTLU27, FHR-MXL23843MP, FHR-5CG1344HQ7</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ruben Hernandez</t>
+          <t>Joe Bedynek</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ruben.hernandez@fhr.com</t>
+          <t>JOE.BEDYNEK@FHR.COM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09-10-2025 02:51:54 PM</t>
+          <t>09-10-2025 02:54:10 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09-10-2025 02:52:21 PM</t>
+          <t>09-10-2025 02:54:36 PM</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PC-5CD231GKV7</t>
+          <t>FHR-5CD026KSTV</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lauren Sada</t>
+          <t>Ruben Hernandez</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>lauren.sada@fhr.com</t>
+          <t>ruben.hernandez@fhr.com</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -720,34 +720,34 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:21 PM</t>
+          <t>09-10-2025 02:51:54 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:49 PM</t>
+          <t>09-10-2025 02:52:21 PM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>PC-5CD231GKV7</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kevin Harvey</t>
+          <t>Lauren Sada</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KEVIN.HARVEY@FHR.COM</t>
+          <t>lauren.sada@fhr.com</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09-10-2025 08:38:42 AM</t>
+          <t>09-10-2025 01:27:21 PM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-10-2025 08:39:13 AM</t>
+          <t>09-10-2025 01:27:49 PM</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>FHR-5CG1236JK6</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -784,12 +784,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Matt Olson</t>
+          <t>Kevin Harvey</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MATTHEW.OLSON@FHR.COM</t>
+          <t>KEVIN.HARVEY@FHR.COM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -804,17 +804,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-09-2025 11:43:57 AM</t>
+          <t>09-10-2025 08:38:42 AM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-09-2025 11:44:26 AM</t>
+          <t>09-10-2025 08:39:13 AM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>FHR-5CD40711PF, FHR-5CG918242Z</t>
+          <t>FHR-5CG1236JK6</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -826,12 +826,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sam Weldemariam</t>
+          <t>Matt Olson</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAM.WELDEMARIAM@FHR.COM</t>
+          <t>MATTHEW.OLSON@FHR.COM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -846,17 +846,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:23 AM</t>
+          <t>09-09-2025 11:43:57 AM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:51 AM</t>
+          <t>09-09-2025 11:44:26 AM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>FHR-MXL9144C61, FHR-3KJBQ54, PC-GQMKN34, FHR-F9GR624, FHR-D90QDZ3, FHR-G8GR624, FHR-5CG213BX6D, FHR-5CD8506CR3</t>
+          <t>FHR-5CD40711PF, FHR-5CG918242Z</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -868,558 +868,558 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Derek Wilfong</t>
+          <t>Sam Weldemariam</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DEREK.WILFONG@FHR.COM</t>
+          <t>SAM.WELDEMARIAM@FHR.COM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-09-2025 09:02:55 AM</t>
+          <t>09-09-2025 09:48:23 AM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-09-2025 09:03:28 AM</t>
+          <t>09-09-2025 09:48:51 AM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FHR-5CG1314K33</t>
+          <t>FHR-3KJBQ54, PC-GQMKN34, FHR-F9GR624, FHR-D90QDZ3, FHR-G8GR624, FHR-5CD8506CR3, FHR-MXL9144C61, FHR-5CG213BX6D</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Joel Mccabe</t>
+          <t>Derek Wilfong</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>JOEL.MCCABE@FHR.COM</t>
+          <t>DEREK.WILFONG@FHR.COM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09-05-2025 03:04:34 PM</t>
+          <t>09-09-2025 09:02:55 AM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-08-2025 09:08:16 AM</t>
+          <t>09-09-2025 09:03:28 AM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>FHR-1B1KH04, SPC-G942X54, MSP-005054</t>
+          <t>FHR-5CG1314K33</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Devon Holz</t>
+          <t>Joel Mccabe</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DEVON.HOLZ@FHR.COM</t>
+          <t>JOEL.MCCABE@FHR.COM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:14 PM</t>
+          <t>09-05-2025 03:04:34 PM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:42 PM</t>
+          <t>09-08-2025 09:08:16 AM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>FHR-5CG2219ZDW, PC-2MQ5140ZD9</t>
+          <t>FHR-1B1KH04, MSP-005054</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Shawn Sieben</t>
+          <t>Devon Holz</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Shawn.Sieben@fhr.com</t>
+          <t>DEVON.HOLZ@FHR.COM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09-04-2025 09:29:38 AM</t>
+          <t>09-05-2025 02:23:14 PM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09-05-2025 12:58:04 PM</t>
+          <t>09-05-2025 02:23:42 PM</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>FHR-5CD3507T46, FHR-CND8426B2G, FHR-8CC84008DL</t>
+          <t>PC-2MQ5140ZD9, FHR-5CG2219ZDW</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Carrie Simpson</t>
+          <t>Shawn Sieben</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CARRIE.SIMPSON@FHR.COM</t>
+          <t>Shawn.Sieben@fhr.com</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:03 PM</t>
+          <t>09-04-2025 09:29:38 AM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:30 PM</t>
+          <t>09-05-2025 12:58:04 PM</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>PC-001NS23373BF</t>
+          <t>FHR-5CD3507T46, FHR-CND8426B2G, FHR-8CC84008DL</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chris Pratt</t>
+          <t>Carrie Simpson</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chris.Pratt@fhr.com</t>
+          <t>CARRIE.SIMPSON@FHR.COM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09-02-2025 04:16:05 PM</t>
+          <t>09-04-2025 03:17:03 PM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09-04-2025 01:23:58 PM</t>
+          <t>09-04-2025 03:17:30 PM</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>FHR-5CD016BPV0, FHR-MXL8361TTS</t>
+          <t>PC-001NS23373BF</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Manuel Moreno Jr</t>
+          <t>Chris Pratt</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MANUEL.MORENO@FHR.COM</t>
+          <t>Chris.Pratt@fhr.com</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>05-02-2025 08:54:50 AM</t>
+          <t>09-02-2025 04:16:05 PM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-04-2025 01:17:10 PM</t>
+          <t>09-04-2025 01:23:58 PM</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>SPC-5BJ8D14, PC-5CG4143GRG, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
+          <t>FHR-MXL8361TTS, FHR-5CD016BPV0</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ben Sandiford</t>
+          <t>Manuel Moreno Jr</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ben.sandiford@fhr.com</t>
+          <t>MANUEL.MORENO@FHR.COM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:18 PM</t>
+          <t>05-02-2025 08:54:50 AM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:48 PM</t>
+          <t>09-04-2025 01:17:10 PM</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>PC-33VW824233M4, PC-1H95220MS6</t>
+          <t>SPC-5BJ8D14, PC-5CG4143GRG, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Denise Schardt</t>
+          <t>Ben Sandiford</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DENISE.SCHARDT@FHR.COM</t>
+          <t>ben.sandiford@fhr.com</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09-03-2025 02:48:18 PM</t>
+          <t>09-04-2025 01:11:18 PM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-04-2025 01:00:11 PM</t>
+          <t>09-04-2025 01:11:48 PM</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
+          <t>PC-33VW824233M4, PC-1H95220MS6</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ray Aslesen</t>
+          <t>Denise Schardt</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RAY.ASLESEN@FHR.COM</t>
+          <t>DENISE.SCHARDT@FHR.COM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09-04-2025 07:28:33 AM</t>
+          <t>09-03-2025 02:48:18 PM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-04-2025 07:29:01 AM</t>
+          <t>09-04-2025 01:00:11 PM</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZSW, PC-MXL4523KGB, FHR-0F00CQM2332, FHR-CND1440HBV</t>
+          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>Ray Aslesen</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>RAY.ASLESEN@FHR.COM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>09-04-2025 06:11:34 AM</t>
+          <t>09-04-2025 07:28:33 AM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09-04-2025 06:12:02 AM</t>
+          <t>09-04-2025 07:29:01 AM</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>PC-2MQ5140ZSW, PC-MXL4523KGB, FHR-0F00CQM2332, FHR-CND1440HBV</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dora Heimsoth</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>dora.heimsoth1@fhr.com</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>09-03-2025 03:00:34 PM</t>
+          <t>09-04-2025 06:11:34 AM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>09-03-2025 03:01:01 PM</t>
+          <t>09-04-2025 06:12:02 AM</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PC-339W925073R3, PC-86XGSV3</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Stephen Rodriguez</t>
+          <t>Dora Heimsoth</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
+          <t>dora.heimsoth1@fhr.com</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>09-03-2025 02:28:45 PM</t>
+          <t>09-03-2025 03:00:34 PM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>09-03-2025 02:29:20 PM</t>
+          <t>09-03-2025 03:01:01 PM</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>FHR-MXL90223C1 FHR-MXL902239Z FHR-MXL9332KN0 FHR-MXL902239R CND837B026 FHR-MXL9153QWC KII-MXL2424F2T FHR-5CG12812WW FHR-MXL3132SQX FHR-MXL3132SN7 FHR-MXL3132SNW FHR-MXL3132SS3 FHR-MXL3132SS4 FHR-MXL90224D2 FHR-8CG806569G KII-MXL24156FT FHR-MXL4424X3B FHR-MXL5043GK0 FHR-MXL5043GK1 SPC-DX6LZ84 SPC-MXL24156CD</t>
+          <t>PC-86XGSV3, PC-339W925073R3</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Matt Skrobarcek</t>
+          <t>Stephen Rodriguez</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
+          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1429,22 +1429,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:08 AM</t>
+          <t>09-03-2025 02:28:45 PM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:38 AM</t>
+          <t>09-03-2025 02:29:20 PM</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>FHR-5CG127C40Q, PC-1H95220MPS, FHR-5CG213CYGT</t>
+          <t>FHR-MXL90223C1 FHR-MXL902239Z FHR-MXL9332KN0 FHR-MXL902239R CND837B026 FHR-MXL9153QWC KII-MXL2424F2T FHR-5CG12812WW FHR-MXL3132SQX FHR-MXL3132SN7 FHR-MXL3132SNW FHR-MXL3132SS3 FHR-MXL3132SS4 FHR-MXL90224D2 FHR-8CG806569G KII-MXL24156FT FHR-MXL4424X3B FHR-MXL5043GK0 FHR-MXL5043GK1 SPC-DX6LZ84 SPC-MXL24156CD</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1456,12 +1456,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Justin Nava</t>
+          <t>Matt Skrobarcek</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>JUSTIN.NAVA@FHR.COM</t>
+          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1471,22 +1471,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>09-03-2025 09:44:33 AM</t>
+          <t>09-03-2025 09:46:08 AM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>09-03-2025 09:45:02 AM</t>
+          <t>09-03-2025 09:46:38 AM</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>SPC-82TKZ84, FHR-5CG4240WQT, FHR-MXL9223BVJ</t>
+          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1498,59 +1498,59 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Logan Tom</t>
+          <t>Justin Nava</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>logan.tom@fhr.com</t>
+          <t>JUSTIN.NAVA@FHR.COM</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:15 PM</t>
+          <t>09-03-2025 09:44:33 AM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:42 PM</t>
+          <t>09-03-2025 09:45:02 AM</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
+          <t>FHR-5CG4240WQT, SPC-82TKZ84, FHR-MXL9223BVJ</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Travis Sumerfelt</t>
+          <t>Logan Tom</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>travis.sumerfelt@fhr.com</t>
+          <t>logan.tom@fhr.com</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1560,76 +1560,76 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>09-02-2025 11:06:03 AM</t>
+          <t>09-02-2025 02:39:15 PM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09-02-2025 11:07:05 AM</t>
+          <t>09-02-2025 02:39:42 PM</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>PC-2MQ514108Q</t>
+          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Carlos Garcia Jr.</t>
+          <t>Travis Sumerfelt</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CARLOS.GARCIAJR@FHR.COM</t>
+          <t>travis.sumerfelt@fhr.com</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>08-27-2025 09:24:59 PM</t>
+          <t>09-02-2025 11:06:03 AM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-02-2025 08:26:34 AM</t>
+          <t>09-02-2025 11:07:05 AM</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>FHR-MXL9032YZV FHR-MXL9032Z1N FHR-8CG82809D9 FHR-MXL9032YS3 FHR-MXL90223C7 FHR-MXL9032Z0L FHR-MXL1022SW6 SPC-MXL2415619 SPC-MXL24156FQ FHR-14BCDZ3 FHR-5CG2148Y8N FHR-5CG8095709 FHR-MXL2223BGG FHR-5CD4154G3J SPC-MXL24155XB FHR-4PMKN34 FHR-3NMKN34 FHR-MXL24155WY FHR-BK33QPW FHR-MXL1022SVR FHR-GTQKN34 FHR-MXL9333VWX FHR-CNMKN34</t>
+          <t>PC-2MQ514108Q</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Billy Royal</t>
+          <t>Carlos Garcia Jr.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BILLY.ROYAL@FHR.COM</t>
+          <t>CARLOS.GARCIAJR@FHR.COM</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1639,22 +1639,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:06 PM</t>
+          <t>08-27-2025 09:24:59 PM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:34 PM</t>
+          <t>09-02-2025 08:26:34 AM</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>FHR-5CD2331XLD</t>
+          <t>FHR-MXL9032YZV FHR-MXL9032Z1N FHR-8CG82809D9 FHR-MXL9032YS3 FHR-MXL90223C7 FHR-MXL9032Z0L FHR-MXL1022SW6 SPC-MXL2415619 SPC-MXL24156FQ FHR-14BCDZ3 FHR-5CG2148Y8N FHR-5CG8095709 FHR-MXL2223BGG FHR-5CD4154G3J SPC-MXL24155XB FHR-4PMKN34 FHR-3NMKN34 FHR-MXL24155WY FHR-BK33QPW FHR-MXL1022SVR FHR-GTQKN34 FHR-MXL9333VWX FHR-CNMKN34</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1666,59 +1666,59 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Samuel Paulus</t>
+          <t>Billy Royal</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>samuel.paulus@fhr.com</t>
+          <t>BILLY.ROYAL@FHR.COM</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:17 PM</t>
+          <t>08-29-2025 04:48:06 PM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:45 PM</t>
+          <t>08-29-2025 04:48:34 PM</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
+          <t>FHR-5CD2331XLD</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Derya Broll</t>
+          <t>Samuel Paulus</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DERYA.BROLL@FHR.COM</t>
+          <t>samuel.paulus@fhr.com</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1728,81 +1728,81 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:07 PM</t>
+          <t>08-29-2025 01:00:17 PM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:37 PM</t>
+          <t>08-29-2025 01:00:45 PM</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
+          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Joseph Moberly</t>
+          <t>Derya Broll</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>joseph.moberly@fhr.com</t>
+          <t>DERYA.BROLL@FHR.COM</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>08-28-2025 01:10:49 PM</t>
+          <t>08-29-2025 12:10:07 PM</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>08-28-2025 01:11:16 PM</t>
+          <t>08-29-2025 12:10:37 PM</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>PC-1H852009W3, PC-5CG2415PYM</t>
+          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Lindi Dinn</t>
+          <t>Joseph Moberly</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>LINDI.DINN@FHR.COM</t>
+          <t>joseph.moberly@fhr.com</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1812,34 +1812,34 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:14 PM</t>
+          <t>08-28-2025 01:10:49 PM</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:40 PM</t>
+          <t>08-28-2025 01:11:16 PM</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>FHR-CND1440HKF, FHR-8CC8412KMN, PC-36KMG25193M4, FHR-51990492553</t>
+          <t>PC-1H852009W3, PC-5CG2415PYM</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Rodney Cotten</t>
+          <t>Lindi Dinn</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RODNEY.COTTEN@FHR.COM</t>
+          <t>LINDI.DINN@FHR.COM</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1849,22 +1849,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:02 PM</t>
+          <t>08-27-2025 02:53:14 PM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:30 PM</t>
+          <t>08-27-2025 02:53:40 PM</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>PC-5CD5100K7L, FHR-5CG7515059</t>
+          <t>FHR-8CC8412KMN, FHR-CND1440HKF, PC-36KMG25193M4, FHR-51990492553</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1876,96 +1876,96 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Chad Schaner</t>
+          <t>Rodney Cotten</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CHAD.SCHANER@FHR.COM</t>
+          <t>RODNEY.COTTEN@FHR.COM</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Dell Pro Rugged RB14250 14" Laptop</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>08-04-2025 01:41:48 PM</t>
+          <t>08-27-2025 02:27:02 PM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>08-27-2025 01:20:37 PM</t>
+          <t>08-27-2025 02:27:30 PM</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>FHR-8CG7352CR5, FHR-8H0GH04, FHR-DYW9BT3, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-8CG7352CSF, FHR-187491253</t>
+          <t>PC-5CD5100K7L, FHR-5CG7515059</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Denise Gonzalez</t>
+          <t>Chad Schaner</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DENISE.GONZALEZ@FHR.COM</t>
+          <t>CHAD.SCHANER@FHR.COM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>Dell Pro Rugged RB14250 14" Laptop</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:17 AM</t>
+          <t>08-04-2025 01:41:48 PM</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:45 AM</t>
+          <t>08-27-2025 01:20:37 PM</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>FHR-8CG8165MLF, PC-34Y4825063R3, SPC-G3V03Z3, SPC-D0R03Z3, SPC-23V03Z3, PC-5WXDQV3</t>
+          <t>FHR-8H0GH04, FHR-8CG7352CR5, FHR-DYW9BT3, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-8CG7352CSF, FHR-187491253</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Kris Adkins</t>
+          <t>Denise Gonzalez</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>KRISTOPHER.ADKINS@FHR.COM</t>
+          <t>DENISE.GONZALEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1980,17 +1980,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>08-26-2025 08:20:43 PM</t>
+          <t>08-27-2025 07:15:17 AM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>08-26-2025 08:21:16 PM</t>
+          <t>08-27-2025 07:15:45 AM</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>FHR-MXL9032YS3 FHR-MXL91133D8 FHR-MXL9032Z1N FHR-MXL3132SH2 FHR-5CG2148Y8N FHR-MXL9032YZV FHR-MXL2223BGG FHR-MXL24155WY FHR-MXL2424DP7 FHR-MXL90223C7 FHR-3NMKN34 FHR-J4VKN34 FHR-GTQKN34</t>
+          <t>SPC-G3V03Z3, FHR-8CG8165MLF, PC-34Y4825063R3, SPC-D0R03Z3, SPC-23V03Z3, PC-5WXDQV3</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2002,12 +2002,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Jose Cardona</t>
+          <t>Kris Adkins</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>JOSE.CARDONA@FHR.COM</t>
+          <t>KRISTOPHER.ADKINS@FHR.COM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2017,22 +2017,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>08-26-2025 09:00:40 AM</t>
+          <t>08-26-2025 08:20:43 PM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>08-26-2025 09:01:09 AM</t>
+          <t>08-26-2025 08:21:16 PM</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>CPC-JOSEC-BGVEA, FHR-5CG30935LZ</t>
+          <t>FHR-MXL9032YS3 FHR-MXL91133D8 FHR-MXL9032Z1N FHR-MXL3132SH2 FHR-5CG2148Y8N FHR-MXL9032YZV FHR-MXL2223BGG FHR-MXL24155WY FHR-MXL2424DP7 FHR-MXL90223C7 FHR-3NMKN34 FHR-J4VKN34 FHR-GTQKN34</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2044,54 +2044,54 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Phillip Norell</t>
+          <t>Jose Cardona</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PHILLIP.NORELL@FHR.COM</t>
+          <t>JOSE.CARDONA@FHR.COM</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:13 PM</t>
+          <t>08-26-2025 09:00:40 AM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:39 PM</t>
+          <t>08-26-2025 09:01:09 AM</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>FHR-5CG213CGKR, PC-1H85200B08</t>
+          <t>CPC-JOSEC-BGVEA, SPC-5CG40111C6, FHR-5CG30935LZ</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Anne Lee</t>
+          <t>Phillip Norell</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ANNE.LEE@FHR.COM</t>
+          <t>PHILLIP.NORELL@FHR.COM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2101,22 +2101,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:00 AM</t>
+          <t>08-25-2025 02:58:13 PM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:30 AM</t>
+          <t>08-25-2025 02:58:39 PM</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
+          <t>PC-1H85200B08, FHR-5CG213CGKR</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2128,185 +2128,185 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>David Barnholt</t>
+          <t>Anne Lee</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>david.barnholt@fhr.com</t>
+          <t>ANNE.LEE@FHR.COM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:27 AM</t>
+          <t>08-25-2025 10:13:00 AM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:54 AM</t>
+          <t>08-25-2025 10:13:30 AM</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>PC-1H852009SD</t>
+          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Eric Enders</t>
+          <t>David Barnholt</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>eric.enders@fhr.com</t>
+          <t>david.barnholt@fhr.com</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:30 AM</t>
+          <t>08-22-2025 11:11:27 AM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:59 AM</t>
+          <t>08-22-2025 11:11:54 AM</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>PC-2MQ514115J</t>
+          <t>PC-1H852009SD</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sean Garza</t>
+          <t>Eric Enders</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>sean.garza@fhr.com</t>
+          <t>eric.enders@fhr.com</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>08-19-2025 01:01:15 AM</t>
+          <t>08-22-2025 07:55:30 AM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:18 AM</t>
+          <t>08-22-2025 07:55:59 AM</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>SPC-3B6G25073R3</t>
+          <t>PC-2MQ514115J</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Joe Rohl</t>
+          <t>Sean Garza</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>JOE.ROHL@FHR.COM</t>
+          <t>sean.garza@fhr.com</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>08-19-2025 02:44:07 PM</t>
+          <t>08-19-2025 01:01:15 AM</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:14 AM</t>
+          <t>08-22-2025 07:34:18 AM</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
+          <t>SPC-3B6G25073R3</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>David Ybarra</t>
+          <t>Joe Rohl</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DAVID.YBARRA@FHR.COM</t>
+          <t>JOE.ROHL@FHR.COM</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2316,34 +2316,34 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:30 AM</t>
+          <t>08-19-2025 02:44:07 PM</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:58 AM</t>
+          <t>08-22-2025 07:34:14 AM</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
+          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>David Ybarra</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>DAVID.YBARRA@FHR.COM</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2353,22 +2353,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:19 AM</t>
+          <t>08-22-2025 07:18:30 AM</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:48 AM</t>
+          <t>08-22-2025 07:18:58 AM</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2380,101 +2380,101 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Cole Brewster</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>cole.brewster@fhr.com</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>08-20-2025 01:48:49 PM</t>
+          <t>08-22-2025 06:59:19 AM</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>08-20-2025 01:49:17 PM</t>
+          <t>08-22-2025 06:59:48 AM</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>FHR-5CG1276WN7, PC-34Y3Q25063R3</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Brenna Gerety</t>
+          <t>Cole Brewster</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BRENNA.GERETY@FHR.COM</t>
+          <t>cole.brewster@fhr.com</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:01 AM</t>
+          <t>08-20-2025 01:48:49 PM</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:29 AM</t>
+          <t>08-20-2025 01:49:17 PM</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>PC-5CG5040677, FHR-5CG0036B94</t>
+          <t>FHR-5CG1276WN7, PC-34Y3Q25063R3</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Daniel Jurach</t>
+          <t>Brenna Gerety</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>daniel.jurach@fhr.com</t>
+          <t>BRENNA.GERETY@FHR.COM</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2484,118 +2484,118 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>08-18-2025 11:58:20 AM</t>
+          <t>08-20-2025 07:58:01 AM</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>08-19-2025 10:21:28 AM</t>
+          <t>08-20-2025 07:58:29 AM</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>PC-2MQ514110T</t>
+          <t>PC-5CG5040677, FHR-5CG0036B94</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Tony Short</t>
+          <t>Daniel Jurach</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ANTHONY.SHORT@KPLSRV.COM</t>
+          <t>daniel.jurach@fhr.com</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:07 AM</t>
+          <t>08-18-2025 11:58:20 AM</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:38 AM</t>
+          <t>08-19-2025 10:21:28 AM</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>PC-5CD229GR66, PC-5CD5100KK7, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
+          <t>PC-2MQ514110T</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Chad Remer</t>
+          <t>Tony Short</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CHAD.REMER@FHR.COM</t>
+          <t>ANTHONY.SHORT@KPLSRV.COM</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:04 AM</t>
+          <t>08-18-2025 10:21:07 AM</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:34 AM</t>
+          <t>08-18-2025 10:21:38 AM</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
+          <t>PC-5CD229GR66, PC-5CD5100KK7, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nicholas Hanson</t>
+          <t>Chad Remer</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NICK.HANSON@FHR.COM</t>
+          <t>CHAD.REMER@FHR.COM</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2605,22 +2605,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:17 AM</t>
+          <t>08-18-2025 09:26:04 AM</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:46 AM</t>
+          <t>08-18-2025 09:26:34 AM</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
+          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2632,17 +2632,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Harold Irvin</t>
+          <t>Nicholas Hanson</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>HAROLD.IRVIN@FHR.COM</t>
+          <t>NICK.HANSON@FHR.COM</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2652,17 +2652,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:06 PM</t>
+          <t>08-15-2025 07:06:17 AM</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:37 PM</t>
+          <t>08-15-2025 07:06:46 AM</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>PC-2MQ51410F2, FHR-5CG2156Z1X</t>
+          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2674,37 +2674,37 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sandra Akarolo</t>
+          <t>Harold Irvin</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>sandra.akarolo@fhr.com</t>
+          <t>HAROLD.IRVIN@FHR.COM</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>08-13-2025 01:51:42 PM</t>
+          <t>08-14-2025 02:45:06 PM</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>08-14-2025 08:58:56 AM</t>
+          <t>08-14-2025 02:45:37 PM</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>FHR-5CG213CDWV</t>
+          <t>PC-2MQ51410F2, FHR-5CG2156Z1X</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2716,12 +2716,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Paul Fisher</t>
+          <t>Sandra Akarolo</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PAUL.FISHER@FHR.COM</t>
+          <t>sandra.akarolo@fhr.com</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2731,22 +2731,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:23 PM</t>
+          <t>08-13-2025 01:51:42 PM</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:56 PM</t>
+          <t>08-14-2025 08:58:56 AM</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
+          <t>FHR-5CG213CDWV</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2758,96 +2758,96 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Robert Corley</t>
+          <t>Paul Fisher</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ROBERT.CORLEY@FHR.COM</t>
+          <t>PAUL.FISHER@FHR.COM</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08-12-2025 06:27:18 PM</t>
+          <t>08-13-2025 05:07:23 PM</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>08-13-2025 12:47:38 PM</t>
+          <t>08-13-2025 05:07:56 PM</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
+          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Jeff Baker</t>
+          <t>Robert Corley</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>JEFF.BAKER@FHR.COM</t>
+          <t>ROBERT.CORLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:02 AM</t>
+          <t>08-12-2025 06:27:18 PM</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:30 AM</t>
+          <t>08-13-2025 12:47:38 PM</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
+          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Kemal Simpson</t>
+          <t>Jeff Baker</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>kemal.simpson@fhr.com</t>
+          <t>JEFF.BAKER@FHR.COM</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2857,22 +2857,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>08-13-2025 07:17:41 AM</t>
+          <t>08-13-2025 09:11:02 AM</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>08-13-2025 07:18:09 AM</t>
+          <t>08-13-2025 09:11:30 AM</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>FHR-5CG1073F3X</t>
+          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2884,54 +2884,54 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Robert Jimenez</t>
+          <t>Kemal Simpson</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ROBERT.JIMENEZ@FHR.COM</t>
+          <t>kemal.simpson@fhr.com</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:22 AM</t>
+          <t>08-13-2025 07:17:41 AM</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:51 AM</t>
+          <t>08-13-2025 07:18:09 AM</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>PC-34P9Q25193M4, SPC-MXL41235GZ, FHR-BK001K2222</t>
+          <t>FHR-5CG1073F3X</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kevin Miller</t>
+          <t>Robert Jimenez</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>KEVIN.MILLER@FHR.COM</t>
+          <t>ROBERT.JIMENEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2941,22 +2941,22 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:21 AM</t>
+          <t>08-12-2025 11:43:22 AM</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:49 AM</t>
+          <t>08-12-2025 11:43:51 AM</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>FHR-5CG1240ZLL, PC-1H851300KN</t>
+          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2968,59 +2968,59 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Tucker Lansing</t>
+          <t>Kevin Miller</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>tucker.lansing@fhr.com</t>
+          <t>KEVIN.MILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:05 AM</t>
+          <t>08-12-2025 09:11:21 AM</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:44 AM</t>
+          <t>08-12-2025 09:11:49 AM</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>PC-2MQ5141103</t>
+          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Kairos Logan</t>
+          <t>Tucker Lansing</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>kairos.logan@fhr.com</t>
+          <t>tucker.lansing@fhr.com</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3030,76 +3030,76 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:17 PM</t>
+          <t>08-12-2025 08:13:05 AM</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:45 PM</t>
+          <t>08-12-2025 08:13:44 AM</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>PC-2MQ51410BZ</t>
+          <t>PC-2MQ5141103</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Louis Stump</t>
+          <t>Kairos Logan</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>LOUIS.STUMP@FHR.COM</t>
+          <t>kairos.logan@fhr.com</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>07-20-2025 06:49:35 AM</t>
+          <t>08-11-2025 04:54:17 PM</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>08-11-2025 03:03:35 PM</t>
+          <t>08-11-2025 04:54:45 PM</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
+          <t>PC-2MQ51410BZ</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Louis Stump</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>LOUIS.STUMP@FHR.COM</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3109,22 +3109,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-11-2025 12:57:47 PM</t>
+          <t>07-20-2025 06:49:35 AM</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-11-2025 12:58:15 PM</t>
+          <t>08-11-2025 03:03:35 PM</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
+          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3136,96 +3136,96 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Alex Fairbanks</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Alex.Fairbanks@fhr.com</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-11-2025 09:58:56 AM</t>
+          <t>08-11-2025 12:57:47 PM</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-11-2025 09:59:25 AM</t>
+          <t>08-11-2025 12:58:15 PM</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>FHR-5CG2261RYZ, PC-5CD5100K77</t>
+          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Cole Wilson</t>
+          <t>Alex Fairbanks</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>cole.wilson@fhr.com</t>
+          <t>Alex.Fairbanks@fhr.com</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>08-11-2025 08:57:56 AM</t>
+          <t>08-11-2025 09:58:56 AM</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>08-11-2025 08:58:25 AM</t>
+          <t>08-11-2025 09:59:25 AM</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z9H</t>
+          <t>FHR-5CG2261RYZ, PC-5CD5100K77</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Cole Wilson</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>cole.wilson@fhr.com</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3235,22 +3235,22 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:07 AM</t>
+          <t>08-11-2025 08:57:56 AM</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:36 AM</t>
+          <t>08-11-2025 08:58:25 AM</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
+          <t>PC-2MQ5140Z9H</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3262,96 +3262,96 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Bobby Peddycord</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>bobby.peddycord@fhr.com</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-07-2025 10:38:48 AM</t>
+          <t>08-11-2025 08:33:07 AM</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-11-2025 07:13:21 AM</t>
+          <t>08-11-2025 08:33:36 AM</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
+          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Charles Oliver</t>
+          <t>Bobby Peddycord</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CHARLES.OLIVER@FHR.COM</t>
+          <t>bobby.peddycord@fhr.com</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-11-2025 05:46:52 AM</t>
+          <t>08-07-2025 10:38:48 AM</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-11-2025 05:47:20 AM</t>
+          <t>08-11-2025 07:13:21 AM</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>PC-36KFF25193M4</t>
+          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Rudy Barajas</t>
+          <t>Charles Oliver</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>RUDY.BARAJAS@FHR.COM</t>
+          <t>CHARLES.OLIVER@FHR.COM</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3361,22 +3361,22 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-06-2025 04:56:54 AM</t>
+          <t>08-11-2025 05:46:52 AM</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-08-2025 01:09:23 PM</t>
+          <t>08-11-2025 05:47:20 AM</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>FHR-J2V03Z3, PC-33BYB25013M4, PC-2MQ514105T, FHR-MXL24156CF</t>
+          <t>PC-36KFF25193M4</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3388,143 +3388,143 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Braxton Holes</t>
+          <t>Rudy Barajas</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>braxton.holes@fhr.com</t>
+          <t>RUDY.BARAJAS@FHR.COM</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-07-2025 08:51:34 AM</t>
+          <t>08-06-2025 04:56:54 AM</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-08-2025 11:34:27 AM</t>
+          <t>08-08-2025 01:09:23 PM</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>FHR-5CD231D3NH, FHR-5CD01052SN</t>
+          <t>PC-2MQ514105T, FHR-J2V03Z3, PC-33BYB25013M4, FHR-MXL24156CF</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Andrea Unruh</t>
+          <t>Braxton Holes</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ANDREA.UNRUH@FHR.COM</t>
+          <t>braxton.holes@fhr.com</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:28 AM</t>
+          <t>08-07-2025 08:51:34 AM</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:56 AM</t>
+          <t>08-08-2025 11:34:27 AM</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>PC-36KG325193M4, PC-014GF22373BF</t>
+          <t>FHR-5CD231D3NH, FHR-5CD01052SN</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Caleb Quanrud</t>
+          <t>Andrea Unruh</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>caleb.quanrud@fhr.com</t>
+          <t>ANDREA.UNRUH@FHR.COM</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:28 PM</t>
+          <t>08-08-2025 08:17:28 AM</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:58 PM</t>
+          <t>08-08-2025 08:17:56 AM</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
+          <t>PC-36KG325193M4, PC-014GF22373BF</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Jean Jaime</t>
+          <t>Caleb Quanrud</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>JEAN.JAIME@FHR.COM</t>
+          <t>caleb.quanrud@fhr.com</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3534,34 +3534,34 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:32 PM</t>
+          <t>08-07-2025 03:06:28 PM</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>08-07-2025 02:12:00 PM</t>
+          <t>08-07-2025 03:06:58 PM</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
+          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Jean Jaime</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>JEAN.JAIME@FHR.COM</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3571,22 +3571,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-07-2025 02:10:24 PM</t>
+          <t>08-07-2025 02:11:32 PM</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:00 PM</t>
+          <t>08-07-2025 02:12:00 PM</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, SPC-G1V03Z3, PC-36KGV25193M4</t>
+          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3618,12 +3618,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:23 PM</t>
+          <t>08-07-2025 02:10:24 PM</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:59 PM</t>
+          <t>08-07-2025 02:11:00 PM</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3640,96 +3640,96 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Branden Roering</t>
+          <t>Rick Schwing</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>branden.roering@fhr.com</t>
+          <t>rick.schwing@fhr.com</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:17 PM</t>
+          <t>08-07-2025 02:09:23 PM</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:45 PM</t>
+          <t>08-07-2025 02:09:59 PM</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>PC-2MQ5141148</t>
+          <t>FHR-MXL3132SJ0, SPC-G1V03Z3, PC-36KGV25193M4</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Christopher Brooks</t>
+          <t>Branden Roering</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
+          <t>branden.roering@fhr.com</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-06-2025 12:44:08 PM</t>
+          <t>08-07-2025 12:49:17 PM</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>08-07-2025 09:46:49 AM</t>
+          <t>08-07-2025 12:49:45 PM</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>SPC-MXL24156FY, PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
+          <t>PC-2MQ5141148</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Justin Hinojosa</t>
+          <t>Christopher Brooks</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>justin.hinojosa@fhr.com</t>
+          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3739,22 +3739,22 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:01 AM</t>
+          <t>08-06-2025 12:44:08 PM</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:29 AM</t>
+          <t>08-07-2025 09:46:49 AM</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SRR</t>
+          <t>SPC-MXL24156FY, PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3766,101 +3766,101 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Josiah Peterson</t>
+          <t>Justin Hinojosa</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>JOSIAH.PETERSON@FHR.COM</t>
+          <t>justin.hinojosa@fhr.com</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-06-2025 08:30:11 AM</t>
+          <t>08-06-2025 11:55:01 AM</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>08-06-2025 08:31:02 AM</t>
+          <t>08-06-2025 11:55:29 AM</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TC1, FHR-5CD30764W6</t>
+          <t>PC-MXL24156FQ SPC-MXL24156FQ FHR-8CG80416HL FHR-8CG806569G FHR-8CG7236C1X FHR-G3BCDZ3 FHR-MXL3132SS4 FHR-8CG80416GX FHR-MXL90224D2 FHR-8J5ZK44 FHR-MXL3132SN7 FHR-MXL3132SS3 FHR-9K8ZK44 FHR-MXL3132SQX KII-MXL2424F2T FHR-MXL5043GK1 FHR-MXL5043GK0 FHR-MXL3132SRR FHR-BK001HK222 FHR-MXL3132SNW FHR-5CD439J37S FHR-MXL3132SP1</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Andrew Berndt</t>
+          <t>Josiah Peterson</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>andrew.berndt@fhr.com</t>
+          <t>JOSIAH.PETERSON@FHR.COM</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-05-2025 01:32:29 PM</t>
+          <t>08-06-2025 08:30:11 AM</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>08-05-2025 01:33:21 PM</t>
+          <t>08-06-2025 08:31:02 AM</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>PC-2MQ514100C</t>
+          <t>PC-2MQ5270TC1, FHR-5CD30764W6</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Matthew VanLanen</t>
+          <t>Andrew Berndt</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>matthew.vanlanen@fhr.com</t>
+          <t>andrew.berndt@fhr.com</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3870,17 +3870,17 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:12 AM</t>
+          <t>08-05-2025 01:32:29 PM</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:39 AM</t>
+          <t>08-05-2025 01:33:21 PM</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
+          <t>PC-2MQ514100C</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3892,180 +3892,180 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Arturo Vasquez Jr</t>
+          <t>Matthew VanLanen</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ARTURO.VASQUEZ@FHR.COM</t>
+          <t>matthew.vanlanen@fhr.com</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>07-30-2025 12:56:40 PM</t>
+          <t>08-05-2025 10:28:12 AM</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>08-05-2025 09:13:23 AM</t>
+          <t>08-05-2025 10:28:39 AM</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>FHR-5CG31302WM, SPC-37MW25123GX, FHR-MXL4123NY2, FHR-MXL9223BRW</t>
+          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Christopher Koerner</t>
+          <t>Arturo Vasquez Jr</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.KOERNER@FHR.COM</t>
+          <t>ARTURO.VASQUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>08-05-2025 08:14:41 AM</t>
+          <t>07-30-2025 12:56:40 PM</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>08-05-2025 08:15:12 AM</t>
+          <t>08-05-2025 09:13:23 AM</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>PC-5CD4514XZX, FHR-59309202153</t>
+          <t>FHR-MXL4123NY2, FHR-8CG82809D5, FHR-5CG31302WM, SPC-37MW25123GX, FHR-MXL9223BRW</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Eric Derieux</t>
+          <t>Christopher Koerner</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ERIC.DERIEUX@FHR.COM</t>
+          <t>CHRISTOPHER.KOERNER@FHR.COM</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>US-TX-BEAUMONT2 - FHR-Beaumont TX - Beaumont - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>08-05-2025 08:01:44 AM</t>
+          <t>08-05-2025 08:14:41 AM</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>08-05-2025 08:02:14 AM</t>
+          <t>08-05-2025 08:15:12 AM</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TDP, FHR-5CG8353ZC7, DESKTOP-JU70CMA</t>
+          <t>PC-5CD4514XZX, FHR-59309202153</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Ryan Sabin</t>
+          <t>Eric Derieux</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ryan.sabin@fhr.com</t>
+          <t>ERIC.DERIEUX@FHR.COM</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-BEAUMONT2 - FHR-Beaumont TX - Beaumont - Koch</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>08-04-2025 12:02:32 PM</t>
+          <t>08-05-2025 08:01:44 AM</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>08-04-2025 12:03:01 PM</t>
+          <t>08-05-2025 08:02:14 AM</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZHM, FHR-5CG1092Y8L, PC-2MQ5040SX3</t>
+          <t>PC-2MQ5270TDP, FHR-5CG8353ZC7, DESKTOP-JU70CMA</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Nate Claseman</t>
+          <t>Ryan Sabin</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>nate.claseman@fhr.com</t>
+          <t>ryan.sabin@fhr.com</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4075,22 +4075,22 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>08-03-2025 01:32:09 PM</t>
+          <t>08-04-2025 12:02:32 PM</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>08-03-2025 01:32:37 PM</t>
+          <t>08-04-2025 12:03:01 PM</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>FHR-MXL2394SXC, PC-2MQ5270TFN, FHR-8CG7352CTV</t>
+          <t>PC-2MQ5140ZHM, FHR-5CG1092Y8L, PC-2MQ5040SX3</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4102,17 +4102,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Koy Straks</t>
+          <t>Nate Claseman</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>koy.straks@fhr.com</t>
+          <t>nate.claseman@fhr.com</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4122,118 +4122,118 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>08-01-2025 02:42:24 PM</t>
+          <t>08-03-2025 01:32:09 PM</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>08-01-2025 02:42:52 PM</t>
+          <t>08-03-2025 01:32:37 PM</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TF5</t>
+          <t>FHR-MXL2394SXC, PC-2MQ5270TFN, FHR-8CG7352CTV</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Gaven Girton</t>
+          <t>Koy Straks</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>gaven.girton@fhr.com</t>
+          <t>koy.straks@fhr.com</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>08-01-2025 02:05:31 PM</t>
+          <t>08-01-2025 02:42:24 PM</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>08-01-2025 02:05:58 PM</t>
+          <t>08-01-2025 02:42:52 PM</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZGG</t>
+          <t>PC-2MQ5270TF5</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Shaun McVay</t>
+          <t>Gaven Girton</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>shaun.mcvay@fhr.com</t>
+          <t>gaven.girton@fhr.com</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>08-01-2025 01:07:44 PM</t>
+          <t>08-01-2025 02:05:31 PM</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>08-01-2025 01:08:17 PM</t>
+          <t>08-01-2025 02:05:58 PM</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>PC-5CD5100KG2</t>
+          <t>PC-2MQ5140ZGG</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>David Escamilla</t>
+          <t>Shaun McVay</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DAVID.ESCAMILLA@FHR.COM</t>
+          <t>shaun.mcvay@fhr.com</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4243,22 +4243,22 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>08-01-2025 07:36:23 AM</t>
+          <t>08-01-2025 01:07:44 PM</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>08-01-2025 07:36:54 AM</t>
+          <t>08-01-2025 01:08:17 PM</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>FHR-MXL11033PZ, SPC-CRWXJ74, PC-34MXB25193M4</t>
+          <t>PC-5CD5100KG2</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4270,12 +4270,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Troy Pena</t>
+          <t>David Escamilla</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>troy.pena@fhr.com</t>
+          <t>DAVID.ESCAMILLA@FHR.COM</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4290,17 +4290,17 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>07-31-2025 04:49:13 PM</t>
+          <t>08-01-2025 07:36:23 AM</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>07-31-2025 04:49:40 PM</t>
+          <t>08-01-2025 07:36:54 AM</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>FHR-MXL2165D4H, PC-FFFQK84, PC-34P3C25193M4, FHR-87ZPDZ3, FHR-5CG24913Q4</t>
+          <t>SPC-CRWXJ74, FHR-MXL11033PZ, PC-34MXB25193M4</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4312,227 +4312,227 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Hannah Shea</t>
+          <t>Troy Pena</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>hannah.shea@fhr.com</t>
+          <t>troy.pena@fhr.com</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>07-31-2025 10:42:49 AM</t>
+          <t>07-31-2025 04:49:13 PM</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>07-31-2025 10:43:15 AM</t>
+          <t>07-31-2025 04:49:40 PM</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TCB, PC-5CG213CFKZ</t>
+          <t>FHR-MXL2165D4H, FHR-87ZPDZ3, PC-34P3C25193M4, FHR-5CG24913Q4</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Tara Schultz</t>
+          <t>Hannah Shea</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TARA.SCHULTZ@FHR.COM</t>
+          <t>hannah.shea@fhr.com</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>07-31-2025 08:59:51 AM</t>
+          <t>07-31-2025 10:42:49 AM</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>07-31-2025 09:00:19 AM</t>
+          <t>07-31-2025 10:43:15 AM</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>FHR-2TK95201XD, PC-2MQ5140ZHK</t>
+          <t>PC-2MQ5270TCB, PC-5CG213CFKZ</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Dave Larson</t>
+          <t>Tara Schultz</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>dave.larson@fhr.com</t>
+          <t>TARA.SCHULTZ@FHR.COM</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>07-31-2025 08:30:21 AM</t>
+          <t>07-31-2025 08:59:51 AM</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>07-31-2025 08:30:52 AM</t>
+          <t>07-31-2025 09:00:19 AM</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZFS, PC-5CG31302L2</t>
+          <t>FHR-2TK95201XD, PC-2MQ5140ZHK</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Andy Harrison</t>
+          <t>Dave Larson</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ANDY.HARRISON@FHR.COM</t>
+          <t>dave.larson@fhr.com</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>07-30-2025 06:15:56 PM</t>
+          <t>07-31-2025 08:30:21 AM</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>07-30-2025 06:16:23 PM</t>
+          <t>07-31-2025 08:30:52 AM</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>PC-34MWB25193M4, PC-JTKJ414, FHR-5CG1314JWW</t>
+          <t>PC-2MQ5140ZFS, PC-5CG31302L2</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Matt Hoveland</t>
+          <t>Andy Harrison</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MATT.HOVELAND@FHR.COM</t>
+          <t>ANDY.HARRISON@FHR.COM</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>07-30-2025 04:10:43 PM</t>
+          <t>07-30-2025 06:15:56 PM</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>07-30-2025 04:11:10 PM</t>
+          <t>07-30-2025 06:16:23 PM</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>FHR-MXL9061CF9, FHR-5CG2060QSH, PC-5CD5100K9P</t>
+          <t>PC-34MWB25193M4, PC-JTKJ414, FHR-5CG1314JWW</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>James Pfeifer</t>
+          <t>Matt Hoveland</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>JAMES.PFEIFER@FHR.COM</t>
+          <t>MATT.HOVELAND@FHR.COM</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4542,76 +4542,76 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>07-28-2025 10:17:28 AM</t>
+          <t>07-30-2025 04:10:43 PM</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>07-30-2025 02:09:54 PM</t>
+          <t>07-30-2025 04:11:10 PM</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>SPC-5CD5100K9D, PC-5CD2331XGS</t>
+          <t>FHR-5CG2060QSH, FHR-MXL9061CF9, PC-5CD5100K9P</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Arnold Ortiz</t>
+          <t>James Pfeifer</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ARNOLD.ORTIZ@FHR.COM</t>
+          <t>JAMES.PFEIFER@FHR.COM</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>07-24-2025 05:52:42 AM</t>
+          <t>07-28-2025 10:17:28 AM</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>07-30-2025 12:54:23 PM</t>
+          <t>07-30-2025 02:09:54 PM</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>FHR-8CG82809D5, FHR-5CG2096F0R, FHR-5CG2060QFY, SPC-6YF2X54</t>
+          <t>SPC-5CD5100K9D, PC-5CD2331XGS</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Shaun Passmore</t>
+          <t>Arnold Ortiz</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SHAUN.PASSMORE@FHR.COM</t>
+          <t>ARNOLD.ORTIZ@FHR.COM</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4621,22 +4621,22 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>07-30-2025 10:20:42 AM</t>
+          <t>07-24-2025 05:52:42 AM</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>07-30-2025 10:21:10 AM</t>
+          <t>07-30-2025 12:54:23 PM</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>PC-34P9325193M4</t>
+          <t>FHR-5CG2096F0R, FHR-5CG2060QFY, SPC-6YF2X54</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4648,12 +4648,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Daniel Hoyle</t>
+          <t>Shaun Passmore</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DANIEL.HOYLE@FHR.COM</t>
+          <t>SHAUN.PASSMORE@FHR.COM</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4663,22 +4663,22 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>07-27-2025 01:48:14 AM</t>
+          <t>07-30-2025 10:20:42 AM</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>07-29-2025 12:08:56 PM</t>
+          <t>07-30-2025 10:21:10 AM</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>SPC-FPQGQ54, SPC-5CD5100KCW, FHR-MXL902244L, SPC-MXL13349YL</t>
+          <t>PC-34P9325193M4</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4690,12 +4690,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Lionel Morin III</t>
+          <t>Daniel Hoyle</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>LIONEL.MORIN@FHR.COM</t>
+          <t>DANIEL.HOYLE@FHR.COM</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4710,17 +4710,17 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>07-29-2025 06:45:40 AM</t>
+          <t>07-27-2025 01:48:14 AM</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>07-29-2025 06:46:09 AM</t>
+          <t>07-29-2025 12:08:56 PM</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>PC-5CD5100K7C, FHR-5CG04179SM</t>
+          <t>SPC-FPQGQ54, SPC-5CD5100KCW, FHR-MXL902244L, SPC-MXL13349YL</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4732,12 +4732,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Jeremy Smith</t>
+          <t>Lionel Morin III</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>jeremy.smith3@fhr.com</t>
+          <t>LIONEL.MORIN@FHR.COM</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4747,22 +4747,22 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>07-28-2025 04:43:36 PM</t>
+          <t>07-29-2025 06:45:40 AM</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>07-28-2025 04:44:03 PM</t>
+          <t>07-29-2025 06:46:09 AM</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZG1, PC-5CG4515GJN</t>
+          <t>PC-5CD5100K7C, FHR-5CG04179SM</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4774,96 +4774,96 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Michael Marshall</t>
+          <t>Jeremy Smith</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>michael.marshall@fhr.com</t>
+          <t>jeremy.smith3@fhr.com</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>07-28-2025 02:19:41 PM</t>
+          <t>07-28-2025 04:43:36 PM</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>07-28-2025 02:20:07 PM</t>
+          <t>07-28-2025 04:44:03 PM</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>PC-5CG24912TQ, PC-2MQ5270TFQ</t>
+          <t>PC-2MQ5140ZG1, PC-5CG4515GJN</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Kyle Koetje</t>
+          <t>Michael Marshall</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>kyle.koetje@fhr.com</t>
+          <t>michael.marshall@fhr.com</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>07-26-2025 02:30:13 AM</t>
+          <t>07-28-2025 02:19:41 PM</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>07-26-2025 02:30:43 AM</t>
+          <t>07-28-2025 02:20:07 PM</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>FHR-5CG3264H4D, PC-337MV25123GX, PC-5CD145N3LL</t>
+          <t>PC-5CG24912TQ, PC-2MQ5270TFQ</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>TAYLOR MACZIEWSKI</t>
+          <t>Kyle Koetje</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>taylor.macziewski@fhr.com</t>
+          <t>kyle.koetje@fhr.com</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4873,22 +4873,22 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>07-25-2025 05:52:09 PM</t>
+          <t>07-26-2025 02:30:13 AM</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>07-25-2025 05:52:36 PM</t>
+          <t>07-26-2025 02:30:43 AM</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>FHR-5CG84337KG FHR-8CG7352CTX FHR-8CG7352CR0 FHR-8CG7352CRP FHR-8CC8412TFM FHR-MXL2394SYL FHR-MXL2394STB FHR-MXL2394ST3 FHR-MXL2394SXC FHR-MXL9032YRF FHR-MXL2394SXJ FHR-MXL9223QCS FHR-3296101853 FHR-MXL326194V FHR-5CD30764V5 FHR-MXL2394SWH FHR-MXL2394SXH FHR-MXL2165C42 PC-5CG4143JQS FHR-5CD2317NTL FHR-MXL3132S8M FHR-1VW0K74 PC-2MQ5270TDK</t>
+          <t>FHR-5CG3264H4D, PC-337MV25123GX, PC-5CD145N3LL</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4900,138 +4900,138 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Arturo Vasquez Jr</t>
+          <t>TAYLOR MACZIEWSKI</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ARTURO.VASQUEZ@FHR.COM</t>
+          <t>taylor.macziewski@fhr.com</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>07-25-2025 10:53:48 AM</t>
+          <t>07-25-2025 05:52:09 PM</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>07-25-2025 10:54:15 AM</t>
+          <t>07-25-2025 05:52:36 PM</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>FHR-5CG31302WM, SPC-37MW25123GX, FHR-MXL4123NY2, FHR-MXL9223BRW</t>
+          <t>FHR-5CG84337KG FHR-8CG7352CTX FHR-8CG7352CR0 FHR-8CG7352CRP FHR-8CC8412TFM FHR-MXL2394SYL FHR-MXL2394STB FHR-MXL2394ST3 FHR-MXL2394SXC FHR-MXL9032YRF FHR-MXL2394SXJ FHR-MXL9223QCS FHR-3296101853 FHR-MXL326194V FHR-5CD30764V5 FHR-MXL2394SWH FHR-MXL2394SXH FHR-MXL2165C42 PC-5CG4143JQS FHR-5CD2317NTL FHR-MXL3132S8M FHR-1VW0K74 PC-2MQ5270TDK</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Jodi Rein</t>
+          <t>Arturo Vasquez Jr</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>jodi.rein@fhr.com</t>
+          <t>ARTURO.VASQUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>07-25-2025 09:20:21 AM</t>
+          <t>07-25-2025 10:53:48 AM</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>07-25-2025 09:20:50 AM</t>
+          <t>07-25-2025 10:54:15 AM</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>PC-1H95220MNX, PC-5CG2051YC4</t>
+          <t>FHR-MXL4123NY2, FHR-8CG82809D5, FHR-5CG31302WM, SPC-37MW25123GX, FHR-MXL9223BRW</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Kemal Simpson</t>
+          <t>Jodi Rein</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>kemal.simpson@fhr.com</t>
+          <t>jodi.rein@fhr.com</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>07-22-2025 11:13:40 AM</t>
+          <t>07-25-2025 09:20:21 AM</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>07-22-2025 11:14:08 AM</t>
+          <t>07-25-2025 09:20:50 AM</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>FHR-5CG1073F3X</t>
+          <t>PC-1H95220MNX, PC-5CG2051YC4</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Jennifer Hastings</t>
+          <t>Kemal Simpson</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>JENNIFER.J.HASTINGS@FHR.COM</t>
+          <t>kemal.simpson@fhr.com</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5046,17 +5046,17 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>07-22-2025 10:28:30 AM</t>
+          <t>07-22-2025 11:13:40 AM</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>07-22-2025 10:28:57 AM</t>
+          <t>07-22-2025 11:14:08 AM</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>PC-2MQ51410X9, FHR-5CG1344HQP</t>
+          <t>FHR-5CG1073F3X</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5068,17 +5068,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Kristie Hunter</t>
+          <t>Jennifer Hastings</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>kristine.hunter@fhr.com</t>
+          <t>JENNIFER.J.HASTINGS@FHR.COM</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5088,34 +5088,34 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>07-22-2025 09:30:25 AM</t>
+          <t>07-22-2025 10:28:30 AM</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>07-22-2025 09:30:54 AM</t>
+          <t>07-22-2025 10:28:57 AM</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>PC-5CG313039Y</t>
+          <t>PC-2MQ51410X9, FHR-5CG1344HQP</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Cameron Pascal</t>
+          <t>Kristie Hunter</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>cameron.pascal@fhr.com</t>
+          <t>kristine.hunter@fhr.com</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5130,17 +5130,17 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>07-21-2025 05:23:15 PM</t>
+          <t>07-22-2025 09:30:25 AM</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>07-21-2025 05:23:45 PM</t>
+          <t>07-22-2025 09:30:54 AM</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>PC-2MQ514115D</t>
+          <t>PC-5CG313039Y</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5152,17 +5152,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Gabriela Silvas</t>
+          <t>Cameron Pascal</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>GABRIELA.SILVAS@FHR.COM</t>
+          <t>cameron.pascal@fhr.com</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5172,76 +5172,76 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>07-21-2025 12:43:30 PM</t>
+          <t>07-21-2025 05:23:15 PM</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>07-21-2025 12:48:52 PM</t>
+          <t>07-21-2025 05:23:45 PM</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>FHR-5CG1276WNC, FHR-MXL2302P0Z, FHR-G3BCDZ3</t>
+          <t>PC-2MQ514115D</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Jeremy Bertsch</t>
+          <t>Gabriela Silvas</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>JEREMY.BERTSCH@FHR.COM</t>
+          <t>GABRIELA.SILVAS@FHR.COM</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>07-21-2025 12:01:08 PM</t>
+          <t>07-21-2025 12:43:30 PM</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>07-21-2025 12:48:48 PM</t>
+          <t>07-21-2025 12:48:52 PM</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>PC-1H95220MS5, FHR-5CG011444P</t>
+          <t>FHR-5CG1276WNC, FHR-MXL2302P0Z, FHR-G3BCDZ3</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Justin Turner</t>
+          <t>Jeremy Bertsch</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>justin.turner@fhr.com</t>
+          <t>JEREMY.BERTSCH@FHR.COM</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5251,22 +5251,22 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>07-21-2025 10:30:36 AM</t>
+          <t>07-21-2025 12:01:08 PM</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>07-21-2025 10:31:04 AM</t>
+          <t>07-21-2025 12:48:48 PM</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZC2, FHR-HNS0K74</t>
+          <t>PC-1H95220MS5, FHR-5CG011444P</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5278,84 +5278,84 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Puneet Beniwal</t>
+          <t>Justin Turner</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>puneet.beniwal@fhr.com</t>
+          <t>justin.turner@fhr.com</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>07-18-2025 09:51:23 AM</t>
+          <t>07-21-2025 10:30:36 AM</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>07-21-2025 09:18:24 AM</t>
+          <t>07-21-2025 10:31:04 AM</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>PC-5CD5100K7G</t>
+          <t>PC-2MQ5140ZC2, FHR-HNS0K74</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Robert Daugherty</t>
+          <t>Puneet Beniwal</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>robert.daugherty1@fhr.com</t>
+          <t>puneet.beniwal@fhr.com</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>07-21-2025 07:52:37 AM</t>
+          <t>07-18-2025 09:51:23 AM</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>07-21-2025 07:53:06 AM</t>
+          <t>07-21-2025 09:18:24 AM</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZDW, KII-5CG2151MP0</t>
+          <t>PC-5CD5100K7G</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>

--- a/output/fhr_computer_requests.xlsx
+++ b/output/fhr_computer_requests.xlsx
@@ -532,59 +532,59 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sammantha Reynolds</t>
+          <t>Brendan Snell</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sammantha.reynolds1@fhr.com</t>
+          <t>brendan.snell@fhr.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09-12-2025 08:18:55 AM</t>
+          <t>09-15-2025 08:15:12 AM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>09-12-2025 08:19:25 AM</t>
+          <t>09-15-2025 08:15:46 AM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PC-2MQ5040B5K, PC-5CG12814MW</t>
+          <t>FHR-5CG2156XDV</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Victor Sauceda</t>
+          <t>Joey Guerrero</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>victor.sauceda@fhr.com</t>
+          <t>joey.guerrero1@fhr.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -594,39 +594,39 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:03 AM</t>
+          <t>09-15-2025 06:33:41 AM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:33 AM</t>
+          <t>09-15-2025 06:34:14 AM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FHR-5CD8522C54</t>
+          <t>PC-9659600351</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mitch O'Keefe</t>
+          <t>Eddie Buskirk</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MITCH.OKEEFE@FHR.COM</t>
+          <t>EDDIE.BUSKIRK@FHR.COM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -636,34 +636,34 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:11 PM</t>
+          <t>09-12-2025 01:52:56 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:39 PM</t>
+          <t>09-12-2025 01:53:24 PM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FHR-MXL23843M2, MSP-CTLU27, FHR-MXL23843MP, FHR-5CG1344HQ7</t>
+          <t>FHR-5CG9326W2B</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Joe Bedynek</t>
+          <t>Sammantha Reynolds</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>JOE.BEDYNEK@FHR.COM</t>
+          <t>sammantha.reynolds1@fhr.com</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -673,22 +673,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:10 PM</t>
+          <t>09-12-2025 08:18:55 AM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:36 PM</t>
+          <t>09-12-2025 08:19:25 AM</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FHR-5CD026KSTV</t>
+          <t>PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -700,54 +700,54 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ruben Hernandez</t>
+          <t>Victor Sauceda</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ruben.hernandez@fhr.com</t>
+          <t>victor.sauceda@fhr.com</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09-10-2025 02:51:54 PM</t>
+          <t>09-11-2025 09:46:03 AM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-10-2025 02:52:21 PM</t>
+          <t>09-11-2025 09:46:33 AM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PC-5CD231GKV7</t>
+          <t>FHR-5CD8522C54</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lauren Sada</t>
+          <t>Mitch O'Keefe</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>lauren.sada@fhr.com</t>
+          <t>MITCH.OKEEFE@FHR.COM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:21 PM</t>
+          <t>09-10-2025 05:54:11 PM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:49 PM</t>
+          <t>09-10-2025 05:54:39 PM</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>MSP-CTLU27, FHR-5CG1344HQ7</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -784,96 +784,96 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kevin Harvey</t>
+          <t>Joe Bedynek</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>KEVIN.HARVEY@FHR.COM</t>
+          <t>JOE.BEDYNEK@FHR.COM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-10-2025 08:38:42 AM</t>
+          <t>09-10-2025 02:54:10 PM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-10-2025 08:39:13 AM</t>
+          <t>09-10-2025 02:54:36 PM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>FHR-5CG1236JK6</t>
+          <t>FHR-5CD026KSTV</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Matt Olson</t>
+          <t>Ruben Hernandez</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MATTHEW.OLSON@FHR.COM</t>
+          <t>ruben.hernandez@fhr.com</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-09-2025 11:43:57 AM</t>
+          <t>09-10-2025 02:51:54 PM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-09-2025 11:44:26 AM</t>
+          <t>09-10-2025 02:52:21 PM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>FHR-5CD40711PF, FHR-5CG918242Z</t>
+          <t>PC-5CD231GKV7</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sam Weldemariam</t>
+          <t>Lauren Sada</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAM.WELDEMARIAM@FHR.COM</t>
+          <t>lauren.sada@fhr.com</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -883,22 +883,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:23 AM</t>
+          <t>09-10-2025 01:27:21 PM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:51 AM</t>
+          <t>09-10-2025 01:27:49 PM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FHR-3KJBQ54, PC-GQMKN34, FHR-F9GR624, FHR-D90QDZ3, FHR-G8GR624, FHR-5CD8506CR3, FHR-MXL9144C61, FHR-5CG213BX6D</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -910,54 +910,54 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Derek Wilfong</t>
+          <t>Kevin Harvey</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DEREK.WILFONG@FHR.COM</t>
+          <t>KEVIN.HARVEY@FHR.COM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09-09-2025 09:02:55 AM</t>
+          <t>09-10-2025 08:38:42 AM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-09-2025 09:03:28 AM</t>
+          <t>09-10-2025 08:39:13 AM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>FHR-5CG1314K33</t>
+          <t>FHR-5CG1236JK6</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Joel Mccabe</t>
+          <t>Matt Olson</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>JOEL.MCCABE@FHR.COM</t>
+          <t>MATTHEW.OLSON@FHR.COM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,22 +967,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09-05-2025 03:04:34 PM</t>
+          <t>09-09-2025 11:43:57 AM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09-08-2025 09:08:16 AM</t>
+          <t>09-09-2025 11:44:26 AM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>FHR-1B1KH04, MSP-005054</t>
+          <t>FHR-5CG918242Z, FHR-5CD40711PF</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -994,17 +994,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Devon Holz</t>
+          <t>Sam Weldemariam</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DEVON.HOLZ@FHR.COM</t>
+          <t>SAM.WELDEMARIAM@FHR.COM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1014,59 +1014,59 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:14 PM</t>
+          <t>09-09-2025 09:48:23 AM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:42 PM</t>
+          <t>09-09-2025 09:48:51 AM</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZD9, FHR-5CG2219ZDW</t>
+          <t>FHR-3KJBQ54, PC-GQMKN34, FHR-F9GR624, FHR-D90QDZ3, FHR-G8GR624, FHR-MXL9144C61, FHR-5CG213BX6D, FHR-5CD8506CR3</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Shawn Sieben</t>
+          <t>Derek Wilfong</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Shawn.Sieben@fhr.com</t>
+          <t>DEREK.WILFONG@FHR.COM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09-04-2025 09:29:38 AM</t>
+          <t>09-09-2025 09:02:55 AM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-05-2025 12:58:04 PM</t>
+          <t>09-09-2025 09:03:28 AM</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>FHR-5CD3507T46, FHR-CND8426B2G, FHR-8CC84008DL</t>
+          <t>FHR-5CG1314K33</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1078,205 +1078,205 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Carrie Simpson</t>
+          <t>Joel Mccabe</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CARRIE.SIMPSON@FHR.COM</t>
+          <t>JOEL.MCCABE@FHR.COM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:03 PM</t>
+          <t>09-05-2025 03:04:34 PM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:30 PM</t>
+          <t>09-08-2025 09:08:16 AM</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>PC-001NS23373BF</t>
+          <t>FHR-1B1KH04, MSP-005054</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chris Pratt</t>
+          <t>Devon Holz</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chris.Pratt@fhr.com</t>
+          <t>DEVON.HOLZ@FHR.COM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09-02-2025 04:16:05 PM</t>
+          <t>09-05-2025 02:23:14 PM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-04-2025 01:23:58 PM</t>
+          <t>09-05-2025 02:23:42 PM</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>FHR-MXL8361TTS, FHR-5CD016BPV0</t>
+          <t>PC-2MQ5140ZD9, FHR-5CG2219ZDW</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Manuel Moreno Jr</t>
+          <t>Shawn Sieben</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MANUEL.MORENO@FHR.COM</t>
+          <t>Shawn.Sieben@fhr.com</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>05-02-2025 08:54:50 AM</t>
+          <t>09-04-2025 09:29:38 AM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-04-2025 01:17:10 PM</t>
+          <t>09-05-2025 12:58:04 PM</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>SPC-5BJ8D14, PC-5CG4143GRG, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
+          <t>FHR-5CD3507T46, FHR-CND8426B2G, FHR-8CC84008DL</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ben Sandiford</t>
+          <t>Carrie Simpson</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ben.sandiford@fhr.com</t>
+          <t>CARRIE.SIMPSON@FHR.COM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:18 PM</t>
+          <t>09-04-2025 03:17:03 PM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:48 PM</t>
+          <t>09-04-2025 03:17:30 PM</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>PC-33VW824233M4, PC-1H95220MS6</t>
+          <t>PC-001NS23373BF</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Denise Schardt</t>
+          <t>Chris Pratt</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DENISE.SCHARDT@FHR.COM</t>
+          <t>Chris.Pratt@fhr.com</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09-03-2025 02:48:18 PM</t>
+          <t>09-02-2025 04:16:05 PM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-04-2025 01:00:11 PM</t>
+          <t>09-04-2025 01:23:58 PM</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
+          <t>FHR-5CD016BPV0, FHR-MXL8361TTS</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1288,180 +1288,180 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ray Aslesen</t>
+          <t>Manuel Moreno Jr</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RAY.ASLESEN@FHR.COM</t>
+          <t>MANUEL.MORENO@FHR.COM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>09-04-2025 07:28:33 AM</t>
+          <t>05-02-2025 08:54:50 AM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09-04-2025 07:29:01 AM</t>
+          <t>09-04-2025 01:17:10 PM</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZSW, PC-MXL4523KGB, FHR-0F00CQM2332, FHR-CND1440HBV</t>
+          <t>SPC-5BJ8D14, PC-5CG4143GRG, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>Ben Sandiford</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>ben.sandiford@fhr.com</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>09-04-2025 06:11:34 AM</t>
+          <t>09-04-2025 01:11:18 PM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>09-04-2025 06:12:02 AM</t>
+          <t>09-04-2025 01:11:48 PM</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>PC-33VW824233M4, PC-1H95220MS6</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dora Heimsoth</t>
+          <t>Denise Schardt</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>dora.heimsoth1@fhr.com</t>
+          <t>DENISE.SCHARDT@FHR.COM</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>09-03-2025 03:00:34 PM</t>
+          <t>09-03-2025 02:48:18 PM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>09-03-2025 03:01:01 PM</t>
+          <t>09-04-2025 01:00:11 PM</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>PC-86XGSV3, PC-339W925073R3</t>
+          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Stephen Rodriguez</t>
+          <t>Ray Aslesen</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
+          <t>RAY.ASLESEN@FHR.COM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>09-03-2025 02:28:45 PM</t>
+          <t>09-04-2025 07:28:33 AM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>09-03-2025 02:29:20 PM</t>
+          <t>09-04-2025 07:29:01 AM</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>FHR-MXL90223C1 FHR-MXL902239Z FHR-MXL9332KN0 FHR-MXL902239R CND837B026 FHR-MXL9153QWC KII-MXL2424F2T FHR-5CG12812WW FHR-MXL3132SQX FHR-MXL3132SN7 FHR-MXL3132SNW FHR-MXL3132SS3 FHR-MXL3132SS4 FHR-MXL90224D2 FHR-8CG806569G KII-MXL24156FT FHR-MXL4424X3B FHR-MXL5043GK0 FHR-MXL5043GK1 SPC-DX6LZ84 SPC-MXL24156CD</t>
+          <t>PC-MXL4523KGB, PC-2MQ5140ZSW, FHR-0F00CQM2332, FHR-CND1440HBV</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Matt Skrobarcek</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1471,22 +1471,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:08 AM</t>
+          <t>09-04-2025 06:11:34 AM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:38 AM</t>
+          <t>09-04-2025 06:12:02 AM</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1498,138 +1498,138 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Justin Nava</t>
+          <t>Dora Heimsoth</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>JUSTIN.NAVA@FHR.COM</t>
+          <t>dora.heimsoth1@fhr.com</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09-03-2025 09:44:33 AM</t>
+          <t>09-03-2025 03:00:34 PM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>09-03-2025 09:45:02 AM</t>
+          <t>09-03-2025 03:01:01 PM</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>FHR-5CG4240WQT, SPC-82TKZ84, FHR-MXL9223BVJ</t>
+          <t>PC-339W925073R3, PC-86XGSV3</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Logan Tom</t>
+          <t>Stephen Rodriguez</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>logan.tom@fhr.com</t>
+          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:15 PM</t>
+          <t>09-03-2025 02:28:45 PM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:42 PM</t>
+          <t>09-03-2025 02:29:20 PM</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
+          <t>FHR-MXL4424X3B</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Travis Sumerfelt</t>
+          <t>Matt Skrobarcek</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>travis.sumerfelt@fhr.com</t>
+          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09-02-2025 11:06:03 AM</t>
+          <t>09-03-2025 09:46:08 AM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-02-2025 11:07:05 AM</t>
+          <t>09-03-2025 09:46:38 AM</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>PC-2MQ514108Q</t>
+          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Carlos Garcia Jr.</t>
+          <t>Justin Nava</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CARLOS.GARCIAJR@FHR.COM</t>
+          <t>JUSTIN.NAVA@FHR.COM</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1639,22 +1639,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>08-27-2025 09:24:59 PM</t>
+          <t>09-03-2025 09:44:33 AM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-02-2025 08:26:34 AM</t>
+          <t>09-03-2025 09:45:02 AM</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>FHR-MXL9032YZV FHR-MXL9032Z1N FHR-8CG82809D9 FHR-MXL9032YS3 FHR-MXL90223C7 FHR-MXL9032Z0L FHR-MXL1022SW6 SPC-MXL2415619 SPC-MXL24156FQ FHR-14BCDZ3 FHR-5CG2148Y8N FHR-5CG8095709 FHR-MXL2223BGG FHR-5CD4154G3J SPC-MXL24155XB FHR-4PMKN34 FHR-3NMKN34 FHR-MXL24155WY FHR-BK33QPW FHR-MXL1022SVR FHR-GTQKN34 FHR-MXL9333VWX FHR-CNMKN34</t>
+          <t>FHR-5CG4240WQT, SPC-82TKZ84, FHR-MXL9223BVJ</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1666,59 +1666,59 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Billy Royal</t>
+          <t>Logan Tom</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BILLY.ROYAL@FHR.COM</t>
+          <t>logan.tom@fhr.com</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:06 PM</t>
+          <t>09-02-2025 02:39:15 PM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:34 PM</t>
+          <t>09-02-2025 02:39:42 PM</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>FHR-5CD2331XLD</t>
+          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Samuel Paulus</t>
+          <t>Travis Sumerfelt</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>samuel.paulus@fhr.com</t>
+          <t>travis.sumerfelt@fhr.com</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
+          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1728,34 +1728,34 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:17 PM</t>
+          <t>09-02-2025 11:06:03 AM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:45 PM</t>
+          <t>09-02-2025 11:07:05 AM</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
+          <t>PC-2MQ514108Q</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Derya Broll</t>
+          <t>Carlos Garcia Jr.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DERYA.BROLL@FHR.COM</t>
+          <t>CARLOS.GARCIAJR@FHR.COM</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1765,22 +1765,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:07 PM</t>
+          <t>08-27-2025 09:24:59 PM</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:37 PM</t>
+          <t>09-02-2025 08:26:34 AM</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
+          <t>FHR-MXL9032YZV FHR-MXL9032Z1N FHR-8CG82809D9 FHR-MXL9032YS3 FHR-MXL90223C7 FHR-MXL9032Z0L FHR-MXL1022SW6 SPC-MXL2415619 SPC-MXL24156FQ FHR-14BCDZ3 FHR-5CG2148Y8N FHR-5CG8095709 FHR-MXL2223BGG FHR-5CD4154G3J SPC-MXL24155XB FHR-4PMKN34 FHR-3NMKN34 FHR-MXL24155WY FHR-BK33QPW FHR-MXL1022SVR FHR-GTQKN34 FHR-MXL9333VWX FHR-CNMKN34</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1792,17 +1792,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Joseph Moberly</t>
+          <t>Billy Royal</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>joseph.moberly@fhr.com</t>
+          <t>BILLY.ROYAL@FHR.COM</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1812,76 +1812,76 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>08-28-2025 01:10:49 PM</t>
+          <t>08-29-2025 04:48:06 PM</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>08-28-2025 01:11:16 PM</t>
+          <t>08-29-2025 04:48:34 PM</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>PC-1H852009W3, PC-5CG2415PYM</t>
+          <t>FHR-5CD2331XLD</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lindi Dinn</t>
+          <t>Samuel Paulus</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>LINDI.DINN@FHR.COM</t>
+          <t>samuel.paulus@fhr.com</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:14 PM</t>
+          <t>08-29-2025 01:00:17 PM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:40 PM</t>
+          <t>08-29-2025 01:00:45 PM</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>FHR-8CC8412KMN, FHR-CND1440HKF, PC-36KMG25193M4, FHR-51990492553</t>
+          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Rodney Cotten</t>
+          <t>Derya Broll</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RODNEY.COTTEN@FHR.COM</t>
+          <t>DERYA.BROLL@FHR.COM</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1891,22 +1891,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:02 PM</t>
+          <t>08-29-2025 12:10:07 PM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:30 PM</t>
+          <t>08-29-2025 12:10:37 PM</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>PC-5CD5100K7L, FHR-5CG7515059</t>
+          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1918,54 +1918,54 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Chad Schaner</t>
+          <t>Joseph Moberly</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CHAD.SCHANER@FHR.COM</t>
+          <t>joseph.moberly@fhr.com</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Dell Pro Rugged RB14250 14" Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>08-04-2025 01:41:48 PM</t>
+          <t>08-28-2025 01:10:49 PM</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>08-27-2025 01:20:37 PM</t>
+          <t>08-28-2025 01:11:16 PM</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>FHR-8H0GH04, FHR-8CG7352CR5, FHR-DYW9BT3, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-8CG7352CSF, FHR-187491253</t>
+          <t>PC-1H852009W3, PC-5CG2415PYM</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Denise Gonzalez</t>
+          <t>Lindi Dinn</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DENISE.GONZALEZ@FHR.COM</t>
+          <t>LINDI.DINN@FHR.COM</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1975,22 +1975,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:17 AM</t>
+          <t>08-27-2025 02:53:14 PM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:45 AM</t>
+          <t>08-27-2025 02:53:40 PM</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>SPC-G3V03Z3, FHR-8CG8165MLF, PC-34Y4825063R3, SPC-D0R03Z3, SPC-23V03Z3, PC-5WXDQV3</t>
+          <t>FHR-CND1440HKF, FHR-8CC8412KMN, PC-36KMG25193M4, FHR-51990492553</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2002,12 +2002,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Kris Adkins</t>
+          <t>Rodney Cotten</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>KRISTOPHER.ADKINS@FHR.COM</t>
+          <t>RODNEY.COTTEN@FHR.COM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2022,17 +2022,17 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>08-26-2025 08:20:43 PM</t>
+          <t>08-27-2025 02:27:02 PM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>08-26-2025 08:21:16 PM</t>
+          <t>08-27-2025 02:27:30 PM</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>FHR-MXL9032YS3 FHR-MXL91133D8 FHR-MXL9032Z1N FHR-MXL3132SH2 FHR-5CG2148Y8N FHR-MXL9032YZV FHR-MXL2223BGG FHR-MXL24155WY FHR-MXL2424DP7 FHR-MXL90223C7 FHR-3NMKN34 FHR-J4VKN34 FHR-GTQKN34</t>
+          <t>PC-5CD5100K7L, FHR-5CG7515059</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2044,138 +2044,138 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Jose Cardona</t>
+          <t>Chad Schaner</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>JOSE.CARDONA@FHR.COM</t>
+          <t>CHAD.SCHANER@FHR.COM</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Dell Pro Rugged RB14250 14" Laptop</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>08-26-2025 09:00:40 AM</t>
+          <t>08-04-2025 01:41:48 PM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>08-26-2025 09:01:09 AM</t>
+          <t>08-27-2025 01:20:37 PM</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>CPC-JOSEC-BGVEA, SPC-5CG40111C6, FHR-5CG30935LZ</t>
+          <t>FHR-8H0GH04, FHR-8CG7352CR5, FHR-DYW9BT3, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-8CG7352CSF, FHR-187491253</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Phillip Norell</t>
+          <t>Denise Gonzalez</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PHILLIP.NORELL@FHR.COM</t>
+          <t>DENISE.GONZALEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:13 PM</t>
+          <t>08-27-2025 07:15:17 AM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:39 PM</t>
+          <t>08-27-2025 07:15:45 AM</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>PC-1H85200B08, FHR-5CG213CGKR</t>
+          <t>PC-34Y4825063R3, SPC-D0R03Z3, SPC-83V03Z3, SPC-23V03Z3, PC-5WXDQV3</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Anne Lee</t>
+          <t>Kris Adkins</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ANNE.LEE@FHR.COM</t>
+          <t>KRISTOPHER.ADKINS@FHR.COM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:00 AM</t>
+          <t>08-26-2025 08:20:43 PM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:30 AM</t>
+          <t>08-26-2025 08:21:16 PM</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
+          <t>FHR-MXL9032YS3 FHR-MXL91133D8 FHR-MXL9032Z1N FHR-MXL3132SH2 FHR-5CG2148Y8N FHR-MXL9032YZV FHR-MXL2223BGG FHR-MXL24155WY FHR-MXL2424DP7 FHR-MXL90223C7 FHR-3NMKN34 FHR-J4VKN34 FHR-GTQKN34</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>David Barnholt</t>
+          <t>Jose Cardona</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>david.barnholt@fhr.com</t>
+          <t>JOSE.CARDONA@FHR.COM</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2185,22 +2185,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:27 AM</t>
+          <t>08-26-2025 09:00:40 AM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:54 AM</t>
+          <t>08-26-2025 09:01:09 AM</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>PC-1H852009SD</t>
+          <t>SPC-5CG4084VQJ, FHR-5CG30935LZ, SPC-5CG40111D5, CPC-JOSEC-BGVEA, SPC-5CG40111C6</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2212,101 +2212,101 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Eric Enders</t>
+          <t>Phillip Norell</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>eric.enders@fhr.com</t>
+          <t>PHILLIP.NORELL@FHR.COM</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:30 AM</t>
+          <t>08-25-2025 02:58:13 PM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:59 AM</t>
+          <t>08-25-2025 02:58:39 PM</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>PC-2MQ514115J</t>
+          <t>FHR-5CG213CGKR, PC-1H85200B08</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sean Garza</t>
+          <t>Anne Lee</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>sean.garza@fhr.com</t>
+          <t>ANNE.LEE@FHR.COM</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>08-19-2025 01:01:15 AM</t>
+          <t>08-25-2025 10:13:00 AM</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:18 AM</t>
+          <t>08-25-2025 10:13:30 AM</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>SPC-3B6G25073R3</t>
+          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Joe Rohl</t>
+          <t>David Barnholt</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>JOE.ROHL@FHR.COM</t>
+          <t>david.barnholt@fhr.com</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2316,76 +2316,76 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>08-19-2025 02:44:07 PM</t>
+          <t>08-22-2025 11:11:27 AM</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:14 AM</t>
+          <t>08-22-2025 11:11:54 AM</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
+          <t>PC-1H852009SD</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>David Ybarra</t>
+          <t>Eric Enders</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DAVID.YBARRA@FHR.COM</t>
+          <t>eric.enders@fhr.com</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:30 AM</t>
+          <t>08-22-2025 07:55:30 AM</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:58 AM</t>
+          <t>08-22-2025 07:55:59 AM</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
+          <t>PC-2MQ514115J</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>Sean Garza</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>sean.garza@fhr.com</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2395,22 +2395,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:19 AM</t>
+          <t>08-19-2025 01:01:15 AM</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:48 AM</t>
+          <t>08-22-2025 07:34:18 AM</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>SPC-3B6G25073R3</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2422,101 +2422,101 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Cole Brewster</t>
+          <t>Joe Rohl</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>cole.brewster@fhr.com</t>
+          <t>JOE.ROHL@FHR.COM</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>08-20-2025 01:48:49 PM</t>
+          <t>08-19-2025 02:44:07 PM</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>08-20-2025 01:49:17 PM</t>
+          <t>08-22-2025 07:34:14 AM</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>FHR-5CG1276WN7, PC-34Y3Q25063R3</t>
+          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Brenna Gerety</t>
+          <t>David Ybarra</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BRENNA.GERETY@FHR.COM</t>
+          <t>DAVID.YBARRA@FHR.COM</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:01 AM</t>
+          <t>08-22-2025 07:18:30 AM</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:29 AM</t>
+          <t>08-22-2025 07:18:58 AM</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>PC-5CG5040677, FHR-5CG0036B94</t>
+          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Daniel Jurach</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>daniel.jurach@fhr.com</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2526,17 +2526,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>08-18-2025 11:58:20 AM</t>
+          <t>08-22-2025 06:59:19 AM</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>08-19-2025 10:21:28 AM</t>
+          <t>08-22-2025 06:59:48 AM</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>PC-2MQ514110T</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2548,101 +2548,101 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Tony Short</t>
+          <t>Cole Brewster</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ANTHONY.SHORT@KPLSRV.COM</t>
+          <t>cole.brewster@fhr.com</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:07 AM</t>
+          <t>08-20-2025 01:48:49 PM</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:38 AM</t>
+          <t>08-20-2025 01:49:17 PM</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>PC-5CD229GR66, PC-5CD5100KK7, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
+          <t>FHR-5CG1276WN7, PC-34Y3Q25063R3</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Chad Remer</t>
+          <t>Brenna Gerety</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CHAD.REMER@FHR.COM</t>
+          <t>BRENNA.GERETY@FHR.COM</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:04 AM</t>
+          <t>08-20-2025 07:58:01 AM</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:34 AM</t>
+          <t>08-20-2025 07:58:29 AM</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
+          <t>PC-5CG5040677, FHR-5CG0036B94</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nicholas Hanson</t>
+          <t>Daniel Jurach</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NICK.HANSON@FHR.COM</t>
+          <t>daniel.jurach@fhr.com</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2652,76 +2652,76 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:17 AM</t>
+          <t>08-18-2025 11:58:20 AM</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:46 AM</t>
+          <t>08-19-2025 10:21:28 AM</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
+          <t>PC-2MQ514110T</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Harold Irvin</t>
+          <t>Tony Short</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>HAROLD.IRVIN@FHR.COM</t>
+          <t>ANTHONY.SHORT@KPLSRV.COM</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:06 PM</t>
+          <t>08-18-2025 10:21:07 AM</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:37 PM</t>
+          <t>08-18-2025 10:21:38 AM</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>PC-2MQ51410F2, FHR-5CG2156Z1X</t>
+          <t>PC-5CD5100KK7, PC-5CD229GR66, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sandra Akarolo</t>
+          <t>Chad Remer</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>sandra.akarolo@fhr.com</t>
+          <t>CHAD.REMER@FHR.COM</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2731,22 +2731,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>08-13-2025 01:51:42 PM</t>
+          <t>08-18-2025 09:26:04 AM</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>08-14-2025 08:58:56 AM</t>
+          <t>08-18-2025 09:26:34 AM</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>FHR-5CG213CDWV</t>
+          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2758,12 +2758,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Paul Fisher</t>
+          <t>Nicholas Hanson</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PAUL.FISHER@FHR.COM</t>
+          <t>NICK.HANSON@FHR.COM</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2778,17 +2778,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:23 PM</t>
+          <t>08-15-2025 07:06:17 AM</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:56 PM</t>
+          <t>08-15-2025 07:06:46 AM</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
+          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2800,54 +2800,54 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Robert Corley</t>
+          <t>Harold Irvin</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ROBERT.CORLEY@FHR.COM</t>
+          <t>HAROLD.IRVIN@FHR.COM</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
+          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>08-12-2025 06:27:18 PM</t>
+          <t>08-14-2025 02:45:06 PM</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>08-13-2025 12:47:38 PM</t>
+          <t>08-14-2025 02:45:37 PM</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
+          <t>PC-2MQ51410F2, FHR-5CG2156Z1X</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Jeff Baker</t>
+          <t>Sandra Akarolo</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>JEFF.BAKER@FHR.COM</t>
+          <t>sandra.akarolo@fhr.com</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2857,22 +2857,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:02 AM</t>
+          <t>08-13-2025 01:51:42 PM</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:30 AM</t>
+          <t>08-14-2025 08:58:56 AM</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
+          <t>FHR-5CG213CDWV</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2884,12 +2884,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Kemal Simpson</t>
+          <t>Paul Fisher</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>kemal.simpson@fhr.com</t>
+          <t>PAUL.FISHER@FHR.COM</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2904,17 +2904,17 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>08-13-2025 07:17:41 AM</t>
+          <t>08-13-2025 05:07:23 PM</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>08-13-2025 07:18:09 AM</t>
+          <t>08-13-2025 05:07:56 PM</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>FHR-5CG1073F3X</t>
+          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2926,96 +2926,96 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Robert Jimenez</t>
+          <t>Robert Corley</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ROBERT.JIMENEZ@FHR.COM</t>
+          <t>ROBERT.CORLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:22 AM</t>
+          <t>08-12-2025 06:27:18 PM</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:51 AM</t>
+          <t>08-13-2025 12:47:38 PM</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
+          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Kevin Miller</t>
+          <t>Jeff Baker</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KEVIN.MILLER@FHR.COM</t>
+          <t>JEFF.BAKER@FHR.COM</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:21 AM</t>
+          <t>08-13-2025 09:11:02 AM</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:49 AM</t>
+          <t>08-13-2025 09:11:30 AM</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
+          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tucker Lansing</t>
+          <t>Kemal Simpson</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>tucker.lansing@fhr.com</t>
+          <t>kemal.simpson@fhr.com</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3030,17 +3030,17 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:05 AM</t>
+          <t>08-13-2025 07:17:41 AM</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:44 AM</t>
+          <t>08-13-2025 07:18:09 AM</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>PC-2MQ5141103</t>
+          <t>FHR-5CG1073F3X</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3052,54 +3052,54 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Kairos Logan</t>
+          <t>Robert Jimenez</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>kairos.logan@fhr.com</t>
+          <t>ROBERT.JIMENEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:17 PM</t>
+          <t>08-12-2025 11:43:22 AM</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:45 PM</t>
+          <t>08-12-2025 11:43:51 AM</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>PC-2MQ51410BZ</t>
+          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Louis Stump</t>
+          <t>Kevin Miller</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LOUIS.STUMP@FHR.COM</t>
+          <t>KEVIN.MILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3109,22 +3109,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>07-20-2025 06:49:35 AM</t>
+          <t>08-12-2025 09:11:21 AM</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-11-2025 03:03:35 PM</t>
+          <t>08-12-2025 09:11:49 AM</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
+          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3136,96 +3136,96 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Tucker Lansing</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>tucker.lansing@fhr.com</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-11-2025 12:57:47 PM</t>
+          <t>08-12-2025 08:13:05 AM</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-11-2025 12:58:15 PM</t>
+          <t>08-12-2025 08:13:44 AM</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
+          <t>PC-2MQ5141103</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Alex Fairbanks</t>
+          <t>Kairos Logan</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Alex.Fairbanks@fhr.com</t>
+          <t>kairos.logan@fhr.com</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>08-11-2025 09:58:56 AM</t>
+          <t>08-11-2025 04:54:17 PM</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>08-11-2025 09:59:25 AM</t>
+          <t>08-11-2025 04:54:45 PM</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>FHR-5CG2261RYZ, PC-5CD5100K77</t>
+          <t>PC-2MQ51410BZ</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Cole Wilson</t>
+          <t>Louis Stump</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>cole.wilson@fhr.com</t>
+          <t>LOUIS.STUMP@FHR.COM</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3235,22 +3235,22 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-11-2025 08:57:56 AM</t>
+          <t>07-20-2025 06:49:35 AM</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>08-11-2025 08:58:25 AM</t>
+          <t>08-11-2025 03:03:35 PM</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z9H</t>
+          <t>FHR-9G0GH04, PC-36KKT25193M4, FHR-2J0GH04</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3277,17 +3277,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:07 AM</t>
+          <t>08-11-2025 12:57:47 PM</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:36 AM</t>
+          <t>08-11-2025 12:58:15 PM</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3304,54 +3304,54 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Bobby Peddycord</t>
+          <t>Alex Fairbanks</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>bobby.peddycord@fhr.com</t>
+          <t>Alex.Fairbanks@fhr.com</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-07-2025 10:38:48 AM</t>
+          <t>08-11-2025 09:58:56 AM</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-11-2025 07:13:21 AM</t>
+          <t>08-11-2025 09:59:25 AM</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
+          <t>PC-5CD5100K77, FHR-5CG2261RYZ</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Charles Oliver</t>
+          <t>Cole Wilson</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CHARLES.OLIVER@FHR.COM</t>
+          <t>cole.wilson@fhr.com</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3361,22 +3361,22 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-11-2025 05:46:52 AM</t>
+          <t>08-11-2025 08:57:56 AM</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-11-2025 05:47:20 AM</t>
+          <t>08-11-2025 08:58:25 AM</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>PC-36KFF25193M4</t>
+          <t>PC-2MQ5140Z9H</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3388,12 +3388,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Rudy Barajas</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RUDY.BARAJAS@FHR.COM</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3403,22 +3403,22 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-06-2025 04:56:54 AM</t>
+          <t>08-11-2025 08:33:07 AM</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-08-2025 01:09:23 PM</t>
+          <t>08-11-2025 08:33:36 AM</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>PC-2MQ514105T, FHR-J2V03Z3, PC-33BYB25013M4, FHR-MXL24156CF</t>
+          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3430,37 +3430,37 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Braxton Holes</t>
+          <t>Bobby Peddycord</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>braxton.holes@fhr.com</t>
+          <t>bobby.peddycord@fhr.com</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
+          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-07-2025 08:51:34 AM</t>
+          <t>08-07-2025 10:38:48 AM</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-08-2025 11:34:27 AM</t>
+          <t>08-11-2025 07:13:21 AM</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>FHR-5CD231D3NH, FHR-5CD01052SN</t>
+          <t>PC-5CG4143LD2, PC-2MQ5140ZJF</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3472,17 +3472,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Andrea Unruh</t>
+          <t>Charles Oliver</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ANDREA.UNRUH@FHR.COM</t>
+          <t>CHARLES.OLIVER@FHR.COM</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3492,81 +3492,81 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:28 AM</t>
+          <t>08-11-2025 05:46:52 AM</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:56 AM</t>
+          <t>08-11-2025 05:47:20 AM</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>PC-36KG325193M4, PC-014GF22373BF</t>
+          <t>PC-36KFF25193M4</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Caleb Quanrud</t>
+          <t>Rudy Barajas</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>caleb.quanrud@fhr.com</t>
+          <t>RUDY.BARAJAS@FHR.COM</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:28 PM</t>
+          <t>08-06-2025 04:56:54 AM</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:58 PM</t>
+          <t>08-08-2025 01:09:23 PM</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
+          <t>PC-2MQ514105T, FHR-J2V03Z3, PC-33BYB25013M4, FHR-MXL24156CF</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Jean Jaime</t>
+          <t>Braxton Holes</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>JEAN.JAIME@FHR.COM</t>
+          <t>braxton.holes@fhr.com</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3576,39 +3576,39 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:32 PM</t>
+          <t>08-07-2025 08:51:34 AM</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>08-07-2025 02:12:00 PM</t>
+          <t>08-08-2025 11:34:27 AM</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
+          <t>FHR-5CD231D3NH, FHR-5CD01052SN</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Andrea Unruh</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>ANDREA.UNRUH@FHR.COM</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3618,118 +3618,118 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-07-2025 02:10:24 PM</t>
+          <t>08-08-2025 08:17:28 AM</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:00 PM</t>
+          <t>08-08-2025 08:17:56 AM</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, SPC-G1V03Z3, PC-36KGV25193M4</t>
+          <t>PC-36KG325193M4, PC-014GF22373BF</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Caleb Quanrud</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>caleb.quanrud@fhr.com</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:23 PM</t>
+          <t>08-07-2025 03:06:28 PM</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:59 PM</t>
+          <t>08-07-2025 03:06:58 PM</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, SPC-G1V03Z3, PC-36KGV25193M4</t>
+          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Branden Roering</t>
+          <t>Jean Jaime</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>branden.roering@fhr.com</t>
+          <t>JEAN.JAIME@FHR.COM</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:17 PM</t>
+          <t>08-07-2025 02:11:32 PM</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:45 PM</t>
+          <t>08-07-2025 02:12:00 PM</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>PC-2MQ5141148</t>
+          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Christopher Brooks</t>
+          <t>Rick Schwing</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
+          <t>rick.schwing@fhr.com</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3739,22 +3739,22 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-06-2025 12:44:08 PM</t>
+          <t>08-07-2025 02:10:24 PM</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>08-07-2025 09:46:49 AM</t>
+          <t>08-07-2025 02:11:00 PM</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>SPC-MXL24156FY, PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
+          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3766,12 +3766,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Justin Hinojosa</t>
+          <t>Rick Schwing</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>justin.hinojosa@fhr.com</t>
+          <t>rick.schwing@fhr.com</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3781,22 +3781,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:01 AM</t>
+          <t>08-07-2025 02:09:23 PM</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:29 AM</t>
+          <t>08-07-2025 02:09:59 PM</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>PC-MXL24156FQ SPC-MXL24156FQ FHR-8CG80416HL FHR-8CG806569G FHR-8CG7236C1X FHR-G3BCDZ3 FHR-MXL3132SS4 FHR-8CG80416GX FHR-MXL90224D2 FHR-8J5ZK44 FHR-MXL3132SN7 FHR-MXL3132SS3 FHR-9K8ZK44 FHR-MXL3132SQX KII-MXL2424F2T FHR-MXL5043GK1 FHR-MXL5043GK0 FHR-MXL3132SRR FHR-BK001HK222 FHR-MXL3132SNW FHR-5CD439J37S FHR-MXL3132SP1</t>
+          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3808,37 +3808,37 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Josiah Peterson</t>
+          <t>Branden Roering</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>JOSIAH.PETERSON@FHR.COM</t>
+          <t>branden.roering@fhr.com</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-06-2025 08:30:11 AM</t>
+          <t>08-07-2025 12:49:17 PM</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>08-06-2025 08:31:02 AM</t>
+          <t>08-07-2025 12:49:45 PM</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TC1, FHR-5CD30764W6</t>
+          <t>PC-2MQ5141148</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3850,205 +3850,205 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Andrew Berndt</t>
+          <t>Christopher Brooks</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>andrew.berndt@fhr.com</t>
+          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>08-05-2025 01:32:29 PM</t>
+          <t>08-06-2025 12:44:08 PM</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>08-05-2025 01:33:21 PM</t>
+          <t>08-07-2025 09:46:49 AM</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>PC-2MQ514100C</t>
+          <t>PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Matthew VanLanen</t>
+          <t>Justin Hinojosa</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>matthew.vanlanen@fhr.com</t>
+          <t>justin.hinojosa@fhr.com</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:12 AM</t>
+          <t>08-06-2025 11:55:01 AM</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:39 AM</t>
+          <t>08-06-2025 11:55:29 AM</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
+          <t>PC-MXL24156FQ SPC-MXL24156FQ FHR-8CG80416HL FHR-8CG806569G FHR-8CG7236C1X FHR-G3BCDZ3 FHR-MXL3132SS4 FHR-8CG80416GX FHR-MXL90224D2 FHR-8J5ZK44 FHR-MXL3132SN7 FHR-MXL3132SS3 FHR-9K8ZK44 FHR-MXL3132SQX KII-MXL2424F2T FHR-MXL5043GK1 FHR-MXL5043GK0 FHR-MXL3132SRR FHR-BK001HK222 FHR-MXL3132SNW FHR-5CD439J37S FHR-MXL3132SP1</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Arturo Vasquez Jr</t>
+          <t>Josiah Peterson</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ARTURO.VASQUEZ@FHR.COM</t>
+          <t>JOSIAH.PETERSON@FHR.COM</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>07-30-2025 12:56:40 PM</t>
+          <t>08-06-2025 08:30:11 AM</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>08-05-2025 09:13:23 AM</t>
+          <t>08-06-2025 08:31:02 AM</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>FHR-MXL4123NY2, FHR-8CG82809D5, FHR-5CG31302WM, SPC-37MW25123GX, FHR-MXL9223BRW</t>
+          <t>PC-2MQ5270TC1, FHR-5CD30764W6</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Christopher Koerner</t>
+          <t>Andrew Berndt</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.KOERNER@FHR.COM</t>
+          <t>andrew.berndt@fhr.com</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>08-05-2025 08:14:41 AM</t>
+          <t>08-05-2025 01:32:29 PM</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>08-05-2025 08:15:12 AM</t>
+          <t>08-05-2025 01:33:21 PM</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>PC-5CD4514XZX, FHR-59309202153</t>
+          <t>PC-2MQ514100C</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Eric Derieux</t>
+          <t>Matthew VanLanen</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ERIC.DERIEUX@FHR.COM</t>
+          <t>matthew.vanlanen@fhr.com</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>US-TX-BEAUMONT2 - FHR-Beaumont TX - Beaumont - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>08-05-2025 08:01:44 AM</t>
+          <t>08-05-2025 10:28:12 AM</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>08-05-2025 08:02:14 AM</t>
+          <t>08-05-2025 10:28:39 AM</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TDP, FHR-5CG8353ZC7, DESKTOP-JU70CMA</t>
+          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4060,54 +4060,54 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Ryan Sabin</t>
+          <t>Arturo Vasquez Jr</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ryan.sabin@fhr.com</t>
+          <t>ARTURO.VASQUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>08-04-2025 12:02:32 PM</t>
+          <t>07-30-2025 12:56:40 PM</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>08-04-2025 12:03:01 PM</t>
+          <t>08-05-2025 09:13:23 AM</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZHM, FHR-5CG1092Y8L, PC-2MQ5040SX3</t>
+          <t>FHR-8CG82809D5, SPC-37MW25123GX, FHR-5CG31302WM, FHR-MXL9223BRW</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Nate Claseman</t>
+          <t>Christopher Koerner</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>nate.claseman@fhr.com</t>
+          <t>CHRISTOPHER.KOERNER@FHR.COM</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4117,22 +4117,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>08-03-2025 01:32:09 PM</t>
+          <t>08-05-2025 08:14:41 AM</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>08-03-2025 01:32:37 PM</t>
+          <t>08-05-2025 08:15:12 AM</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>FHR-MXL2394SXC, PC-2MQ5270TFN, FHR-8CG7352CTV</t>
+          <t>PC-5CD4514XZX, FHR-59309202153</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4144,17 +4144,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Koy Straks</t>
+          <t>Eric Derieux</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>koy.straks@fhr.com</t>
+          <t>ERIC.DERIEUX@FHR.COM</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-TX-BEAUMONT2 - FHR-Beaumont TX - Beaumont - Koch</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4164,17 +4164,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>08-01-2025 02:42:24 PM</t>
+          <t>08-05-2025 08:01:44 AM</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>08-01-2025 02:42:52 PM</t>
+          <t>08-05-2025 08:02:14 AM</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TF5</t>
+          <t>PC-2MQ5270TDP, FHR-5CG8353ZC7, DESKTOP-JU70CMA</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4186,12 +4186,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Gaven Girton</t>
+          <t>Ryan Sabin</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>gaven.girton@fhr.com</t>
+          <t>ryan.sabin@fhr.com</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4206,17 +4206,17 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>08-01-2025 02:05:31 PM</t>
+          <t>08-04-2025 12:02:32 PM</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>08-01-2025 02:05:58 PM</t>
+          <t>08-04-2025 12:03:01 PM</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZGG</t>
+          <t>PC-2MQ5140ZHM, FHR-5CG1092Y8L, PC-2MQ5040SX3</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4228,205 +4228,205 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Shaun McVay</t>
+          <t>Nate Claseman</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>shaun.mcvay@fhr.com</t>
+          <t>nate.claseman@fhr.com</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>08-01-2025 01:07:44 PM</t>
+          <t>08-03-2025 01:32:09 PM</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>08-01-2025 01:08:17 PM</t>
+          <t>08-03-2025 01:32:37 PM</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>PC-5CD5100KG2</t>
+          <t>PC-2MQ5270TFN, FHR-MXL2394SXC, FHR-8CG7352CTV</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>David Escamilla</t>
+          <t>Koy Straks</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DAVID.ESCAMILLA@FHR.COM</t>
+          <t>koy.straks@fhr.com</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>08-01-2025 07:36:23 AM</t>
+          <t>08-01-2025 02:42:24 PM</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>08-01-2025 07:36:54 AM</t>
+          <t>08-01-2025 02:42:52 PM</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>SPC-CRWXJ74, FHR-MXL11033PZ, PC-34MXB25193M4</t>
+          <t>PC-2MQ5270TF5</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Troy Pena</t>
+          <t>Gaven Girton</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>troy.pena@fhr.com</t>
+          <t>gaven.girton@fhr.com</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>07-31-2025 04:49:13 PM</t>
+          <t>08-01-2025 02:05:31 PM</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>07-31-2025 04:49:40 PM</t>
+          <t>08-01-2025 02:05:58 PM</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>FHR-MXL2165D4H, FHR-87ZPDZ3, PC-34P3C25193M4, FHR-5CG24913Q4</t>
+          <t>PC-2MQ5140ZGG</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Hannah Shea</t>
+          <t>Shaun McVay</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>hannah.shea@fhr.com</t>
+          <t>shaun.mcvay@fhr.com</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>07-31-2025 10:42:49 AM</t>
+          <t>08-01-2025 01:07:44 PM</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>07-31-2025 10:43:15 AM</t>
+          <t>08-01-2025 01:08:17 PM</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TCB, PC-5CG213CFKZ</t>
+          <t>PC-5CD5100KG2</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Tara Schultz</t>
+          <t>David Escamilla</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TARA.SCHULTZ@FHR.COM</t>
+          <t>DAVID.ESCAMILLA@FHR.COM</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>07-31-2025 08:59:51 AM</t>
+          <t>08-01-2025 07:36:23 AM</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>07-31-2025 09:00:19 AM</t>
+          <t>08-01-2025 07:36:54 AM</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>FHR-2TK95201XD, PC-2MQ5140ZHK</t>
+          <t>PC-34MXB25193M4, SPC-CRWXJ74, FHR-MXL11033PZ</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4438,138 +4438,138 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Dave Larson</t>
+          <t>Troy Pena</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>dave.larson@fhr.com</t>
+          <t>troy.pena@fhr.com</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>07-31-2025 08:30:21 AM</t>
+          <t>07-31-2025 04:49:13 PM</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>07-31-2025 08:30:52 AM</t>
+          <t>07-31-2025 04:49:40 PM</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZFS, PC-5CG31302L2</t>
+          <t>FHR-MXL2165D4H, FHR-87ZPDZ3, PC-34P3C25193M4, FHR-5CG24913Q4</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Andy Harrison</t>
+          <t>Hannah Shea</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ANDY.HARRISON@FHR.COM</t>
+          <t>hannah.shea@fhr.com</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>07-30-2025 06:15:56 PM</t>
+          <t>07-31-2025 10:42:49 AM</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>07-30-2025 06:16:23 PM</t>
+          <t>07-31-2025 10:43:15 AM</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>PC-34MWB25193M4, PC-JTKJ414, FHR-5CG1314JWW</t>
+          <t>PC-2MQ5270TCB, PC-5CG213CFKZ</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Matt Hoveland</t>
+          <t>Tara Schultz</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MATT.HOVELAND@FHR.COM</t>
+          <t>TARA.SCHULTZ@FHR.COM</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>07-30-2025 04:10:43 PM</t>
+          <t>07-31-2025 08:59:51 AM</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>07-30-2025 04:11:10 PM</t>
+          <t>07-31-2025 09:00:19 AM</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>FHR-5CG2060QSH, FHR-MXL9061CF9, PC-5CD5100K9P</t>
+          <t>FHR-2TK95201XD, PC-2MQ5140ZHK</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>James Pfeifer</t>
+          <t>Dave Larson</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>JAMES.PFEIFER@FHR.COM</t>
+          <t>dave.larson@fhr.com</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4579,22 +4579,22 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>07-28-2025 10:17:28 AM</t>
+          <t>07-31-2025 08:30:21 AM</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>07-30-2025 02:09:54 PM</t>
+          <t>07-31-2025 08:30:52 AM</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>SPC-5CD5100K9D, PC-5CD2331XGS</t>
+          <t>PC-2MQ5140ZFS, PC-5CG31302L2</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4606,12 +4606,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Arnold Ortiz</t>
+          <t>Andy Harrison</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ARNOLD.ORTIZ@FHR.COM</t>
+          <t>ANDY.HARRISON@FHR.COM</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4621,22 +4621,22 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>07-24-2025 05:52:42 AM</t>
+          <t>07-30-2025 06:15:56 PM</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>07-30-2025 12:54:23 PM</t>
+          <t>07-30-2025 06:16:23 PM</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>FHR-5CG2096F0R, FHR-5CG2060QFY, SPC-6YF2X54</t>
+          <t>PC-34MWB25193M4, PC-JTKJ414, FHR-5CG1314JWW</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4648,59 +4648,59 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Shaun Passmore</t>
+          <t>Matt Hoveland</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SHAUN.PASSMORE@FHR.COM</t>
+          <t>MATT.HOVELAND@FHR.COM</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>07-30-2025 10:20:42 AM</t>
+          <t>07-30-2025 04:10:43 PM</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>07-30-2025 10:21:10 AM</t>
+          <t>07-30-2025 04:11:10 PM</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>PC-34P9325193M4</t>
+          <t>FHR-5CG2060QSH, FHR-MXL9061CF9, PC-5CD5100K9P</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Daniel Hoyle</t>
+          <t>James Pfeifer</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DANIEL.HOYLE@FHR.COM</t>
+          <t>JAMES.PFEIFER@FHR.COM</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4710,34 +4710,34 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>07-27-2025 01:48:14 AM</t>
+          <t>07-28-2025 10:17:28 AM</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>07-29-2025 12:08:56 PM</t>
+          <t>07-30-2025 02:09:54 PM</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>SPC-FPQGQ54, SPC-5CD5100KCW, FHR-MXL902244L, SPC-MXL13349YL</t>
+          <t>SPC-5CD5100K9D, PC-5CD2331XGS</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Lionel Morin III</t>
+          <t>Arnold Ortiz</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>LIONEL.MORIN@FHR.COM</t>
+          <t>ARNOLD.ORTIZ@FHR.COM</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4747,22 +4747,22 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>07-29-2025 06:45:40 AM</t>
+          <t>07-24-2025 05:52:42 AM</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>07-29-2025 06:46:09 AM</t>
+          <t>07-30-2025 12:54:23 PM</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>PC-5CD5100K7C, FHR-5CG04179SM</t>
+          <t>FHR-5CG2096F0R, FHR-5CG2060QFY, SPC-6YF2X54</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4774,12 +4774,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Jeremy Smith</t>
+          <t>Shaun Passmore</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>jeremy.smith3@fhr.com</t>
+          <t>SHAUN.PASSMORE@FHR.COM</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4789,22 +4789,22 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>07-28-2025 04:43:36 PM</t>
+          <t>07-30-2025 10:20:42 AM</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>07-28-2025 04:44:03 PM</t>
+          <t>07-30-2025 10:21:10 AM</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZG1, PC-5CG4515GJN</t>
+          <t>PC-34P9325193M4</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4816,222 +4816,222 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Michael Marshall</t>
+          <t>Daniel Hoyle</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>michael.marshall@fhr.com</t>
+          <t>DANIEL.HOYLE@FHR.COM</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>07-28-2025 02:19:41 PM</t>
+          <t>07-27-2025 01:48:14 AM</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>07-28-2025 02:20:07 PM</t>
+          <t>07-29-2025 12:08:56 PM</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>PC-5CG24912TQ, PC-2MQ5270TFQ</t>
+          <t>SPC-5CD5100KCW, FHR-MXL902244L, SPC-MXL13349YL</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Kyle Koetje</t>
+          <t>Lionel Morin III</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>kyle.koetje@fhr.com</t>
+          <t>LIONEL.MORIN@FHR.COM</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>07-26-2025 02:30:13 AM</t>
+          <t>07-29-2025 06:45:40 AM</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>07-26-2025 02:30:43 AM</t>
+          <t>07-29-2025 06:46:09 AM</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>FHR-5CG3264H4D, PC-337MV25123GX, PC-5CD145N3LL</t>
+          <t>PC-5CD5100K7C, FHR-5CG04179SM</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>TAYLOR MACZIEWSKI</t>
+          <t>Jeremy Smith</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>taylor.macziewski@fhr.com</t>
+          <t>jeremy.smith3@fhr.com</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>07-25-2025 05:52:09 PM</t>
+          <t>07-28-2025 04:43:36 PM</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>07-25-2025 05:52:36 PM</t>
+          <t>07-28-2025 04:44:03 PM</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>FHR-5CG84337KG FHR-8CG7352CTX FHR-8CG7352CR0 FHR-8CG7352CRP FHR-8CC8412TFM FHR-MXL2394SYL FHR-MXL2394STB FHR-MXL2394ST3 FHR-MXL2394SXC FHR-MXL9032YRF FHR-MXL2394SXJ FHR-MXL9223QCS FHR-3296101853 FHR-MXL326194V FHR-5CD30764V5 FHR-MXL2394SWH FHR-MXL2394SXH FHR-MXL2165C42 PC-5CG4143JQS FHR-5CD2317NTL FHR-MXL3132S8M FHR-1VW0K74 PC-2MQ5270TDK</t>
+          <t>PC-2MQ5140ZG1, PC-5CG4515GJN</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Arturo Vasquez Jr</t>
+          <t>Michael Marshall</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ARTURO.VASQUEZ@FHR.COM</t>
+          <t>michael.marshall@fhr.com</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>07-25-2025 10:53:48 AM</t>
+          <t>07-28-2025 02:19:41 PM</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>07-25-2025 10:54:15 AM</t>
+          <t>07-28-2025 02:20:07 PM</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>FHR-MXL4123NY2, FHR-8CG82809D5, FHR-5CG31302WM, SPC-37MW25123GX, FHR-MXL9223BRW</t>
+          <t>PC-5CG24912TQ, PC-2MQ5270TFQ</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Jodi Rein</t>
+          <t>Kyle Koetje</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>jodi.rein@fhr.com</t>
+          <t>kyle.koetje@fhr.com</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>07-25-2025 09:20:21 AM</t>
+          <t>07-26-2025 02:30:13 AM</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>07-25-2025 09:20:50 AM</t>
+          <t>07-26-2025 02:30:43 AM</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>PC-1H95220MNX, PC-5CG2051YC4</t>
+          <t>FHR-5CG3264H4D, PC-337MV25123GX, PC-5CD145N3LL</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Kemal Simpson</t>
+          <t>TAYLOR MACZIEWSKI</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>kemal.simpson@fhr.com</t>
+          <t>taylor.macziewski@fhr.com</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>07-22-2025 11:13:40 AM</t>
+          <t>07-25-2025 05:52:09 PM</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>07-22-2025 11:14:08 AM</t>
+          <t>07-25-2025 05:52:36 PM</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>FHR-5CG1073F3X</t>
+          <t>PC-2MQ5270TDK</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5068,54 +5068,54 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Jennifer Hastings</t>
+          <t>Arturo Vasquez Jr</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>JENNIFER.J.HASTINGS@FHR.COM</t>
+          <t>ARTURO.VASQUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>07-22-2025 10:28:30 AM</t>
+          <t>07-25-2025 10:53:48 AM</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>07-22-2025 10:28:57 AM</t>
+          <t>07-25-2025 10:54:15 AM</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>PC-2MQ51410X9, FHR-5CG1344HQP</t>
+          <t>FHR-8CG82809D5, SPC-37MW25123GX, FHR-5CG31302WM, FHR-MXL9223BRW</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Kristie Hunter</t>
+          <t>Jodi Rein</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>kristine.hunter@fhr.com</t>
+          <t>jodi.rein@fhr.com</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5125,22 +5125,22 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>07-22-2025 09:30:25 AM</t>
+          <t>07-25-2025 09:20:21 AM</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>07-22-2025 09:30:54 AM</t>
+          <t>07-25-2025 09:20:50 AM</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>PC-5CG313039Y</t>
+          <t>PC-1H95220MNX, PC-5CG2051YC4</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5152,17 +5152,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Cameron Pascal</t>
+          <t>Kemal Simpson</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>cameron.pascal@fhr.com</t>
+          <t>kemal.simpson@fhr.com</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5172,39 +5172,39 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>07-21-2025 05:23:15 PM</t>
+          <t>07-22-2025 11:13:40 AM</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>07-21-2025 05:23:45 PM</t>
+          <t>07-22-2025 11:14:08 AM</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>PC-2MQ514115D</t>
+          <t>FHR-5CG1073F3X</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Gabriela Silvas</t>
+          <t>Jennifer Hastings</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>GABRIELA.SILVAS@FHR.COM</t>
+          <t>JENNIFER.J.HASTINGS@FHR.COM</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5214,118 +5214,118 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>07-21-2025 12:43:30 PM</t>
+          <t>07-22-2025 10:28:30 AM</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>07-21-2025 12:48:52 PM</t>
+          <t>07-22-2025 10:28:57 AM</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>FHR-5CG1276WNC, FHR-MXL2302P0Z, FHR-G3BCDZ3</t>
+          <t>PC-2MQ51410X9, FHR-5CG1344HQP</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Jeremy Bertsch</t>
+          <t>Kristie Hunter</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>JEREMY.BERTSCH@FHR.COM</t>
+          <t>kristine.hunter@fhr.com</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>07-21-2025 12:01:08 PM</t>
+          <t>07-22-2025 09:30:25 AM</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>07-21-2025 12:48:48 PM</t>
+          <t>07-22-2025 09:30:54 AM</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>PC-1H95220MS5, FHR-5CG011444P</t>
+          <t>PC-5CG313039Y</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Justin Turner</t>
+          <t>Cameron Pascal</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>justin.turner@fhr.com</t>
+          <t>cameron.pascal@fhr.com</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>07-21-2025 10:30:36 AM</t>
+          <t>07-21-2025 05:23:15 PM</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>07-21-2025 10:31:04 AM</t>
+          <t>07-21-2025 05:23:45 PM</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZC2, FHR-HNS0K74</t>
+          <t>PC-2MQ514115D</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Puneet Beniwal</t>
+          <t>Gabriela Silvas</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>puneet.beniwal@fhr.com</t>
+          <t>GABRIELA.SILVAS@FHR.COM</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5335,22 +5335,22 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>07-18-2025 09:51:23 AM</t>
+          <t>07-21-2025 12:43:30 PM</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>07-21-2025 09:18:24 AM</t>
+          <t>07-21-2025 12:48:52 PM</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>PC-5CD5100K7G</t>
+          <t>FHR-MXL2302P0Z, FHR-5CG1276WNC, PC-2MQ5140ZLH, FHR-G3BCDZ3</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">

--- a/output/fhr_computer_requests.xlsx
+++ b/output/fhr_computer_requests.xlsx
@@ -532,12 +532,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brendan Snell</t>
+          <t>Shannon Angle</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>brendan.snell@fhr.com</t>
+          <t>shannon.angle@kochcc.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -547,22 +547,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:12 AM</t>
+          <t>09-17-2025 07:50:45 AM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:46 AM</t>
+          <t>09-17-2025 07:51:14 AM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>FHR-5CG2156XDV</t>
+          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -574,12 +574,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Joey Guerrero</t>
+          <t>Bryeton Canchola</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>joey.guerrero1@fhr.com</t>
+          <t>bryeton.canchola@fhr.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -594,17 +594,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09-15-2025 06:33:41 AM</t>
+          <t>09-16-2025 03:26:59 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>09-15-2025 06:34:14 AM</t>
+          <t>09-16-2025 03:27:26 PM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PC-9659600351</t>
+          <t>SPC-MXL3324PZ2, SPC-MXL3324PYP, FHR-8V4TNZ3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -616,12 +616,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Eddie Buskirk</t>
+          <t>Charles Cooley Jr</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EDDIE.BUSKIRK@FHR.COM</t>
+          <t>CHARLES.COOLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -631,22 +631,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09-12-2025 01:52:56 PM</t>
+          <t>09-16-2025 02:26:57 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09-12-2025 01:53:24 PM</t>
+          <t>09-16-2025 02:27:28 PM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FHR-5CG9326W2B</t>
+          <t>FHR-5CG225854R</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -658,59 +658,59 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sammantha Reynolds</t>
+          <t>Patrick Tiller</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sammantha.reynolds1@fhr.com</t>
+          <t>PATRICK.TILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09-12-2025 08:18:55 AM</t>
+          <t>09-16-2025 12:20:22 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09-12-2025 08:19:25 AM</t>
+          <t>09-16-2025 12:20:49 PM</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
+          <t>PC-JZ4TNZ3, FHR-5CG1240T4Q, FHR-5CG815441G, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Victor Sauceda</t>
+          <t>Bryan Garcia</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>victor.sauceda@fhr.com</t>
+          <t>bryan.garcia1@fhr.com</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -720,123 +720,123 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:03 AM</t>
+          <t>09-16-2025 07:46:13 AM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:33 AM</t>
+          <t>09-16-2025 07:46:49 AM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>FHR-5CD8522C54</t>
+          <t>PC-BZQ03Z3, PC-5CG408495P</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mitch O'Keefe</t>
+          <t>Troy Hull</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MITCH.OKEEFE@FHR.COM</t>
+          <t>TROY.HULL@FHR.COM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:11 PM</t>
+          <t>09-16-2025 06:55:54 AM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:39 PM</t>
+          <t>09-16-2025 06:56:26 AM</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>MSP-CTLU27, FHR-5CG1344HQ7</t>
+          <t>FHR-MXL24155WF, PC-5CG4151LFY</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Joe Bedynek</t>
+          <t>Crystal Link</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JOE.BEDYNEK@FHR.COM</t>
+          <t>CRYSTAL.LINK@FHR.COM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:10 PM</t>
+          <t>09-15-2025 11:01:25 AM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:36 PM</t>
+          <t>09-15-2025 11:01:54 AM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>FHR-5CD026KSTV</t>
+          <t>FHR-5CG0254D4T, PC-5CG1465ZKZ</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ruben Hernandez</t>
+          <t>Alex Lodholz</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ruben.hernandez@fhr.com</t>
+          <t>alex.lodholz@fhr.com</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -846,207 +846,207 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-10-2025 02:51:54 PM</t>
+          <t>09-15-2025 09:14:43 AM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-10-2025 02:52:21 PM</t>
+          <t>09-15-2025 09:15:12 AM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PC-5CD231GKV7</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lauren Sada</t>
+          <t>Brendan Snell</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>lauren.sada@fhr.com</t>
+          <t>brendan.snell@fhr.com</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:21 PM</t>
+          <t>09-15-2025 08:15:12 AM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:49 PM</t>
+          <t>09-15-2025 08:15:46 AM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>FHR-5CG2156XDV</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kevin Harvey</t>
+          <t>Joey Guerrero</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KEVIN.HARVEY@FHR.COM</t>
+          <t>joey.guerrero1@fhr.com</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09-10-2025 08:38:42 AM</t>
+          <t>09-15-2025 06:33:41 AM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-10-2025 08:39:13 AM</t>
+          <t>09-15-2025 06:34:14 AM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>FHR-5CG1236JK6</t>
+          <t>PC-9659600351</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Matt Olson</t>
+          <t>Eddie Buskirk</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MATTHEW.OLSON@FHR.COM</t>
+          <t>EDDIE.BUSKIRK@FHR.COM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09-09-2025 11:43:57 AM</t>
+          <t>09-12-2025 01:52:56 PM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09-09-2025 11:44:26 AM</t>
+          <t>09-12-2025 01:53:24 PM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>FHR-5CG918242Z, FHR-5CD40711PF</t>
+          <t>FHR-5CG9326W2B</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sam Weldemariam</t>
+          <t>Sammantha Reynolds</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAM.WELDEMARIAM@FHR.COM</t>
+          <t>sammantha.reynolds1@fhr.com</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:23 AM</t>
+          <t>09-12-2025 08:18:55 AM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:51 AM</t>
+          <t>09-12-2025 08:19:25 AM</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>FHR-3KJBQ54, PC-GQMKN34, FHR-F9GR624, FHR-D90QDZ3, FHR-G8GR624, FHR-MXL9144C61, FHR-5CG213BX6D, FHR-5CD8506CR3</t>
+          <t>PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Derek Wilfong</t>
+          <t>Victor Sauceda</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DEREK.WILFONG@FHR.COM</t>
+          <t>victor.sauceda@fhr.com</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1056,34 +1056,34 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09-09-2025 09:02:55 AM</t>
+          <t>09-11-2025 09:46:03 AM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-09-2025 09:03:28 AM</t>
+          <t>09-11-2025 09:46:33 AM</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>FHR-5CG1314K33</t>
+          <t>FHR-5CD8522C54</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Joel Mccabe</t>
+          <t>Mitch O'Keefe</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>JOEL.MCCABE@FHR.COM</t>
+          <t>MITCH.OKEEFE@FHR.COM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1093,22 +1093,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09-05-2025 03:04:34 PM</t>
+          <t>09-10-2025 05:54:11 PM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09-08-2025 09:08:16 AM</t>
+          <t>09-10-2025 05:54:39 PM</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>FHR-1B1KH04, MSP-005054</t>
+          <t>FHR-MXL23843M2, MSP-CTLU27, FHR-MXL23843MP, FHR-5CG1344HQ7</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1120,12 +1120,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Devon Holz</t>
+          <t>Joe Bedynek</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DEVON.HOLZ@FHR.COM</t>
+          <t>JOE.BEDYNEK@FHR.COM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1135,22 +1135,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:14 PM</t>
+          <t>09-10-2025 02:54:10 PM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:42 PM</t>
+          <t>09-10-2025 02:54:36 PM</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZD9, FHR-5CG2219ZDW</t>
+          <t>PC-33W6D25273R3, FHR-5CD026KSTV</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1162,59 +1162,59 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Shawn Sieben</t>
+          <t>Ruben Hernandez</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Shawn.Sieben@fhr.com</t>
+          <t>ruben.hernandez@fhr.com</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09-04-2025 09:29:38 AM</t>
+          <t>09-10-2025 02:51:54 PM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-05-2025 12:58:04 PM</t>
+          <t>09-10-2025 02:52:21 PM</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>FHR-5CD3507T46, FHR-CND8426B2G, FHR-8CC84008DL</t>
+          <t>PC-2MQ5141117, PC-5CD231GKV7</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Carrie Simpson</t>
+          <t>Lauren Sada</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CARRIE.SIMPSON@FHR.COM</t>
+          <t>lauren.sada@fhr.com</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1224,118 +1224,118 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:03 PM</t>
+          <t>09-10-2025 01:27:21 PM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:30 PM</t>
+          <t>09-10-2025 01:27:49 PM</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>PC-001NS23373BF</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chris Pratt</t>
+          <t>Kevin Harvey</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chris.Pratt@fhr.com</t>
+          <t>KEVIN.HARVEY@FHR.COM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09-02-2025 04:16:05 PM</t>
+          <t>09-10-2025 08:38:42 AM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-04-2025 01:23:58 PM</t>
+          <t>09-10-2025 08:39:13 AM</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>FHR-5CD016BPV0, FHR-MXL8361TTS</t>
+          <t>PC-2MQ5290Z3G, FHR-5CG1236JK6</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Manuel Moreno Jr</t>
+          <t>Matt Olson</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MANUEL.MORENO@FHR.COM</t>
+          <t>MATTHEW.OLSON@FHR.COM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>05-02-2025 08:54:50 AM</t>
+          <t>09-09-2025 11:43:57 AM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09-04-2025 01:17:10 PM</t>
+          <t>09-09-2025 11:44:26 AM</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>SPC-5BJ8D14, PC-5CG4143GRG, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
+          <t>FHR-5CD40711PF, PC-2MQ5290Z8Z, FHR-5CG918242Z</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ben Sandiford</t>
+          <t>Sam Weldemariam</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ben.sandiford@fhr.com</t>
+          <t>SAM.WELDEMARIAM@FHR.COM</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1345,22 +1345,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:18 PM</t>
+          <t>09-09-2025 09:48:23 AM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:48 PM</t>
+          <t>09-09-2025 09:48:51 AM</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PC-33VW824233M4, PC-1H95220MS6</t>
+          <t>PC-GQMKN34, FHR-D90QDZ3, FHR-F9GR624, FHR-3KJBQ54, FHR-G8GR624, FHR-5CG213BX6D, FHR-MXL9144C61, FHR-5CD8506CR3</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1372,12 +1372,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Denise Schardt</t>
+          <t>Derek Wilfong</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DENISE.SCHARDT@FHR.COM</t>
+          <t>DEREK.WILFONG@FHR.COM</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1387,22 +1387,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>09-03-2025 02:48:18 PM</t>
+          <t>09-09-2025 09:02:55 AM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>09-04-2025 01:00:11 PM</t>
+          <t>09-09-2025 09:03:28 AM</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
+          <t>FHR-5CG1314K33</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1414,12 +1414,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ray Aslesen</t>
+          <t>Joel Mccabe</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RAY.ASLESEN@FHR.COM</t>
+          <t>JOEL.MCCABE@FHR.COM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1429,22 +1429,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>09-04-2025 07:28:33 AM</t>
+          <t>09-05-2025 03:04:34 PM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>09-04-2025 07:29:01 AM</t>
+          <t>09-08-2025 09:08:16 AM</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>PC-MXL4523KGB, PC-2MQ5140ZSW, FHR-0F00CQM2332, FHR-CND1440HBV</t>
+          <t>SPC-G942X54, FHR-1B1KH04, MSP-005054</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1456,12 +1456,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>Devon Holz</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>DEVON.HOLZ@FHR.COM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1471,22 +1471,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>09-04-2025 06:11:34 AM</t>
+          <t>09-05-2025 02:23:14 PM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>09-04-2025 06:12:02 AM</t>
+          <t>09-05-2025 02:23:42 PM</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>PC-2MQ5140ZD9, FHR-5CG2219ZDW</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1498,54 +1498,54 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dora Heimsoth</t>
+          <t>Shawn Sieben</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>dora.heimsoth1@fhr.com</t>
+          <t>Shawn.Sieben@fhr.com</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09-03-2025 03:00:34 PM</t>
+          <t>09-04-2025 09:29:38 AM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>09-03-2025 03:01:01 PM</t>
+          <t>09-05-2025 12:58:04 PM</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>PC-339W925073R3, PC-86XGSV3</t>
+          <t>FHR-5CD3507T46, FHR-CND8426B2G, FHR-8CC84008DL</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Stephen Rodriguez</t>
+          <t>Carrie Simpson</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
+          <t>CARRIE.SIMPSON@FHR.COM</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1555,22 +1555,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>09-03-2025 02:28:45 PM</t>
+          <t>09-04-2025 03:17:03 PM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09-03-2025 02:29:20 PM</t>
+          <t>09-04-2025 03:17:30 PM</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>FHR-MXL4424X3B</t>
+          <t>FHR-8CG83488SZ, PC-2MQ5140ZSD, PC-001NS23373BF</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1582,54 +1582,54 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Matt Skrobarcek</t>
+          <t>Chris Pratt</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
+          <t>Chris.Pratt@fhr.com</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:08 AM</t>
+          <t>09-02-2025 04:16:05 PM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:38 AM</t>
+          <t>09-04-2025 01:23:58 PM</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
+          <t>FHR-5CD016BPV0, FHR-MXL8361TTS</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Justin Nava</t>
+          <t>Manuel Moreno Jr</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>JUSTIN.NAVA@FHR.COM</t>
+          <t>MANUEL.MORENO@FHR.COM</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1639,22 +1639,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09-03-2025 09:44:33 AM</t>
+          <t>05-02-2025 08:54:50 AM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-03-2025 09:45:02 AM</t>
+          <t>09-04-2025 01:17:10 PM</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>FHR-5CG4240WQT, SPC-82TKZ84, FHR-MXL9223BVJ</t>
+          <t>PC-5CG4143GRG, SPC-5BJ8D14, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1666,12 +1666,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Logan Tom</t>
+          <t>Ben Sandiford</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>logan.tom@fhr.com</t>
+          <t>ben.sandiford@fhr.com</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1681,22 +1681,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:15 PM</t>
+          <t>09-04-2025 01:11:18 PM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:42 PM</t>
+          <t>09-04-2025 01:11:48 PM</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
+          <t>PC-1H95220MS6, PC-33VW824233M4</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1708,37 +1708,37 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Travis Sumerfelt</t>
+          <t>Denise Schardt</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>travis.sumerfelt@fhr.com</t>
+          <t>DENISE.SCHARDT@FHR.COM</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09-02-2025 11:06:03 AM</t>
+          <t>09-03-2025 02:48:18 PM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-02-2025 11:07:05 AM</t>
+          <t>09-04-2025 01:00:11 PM</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>PC-2MQ514108Q</t>
+          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1750,54 +1750,54 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Carlos Garcia Jr.</t>
+          <t>Ray Aslesen</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CARLOS.GARCIAJR@FHR.COM</t>
+          <t>RAY.ASLESEN@FHR.COM</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>08-27-2025 09:24:59 PM</t>
+          <t>09-04-2025 07:28:33 AM</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09-02-2025 08:26:34 AM</t>
+          <t>09-04-2025 07:29:01 AM</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>FHR-MXL9032YZV FHR-MXL9032Z1N FHR-8CG82809D9 FHR-MXL9032YS3 FHR-MXL90223C7 FHR-MXL9032Z0L FHR-MXL1022SW6 SPC-MXL2415619 SPC-MXL24156FQ FHR-14BCDZ3 FHR-5CG2148Y8N FHR-5CG8095709 FHR-MXL2223BGG FHR-5CD4154G3J SPC-MXL24155XB FHR-4PMKN34 FHR-3NMKN34 FHR-MXL24155WY FHR-BK33QPW FHR-MXL1022SVR FHR-GTQKN34 FHR-MXL9333VWX FHR-CNMKN34</t>
+          <t>PC-MXL4523KGB, PC-2MQ5140ZSW, FHR-0F00CQM2332, FHR-CND1440HBV</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Billy Royal</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BILLY.ROYAL@FHR.COM</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1812,17 +1812,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:06 PM</t>
+          <t>09-04-2025 06:11:34 AM</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:34 PM</t>
+          <t>09-04-2025 06:12:02 AM</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>FHR-5CD2331XLD</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1834,37 +1834,37 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Samuel Paulus</t>
+          <t>Dora Heimsoth</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>samuel.paulus@fhr.com</t>
+          <t>dora.heimsoth1@fhr.com</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:17 PM</t>
+          <t>09-03-2025 03:00:34 PM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:45 PM</t>
+          <t>09-03-2025 03:01:01 PM</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
+          <t>PC-339W925073R3, PC-86XGSV3</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1876,12 +1876,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Derya Broll</t>
+          <t>Stephen Rodriguez</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DERYA.BROLL@FHR.COM</t>
+          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1891,22 +1891,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:07 PM</t>
+          <t>09-03-2025 02:28:45 PM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:37 PM</t>
+          <t>09-03-2025 02:29:20 PM</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
+          <t>FHR-MXL4424X3B</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1918,54 +1918,54 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Joseph Moberly</t>
+          <t>Matt Skrobarcek</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>joseph.moberly@fhr.com</t>
+          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>08-28-2025 01:10:49 PM</t>
+          <t>09-03-2025 09:46:08 AM</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>08-28-2025 01:11:16 PM</t>
+          <t>09-03-2025 09:46:38 AM</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>PC-1H852009W3, PC-5CG2415PYM</t>
+          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Lindi Dinn</t>
+          <t>Justin Nava</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>LINDI.DINN@FHR.COM</t>
+          <t>JUSTIN.NAVA@FHR.COM</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1975,22 +1975,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:14 PM</t>
+          <t>09-03-2025 09:44:33 AM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:40 PM</t>
+          <t>09-03-2025 09:45:02 AM</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>FHR-CND1440HKF, FHR-8CC8412KMN, PC-36KMG25193M4, FHR-51990492553</t>
+          <t>SPC-82TKZ84, FHR-5CG4240WQT, FHR-MXL9223BVJ</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2002,96 +2002,96 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Rodney Cotten</t>
+          <t>Logan Tom</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RODNEY.COTTEN@FHR.COM</t>
+          <t>logan.tom@fhr.com</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:02 PM</t>
+          <t>09-02-2025 02:39:15 PM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:30 PM</t>
+          <t>09-02-2025 02:39:42 PM</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>PC-5CD5100K7L, FHR-5CG7515059</t>
+          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Chad Schaner</t>
+          <t>Travis Sumerfelt</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CHAD.SCHANER@FHR.COM</t>
+          <t>travis.sumerfelt@fhr.com</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Dell Pro Rugged RB14250 14" Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>08-04-2025 01:41:48 PM</t>
+          <t>09-02-2025 11:06:03 AM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>08-27-2025 01:20:37 PM</t>
+          <t>09-02-2025 11:07:05 AM</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>FHR-8H0GH04, FHR-8CG7352CR5, FHR-DYW9BT3, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-8CG7352CSF, FHR-187491253</t>
+          <t>PC-2MQ514108Q</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Denise Gonzalez</t>
+          <t>Carlos Garcia Jr.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DENISE.GONZALEZ@FHR.COM</t>
+          <t>CARLOS.GARCIAJR@FHR.COM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2106,17 +2106,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:17 AM</t>
+          <t>08-27-2025 09:24:59 PM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:45 AM</t>
+          <t>09-02-2025 08:26:34 AM</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>PC-34Y4825063R3, SPC-D0R03Z3, SPC-83V03Z3, SPC-23V03Z3, PC-5WXDQV3</t>
+          <t>FHR-4PMKN34</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2128,12 +2128,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Kris Adkins</t>
+          <t>Billy Royal</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>KRISTOPHER.ADKINS@FHR.COM</t>
+          <t>BILLY.ROYAL@FHR.COM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2143,22 +2143,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>08-26-2025 08:20:43 PM</t>
+          <t>08-29-2025 04:48:06 PM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>08-26-2025 08:21:16 PM</t>
+          <t>08-29-2025 04:48:34 PM</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>FHR-MXL9032YS3 FHR-MXL91133D8 FHR-MXL9032Z1N FHR-MXL3132SH2 FHR-5CG2148Y8N FHR-MXL9032YZV FHR-MXL2223BGG FHR-MXL24155WY FHR-MXL2424DP7 FHR-MXL90223C7 FHR-3NMKN34 FHR-J4VKN34 FHR-GTQKN34</t>
+          <t>FHR-5CD2331XLD</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2170,17 +2170,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Jose Cardona</t>
+          <t>Samuel Paulus</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>JOSE.CARDONA@FHR.COM</t>
+          <t>samuel.paulus@fhr.com</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2190,118 +2190,118 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>08-26-2025 09:00:40 AM</t>
+          <t>08-29-2025 01:00:17 PM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>08-26-2025 09:01:09 AM</t>
+          <t>08-29-2025 01:00:45 PM</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>SPC-5CG4084VQJ, FHR-5CG30935LZ, SPC-5CG40111D5, CPC-JOSEC-BGVEA, SPC-5CG40111C6</t>
+          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Phillip Norell</t>
+          <t>Derya Broll</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PHILLIP.NORELL@FHR.COM</t>
+          <t>DERYA.BROLL@FHR.COM</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:13 PM</t>
+          <t>08-29-2025 12:10:07 PM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:39 PM</t>
+          <t>08-29-2025 12:10:37 PM</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>FHR-5CG213CGKR, PC-1H85200B08</t>
+          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Anne Lee</t>
+          <t>Joseph Moberly</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ANNE.LEE@FHR.COM</t>
+          <t>joseph.moberly@fhr.com</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:00 AM</t>
+          <t>08-28-2025 01:10:49 PM</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:30 AM</t>
+          <t>08-28-2025 01:11:16 PM</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
+          <t>PC-1H852009W3, PC-5CG2415PYM</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>David Barnholt</t>
+          <t>Lindi Dinn</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>david.barnholt@fhr.com</t>
+          <t>LINDI.DINN@FHR.COM</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2316,17 +2316,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:27 AM</t>
+          <t>08-27-2025 02:53:14 PM</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:54 AM</t>
+          <t>08-27-2025 02:53:40 PM</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>PC-1H852009SD</t>
+          <t>FHR-CND1440HKF, PC-1H852009X5, FHR-8CC8412KMN, PC-36KMG25193M4, FHR-51990492553</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2338,138 +2338,138 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Eric Enders</t>
+          <t>Rodney Cotten</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>eric.enders@fhr.com</t>
+          <t>RODNEY.COTTEN@FHR.COM</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:30 AM</t>
+          <t>08-27-2025 02:27:02 PM</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:59 AM</t>
+          <t>08-27-2025 02:27:30 PM</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>PC-2MQ514115J</t>
+          <t>PC-5CD5100K7L, FHR-5CG7515059</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sean Garza</t>
+          <t>Chad Schaner</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>sean.garza@fhr.com</t>
+          <t>CHAD.SCHANER@FHR.COM</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>Dell Pro Rugged RB14250 14" Laptop</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>08-19-2025 01:01:15 AM</t>
+          <t>08-04-2025 01:41:48 PM</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:18 AM</t>
+          <t>08-27-2025 01:20:37 PM</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>SPC-3B6G25073R3</t>
+          <t>FHR-DYW9BT3, FHR-8H0GH04, FHR-8CG7352CR5, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-8CG7352CSF, FHR-187491253</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Joe Rohl</t>
+          <t>Denise Gonzalez</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>JOE.ROHL@FHR.COM</t>
+          <t>DENISE.GONZALEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>08-19-2025 02:44:07 PM</t>
+          <t>08-27-2025 07:15:17 AM</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:14 AM</t>
+          <t>08-27-2025 07:15:45 AM</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
+          <t>SPC-D0R03Z3, PC-34Y4825063R3, SPC-23V03Z3, PC-5WXDQV3</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>David Ybarra</t>
+          <t>Kris Adkins</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DAVID.YBARRA@FHR.COM</t>
+          <t>KRISTOPHER.ADKINS@FHR.COM</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2479,22 +2479,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:30 AM</t>
+          <t>08-26-2025 08:20:43 PM</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:58 AM</t>
+          <t>08-26-2025 08:21:16 PM</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
+          <t>PC-34WWG25063R3</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2506,12 +2506,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>Jose Cardona</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>JOSE.CARDONA@FHR.COM</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2526,17 +2526,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:19 AM</t>
+          <t>08-26-2025 09:00:40 AM</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:48 AM</t>
+          <t>08-26-2025 09:01:09 AM</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>SPC-5CG4084VQJ, SPC-C9HZK44, CPC-JOSEC-BGVEA, FHR-5CG30935LZ</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2548,121 +2548,121 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Cole Brewster</t>
+          <t>Phillip Norell</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>cole.brewster@fhr.com</t>
+          <t>PHILLIP.NORELL@FHR.COM</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>08-20-2025 01:48:49 PM</t>
+          <t>08-25-2025 02:58:13 PM</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>08-20-2025 01:49:17 PM</t>
+          <t>08-25-2025 02:58:39 PM</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>FHR-5CG1276WN7, PC-34Y3Q25063R3</t>
+          <t>PC-1H85200B08, FHR-5CG213CGKR</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Brenna Gerety</t>
+          <t>Anne Lee</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BRENNA.GERETY@FHR.COM</t>
+          <t>ANNE.LEE@FHR.COM</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:01 AM</t>
+          <t>08-25-2025 10:13:00 AM</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:29 AM</t>
+          <t>08-25-2025 10:13:30 AM</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>PC-5CG5040677, FHR-5CG0036B94</t>
+          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Daniel Jurach</t>
+          <t>David Barnholt</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>daniel.jurach@fhr.com</t>
+          <t>david.barnholt@fhr.com</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>08-18-2025 11:58:20 AM</t>
+          <t>08-22-2025 11:11:27 AM</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>08-19-2025 10:21:28 AM</t>
+          <t>08-22-2025 11:11:54 AM</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>PC-2MQ514110T</t>
+          <t>PC-1H852009SD</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2674,96 +2674,96 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Tony Short</t>
+          <t>Eric Enders</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ANTHONY.SHORT@KPLSRV.COM</t>
+          <t>eric.enders@fhr.com</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:07 AM</t>
+          <t>08-22-2025 07:55:30 AM</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:38 AM</t>
+          <t>08-22-2025 07:55:59 AM</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>PC-5CD5100KK7, PC-5CD229GR66, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
+          <t>PC-2MQ514115J</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Chad Remer</t>
+          <t>Sean Garza</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CHAD.REMER@FHR.COM</t>
+          <t>sean.garza@fhr.com</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:04 AM</t>
+          <t>08-19-2025 01:01:15 AM</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:34 AM</t>
+          <t>08-22-2025 07:34:18 AM</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
+          <t>SPC-3B6G25073R3</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nicholas Hanson</t>
+          <t>Joe Rohl</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NICK.HANSON@FHR.COM</t>
+          <t>JOE.ROHL@FHR.COM</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2773,22 +2773,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:17 AM</t>
+          <t>08-19-2025 02:44:07 PM</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:46 AM</t>
+          <t>08-22-2025 07:34:14 AM</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
+          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2800,353 +2800,353 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Harold Irvin</t>
+          <t>David Ybarra</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>HAROLD.IRVIN@FHR.COM</t>
+          <t>DAVID.YBARRA@FHR.COM</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:06 PM</t>
+          <t>08-22-2025 07:18:30 AM</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:37 PM</t>
+          <t>08-22-2025 07:18:58 AM</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>PC-2MQ51410F2, FHR-5CG2156Z1X</t>
+          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sandra Akarolo</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sandra.akarolo@fhr.com</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>08-13-2025 01:51:42 PM</t>
+          <t>08-22-2025 06:59:19 AM</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>08-14-2025 08:58:56 AM</t>
+          <t>08-22-2025 06:59:48 AM</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>FHR-5CG213CDWV</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Paul Fisher</t>
+          <t>Cole Brewster</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PAUL.FISHER@FHR.COM</t>
+          <t>cole.brewster@fhr.com</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:23 PM</t>
+          <t>08-20-2025 01:48:49 PM</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:56 PM</t>
+          <t>08-20-2025 01:49:17 PM</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
+          <t>PC-34Y3Q25063R3, FHR-5CG1276WN7</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Robert Corley</t>
+          <t>Brenna Gerety</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ROBERT.CORLEY@FHR.COM</t>
+          <t>BRENNA.GERETY@FHR.COM</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>08-12-2025 06:27:18 PM</t>
+          <t>08-20-2025 07:58:01 AM</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>08-13-2025 12:47:38 PM</t>
+          <t>08-20-2025 07:58:29 AM</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
+          <t>PC-5CG5040677, FHR-5CG0036B94</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Jeff Baker</t>
+          <t>Daniel Jurach</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>JEFF.BAKER@FHR.COM</t>
+          <t>daniel.jurach@fhr.com</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:02 AM</t>
+          <t>08-18-2025 11:58:20 AM</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:30 AM</t>
+          <t>08-19-2025 10:21:28 AM</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
+          <t>PC-2MQ514110T</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Kemal Simpson</t>
+          <t>Tony Short</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>kemal.simpson@fhr.com</t>
+          <t>ANTHONY.SHORT@KPLSRV.COM</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08-13-2025 07:17:41 AM</t>
+          <t>08-18-2025 10:21:07 AM</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>08-13-2025 07:18:09 AM</t>
+          <t>08-18-2025 10:21:38 AM</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>FHR-5CG1073F3X</t>
+          <t>PC-5CD229GR66, PC-5CD5100KK7, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Robert Jimenez</t>
+          <t>Chad Remer</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ROBERT.JIMENEZ@FHR.COM</t>
+          <t>CHAD.REMER@FHR.COM</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:22 AM</t>
+          <t>08-18-2025 09:26:04 AM</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:51 AM</t>
+          <t>08-18-2025 09:26:34 AM</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
+          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Kevin Miller</t>
+          <t>Nicholas Hanson</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>KEVIN.MILLER@FHR.COM</t>
+          <t>NICK.HANSON@FHR.COM</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:21 AM</t>
+          <t>08-15-2025 07:06:17 AM</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:49 AM</t>
+          <t>08-15-2025 07:06:46 AM</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
+          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Tucker Lansing</t>
+          <t>Harold Irvin</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>tucker.lansing@fhr.com</t>
+          <t>HAROLD.IRVIN@FHR.COM</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3156,17 +3156,17 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:05 AM</t>
+          <t>08-14-2025 02:45:06 PM</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:44 AM</t>
+          <t>08-14-2025 02:45:37 PM</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>PC-2MQ5141103</t>
+          <t>PC-2MQ51410F2, FHR-5CG2156Z1X</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3178,138 +3178,138 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Kairos Logan</t>
+          <t>Sandra Akarolo</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>kairos.logan@fhr.com</t>
+          <t>sandra.akarolo@fhr.com</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:17 PM</t>
+          <t>08-13-2025 01:51:42 PM</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:45 PM</t>
+          <t>08-14-2025 08:58:56 AM</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>PC-2MQ51410BZ</t>
+          <t>FHR-5CG213CDWV</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Louis Stump</t>
+          <t>Paul Fisher</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LOUIS.STUMP@FHR.COM</t>
+          <t>PAUL.FISHER@FHR.COM</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>07-20-2025 06:49:35 AM</t>
+          <t>08-13-2025 05:07:23 PM</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>08-11-2025 03:03:35 PM</t>
+          <t>08-13-2025 05:07:56 PM</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>FHR-9G0GH04, PC-36KKT25193M4, FHR-2J0GH04</t>
+          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Robert Corley</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>ROBERT.CORLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-11-2025 12:57:47 PM</t>
+          <t>08-12-2025 06:27:18 PM</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-11-2025 12:58:15 PM</t>
+          <t>08-13-2025 12:47:38 PM</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
+          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Alex Fairbanks</t>
+          <t>Jeff Baker</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Alex.Fairbanks@fhr.com</t>
+          <t>JEFF.BAKER@FHR.COM</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3319,22 +3319,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-11-2025 09:58:56 AM</t>
+          <t>08-13-2025 09:11:02 AM</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-11-2025 09:59:25 AM</t>
+          <t>08-13-2025 09:11:30 AM</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>PC-5CD5100K77, FHR-5CG2261RYZ</t>
+          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3346,54 +3346,54 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Cole Wilson</t>
+          <t>Kemal Simpson</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>cole.wilson@fhr.com</t>
+          <t>kemal.simpson@fhr.com</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-11-2025 08:57:56 AM</t>
+          <t>08-13-2025 07:17:41 AM</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-11-2025 08:58:25 AM</t>
+          <t>08-13-2025 07:18:09 AM</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z9H</t>
+          <t>FHR-5CG1073F3X</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Robert Jimenez</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>ROBERT.JIMENEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3408,17 +3408,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:07 AM</t>
+          <t>08-12-2025 11:43:22 AM</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:36 AM</t>
+          <t>08-12-2025 11:43:51 AM</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
+          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3430,101 +3430,101 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Bobby Peddycord</t>
+          <t>Kevin Miller</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>bobby.peddycord@fhr.com</t>
+          <t>KEVIN.MILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-07-2025 10:38:48 AM</t>
+          <t>08-12-2025 09:11:21 AM</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-11-2025 07:13:21 AM</t>
+          <t>08-12-2025 09:11:49 AM</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>PC-5CG4143LD2, PC-2MQ5140ZJF</t>
+          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Charles Oliver</t>
+          <t>Tucker Lansing</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CHARLES.OLIVER@FHR.COM</t>
+          <t>tucker.lansing@fhr.com</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-11-2025 05:46:52 AM</t>
+          <t>08-12-2025 08:13:05 AM</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>08-11-2025 05:47:20 AM</t>
+          <t>08-12-2025 08:13:44 AM</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>PC-36KFF25193M4</t>
+          <t>PC-2MQ5141103</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Rudy Barajas</t>
+          <t>Kairos Logan</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RUDY.BARAJAS@FHR.COM</t>
+          <t>kairos.logan@fhr.com</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3534,118 +3534,118 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-06-2025 04:56:54 AM</t>
+          <t>08-11-2025 04:54:17 PM</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>08-08-2025 01:09:23 PM</t>
+          <t>08-11-2025 04:54:45 PM</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>PC-2MQ514105T, FHR-J2V03Z3, PC-33BYB25013M4, FHR-MXL24156CF</t>
+          <t>PC-2MQ51410BZ</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Braxton Holes</t>
+          <t>Louis Stump</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>braxton.holes@fhr.com</t>
+          <t>LOUIS.STUMP@FHR.COM</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-07-2025 08:51:34 AM</t>
+          <t>07-20-2025 06:49:35 AM</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>08-08-2025 11:34:27 AM</t>
+          <t>08-11-2025 03:03:35 PM</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>FHR-5CD231D3NH, FHR-5CD01052SN</t>
+          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Andrea Unruh</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ANDREA.UNRUH@FHR.COM</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:28 AM</t>
+          <t>08-11-2025 12:57:47 PM</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:56 AM</t>
+          <t>08-11-2025 12:58:15 PM</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>PC-36KG325193M4, PC-014GF22373BF</t>
+          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Caleb Quanrud</t>
+          <t>Alex Fairbanks</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>caleb.quanrud@fhr.com</t>
+          <t>Alex.Fairbanks@fhr.com</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3660,17 +3660,17 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:28 PM</t>
+          <t>08-11-2025 09:58:56 AM</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:58 PM</t>
+          <t>08-11-2025 09:59:25 AM</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
+          <t>FHR-5CG2261RYZ, PC-5CD5100K77</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3682,12 +3682,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Jean Jaime</t>
+          <t>Cole Wilson</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>JEAN.JAIME@FHR.COM</t>
+          <t>cole.wilson@fhr.com</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3697,22 +3697,22 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:32 PM</t>
+          <t>08-11-2025 08:57:56 AM</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>08-07-2025 02:12:00 PM</t>
+          <t>08-11-2025 08:58:25 AM</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
+          <t>PC-2MQ5140Z9H</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3724,12 +3724,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3744,17 +3744,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-07-2025 02:10:24 PM</t>
+          <t>08-11-2025 08:33:07 AM</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:00 PM</t>
+          <t>08-11-2025 08:33:36 AM</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
+          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3766,96 +3766,96 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Bobby Peddycord</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>bobby.peddycord@fhr.com</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:23 PM</t>
+          <t>08-07-2025 10:38:48 AM</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:59 PM</t>
+          <t>08-11-2025 07:13:21 AM</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
+          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Branden Roering</t>
+          <t>Charles Oliver</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>branden.roering@fhr.com</t>
+          <t>CHARLES.OLIVER@FHR.COM</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:17 PM</t>
+          <t>08-11-2025 05:46:52 AM</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:45 PM</t>
+          <t>08-11-2025 05:47:20 AM</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>PC-2MQ5141148</t>
+          <t>PC-36KFF25193M4</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Christopher Brooks</t>
+          <t>Rudy Barajas</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
+          <t>RUDY.BARAJAS@FHR.COM</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3865,22 +3865,22 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>08-06-2025 12:44:08 PM</t>
+          <t>08-06-2025 04:56:54 AM</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>08-07-2025 09:46:49 AM</t>
+          <t>08-08-2025 01:09:23 PM</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
+          <t>PC-33BYB25013M4, FHR-J2V03Z3, PC-2MQ514105T, FHR-MXL24156CF</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3892,180 +3892,180 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Justin Hinojosa</t>
+          <t>Braxton Holes</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>justin.hinojosa@fhr.com</t>
+          <t>braxton.holes@fhr.com</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:01 AM</t>
+          <t>08-07-2025 08:51:34 AM</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:29 AM</t>
+          <t>08-08-2025 11:34:27 AM</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>PC-MXL24156FQ SPC-MXL24156FQ FHR-8CG80416HL FHR-8CG806569G FHR-8CG7236C1X FHR-G3BCDZ3 FHR-MXL3132SS4 FHR-8CG80416GX FHR-MXL90224D2 FHR-8J5ZK44 FHR-MXL3132SN7 FHR-MXL3132SS3 FHR-9K8ZK44 FHR-MXL3132SQX KII-MXL2424F2T FHR-MXL5043GK1 FHR-MXL5043GK0 FHR-MXL3132SRR FHR-BK001HK222 FHR-MXL3132SNW FHR-5CD439J37S FHR-MXL3132SP1</t>
+          <t>PC-5CD5100KGP, FHR-5CD231D3NH, FHR-5CD01052SN</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Josiah Peterson</t>
+          <t>Andrea Unruh</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>JOSIAH.PETERSON@FHR.COM</t>
+          <t>ANDREA.UNRUH@FHR.COM</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>08-06-2025 08:30:11 AM</t>
+          <t>08-08-2025 08:17:28 AM</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>08-06-2025 08:31:02 AM</t>
+          <t>08-08-2025 08:17:56 AM</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TC1, FHR-5CD30764W6</t>
+          <t>PC-36KG325193M4, PC-014GF22373BF</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Andrew Berndt</t>
+          <t>Caleb Quanrud</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>andrew.berndt@fhr.com</t>
+          <t>caleb.quanrud@fhr.com</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>08-05-2025 01:32:29 PM</t>
+          <t>08-07-2025 03:06:28 PM</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>08-05-2025 01:33:21 PM</t>
+          <t>08-07-2025 03:06:58 PM</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>PC-2MQ514100C</t>
+          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Matthew VanLanen</t>
+          <t>Jean Jaime</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>matthew.vanlanen@fhr.com</t>
+          <t>JEAN.JAIME@FHR.COM</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:12 AM</t>
+          <t>08-07-2025 02:11:32 PM</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:39 AM</t>
+          <t>08-07-2025 02:12:00 PM</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
+          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Arturo Vasquez Jr</t>
+          <t>Rick Schwing</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ARTURO.VASQUEZ@FHR.COM</t>
+          <t>rick.schwing@fhr.com</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4075,22 +4075,22 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>07-30-2025 12:56:40 PM</t>
+          <t>08-07-2025 02:10:24 PM</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>08-05-2025 09:13:23 AM</t>
+          <t>08-07-2025 02:11:00 PM</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>FHR-8CG82809D5, SPC-37MW25123GX, FHR-5CG31302WM, FHR-MXL9223BRW</t>
+          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4102,185 +4102,185 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Christopher Koerner</t>
+          <t>Rick Schwing</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.KOERNER@FHR.COM</t>
+          <t>rick.schwing@fhr.com</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>08-05-2025 08:14:41 AM</t>
+          <t>08-07-2025 02:09:23 PM</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>08-05-2025 08:15:12 AM</t>
+          <t>08-07-2025 02:09:59 PM</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>PC-5CD4514XZX, FHR-59309202153</t>
+          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Eric Derieux</t>
+          <t>Branden Roering</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ERIC.DERIEUX@FHR.COM</t>
+          <t>branden.roering@fhr.com</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>US-TX-BEAUMONT2 - FHR-Beaumont TX - Beaumont - Koch</t>
+          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>08-05-2025 08:01:44 AM</t>
+          <t>08-07-2025 12:49:17 PM</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>08-05-2025 08:02:14 AM</t>
+          <t>08-07-2025 12:49:45 PM</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TDP, FHR-5CG8353ZC7, DESKTOP-JU70CMA</t>
+          <t>PC-2MQ5141148</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ryan Sabin</t>
+          <t>Christopher Brooks</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ryan.sabin@fhr.com</t>
+          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>08-04-2025 12:02:32 PM</t>
+          <t>08-06-2025 12:44:08 PM</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>08-04-2025 12:03:01 PM</t>
+          <t>08-07-2025 09:46:49 AM</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZHM, FHR-5CG1092Y8L, PC-2MQ5040SX3</t>
+          <t>PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Nate Claseman</t>
+          <t>Justin Hinojosa</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>nate.claseman@fhr.com</t>
+          <t>justin.hinojosa@fhr.com</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>08-03-2025 01:32:09 PM</t>
+          <t>08-06-2025 11:55:01 AM</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>08-03-2025 01:32:37 PM</t>
+          <t>08-06-2025 11:55:29 AM</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFN, FHR-MXL2394SXC, FHR-8CG7352CTV</t>
+          <t>PC-MXL24156FQ SPC-MXL24156FQ FHR-8CG80416HL FHR-8CG806569G FHR-8CG7236C1X FHR-G3BCDZ3 FHR-MXL3132SS4 FHR-8CG80416GX FHR-MXL90224D2 FHR-8J5ZK44 FHR-MXL3132SN7 FHR-MXL3132SS3 FHR-9K8ZK44 FHR-MXL3132SQX KII-MXL2424F2T FHR-MXL5043GK1 FHR-MXL5043GK0 FHR-MXL3132SRR FHR-BK001HK222 FHR-MXL3132SNW FHR-5CD439J37S FHR-MXL3132SP1</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Koy Straks</t>
+          <t>Josiah Peterson</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>koy.straks@fhr.com</t>
+          <t>JOSIAH.PETERSON@FHR.COM</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4290,39 +4290,39 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>08-01-2025 02:42:24 PM</t>
+          <t>08-06-2025 08:30:11 AM</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>08-01-2025 02:42:52 PM</t>
+          <t>08-06-2025 08:31:02 AM</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TF5</t>
+          <t>PC-2MQ5270TC1, FHR-5CD30764W6</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Gaven Girton</t>
+          <t>Andrew Berndt</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>gaven.girton@fhr.com</t>
+          <t>andrew.berndt@fhr.com</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4332,76 +4332,76 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>08-01-2025 02:05:31 PM</t>
+          <t>08-05-2025 01:32:29 PM</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>08-01-2025 02:05:58 PM</t>
+          <t>08-05-2025 01:33:21 PM</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZGG</t>
+          <t>PC-2MQ514100C</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Shaun McVay</t>
+          <t>Matthew VanLanen</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>shaun.mcvay@fhr.com</t>
+          <t>matthew.vanlanen@fhr.com</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>08-01-2025 01:07:44 PM</t>
+          <t>08-05-2025 10:28:12 AM</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>08-01-2025 01:08:17 PM</t>
+          <t>08-05-2025 10:28:39 AM</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>PC-5CD5100KG2</t>
+          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>David Escamilla</t>
+          <t>Arturo Vasquez Jr</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DAVID.ESCAMILLA@FHR.COM</t>
+          <t>ARTURO.VASQUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4411,22 +4411,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>08-01-2025 07:36:23 AM</t>
+          <t>07-30-2025 12:56:40 PM</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>08-01-2025 07:36:54 AM</t>
+          <t>08-05-2025 09:13:23 AM</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>PC-34MXB25193M4, SPC-CRWXJ74, FHR-MXL11033PZ</t>
+          <t>FHR-MXL4123NY2, FHR-8CG82809D5, FHR-5CG31302WM, SPC-37MW25123GX, FHR-MXL9223BRW</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4438,59 +4438,59 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Troy Pena</t>
+          <t>Christopher Koerner</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>troy.pena@fhr.com</t>
+          <t>CHRISTOPHER.KOERNER@FHR.COM</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>07-31-2025 04:49:13 PM</t>
+          <t>08-05-2025 08:14:41 AM</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>07-31-2025 04:49:40 PM</t>
+          <t>08-05-2025 08:15:12 AM</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>FHR-MXL2165D4H, FHR-87ZPDZ3, PC-34P3C25193M4, FHR-5CG24913Q4</t>
+          <t>PC-5CD4514XZX, FHR-59309202153</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Hannah Shea</t>
+          <t>Eric Derieux</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>hannah.shea@fhr.com</t>
+          <t>ERIC.DERIEUX@FHR.COM</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-BEAUMONT2 - FHR-Beaumont TX - Beaumont - Koch</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4500,39 +4500,39 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>07-31-2025 10:42:49 AM</t>
+          <t>08-05-2025 08:01:44 AM</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>07-31-2025 10:43:15 AM</t>
+          <t>08-05-2025 08:02:14 AM</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TCB, PC-5CG213CFKZ</t>
+          <t>PC-2MQ5270TDP, FHR-5CG8353ZC7, DESKTOP-JU70CMA</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Tara Schultz</t>
+          <t>Ryan Sabin</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TARA.SCHULTZ@FHR.COM</t>
+          <t>ryan.sabin@fhr.com</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4542,118 +4542,118 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>07-31-2025 08:59:51 AM</t>
+          <t>08-04-2025 12:02:32 PM</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>07-31-2025 09:00:19 AM</t>
+          <t>08-04-2025 12:03:01 PM</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>FHR-2TK95201XD, PC-2MQ5140ZHK</t>
+          <t>PC-2MQ5140ZHM, FHR-5CG1092Y8L, PC-2MQ5040SX3</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Dave Larson</t>
+          <t>Nate Claseman</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>dave.larson@fhr.com</t>
+          <t>nate.claseman@fhr.com</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>07-31-2025 08:30:21 AM</t>
+          <t>08-03-2025 01:32:09 PM</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>07-31-2025 08:30:52 AM</t>
+          <t>08-03-2025 01:32:37 PM</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZFS, PC-5CG31302L2</t>
+          <t>FHR-MXL2394SXC, PC-2MQ5270TFN, FHR-8CG7352CTV</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Andy Harrison</t>
+          <t>Koy Straks</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ANDY.HARRISON@FHR.COM</t>
+          <t>koy.straks@fhr.com</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>07-30-2025 06:15:56 PM</t>
+          <t>08-01-2025 02:42:24 PM</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>07-30-2025 06:16:23 PM</t>
+          <t>08-01-2025 02:42:52 PM</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>PC-34MWB25193M4, PC-JTKJ414, FHR-5CG1314JWW</t>
+          <t>PC-2MQ5270TF5</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Matt Hoveland</t>
+          <t>Gaven Girton</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MATT.HOVELAND@FHR.COM</t>
+          <t>gaven.girton@fhr.com</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4663,22 +4663,22 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>07-30-2025 04:10:43 PM</t>
+          <t>08-01-2025 02:05:31 PM</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>07-30-2025 04:11:10 PM</t>
+          <t>08-01-2025 02:05:58 PM</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>FHR-5CG2060QSH, FHR-MXL9061CF9, PC-5CD5100K9P</t>
+          <t>PC-2MQ5140ZGG</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4690,17 +4690,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>James Pfeifer</t>
+          <t>Shaun McVay</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>JAMES.PFEIFER@FHR.COM</t>
+          <t>shaun.mcvay@fhr.com</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4710,34 +4710,34 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>07-28-2025 10:17:28 AM</t>
+          <t>08-01-2025 01:07:44 PM</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>07-30-2025 02:09:54 PM</t>
+          <t>08-01-2025 01:08:17 PM</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>SPC-5CD5100K9D, PC-5CD2331XGS</t>
+          <t>PC-5CD5100KG2</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Arnold Ortiz</t>
+          <t>David Escamilla</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ARNOLD.ORTIZ@FHR.COM</t>
+          <t>DAVID.ESCAMILLA@FHR.COM</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4747,22 +4747,22 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>07-24-2025 05:52:42 AM</t>
+          <t>08-01-2025 07:36:23 AM</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>07-30-2025 12:54:23 PM</t>
+          <t>08-01-2025 07:36:54 AM</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>FHR-5CG2096F0R, FHR-5CG2060QFY, SPC-6YF2X54</t>
+          <t>SPC-CRWXJ74, FHR-MXL11033PZ, PC-34MXB25193M4</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4774,12 +4774,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Shaun Passmore</t>
+          <t>Troy Pena</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SHAUN.PASSMORE@FHR.COM</t>
+          <t>troy.pena@fhr.com</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4794,17 +4794,17 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>07-30-2025 10:20:42 AM</t>
+          <t>07-31-2025 04:49:13 PM</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>07-30-2025 10:21:10 AM</t>
+          <t>07-31-2025 04:49:40 PM</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>PC-34P9325193M4</t>
+          <t>FHR-87ZPDZ3, FHR-MXL2165D4H, PC-34P3C25193M4, FHR-5CG24913Q4</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4816,79 +4816,79 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Daniel Hoyle</t>
+          <t>Hannah Shea</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DANIEL.HOYLE@FHR.COM</t>
+          <t>hannah.shea@fhr.com</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>07-27-2025 01:48:14 AM</t>
+          <t>07-31-2025 10:42:49 AM</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>07-29-2025 12:08:56 PM</t>
+          <t>07-31-2025 10:43:15 AM</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>SPC-5CD5100KCW, FHR-MXL902244L, SPC-MXL13349YL</t>
+          <t>PC-2MQ5270TCB, PC-5CG213CFKZ</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Lionel Morin III</t>
+          <t>Tara Schultz</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>LIONEL.MORIN@FHR.COM</t>
+          <t>TARA.SCHULTZ@FHR.COM</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>07-29-2025 06:45:40 AM</t>
+          <t>07-31-2025 08:59:51 AM</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>07-29-2025 06:46:09 AM</t>
+          <t>07-31-2025 09:00:19 AM</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>PC-5CD5100K7C, FHR-5CG04179SM</t>
+          <t>PC-2MQ5140ZHK, FHR-2TK95201XD</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4900,17 +4900,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Jeremy Smith</t>
+          <t>Dave Larson</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>jeremy.smith3@fhr.com</t>
+          <t>dave.larson@fhr.com</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4920,76 +4920,76 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>07-28-2025 04:43:36 PM</t>
+          <t>07-31-2025 08:30:21 AM</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>07-28-2025 04:44:03 PM</t>
+          <t>07-31-2025 08:30:52 AM</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZG1, PC-5CG4515GJN</t>
+          <t>PC-2MQ5140ZFS, PC-5CG31302L2</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Michael Marshall</t>
+          <t>Andy Harrison</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>michael.marshall@fhr.com</t>
+          <t>ANDY.HARRISON@FHR.COM</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>07-28-2025 02:19:41 PM</t>
+          <t>07-30-2025 06:15:56 PM</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>07-28-2025 02:20:07 PM</t>
+          <t>07-30-2025 06:16:23 PM</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>PC-5CG24912TQ, PC-2MQ5270TFQ</t>
+          <t>PC-34MWB25193M4, PC-JTKJ414, FHR-5CG1314JWW</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Kyle Koetje</t>
+          <t>Matt Hoveland</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>kyle.koetje@fhr.com</t>
+          <t>MATT.HOVELAND@FHR.COM</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4999,22 +4999,22 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>07-26-2025 02:30:13 AM</t>
+          <t>07-30-2025 04:10:43 PM</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>07-26-2025 02:30:43 AM</t>
+          <t>07-30-2025 04:11:10 PM</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>FHR-5CG3264H4D, PC-337MV25123GX, PC-5CD145N3LL</t>
+          <t>FHR-5CG2060QSH, FHR-MXL9061CF9, PC-5CD5100K9P</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5026,54 +5026,54 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>TAYLOR MACZIEWSKI</t>
+          <t>James Pfeifer</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>taylor.macziewski@fhr.com</t>
+          <t>JAMES.PFEIFER@FHR.COM</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>07-25-2025 05:52:09 PM</t>
+          <t>07-28-2025 10:17:28 AM</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>07-25-2025 05:52:36 PM</t>
+          <t>07-30-2025 02:09:54 PM</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TDK</t>
+          <t>SPC-5CD5100K9D, PC-5CD2331XGS</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Arturo Vasquez Jr</t>
+          <t>Arnold Ortiz</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ARTURO.VASQUEZ@FHR.COM</t>
+          <t>ARNOLD.ORTIZ@FHR.COM</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5083,22 +5083,22 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>07-25-2025 10:53:48 AM</t>
+          <t>07-24-2025 05:52:42 AM</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>07-25-2025 10:54:15 AM</t>
+          <t>07-30-2025 12:54:23 PM</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>FHR-8CG82809D5, SPC-37MW25123GX, FHR-5CG31302WM, FHR-MXL9223BRW</t>
+          <t>FHR-5CG2096F0R, FHR-5CG2060QFY, SPC-6YF2X54</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5110,180 +5110,180 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Jodi Rein</t>
+          <t>Shaun Passmore</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>jodi.rein@fhr.com</t>
+          <t>SHAUN.PASSMORE@FHR.COM</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>07-25-2025 09:20:21 AM</t>
+          <t>07-30-2025 10:20:42 AM</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>07-25-2025 09:20:50 AM</t>
+          <t>07-30-2025 10:21:10 AM</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>PC-1H95220MNX, PC-5CG2051YC4</t>
+          <t>PC-34P9325193M4</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Kemal Simpson</t>
+          <t>Daniel Hoyle</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>kemal.simpson@fhr.com</t>
+          <t>DANIEL.HOYLE@FHR.COM</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>07-22-2025 11:13:40 AM</t>
+          <t>07-27-2025 01:48:14 AM</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>07-22-2025 11:14:08 AM</t>
+          <t>07-29-2025 12:08:56 PM</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>FHR-5CG1073F3X</t>
+          <t>SPC-FPQGQ54, PC-4H5ZK44, SPC-5CD5100KCW, FHR-MXL902244L, SPC-MXL13349YL</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Jennifer Hastings</t>
+          <t>Lionel Morin III</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>JENNIFER.J.HASTINGS@FHR.COM</t>
+          <t>LIONEL.MORIN@FHR.COM</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>07-22-2025 10:28:30 AM</t>
+          <t>07-29-2025 06:45:40 AM</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>07-22-2025 10:28:57 AM</t>
+          <t>07-29-2025 06:46:09 AM</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>PC-2MQ51410X9, FHR-5CG1344HQP</t>
+          <t>PC-5CD5100K7C, FHR-5CG04179SM</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Kristie Hunter</t>
+          <t>Jeremy Smith</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>kristine.hunter@fhr.com</t>
+          <t>jeremy.smith3@fhr.com</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>07-22-2025 09:30:25 AM</t>
+          <t>07-28-2025 04:43:36 PM</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>07-22-2025 09:30:54 AM</t>
+          <t>07-28-2025 04:44:03 PM</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>PC-5CG313039Y</t>
+          <t>PC-2MQ5140ZG1, PC-5CG4515GJN</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Cameron Pascal</t>
+          <t>Michael Marshall</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>cameron.pascal@fhr.com</t>
+          <t>michael.marshall@fhr.com</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5293,22 +5293,22 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>07-21-2025 05:23:15 PM</t>
+          <t>07-28-2025 02:19:41 PM</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>07-21-2025 05:23:45 PM</t>
+          <t>07-28-2025 02:20:07 PM</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>PC-2MQ514115D</t>
+          <t>PC-5CG24912TQ, PC-2MQ5270TFQ</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5320,42 +5320,42 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Gabriela Silvas</t>
+          <t>Kyle Koetje</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>GABRIELA.SILVAS@FHR.COM</t>
+          <t>kyle.koetje@fhr.com</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>07-21-2025 12:43:30 PM</t>
+          <t>07-26-2025 02:30:13 AM</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>07-21-2025 12:48:52 PM</t>
+          <t>07-26-2025 02:30:43 AM</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>FHR-MXL2302P0Z, FHR-5CG1276WNC, PC-2MQ5140ZLH, FHR-G3BCDZ3</t>
+          <t>FHR-5CG3264H4D, PC-337MV25123GX, PC-5CD145N3LL</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>

--- a/output/fhr_computer_requests.xlsx
+++ b/output/fhr_computer_requests.xlsx
@@ -532,96 +532,96 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Shannon Angle</t>
+          <t>Trevor Willberg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>shannon.angle@kochcc.com</t>
+          <t>trevor.willberg@fhr.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09-17-2025 07:50:45 AM</t>
+          <t>09-17-2025 10:21:00 AM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>09-17-2025 07:51:14 AM</t>
+          <t>09-17-2025 12:52:13 PM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bryeton Canchola</t>
+          <t>Cory Strandlien</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bryeton.canchola@fhr.com</t>
+          <t>cory.strandlien@fhr.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09-16-2025 03:26:59 PM</t>
+          <t>09-17-2025 09:55:48 AM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>09-16-2025 03:27:26 PM</t>
+          <t>09-17-2025 12:44:37 PM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SPC-MXL3324PZ2, SPC-MXL3324PYP, FHR-8V4TNZ3</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Charles Cooley Jr</t>
+          <t>Enrique Flores</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHARLES.COOLEY@FHR.COM</t>
+          <t>ENRIQUE.FLORES@FHR.COM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -631,22 +631,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09-16-2025 02:26:57 PM</t>
+          <t>09-17-2025 10:03:05 AM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09-16-2025 02:27:28 PM</t>
+          <t>09-17-2025 10:03:36 AM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FHR-5CG225854R</t>
+          <t>FHR-2UA8311QWT, FHR-5CG1240T5M, FHR-5CD4154J0P</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -658,12 +658,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Patrick Tiller</t>
+          <t>Jason Henke</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PATRICK.TILLER@FHR.COM</t>
+          <t>JASON.HENKE@FHR.COM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -673,22 +673,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09-16-2025 12:20:22 PM</t>
+          <t>09-17-2025 09:38:30 AM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09-16-2025 12:20:49 PM</t>
+          <t>09-17-2025 09:39:02 AM</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PC-JZ4TNZ3, FHR-5CG1240T4Q, FHR-5CG815441G, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
+          <t>FHR-5CG2151LHM</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -700,59 +700,59 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bryan Garcia</t>
+          <t>Jed Illg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bryan.garcia1@fhr.com</t>
+          <t>Jed.Illg@fhr.com</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09-16-2025 07:46:13 AM</t>
+          <t>09-17-2025 08:33:21 AM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-16-2025 07:46:49 AM</t>
+          <t>09-17-2025 08:33:50 AM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PC-BZQ03Z3, PC-5CG408495P</t>
+          <t>FHR-5CG2156GG9</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Troy Hull</t>
+          <t>Shannon Angle</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TROY.HULL@FHR.COM</t>
+          <t>shannon.angle@kochcc.com</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -762,81 +762,81 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09-16-2025 06:55:54 AM</t>
+          <t>09-17-2025 07:50:45 AM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-16-2025 06:56:26 AM</t>
+          <t>09-17-2025 07:51:14 AM</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>FHR-MXL24155WF, PC-5CG4151LFY</t>
+          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Crystal Link</t>
+          <t>Bryeton Canchola</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CRYSTAL.LINK@FHR.COM</t>
+          <t>bryeton.canchola@fhr.com</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-15-2025 11:01:25 AM</t>
+          <t>09-16-2025 03:26:59 PM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-15-2025 11:01:54 AM</t>
+          <t>09-16-2025 03:27:26 PM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>FHR-5CG0254D4T, PC-5CG1465ZKZ</t>
+          <t>SPC-MXL24155VV FHR-MXL1022SZ3 FHR-MXL24156C3 SPC-MXL24155W5 SPC-MXL3324PYM SPC-MXL3324PZ0 FHR-MXL2223BDL FHR-MXL9502C5W FHR-MXL9333W07 PC-01W3B23013BF FHR-MXL1022T0R FHR-MXL24155WF FHR-MXL13349Z2 SPC-MXL3324PZ2 FHR-MXL90224C1 FHR-BK000V1 FHR-B9XFH04 SPC-MXL3324PYD SPC-MXL3324PYP FHR-8V4TNZ3</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Alex Lodholz</t>
+          <t>Charles Cooley Jr</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>alex.lodholz@fhr.com</t>
+          <t>CHARLES.COOLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -846,34 +846,34 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-15-2025 09:14:43 AM</t>
+          <t>09-16-2025 02:26:57 PM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-15-2025 09:15:12 AM</t>
+          <t>09-16-2025 02:27:28 PM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>FHR-5CG225854R</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Brendan Snell</t>
+          <t>Patrick Tiller</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>brendan.snell@fhr.com</t>
+          <t>PATRICK.TILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -883,22 +883,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:12 AM</t>
+          <t>09-16-2025 12:20:22 PM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:46 AM</t>
+          <t>09-16-2025 12:20:49 PM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FHR-5CG2156XDV</t>
+          <t>PC-1H85200B13, PC-JZ4TNZ3, FHR-5CG1240T4Q, FHR-5CG815441G, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -910,12 +910,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Joey Guerrero</t>
+          <t>Bryan Garcia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>joey.guerrero1@fhr.com</t>
+          <t>bryan.garcia1@fhr.com</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -930,17 +930,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09-15-2025 06:33:41 AM</t>
+          <t>09-16-2025 07:46:13 AM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-15-2025 06:34:14 AM</t>
+          <t>09-16-2025 07:46:49 AM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>PC-9659600351</t>
+          <t>PC-BZQ03Z3, PC-5CG408495P</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -952,12 +952,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Eddie Buskirk</t>
+          <t>Troy Hull</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EDDIE.BUSKIRK@FHR.COM</t>
+          <t>TROY.HULL@FHR.COM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,22 +967,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09-12-2025 01:52:56 PM</t>
+          <t>09-16-2025 06:55:54 AM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09-12-2025 01:53:24 PM</t>
+          <t>09-16-2025 06:56:26 AM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>FHR-5CG9326W2B</t>
+          <t>FHR-MXL24155WF, PC-5CG4151LFY</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -994,54 +994,54 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sammantha Reynolds</t>
+          <t>Crystal Link</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>sammantha.reynolds1@fhr.com</t>
+          <t>CRYSTAL.LINK@FHR.COM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09-12-2025 08:18:55 AM</t>
+          <t>09-15-2025 11:01:25 AM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09-12-2025 08:19:25 AM</t>
+          <t>09-15-2025 11:01:54 AM</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
+          <t>PC-5CG1465ZKZ, FHR-5CG0254D4T</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Victor Sauceda</t>
+          <t>Alex Lodholz</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>victor.sauceda@fhr.com</t>
+          <t>alex.lodholz@fhr.com</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1051,22 +1051,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:03 AM</t>
+          <t>09-15-2025 09:14:43 AM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:33 AM</t>
+          <t>09-15-2025 09:15:12 AM</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>FHR-5CD8522C54</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1078,54 +1078,54 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mitch O'Keefe</t>
+          <t>Brendan Snell</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MITCH.OKEEFE@FHR.COM</t>
+          <t>brendan.snell@fhr.com</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:11 PM</t>
+          <t>09-15-2025 08:15:12 AM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:39 PM</t>
+          <t>09-15-2025 08:15:46 AM</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>FHR-MXL23843M2, MSP-CTLU27, FHR-MXL23843MP, FHR-5CG1344HQ7</t>
+          <t>FHR-5CG2156XDV</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Joe Bedynek</t>
+          <t>Joey Guerrero</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>JOE.BEDYNEK@FHR.COM</t>
+          <t>joey.guerrero1@fhr.com</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1140,17 +1140,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:10 PM</t>
+          <t>09-15-2025 06:33:41 AM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:36 PM</t>
+          <t>09-15-2025 06:34:14 AM</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>PC-33W6D25273R3, FHR-5CD026KSTV</t>
+          <t>PC-33B8725073R3, PC-9659600351</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1162,59 +1162,59 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ruben Hernandez</t>
+          <t>Eddie Buskirk</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ruben.hernandez@fhr.com</t>
+          <t>EDDIE.BUSKIRK@FHR.COM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09-10-2025 02:51:54 PM</t>
+          <t>09-12-2025 01:52:56 PM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-10-2025 02:52:21 PM</t>
+          <t>09-12-2025 01:53:24 PM</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>PC-2MQ5141117, PC-5CD231GKV7</t>
+          <t>PC-1H85200B0W, FHR-5CG9326W2B</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lauren Sada</t>
+          <t>Sammantha Reynolds</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>lauren.sada@fhr.com</t>
+          <t>sammantha.reynolds1@fhr.com</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1224,34 +1224,34 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:21 PM</t>
+          <t>09-12-2025 08:18:55 AM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:49 PM</t>
+          <t>09-12-2025 08:19:25 AM</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Kevin Harvey</t>
+          <t>Victor Sauceda</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KEVIN.HARVEY@FHR.COM</t>
+          <t>victor.sauceda@fhr.com</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1261,22 +1261,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09-10-2025 08:38:42 AM</t>
+          <t>09-11-2025 09:46:03 AM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-10-2025 08:39:13 AM</t>
+          <t>09-11-2025 09:46:33 AM</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>PC-2MQ5290Z3G, FHR-5CG1236JK6</t>
+          <t>FHR-5CD8522C54</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1288,12 +1288,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Matt Olson</t>
+          <t>Mitch O'Keefe</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MATTHEW.OLSON@FHR.COM</t>
+          <t>MITCH.OKEEFE@FHR.COM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1303,22 +1303,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>09-09-2025 11:43:57 AM</t>
+          <t>09-10-2025 05:54:11 PM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09-09-2025 11:44:26 AM</t>
+          <t>09-10-2025 05:54:39 PM</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>FHR-5CD40711PF, PC-2MQ5290Z8Z, FHR-5CG918242Z</t>
+          <t>FHR-MXL23843M2, MSP-CTLU27, FHR-5CG1344HQ7</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1330,96 +1330,96 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sam Weldemariam</t>
+          <t>Joe Bedynek</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SAM.WELDEMARIAM@FHR.COM</t>
+          <t>JOE.BEDYNEK@FHR.COM</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:23 AM</t>
+          <t>09-10-2025 02:54:10 PM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:51 AM</t>
+          <t>09-10-2025 02:54:36 PM</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PC-GQMKN34, FHR-D90QDZ3, FHR-F9GR624, FHR-3KJBQ54, FHR-G8GR624, FHR-5CG213BX6D, FHR-MXL9144C61, FHR-5CD8506CR3</t>
+          <t>PC-33W6D25273R3, FHR-5CD026KSTV</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Derek Wilfong</t>
+          <t>Ruben Hernandez</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DEREK.WILFONG@FHR.COM</t>
+          <t>ruben.hernandez@fhr.com</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>09-09-2025 09:02:55 AM</t>
+          <t>09-10-2025 02:51:54 PM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>09-09-2025 09:03:28 AM</t>
+          <t>09-10-2025 02:52:21 PM</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>FHR-5CG1314K33</t>
+          <t>PC-2MQ5141117, PC-5CD231GKV7</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Joel Mccabe</t>
+          <t>Lauren Sada</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>JOEL.MCCABE@FHR.COM</t>
+          <t>lauren.sada@fhr.com</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1429,22 +1429,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>09-05-2025 03:04:34 PM</t>
+          <t>09-10-2025 01:27:21 PM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>09-08-2025 09:08:16 AM</t>
+          <t>09-10-2025 01:27:49 PM</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>SPC-G942X54, FHR-1B1KH04, MSP-005054</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1456,17 +1456,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Devon Holz</t>
+          <t>Kevin Harvey</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DEVON.HOLZ@FHR.COM</t>
+          <t>KEVIN.HARVEY@FHR.COM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1476,143 +1476,143 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:14 PM</t>
+          <t>09-10-2025 08:38:42 AM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:42 PM</t>
+          <t>09-10-2025 08:39:13 AM</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZD9, FHR-5CG2219ZDW</t>
+          <t>FHR-5CG1236JK6, PC-2MQ5290Z3G</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Shawn Sieben</t>
+          <t>Matt Olson</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Shawn.Sieben@fhr.com</t>
+          <t>MATTHEW.OLSON@FHR.COM</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09-04-2025 09:29:38 AM</t>
+          <t>09-09-2025 11:43:57 AM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>09-05-2025 12:58:04 PM</t>
+          <t>09-09-2025 11:44:26 AM</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>FHR-5CD3507T46, FHR-CND8426B2G, FHR-8CC84008DL</t>
+          <t>PC-2MQ5290Z8Z, FHR-5CD40711PF, FHR-5CG918242Z</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Carrie Simpson</t>
+          <t>Sam Weldemariam</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CARRIE.SIMPSON@FHR.COM</t>
+          <t>SAM.WELDEMARIAM@FHR.COM</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:03 PM</t>
+          <t>09-09-2025 09:48:23 AM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:30 PM</t>
+          <t>09-09-2025 09:48:51 AM</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>FHR-8CG83488SZ, PC-2MQ5140ZSD, PC-001NS23373BF</t>
+          <t>FHR-D90QDZ3, FHR-3KJBQ54, PC-GQMKN34, FHR-F9GR624, FHR-G8GR624, FHR-MXL9144C61, FHR-5CG213BX6D, FHR-5CD8506CR3</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chris Pratt</t>
+          <t>Derek Wilfong</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chris.Pratt@fhr.com</t>
+          <t>DEREK.WILFONG@FHR.COM</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09-02-2025 04:16:05 PM</t>
+          <t>09-09-2025 09:02:55 AM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-04-2025 01:23:58 PM</t>
+          <t>09-09-2025 09:03:28 AM</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>FHR-5CD016BPV0, FHR-MXL8361TTS</t>
+          <t>FHR-5CG1314K33</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1624,121 +1624,121 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Manuel Moreno Jr</t>
+          <t>Joel Mccabe</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MANUEL.MORENO@FHR.COM</t>
+          <t>JOEL.MCCABE@FHR.COM</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>05-02-2025 08:54:50 AM</t>
+          <t>09-05-2025 03:04:34 PM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-04-2025 01:17:10 PM</t>
+          <t>09-08-2025 09:08:16 AM</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>PC-5CG4143GRG, SPC-5BJ8D14, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
+          <t>SPC-G942X54, FHR-1B1KH04, MSP-005054</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ben Sandiford</t>
+          <t>Devon Holz</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ben.sandiford@fhr.com</t>
+          <t>DEVON.HOLZ@FHR.COM</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:18 PM</t>
+          <t>09-05-2025 02:23:14 PM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:48 PM</t>
+          <t>09-05-2025 02:23:42 PM</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>PC-1H95220MS6, PC-33VW824233M4</t>
+          <t>FHR-5CG2219ZDW, PC-2MQ5140ZD9</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Denise Schardt</t>
+          <t>Shawn Sieben</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DENISE.SCHARDT@FHR.COM</t>
+          <t>Shawn.Sieben@fhr.com</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09-03-2025 02:48:18 PM</t>
+          <t>09-04-2025 09:29:38 AM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-04-2025 01:00:11 PM</t>
+          <t>09-05-2025 12:58:04 PM</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
+          <t>FHR-CND8426B2G, FHR-5CD3507T46, FHR-8CC84008DL</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1750,17 +1750,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ray Aslesen</t>
+          <t>Carrie Simpson</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RAY.ASLESEN@FHR.COM</t>
+          <t>CARRIE.SIMPSON@FHR.COM</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1770,328 +1770,328 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09-04-2025 07:28:33 AM</t>
+          <t>09-04-2025 03:17:03 PM</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09-04-2025 07:29:01 AM</t>
+          <t>09-04-2025 03:17:30 PM</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>PC-MXL4523KGB, PC-2MQ5140ZSW, FHR-0F00CQM2332, FHR-CND1440HBV</t>
+          <t>PC-2MQ5140ZSD, FHR-8CG83488SZ, PC-001NS23373BF</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>Chris Pratt</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>Chris.Pratt@fhr.com</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09-04-2025 06:11:34 AM</t>
+          <t>09-02-2025 04:16:05 PM</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09-04-2025 06:12:02 AM</t>
+          <t>09-04-2025 01:23:58 PM</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>PC-MXL53644K5, FHR-5CD016BPV0, FHR-MXL8361TTS</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Dora Heimsoth</t>
+          <t>Manuel Moreno Jr</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>dora.heimsoth1@fhr.com</t>
+          <t>MANUEL.MORENO@FHR.COM</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09-03-2025 03:00:34 PM</t>
+          <t>05-02-2025 08:54:50 AM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-03-2025 03:01:01 PM</t>
+          <t>09-04-2025 01:17:10 PM</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>PC-339W925073R3, PC-86XGSV3</t>
+          <t>SPC-5BJ8D14, PC-5CG4143GRG, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Stephen Rodriguez</t>
+          <t>Ben Sandiford</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
+          <t>ben.sandiford@fhr.com</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09-03-2025 02:28:45 PM</t>
+          <t>09-04-2025 01:11:18 PM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09-03-2025 02:29:20 PM</t>
+          <t>09-04-2025 01:11:48 PM</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>FHR-MXL4424X3B</t>
+          <t>PC-33VW824233M4, PC-1H95220MS6</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Matt Skrobarcek</t>
+          <t>Denise Schardt</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
+          <t>DENISE.SCHARDT@FHR.COM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:08 AM</t>
+          <t>09-03-2025 02:48:18 PM</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:38 AM</t>
+          <t>09-04-2025 01:00:11 PM</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
+          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Justin Nava</t>
+          <t>Ray Aslesen</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>JUSTIN.NAVA@FHR.COM</t>
+          <t>RAY.ASLESEN@FHR.COM</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09-03-2025 09:44:33 AM</t>
+          <t>09-04-2025 07:28:33 AM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-03-2025 09:45:02 AM</t>
+          <t>09-04-2025 07:29:01 AM</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>SPC-82TKZ84, FHR-5CG4240WQT, FHR-MXL9223BVJ</t>
+          <t>PC-MXL4523KGB, PC-2MQ5140ZSW, FHR-0F00CQM2332, FHR-CND1440HBV</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Logan Tom</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>logan.tom@fhr.com</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:15 PM</t>
+          <t>09-04-2025 06:11:34 AM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:42 PM</t>
+          <t>09-04-2025 06:12:02 AM</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Travis Sumerfelt</t>
+          <t>Dora Heimsoth</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>travis.sumerfelt@fhr.com</t>
+          <t>dora.heimsoth1@fhr.com</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09-02-2025 11:06:03 AM</t>
+          <t>09-03-2025 03:00:34 PM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-02-2025 11:07:05 AM</t>
+          <t>09-03-2025 03:01:01 PM</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>PC-2MQ514108Q</t>
+          <t>PC-339W925073R3, PC-86XGSV3</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Carlos Garcia Jr.</t>
+          <t>Stephen Rodriguez</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CARLOS.GARCIAJR@FHR.COM</t>
+          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2101,22 +2101,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>08-27-2025 09:24:59 PM</t>
+          <t>09-03-2025 02:28:45 PM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-02-2025 08:26:34 AM</t>
+          <t>09-03-2025 02:29:20 PM</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>FHR-4PMKN34</t>
+          <t>FHR-MXL4424X3B</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2128,12 +2128,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Billy Royal</t>
+          <t>Matt Skrobarcek</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BILLY.ROYAL@FHR.COM</t>
+          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2143,22 +2143,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:06 PM</t>
+          <t>09-03-2025 09:46:08 AM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:34 PM</t>
+          <t>09-03-2025 09:46:38 AM</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>FHR-5CD2331XLD</t>
+          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2170,59 +2170,59 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Samuel Paulus</t>
+          <t>Justin Nava</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>samuel.paulus@fhr.com</t>
+          <t>JUSTIN.NAVA@FHR.COM</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:17 PM</t>
+          <t>09-03-2025 09:44:33 AM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:45 PM</t>
+          <t>09-03-2025 09:45:02 AM</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
+          <t>SPC-82TKZ84, FHR-5CG4240WQT, FHR-MXL9223BVJ</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Derya Broll</t>
+          <t>Logan Tom</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DERYA.BROLL@FHR.COM</t>
+          <t>logan.tom@fhr.com</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2232,76 +2232,76 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:07 PM</t>
+          <t>09-02-2025 02:39:15 PM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:37 PM</t>
+          <t>09-02-2025 02:39:42 PM</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
+          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Joseph Moberly</t>
+          <t>Travis Sumerfelt</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>joseph.moberly@fhr.com</t>
+          <t>travis.sumerfelt@fhr.com</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>08-28-2025 01:10:49 PM</t>
+          <t>09-02-2025 11:06:03 AM</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>08-28-2025 01:11:16 PM</t>
+          <t>09-02-2025 11:07:05 AM</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>PC-1H852009W3, PC-5CG2415PYM</t>
+          <t>PC-2MQ514108Q</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Lindi Dinn</t>
+          <t>Carlos Garcia Jr.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>LINDI.DINN@FHR.COM</t>
+          <t>CARLOS.GARCIAJR@FHR.COM</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2311,22 +2311,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:14 PM</t>
+          <t>08-27-2025 09:24:59 PM</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:40 PM</t>
+          <t>09-02-2025 08:26:34 AM</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>FHR-CND1440HKF, PC-1H852009X5, FHR-8CC8412KMN, PC-36KMG25193M4, FHR-51990492553</t>
+          <t>FHR-4PMKN34</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2338,12 +2338,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Rodney Cotten</t>
+          <t>Billy Royal</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>RODNEY.COTTEN@FHR.COM</t>
+          <t>BILLY.ROYAL@FHR.COM</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2353,22 +2353,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:02 PM</t>
+          <t>08-29-2025 04:48:06 PM</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:30 PM</t>
+          <t>08-29-2025 04:48:34 PM</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>PC-5CD5100K7L, FHR-5CG7515059</t>
+          <t>FHR-5CD2331XLD</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2380,37 +2380,37 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Chad Schaner</t>
+          <t>Samuel Paulus</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CHAD.SCHANER@FHR.COM</t>
+          <t>samuel.paulus@fhr.com</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Dell Pro Rugged RB14250 14" Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>08-04-2025 01:41:48 PM</t>
+          <t>08-29-2025 01:00:17 PM</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>08-27-2025 01:20:37 PM</t>
+          <t>08-29-2025 01:00:45 PM</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>FHR-DYW9BT3, FHR-8H0GH04, FHR-8CG7352CR5, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-8CG7352CSF, FHR-187491253</t>
+          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2422,12 +2422,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Denise Gonzalez</t>
+          <t>Derya Broll</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DENISE.GONZALEZ@FHR.COM</t>
+          <t>DERYA.BROLL@FHR.COM</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2437,22 +2437,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:17 AM</t>
+          <t>08-29-2025 12:10:07 PM</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:45 AM</t>
+          <t>08-29-2025 12:10:37 PM</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>SPC-D0R03Z3, PC-34Y4825063R3, SPC-23V03Z3, PC-5WXDQV3</t>
+          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2464,54 +2464,54 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Kris Adkins</t>
+          <t>Joseph Moberly</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>KRISTOPHER.ADKINS@FHR.COM</t>
+          <t>joseph.moberly@fhr.com</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>08-26-2025 08:20:43 PM</t>
+          <t>08-28-2025 01:10:49 PM</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>08-26-2025 08:21:16 PM</t>
+          <t>08-28-2025 01:11:16 PM</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>PC-34WWG25063R3</t>
+          <t>PC-1H852009W3, PC-5CG2415PYM</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Jose Cardona</t>
+          <t>Lindi Dinn</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>JOSE.CARDONA@FHR.COM</t>
+          <t>LINDI.DINN@FHR.COM</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2521,22 +2521,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>08-26-2025 09:00:40 AM</t>
+          <t>08-27-2025 02:53:14 PM</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>08-26-2025 09:01:09 AM</t>
+          <t>08-27-2025 02:53:40 PM</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>SPC-5CG4084VQJ, SPC-C9HZK44, CPC-JOSEC-BGVEA, FHR-5CG30935LZ</t>
+          <t>PC-1H852009X5, FHR-CND1440HKF, FHR-8CC8412KMN, PC-36KMG25193M4, FHR-51990492553</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2548,54 +2548,54 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Phillip Norell</t>
+          <t>Rodney Cotten</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PHILLIP.NORELL@FHR.COM</t>
+          <t>RODNEY.COTTEN@FHR.COM</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:13 PM</t>
+          <t>08-27-2025 02:27:02 PM</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:39 PM</t>
+          <t>08-27-2025 02:27:30 PM</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>PC-1H85200B08, FHR-5CG213CGKR</t>
+          <t>PC-5CD5100K7L, FHR-5CG7515059</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Anne Lee</t>
+          <t>Chad Schaner</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ANNE.LEE@FHR.COM</t>
+          <t>CHAD.SCHANER@FHR.COM</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2605,22 +2605,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>Dell Pro Rugged RB14250 14" Laptop</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:00 AM</t>
+          <t>08-04-2025 01:41:48 PM</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:30 AM</t>
+          <t>08-27-2025 01:20:37 PM</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
+          <t>FHR-8H0GH04, FHR-8CG7352CR5, FHR-DYW9BT3, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-187491253</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2632,12 +2632,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>David Barnholt</t>
+          <t>Denise Gonzalez</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>david.barnholt@fhr.com</t>
+          <t>DENISE.GONZALEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2647,22 +2647,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:27 AM</t>
+          <t>08-27-2025 07:15:17 AM</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:54 AM</t>
+          <t>08-27-2025 07:15:45 AM</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>PC-1H852009SD</t>
+          <t>PC-34Y4825063R3, SPC-63V03Z3, SPC-D0R03Z3, PC-5WXDQV3</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2674,54 +2674,54 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Eric Enders</t>
+          <t>Kris Adkins</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>eric.enders@fhr.com</t>
+          <t>KRISTOPHER.ADKINS@FHR.COM</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:30 AM</t>
+          <t>08-26-2025 08:20:43 PM</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:59 AM</t>
+          <t>08-26-2025 08:21:16 PM</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>PC-2MQ514115J</t>
+          <t>PC-34WWG25063R3</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sean Garza</t>
+          <t>Jose Cardona</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>sean.garza@fhr.com</t>
+          <t>JOSE.CARDONA@FHR.COM</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2731,22 +2731,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>08-19-2025 01:01:15 AM</t>
+          <t>08-26-2025 09:00:40 AM</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:18 AM</t>
+          <t>08-26-2025 09:01:09 AM</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>SPC-3B6G25073R3</t>
+          <t>FHR-5CG30935LZ, CPC-JOSEC-BGVEA</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2758,12 +2758,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Joe Rohl</t>
+          <t>Phillip Norell</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>JOE.ROHL@FHR.COM</t>
+          <t>PHILLIP.NORELL@FHR.COM</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2778,17 +2778,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08-19-2025 02:44:07 PM</t>
+          <t>08-25-2025 02:58:13 PM</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:14 AM</t>
+          <t>08-25-2025 02:58:39 PM</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
+          <t>FHR-5CG213CGKR, PC-1H85200B08</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2800,54 +2800,54 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>David Ybarra</t>
+          <t>Anne Lee</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DAVID.YBARRA@FHR.COM</t>
+          <t>ANNE.LEE@FHR.COM</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:30 AM</t>
+          <t>08-25-2025 10:13:00 AM</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:58 AM</t>
+          <t>08-25-2025 10:13:30 AM</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
+          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>David Barnholt</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>david.barnholt@fhr.com</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2857,22 +2857,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:19 AM</t>
+          <t>08-22-2025 11:11:27 AM</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:48 AM</t>
+          <t>08-22-2025 11:11:54 AM</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>PC-1H852009SD</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2884,37 +2884,37 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Cole Brewster</t>
+          <t>Eric Enders</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>cole.brewster@fhr.com</t>
+          <t>eric.enders@fhr.com</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>08-20-2025 01:48:49 PM</t>
+          <t>08-22-2025 07:55:30 AM</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>08-20-2025 01:49:17 PM</t>
+          <t>08-22-2025 07:55:59 AM</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>PC-34Y3Q25063R3, FHR-5CG1276WN7</t>
+          <t>PC-2MQ514115J</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2926,101 +2926,101 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Brenna Gerety</t>
+          <t>Sean Garza</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BRENNA.GERETY@FHR.COM</t>
+          <t>sean.garza@fhr.com</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:01 AM</t>
+          <t>08-19-2025 01:01:15 AM</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:29 AM</t>
+          <t>08-22-2025 07:34:18 AM</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>PC-5CG5040677, FHR-5CG0036B94</t>
+          <t>SPC-3B6G25073R3</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Daniel Jurach</t>
+          <t>Joe Rohl</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>daniel.jurach@fhr.com</t>
+          <t>JOE.ROHL@FHR.COM</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>08-18-2025 11:58:20 AM</t>
+          <t>08-19-2025 02:44:07 PM</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>08-19-2025 10:21:28 AM</t>
+          <t>08-22-2025 07:34:14 AM</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>PC-2MQ514110T</t>
+          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tony Short</t>
+          <t>David Ybarra</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ANTHONY.SHORT@KPLSRV.COM</t>
+          <t>DAVID.YBARRA@FHR.COM</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3030,123 +3030,123 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:07 AM</t>
+          <t>08-22-2025 07:18:30 AM</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:38 AM</t>
+          <t>08-22-2025 07:18:58 AM</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>PC-5CD229GR66, PC-5CD5100KK7, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
+          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Chad Remer</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CHAD.REMER@FHR.COM</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:04 AM</t>
+          <t>08-22-2025 06:59:19 AM</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:34 AM</t>
+          <t>08-22-2025 06:59:48 AM</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Nicholas Hanson</t>
+          <t>Cole Brewster</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NICK.HANSON@FHR.COM</t>
+          <t>cole.brewster@fhr.com</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:17 AM</t>
+          <t>08-20-2025 01:48:49 PM</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:46 AM</t>
+          <t>08-20-2025 01:49:17 PM</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
+          <t>PC-34Y3Q25063R3, FHR-5CG1276WN7</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Harold Irvin</t>
+          <t>Brenna Gerety</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>HAROLD.IRVIN@FHR.COM</t>
+          <t>BRENNA.GERETY@FHR.COM</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3156,160 +3156,160 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:06 PM</t>
+          <t>08-20-2025 07:58:01 AM</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:37 PM</t>
+          <t>08-20-2025 07:58:29 AM</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>PC-2MQ51410F2, FHR-5CG2156Z1X</t>
+          <t>PC-5CG5040677, FHR-5CG0036B94</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sandra Akarolo</t>
+          <t>Daniel Jurach</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>sandra.akarolo@fhr.com</t>
+          <t>daniel.jurach@fhr.com</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>08-13-2025 01:51:42 PM</t>
+          <t>08-18-2025 11:58:20 AM</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>08-14-2025 08:58:56 AM</t>
+          <t>08-19-2025 10:21:28 AM</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>FHR-5CG213CDWV</t>
+          <t>PC-2MQ514110T</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Paul Fisher</t>
+          <t>Tony Short</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PAUL.FISHER@FHR.COM</t>
+          <t>ANTHONY.SHORT@KPLSRV.COM</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:23 PM</t>
+          <t>08-18-2025 10:21:07 AM</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:56 PM</t>
+          <t>08-18-2025 10:21:38 AM</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
+          <t>PC-5CD5100KK7, PC-5CD229GR66, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Robert Corley</t>
+          <t>Chad Remer</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ROBERT.CORLEY@FHR.COM</t>
+          <t>CHAD.REMER@FHR.COM</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-12-2025 06:27:18 PM</t>
+          <t>08-18-2025 09:26:04 AM</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-13-2025 12:47:38 PM</t>
+          <t>08-18-2025 09:26:34 AM</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
+          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Jeff Baker</t>
+          <t>Nicholas Hanson</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>JEFF.BAKER@FHR.COM</t>
+          <t>NICK.HANSON@FHR.COM</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3319,22 +3319,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:02 AM</t>
+          <t>08-15-2025 07:06:17 AM</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:30 AM</t>
+          <t>08-15-2025 07:06:46 AM</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
+          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3346,17 +3346,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Kemal Simpson</t>
+          <t>Harold Irvin</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>kemal.simpson@fhr.com</t>
+          <t>HAROLD.IRVIN@FHR.COM</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3366,17 +3366,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-13-2025 07:17:41 AM</t>
+          <t>08-14-2025 02:45:06 PM</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-13-2025 07:18:09 AM</t>
+          <t>08-14-2025 02:45:37 PM</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>FHR-5CG1073F3X</t>
+          <t>PC-2MQ51410F2, FHR-5CG2156Z1X</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3388,17 +3388,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Robert Jimenez</t>
+          <t>Sandra Akarolo</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ROBERT.JIMENEZ@FHR.COM</t>
+          <t>sandra.akarolo@fhr.com</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3408,202 +3408,202 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:22 AM</t>
+          <t>08-13-2025 01:51:42 PM</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:51 AM</t>
+          <t>08-14-2025 08:58:56 AM</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
+          <t>FHR-5CG213CDWV</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Kevin Miller</t>
+          <t>Paul Fisher</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>KEVIN.MILLER@FHR.COM</t>
+          <t>PAUL.FISHER@FHR.COM</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:21 AM</t>
+          <t>08-13-2025 05:07:23 PM</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:49 AM</t>
+          <t>08-13-2025 05:07:56 PM</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
+          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Tucker Lansing</t>
+          <t>Robert Corley</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>tucker.lansing@fhr.com</t>
+          <t>ROBERT.CORLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:05 AM</t>
+          <t>08-12-2025 06:27:18 PM</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:44 AM</t>
+          <t>08-13-2025 12:47:38 PM</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>PC-2MQ5141103</t>
+          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Kairos Logan</t>
+          <t>Jeff Baker</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>kairos.logan@fhr.com</t>
+          <t>JEFF.BAKER@FHR.COM</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:17 PM</t>
+          <t>08-13-2025 09:11:02 AM</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:45 PM</t>
+          <t>08-13-2025 09:11:30 AM</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>PC-2MQ51410BZ</t>
+          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Louis Stump</t>
+          <t>Kemal Simpson</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>LOUIS.STUMP@FHR.COM</t>
+          <t>kemal.simpson@fhr.com</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>07-20-2025 06:49:35 AM</t>
+          <t>08-13-2025 07:17:41 AM</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>08-11-2025 03:03:35 PM</t>
+          <t>08-13-2025 07:18:09 AM</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
+          <t>FHR-5CG1073F3X</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Robert Jimenez</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>ROBERT.JIMENEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3613,22 +3613,22 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-11-2025 12:57:47 PM</t>
+          <t>08-12-2025 11:43:22 AM</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>08-11-2025 12:58:15 PM</t>
+          <t>08-12-2025 11:43:51 AM</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
+          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3640,17 +3640,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Alex Fairbanks</t>
+          <t>Kevin Miller</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Alex.Fairbanks@fhr.com</t>
+          <t>KEVIN.MILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3660,160 +3660,160 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-11-2025 09:58:56 AM</t>
+          <t>08-12-2025 09:11:21 AM</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>08-11-2025 09:59:25 AM</t>
+          <t>08-12-2025 09:11:49 AM</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>FHR-5CG2261RYZ, PC-5CD5100K77</t>
+          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Cole Wilson</t>
+          <t>Tucker Lansing</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>cole.wilson@fhr.com</t>
+          <t>tucker.lansing@fhr.com</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-11-2025 08:57:56 AM</t>
+          <t>08-12-2025 08:13:05 AM</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>08-11-2025 08:58:25 AM</t>
+          <t>08-12-2025 08:13:44 AM</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z9H</t>
+          <t>PC-2MQ5141103</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Kairos Logan</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>kairos.logan@fhr.com</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:07 AM</t>
+          <t>08-11-2025 04:54:17 PM</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:36 AM</t>
+          <t>08-11-2025 04:54:45 PM</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
+          <t>PC-2MQ51410BZ</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Bobby Peddycord</t>
+          <t>Louis Stump</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>bobby.peddycord@fhr.com</t>
+          <t>LOUIS.STUMP@FHR.COM</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-07-2025 10:38:48 AM</t>
+          <t>07-20-2025 06:49:35 AM</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>08-11-2025 07:13:21 AM</t>
+          <t>08-11-2025 03:03:35 PM</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
+          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Charles Oliver</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CHARLES.OLIVER@FHR.COM</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3823,22 +3823,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-11-2025 05:46:52 AM</t>
+          <t>08-11-2025 12:57:47 PM</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>08-11-2025 05:47:20 AM</t>
+          <t>08-11-2025 12:58:15 PM</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>PC-36KFF25193M4</t>
+          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3850,101 +3850,101 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Rudy Barajas</t>
+          <t>Alex Fairbanks</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>RUDY.BARAJAS@FHR.COM</t>
+          <t>Alex.Fairbanks@fhr.com</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>08-06-2025 04:56:54 AM</t>
+          <t>08-11-2025 09:58:56 AM</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>08-08-2025 01:09:23 PM</t>
+          <t>08-11-2025 09:59:25 AM</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>PC-33BYB25013M4, FHR-J2V03Z3, PC-2MQ514105T, FHR-MXL24156CF</t>
+          <t>PC-5CD5100K77, FHR-5CG2261RYZ, FHR-MXL3132S8S</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Braxton Holes</t>
+          <t>Cole Wilson</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>braxton.holes@fhr.com</t>
+          <t>cole.wilson@fhr.com</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>08-07-2025 08:51:34 AM</t>
+          <t>08-11-2025 08:57:56 AM</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>08-08-2025 11:34:27 AM</t>
+          <t>08-11-2025 08:58:25 AM</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGP, FHR-5CD231D3NH, FHR-5CD01052SN</t>
+          <t>PC-2MQ5140Z9H</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Andrea Unruh</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ANDREA.UNRUH@FHR.COM</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3954,76 +3954,76 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:28 AM</t>
+          <t>08-11-2025 08:33:07 AM</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:56 AM</t>
+          <t>08-11-2025 08:33:36 AM</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>PC-36KG325193M4, PC-014GF22373BF</t>
+          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Caleb Quanrud</t>
+          <t>Bobby Peddycord</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>caleb.quanrud@fhr.com</t>
+          <t>bobby.peddycord@fhr.com</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:28 PM</t>
+          <t>08-07-2025 10:38:48 AM</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:58 PM</t>
+          <t>08-11-2025 07:13:21 AM</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
+          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Jean Jaime</t>
+          <t>Charles Oliver</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>JEAN.JAIME@FHR.COM</t>
+          <t>CHARLES.OLIVER@FHR.COM</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4033,22 +4033,22 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:32 PM</t>
+          <t>08-11-2025 05:46:52 AM</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>08-07-2025 02:12:00 PM</t>
+          <t>08-11-2025 05:47:20 AM</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
+          <t>PC-36KFF25193M4</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4060,12 +4060,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Rudy Barajas</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>RUDY.BARAJAS@FHR.COM</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4075,22 +4075,22 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>08-07-2025 02:10:24 PM</t>
+          <t>08-06-2025 04:56:54 AM</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:00 PM</t>
+          <t>08-08-2025 01:09:23 PM</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
+          <t>PC-33BYB25013M4, FHR-J2V03Z3, PC-2MQ514105T, FHR-MXL24156CF</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4102,101 +4102,101 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Braxton Holes</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>braxton.holes@fhr.com</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:23 PM</t>
+          <t>08-07-2025 08:51:34 AM</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:59 PM</t>
+          <t>08-08-2025 11:34:27 AM</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
+          <t>PC-5CD5100KGP, FHR-5CD231D3NH, FHR-5CD01052SN</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Branden Roering</t>
+          <t>Andrea Unruh</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>branden.roering@fhr.com</t>
+          <t>ANDREA.UNRUH@FHR.COM</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:17 PM</t>
+          <t>08-08-2025 08:17:28 AM</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:45 PM</t>
+          <t>08-08-2025 08:17:56 AM</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>PC-2MQ5141148</t>
+          <t>PC-36KG325193M4, PC-014GF22373BF</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Christopher Brooks</t>
+          <t>Caleb Quanrud</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
+          <t>caleb.quanrud@fhr.com</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4206,34 +4206,34 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>08-06-2025 12:44:08 PM</t>
+          <t>08-07-2025 03:06:28 PM</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>08-07-2025 09:46:49 AM</t>
+          <t>08-07-2025 03:06:58 PM</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
+          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Justin Hinojosa</t>
+          <t>Jean Jaime</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>justin.hinojosa@fhr.com</t>
+          <t>JEAN.JAIME@FHR.COM</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4243,22 +4243,22 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:01 AM</t>
+          <t>08-07-2025 02:11:32 PM</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:29 AM</t>
+          <t>08-07-2025 02:12:00 PM</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>PC-MXL24156FQ SPC-MXL24156FQ FHR-8CG80416HL FHR-8CG806569G FHR-8CG7236C1X FHR-G3BCDZ3 FHR-MXL3132SS4 FHR-8CG80416GX FHR-MXL90224D2 FHR-8J5ZK44 FHR-MXL3132SN7 FHR-MXL3132SS3 FHR-9K8ZK44 FHR-MXL3132SQX KII-MXL2424F2T FHR-MXL5043GK1 FHR-MXL5043GK0 FHR-MXL3132SRR FHR-BK001HK222 FHR-MXL3132SNW FHR-5CD439J37S FHR-MXL3132SP1</t>
+          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4270,101 +4270,101 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Josiah Peterson</t>
+          <t>Rick Schwing</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>JOSIAH.PETERSON@FHR.COM</t>
+          <t>rick.schwing@fhr.com</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>08-06-2025 08:30:11 AM</t>
+          <t>08-07-2025 02:10:24 PM</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>08-06-2025 08:31:02 AM</t>
+          <t>08-07-2025 02:11:00 PM</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TC1, FHR-5CD30764W6</t>
+          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Andrew Berndt</t>
+          <t>Rick Schwing</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>andrew.berndt@fhr.com</t>
+          <t>rick.schwing@fhr.com</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>08-05-2025 01:32:29 PM</t>
+          <t>08-07-2025 02:09:23 PM</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>08-05-2025 01:33:21 PM</t>
+          <t>08-07-2025 02:09:59 PM</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>PC-2MQ514100C</t>
+          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Matthew VanLanen</t>
+          <t>Branden Roering</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>matthew.vanlanen@fhr.com</t>
+          <t>branden.roering@fhr.com</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4374,34 +4374,34 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:12 AM</t>
+          <t>08-07-2025 12:49:17 PM</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:39 AM</t>
+          <t>08-07-2025 12:49:45 PM</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
+          <t>PC-2MQ5141148</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Arturo Vasquez Jr</t>
+          <t>Christopher Brooks</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ARTURO.VASQUEZ@FHR.COM</t>
+          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4411,22 +4411,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>07-30-2025 12:56:40 PM</t>
+          <t>08-06-2025 12:44:08 PM</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>08-05-2025 09:13:23 AM</t>
+          <t>08-07-2025 09:46:49 AM</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>FHR-MXL4123NY2, FHR-8CG82809D5, FHR-5CG31302WM, SPC-37MW25123GX, FHR-MXL9223BRW</t>
+          <t>PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4438,59 +4438,59 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Christopher Koerner</t>
+          <t>Justin Hinojosa</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.KOERNER@FHR.COM</t>
+          <t>justin.hinojosa@fhr.com</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>08-05-2025 08:14:41 AM</t>
+          <t>08-06-2025 11:55:01 AM</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>08-05-2025 08:15:12 AM</t>
+          <t>08-06-2025 11:55:29 AM</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>PC-5CD4514XZX, FHR-59309202153</t>
+          <t>PC-MXL24156FQ SPC-MXL24156FQ FHR-8CG80416HL FHR-8CG806569G FHR-8CG7236C1X FHR-G3BCDZ3 FHR-MXL3132SS4 FHR-8CG80416GX FHR-MXL90224D2 FHR-8J5ZK44 FHR-MXL3132SN7 FHR-MXL3132SS3 FHR-9K8ZK44 FHR-MXL3132SQX KII-MXL2424F2T FHR-MXL5043GK1 FHR-MXL5043GK0 FHR-MXL3132SRR FHR-BK001HK222 FHR-MXL3132SNW FHR-5CD439J37S FHR-MXL3132SP1</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Eric Derieux</t>
+          <t>Josiah Peterson</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ERIC.DERIEUX@FHR.COM</t>
+          <t>JOSIAH.PETERSON@FHR.COM</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>US-TX-BEAUMONT2 - FHR-Beaumont TX - Beaumont - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4500,39 +4500,39 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>08-05-2025 08:01:44 AM</t>
+          <t>08-06-2025 08:30:11 AM</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>08-05-2025 08:02:14 AM</t>
+          <t>08-06-2025 08:31:02 AM</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TDP, FHR-5CG8353ZC7, DESKTOP-JU70CMA</t>
+          <t>PC-2MQ5270TC1, FHR-5CD30764W6</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Ryan Sabin</t>
+          <t>Andrew Berndt</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ryan.sabin@fhr.com</t>
+          <t>andrew.berndt@fhr.com</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4542,118 +4542,118 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>08-04-2025 12:02:32 PM</t>
+          <t>08-05-2025 01:32:29 PM</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>08-04-2025 12:03:01 PM</t>
+          <t>08-05-2025 01:33:21 PM</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZHM, FHR-5CG1092Y8L, PC-2MQ5040SX3</t>
+          <t>PC-2MQ514100C</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Nate Claseman</t>
+          <t>Matthew VanLanen</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>nate.claseman@fhr.com</t>
+          <t>matthew.vanlanen@fhr.com</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>08-03-2025 01:32:09 PM</t>
+          <t>08-05-2025 10:28:12 AM</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>08-03-2025 01:32:37 PM</t>
+          <t>08-05-2025 10:28:39 AM</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>FHR-MXL2394SXC, PC-2MQ5270TFN, FHR-8CG7352CTV</t>
+          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Koy Straks</t>
+          <t>Arturo Vasquez Jr</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>koy.straks@fhr.com</t>
+          <t>ARTURO.VASQUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>08-01-2025 02:42:24 PM</t>
+          <t>07-30-2025 12:56:40 PM</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>08-01-2025 02:42:52 PM</t>
+          <t>08-05-2025 09:13:23 AM</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TF5</t>
+          <t>SPC-37MW25123GX, FHR-MXL4123NY2, FHR-8CG82809D5, FHR-5CG31302WM, FHR-MXL9223BRW</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Gaven Girton</t>
+          <t>Christopher Koerner</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>gaven.girton@fhr.com</t>
+          <t>CHRISTOPHER.KOERNER@FHR.COM</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4663,22 +4663,22 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>08-01-2025 02:05:31 PM</t>
+          <t>08-05-2025 08:14:41 AM</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>08-01-2025 02:05:58 PM</t>
+          <t>08-05-2025 08:15:12 AM</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZGG</t>
+          <t>PC-5CD4514XZX, FHR-59309202153</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4690,143 +4690,143 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Shaun McVay</t>
+          <t>Eric Derieux</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>shaun.mcvay@fhr.com</t>
+          <t>ERIC.DERIEUX@FHR.COM</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-BEAUMONT2 - FHR-Beaumont TX - Beaumont - Koch</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>08-01-2025 01:07:44 PM</t>
+          <t>08-05-2025 08:01:44 AM</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>08-01-2025 01:08:17 PM</t>
+          <t>08-05-2025 08:02:14 AM</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>PC-5CD5100KG2</t>
+          <t>PC-2MQ5270TDP, FHR-5CG8353ZC7, DESKTOP-JU70CMA</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>David Escamilla</t>
+          <t>Ryan Sabin</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DAVID.ESCAMILLA@FHR.COM</t>
+          <t>ryan.sabin@fhr.com</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>08-01-2025 07:36:23 AM</t>
+          <t>08-04-2025 12:02:32 PM</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>08-01-2025 07:36:54 AM</t>
+          <t>08-04-2025 12:03:01 PM</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>SPC-CRWXJ74, FHR-MXL11033PZ, PC-34MXB25193M4</t>
+          <t>PC-2MQ5140ZHM, FHR-5CG1092Y8L, PC-2MQ5040SX3</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Troy Pena</t>
+          <t>Nate Claseman</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>troy.pena@fhr.com</t>
+          <t>nate.claseman@fhr.com</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>07-31-2025 04:49:13 PM</t>
+          <t>08-03-2025 01:32:09 PM</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>07-31-2025 04:49:40 PM</t>
+          <t>08-03-2025 01:32:37 PM</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>FHR-87ZPDZ3, FHR-MXL2165D4H, PC-34P3C25193M4, FHR-5CG24913Q4</t>
+          <t>FHR-MXL2394SXC, PC-2MQ5270TFN, FHR-8CG7352CTV</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Hannah Shea</t>
+          <t>Koy Straks</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>hannah.shea@fhr.com</t>
+          <t>koy.straks@fhr.com</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4836,39 +4836,39 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>07-31-2025 10:42:49 AM</t>
+          <t>08-01-2025 02:42:24 PM</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>07-31-2025 10:43:15 AM</t>
+          <t>08-01-2025 02:42:52 PM</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TCB, PC-5CG213CFKZ</t>
+          <t>PC-2MQ5270TF5</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Tara Schultz</t>
+          <t>Gaven Girton</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TARA.SCHULTZ@FHR.COM</t>
+          <t>gaven.girton@fhr.com</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4878,76 +4878,76 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>07-31-2025 08:59:51 AM</t>
+          <t>08-01-2025 02:05:31 PM</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>07-31-2025 09:00:19 AM</t>
+          <t>08-01-2025 02:05:58 PM</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZHK, FHR-2TK95201XD</t>
+          <t>PC-2MQ5140ZGG</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Dave Larson</t>
+          <t>Shaun McVay</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>dave.larson@fhr.com</t>
+          <t>shaun.mcvay@fhr.com</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>07-31-2025 08:30:21 AM</t>
+          <t>08-01-2025 01:07:44 PM</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>07-31-2025 08:30:52 AM</t>
+          <t>08-01-2025 01:08:17 PM</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZFS, PC-5CG31302L2</t>
+          <t>PC-5CD5100KG2</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Andy Harrison</t>
+          <t>David Escamilla</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ANDY.HARRISON@FHR.COM</t>
+          <t>DAVID.ESCAMILLA@FHR.COM</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4962,17 +4962,17 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>07-30-2025 06:15:56 PM</t>
+          <t>08-01-2025 07:36:23 AM</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>07-30-2025 06:16:23 PM</t>
+          <t>08-01-2025 07:36:54 AM</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>PC-34MWB25193M4, PC-JTKJ414, FHR-5CG1314JWW</t>
+          <t>SPC-CRWXJ74, FHR-MXL11033PZ, PC-34MXB25193M4</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4984,54 +4984,54 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Matt Hoveland</t>
+          <t>Troy Pena</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MATT.HOVELAND@FHR.COM</t>
+          <t>troy.pena@fhr.com</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>07-30-2025 04:10:43 PM</t>
+          <t>07-31-2025 04:49:13 PM</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>07-30-2025 04:11:10 PM</t>
+          <t>07-31-2025 04:49:40 PM</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>FHR-5CG2060QSH, FHR-MXL9061CF9, PC-5CD5100K9P</t>
+          <t>FHR-MXL2165D4H, FHR-87ZPDZ3, PC-34P3C25193M4, FHR-5CG24913Q4</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>James Pfeifer</t>
+          <t>Hannah Shea</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>JAMES.PFEIFER@FHR.COM</t>
+          <t>hannah.shea@fhr.com</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>07-28-2025 10:17:28 AM</t>
+          <t>07-31-2025 10:42:49 AM</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>07-30-2025 02:09:54 PM</t>
+          <t>07-31-2025 10:43:15 AM</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>SPC-5CD5100K9D, PC-5CD2331XGS</t>
+          <t>PC-2MQ5270TCB, PC-5CG213CFKZ</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5068,17 +5068,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Arnold Ortiz</t>
+          <t>Tara Schultz</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ARNOLD.ORTIZ@FHR.COM</t>
+          <t>TARA.SCHULTZ@FHR.COM</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5088,17 +5088,17 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>07-24-2025 05:52:42 AM</t>
+          <t>07-31-2025 08:59:51 AM</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>07-30-2025 12:54:23 PM</t>
+          <t>07-31-2025 09:00:19 AM</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>FHR-5CG2096F0R, FHR-5CG2060QFY, SPC-6YF2X54</t>
+          <t>PC-2MQ5140ZHK, FHR-2TK95201XD</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5110,54 +5110,54 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Shaun Passmore</t>
+          <t>Dave Larson</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SHAUN.PASSMORE@FHR.COM</t>
+          <t>dave.larson@fhr.com</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>07-30-2025 10:20:42 AM</t>
+          <t>07-31-2025 08:30:21 AM</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>07-30-2025 10:21:10 AM</t>
+          <t>07-31-2025 08:30:52 AM</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>PC-34P9325193M4</t>
+          <t>PC-2MQ5140ZFS, PC-5CG31302L2</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Daniel Hoyle</t>
+          <t>Andy Harrison</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DANIEL.HOYLE@FHR.COM</t>
+          <t>ANDY.HARRISON@FHR.COM</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5167,22 +5167,22 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>07-27-2025 01:48:14 AM</t>
+          <t>07-30-2025 06:15:56 PM</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>07-29-2025 12:08:56 PM</t>
+          <t>07-30-2025 06:16:23 PM</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>SPC-FPQGQ54, PC-4H5ZK44, SPC-5CD5100KCW, FHR-MXL902244L, SPC-MXL13349YL</t>
+          <t>PC-34MWB25193M4, PC-JTKJ414, FHR-5CG1314JWW</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5194,17 +5194,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Lionel Morin III</t>
+          <t>Matt Hoveland</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>LIONEL.MORIN@FHR.COM</t>
+          <t>MATT.HOVELAND@FHR.COM</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5214,148 +5214,148 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>07-29-2025 06:45:40 AM</t>
+          <t>07-30-2025 04:10:43 PM</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>07-29-2025 06:46:09 AM</t>
+          <t>07-30-2025 04:11:10 PM</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>PC-5CD5100K7C, FHR-5CG04179SM</t>
+          <t>FHR-5CG2060QSH, FHR-MXL9061CF9, PC-5CD5100K9P</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Jeremy Smith</t>
+          <t>James Pfeifer</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>jeremy.smith3@fhr.com</t>
+          <t>JAMES.PFEIFER@FHR.COM</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>07-28-2025 04:43:36 PM</t>
+          <t>07-28-2025 10:17:28 AM</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>07-28-2025 04:44:03 PM</t>
+          <t>07-30-2025 02:09:54 PM</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZG1, PC-5CG4515GJN</t>
+          <t>SPC-5CD5100K9D, PC-5CD2331XGS</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Michael Marshall</t>
+          <t>Arnold Ortiz</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>michael.marshall@fhr.com</t>
+          <t>ARNOLD.ORTIZ@FHR.COM</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>07-28-2025 02:19:41 PM</t>
+          <t>07-24-2025 05:52:42 AM</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>07-28-2025 02:20:07 PM</t>
+          <t>07-30-2025 12:54:23 PM</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>PC-5CG24912TQ, PC-2MQ5270TFQ</t>
+          <t>FHR-5CG2096F0R, FHR-5CG2060QFY, SPC-6YF2X54</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Kyle Koetje</t>
+          <t>Shaun Passmore</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>kyle.koetje@fhr.com</t>
+          <t>SHAUN.PASSMORE@FHR.COM</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>07-26-2025 02:30:13 AM</t>
+          <t>07-30-2025 10:20:42 AM</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>07-26-2025 02:30:43 AM</t>
+          <t>07-30-2025 10:21:10 AM</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>FHR-5CG3264H4D, PC-337MV25123GX, PC-5CD145N3LL</t>
+          <t>PC-34P9325193M4</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>

--- a/output/fhr_computer_requests.xlsx
+++ b/output/fhr_computer_requests.xlsx
@@ -532,222 +532,222 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Trevor Willberg</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>trevor.willberg@fhr.com</t>
+          <t>DANIEL.BRAUN@FHR.COM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09-17-2025 10:21:00 AM</t>
+          <t>09-18-2025 02:27:18 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>09-17-2025 12:52:13 PM</t>
+          <t>09-18-2025 02:27:46 PM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>FHR-5CG7312MP6</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cory Strandlien</t>
+          <t>Roberto Montelongo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cory.strandlien@fhr.com</t>
+          <t>roberto.montelongo@fhr.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09-17-2025 09:55:48 AM</t>
+          <t>09-18-2025 09:01:15 AM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>09-17-2025 12:44:37 PM</t>
+          <t>09-18-2025 09:01:46 AM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>FHR-5CG2156GT3, USWHL-1276WN9</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Enrique Flores</t>
+          <t>Trevor Willberg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENRIQUE.FLORES@FHR.COM</t>
+          <t>trevor.willberg@fhr.com</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09-17-2025 10:03:05 AM</t>
+          <t>09-17-2025 10:21:00 AM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09-17-2025 10:03:36 AM</t>
+          <t>09-17-2025 12:52:13 PM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FHR-2UA8311QWT, FHR-5CG1240T5M, FHR-5CD4154J0P</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jason Henke</t>
+          <t>Cory Strandlien</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>JASON.HENKE@FHR.COM</t>
+          <t>cory.strandlien@fhr.com</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09-17-2025 09:38:30 AM</t>
+          <t>09-17-2025 09:55:48 AM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09-17-2025 09:39:02 AM</t>
+          <t>09-17-2025 12:44:37 PM</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FHR-5CG2151LHM</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jed Illg</t>
+          <t>Enrique Flores</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jed.Illg@fhr.com</t>
+          <t>ENRIQUE.FLORES@FHR.COM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09-17-2025 08:33:21 AM</t>
+          <t>09-17-2025 10:03:05 AM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-17-2025 08:33:50 AM</t>
+          <t>09-17-2025 10:03:36 AM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>FHR-5CG2156GG9</t>
+          <t>FHR-2UA8311QWT, FHR-5CG1240T5M, FHR-5CD4154J0P</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Shannon Angle</t>
+          <t>Jason Henke</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>shannon.angle@kochcc.com</t>
+          <t>JASON.HENKE@FHR.COM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09-17-2025 07:50:45 AM</t>
+          <t>09-17-2025 09:38:30 AM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-17-2025 07:51:14 AM</t>
+          <t>09-17-2025 09:39:02 AM</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
+          <t>FHR-5CG2151LHM</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -784,138 +784,138 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bryeton Canchola</t>
+          <t>Jed Illg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bryeton.canchola@fhr.com</t>
+          <t>Jed.Illg@fhr.com</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-16-2025 03:26:59 PM</t>
+          <t>09-17-2025 08:33:21 AM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-16-2025 03:27:26 PM</t>
+          <t>09-17-2025 08:33:50 AM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>SPC-MXL24155VV FHR-MXL1022SZ3 FHR-MXL24156C3 SPC-MXL24155W5 SPC-MXL3324PYM SPC-MXL3324PZ0 FHR-MXL2223BDL FHR-MXL9502C5W FHR-MXL9333W07 PC-01W3B23013BF FHR-MXL1022T0R FHR-MXL24155WF FHR-MXL13349Z2 SPC-MXL3324PZ2 FHR-MXL90224C1 FHR-BK000V1 FHR-B9XFH04 SPC-MXL3324PYD SPC-MXL3324PYP FHR-8V4TNZ3</t>
+          <t>FHR-5CG2156GG9</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Charles Cooley Jr</t>
+          <t>Shannon Angle</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHARLES.COOLEY@FHR.COM</t>
+          <t>shannon.angle@kochcc.com</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-16-2025 02:26:57 PM</t>
+          <t>09-17-2025 07:50:45 AM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-16-2025 02:27:28 PM</t>
+          <t>09-17-2025 07:51:14 AM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>FHR-5CG225854R</t>
+          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Patrick Tiller</t>
+          <t>Bryeton Canchola</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PATRICK.TILLER@FHR.COM</t>
+          <t>bryeton.canchola@fhr.com</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-16-2025 12:20:22 PM</t>
+          <t>09-16-2025 03:26:59 PM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-16-2025 12:20:49 PM</t>
+          <t>09-16-2025 03:27:26 PM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>PC-1H85200B13, PC-JZ4TNZ3, FHR-5CG1240T4Q, FHR-5CG815441G, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
+          <t>SPC-MXL24155VV FHR-MXL1022SZ3 FHR-MXL24156C3 SPC-MXL24155W5 SPC-MXL3324PYM SPC-MXL3324PZ0 FHR-MXL2223BDL FHR-MXL9502C5W FHR-MXL9333W07 PC-01W3B23013BF FHR-MXL1022T0R FHR-MXL24155WF FHR-MXL13349Z2 SPC-MXL3324PZ2 FHR-MXL90224C1 FHR-BK000V1 FHR-B9XFH04 SPC-MXL3324PYD SPC-MXL3324PYP FHR-8V4TNZ3</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bryan Garcia</t>
+          <t>Charles Cooley Jr</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bryan.garcia1@fhr.com</t>
+          <t>CHARLES.COOLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -925,22 +925,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09-16-2025 07:46:13 AM</t>
+          <t>09-16-2025 02:26:57 PM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-16-2025 07:46:49 AM</t>
+          <t>09-16-2025 02:27:28 PM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>PC-BZQ03Z3, PC-5CG408495P</t>
+          <t>FHR-5CG225854R</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -952,264 +952,264 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Troy Hull</t>
+          <t>Patrick Tiller</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TROY.HULL@FHR.COM</t>
+          <t>PATRICK.TILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09-16-2025 06:55:54 AM</t>
+          <t>09-16-2025 12:20:22 PM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09-16-2025 06:56:26 AM</t>
+          <t>09-16-2025 12:20:49 PM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>FHR-MXL24155WF, PC-5CG4151LFY</t>
+          <t>FHR-5CG1240T4Q, PC-JZ4TNZ3, PC-1H85200B13, FHR-5CG815441G, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Crystal Link</t>
+          <t>Bryan Garcia</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CRYSTAL.LINK@FHR.COM</t>
+          <t>bryan.garcia1@fhr.com</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09-15-2025 11:01:25 AM</t>
+          <t>09-16-2025 07:46:13 AM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09-15-2025 11:01:54 AM</t>
+          <t>09-16-2025 07:46:49 AM</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>PC-5CG1465ZKZ, FHR-5CG0254D4T</t>
+          <t>PC-33J3M25073R3, PC-BZQ03Z3, PC-5CG408495P</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Alex Lodholz</t>
+          <t>Troy Hull</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>alex.lodholz@fhr.com</t>
+          <t>TROY.HULL@FHR.COM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09-15-2025 09:14:43 AM</t>
+          <t>09-16-2025 06:55:54 AM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-15-2025 09:15:12 AM</t>
+          <t>09-16-2025 06:56:26 AM</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>PC-5CG4151LFY</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brendan Snell</t>
+          <t>Crystal Link</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>brendan.snell@fhr.com</t>
+          <t>CRYSTAL.LINK@FHR.COM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:12 AM</t>
+          <t>09-15-2025 11:01:25 AM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:46 AM</t>
+          <t>09-15-2025 11:01:54 AM</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>FHR-5CG2156XDV</t>
+          <t>PC-5CG1465ZKZ, FHR-5CG0254D4T</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Joey Guerrero</t>
+          <t>Alex Lodholz</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>joey.guerrero1@fhr.com</t>
+          <t>alex.lodholz@fhr.com</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09-15-2025 06:33:41 AM</t>
+          <t>09-15-2025 09:14:43 AM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-15-2025 06:34:14 AM</t>
+          <t>09-15-2025 09:15:12 AM</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>PC-33B8725073R3, PC-9659600351</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Eddie Buskirk</t>
+          <t>Brendan Snell</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EDDIE.BUSKIRK@FHR.COM</t>
+          <t>brendan.snell@fhr.com</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09-12-2025 01:52:56 PM</t>
+          <t>09-15-2025 08:15:12 AM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-12-2025 01:53:24 PM</t>
+          <t>09-15-2025 08:15:46 AM</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>PC-1H85200B0W, FHR-5CG9326W2B</t>
+          <t>FHR-5CG2156XDV</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sammantha Reynolds</t>
+          <t>Joey Guerrero</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>sammantha.reynolds1@fhr.com</t>
+          <t>joey.guerrero1@fhr.com</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1219,22 +1219,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09-12-2025 08:18:55 AM</t>
+          <t>09-15-2025 06:33:41 AM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-12-2025 08:19:25 AM</t>
+          <t>09-15-2025 06:34:14 AM</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
+          <t>PC-33B8725073R3, PC-9659600351</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1246,101 +1246,101 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Victor Sauceda</t>
+          <t>Eddie Buskirk</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>victor.sauceda@fhr.com</t>
+          <t>EDDIE.BUSKIRK@FHR.COM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:03 AM</t>
+          <t>09-12-2025 01:52:56 PM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:33 AM</t>
+          <t>09-12-2025 01:53:24 PM</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>FHR-5CD8522C54</t>
+          <t>PC-1H85200B0W, FHR-5CG9326W2B</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mitch O'Keefe</t>
+          <t>Sammantha Reynolds</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MITCH.OKEEFE@FHR.COM</t>
+          <t>sammantha.reynolds1@fhr.com</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:11 PM</t>
+          <t>09-12-2025 08:18:55 AM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:39 PM</t>
+          <t>09-12-2025 08:19:25 AM</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>FHR-MXL23843M2, MSP-CTLU27, FHR-5CG1344HQ7</t>
+          <t>PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Joe Bedynek</t>
+          <t>Victor Sauceda</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>JOE.BEDYNEK@FHR.COM</t>
+          <t>victor.sauceda@fhr.com</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1350,160 +1350,160 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:10 PM</t>
+          <t>09-11-2025 09:46:03 AM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:36 PM</t>
+          <t>09-11-2025 09:46:33 AM</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PC-33W6D25273R3, FHR-5CD026KSTV</t>
+          <t>PC-33W4325273R3, FHR-5CD8522C54</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ruben Hernandez</t>
+          <t>Mitch O'Keefe</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ruben.hernandez@fhr.com</t>
+          <t>MITCH.OKEEFE@FHR.COM</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>09-10-2025 02:51:54 PM</t>
+          <t>09-10-2025 05:54:11 PM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>09-10-2025 02:52:21 PM</t>
+          <t>09-10-2025 05:54:39 PM</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>PC-2MQ5141117, PC-5CD231GKV7</t>
+          <t>FHR-MXL23843M2, MSP-CTLU27, PC-1H85200B09, FHR-5CG1344HQ7</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lauren Sada</t>
+          <t>Joe Bedynek</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>lauren.sada@fhr.com</t>
+          <t>JOE.BEDYNEK@FHR.COM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:21 PM</t>
+          <t>09-10-2025 02:54:10 PM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:49 PM</t>
+          <t>09-10-2025 02:54:36 PM</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>PC-33W6D25273R3, FHR-5CD026KSTV</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kevin Harvey</t>
+          <t>Ruben Hernandez</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>KEVIN.HARVEY@FHR.COM</t>
+          <t>ruben.hernandez@fhr.com</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>09-10-2025 08:38:42 AM</t>
+          <t>09-10-2025 02:51:54 PM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>09-10-2025 08:39:13 AM</t>
+          <t>09-10-2025 02:52:21 PM</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>FHR-5CG1236JK6, PC-2MQ5290Z3G</t>
+          <t>PC-2MQ5141117, PC-5CD231GKV7</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Matt Olson</t>
+          <t>Lauren Sada</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MATTHEW.OLSON@FHR.COM</t>
+          <t>lauren.sada@fhr.com</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1513,22 +1513,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09-09-2025 11:43:57 AM</t>
+          <t>09-10-2025 01:27:21 PM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>09-09-2025 11:44:26 AM</t>
+          <t>09-10-2025 01:27:49 PM</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>PC-2MQ5290Z8Z, FHR-5CD40711PF, FHR-5CG918242Z</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1540,12 +1540,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sam Weldemariam</t>
+          <t>Kevin Harvey</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAM.WELDEMARIAM@FHR.COM</t>
+          <t>KEVIN.HARVEY@FHR.COM</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1560,17 +1560,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:23 AM</t>
+          <t>09-10-2025 08:38:42 AM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:51 AM</t>
+          <t>09-10-2025 08:39:13 AM</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>FHR-D90QDZ3, FHR-3KJBQ54, PC-GQMKN34, FHR-F9GR624, FHR-G8GR624, FHR-MXL9144C61, FHR-5CG213BX6D, FHR-5CD8506CR3</t>
+          <t>FHR-5CG1236JK6, PC-2MQ5290Z3G</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1582,54 +1582,54 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Derek Wilfong</t>
+          <t>Matt Olson</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DEREK.WILFONG@FHR.COM</t>
+          <t>MATTHEW.OLSON@FHR.COM</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09-09-2025 09:02:55 AM</t>
+          <t>09-09-2025 11:43:57 AM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-09-2025 09:03:28 AM</t>
+          <t>09-09-2025 11:44:26 AM</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>FHR-5CG1314K33</t>
+          <t>FHR-5CD40711PF, PC-2MQ5290Z8Z, FHR-5CG918242Z</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Joel Mccabe</t>
+          <t>Sam Weldemariam</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>JOEL.MCCABE@FHR.COM</t>
+          <t>SAM.WELDEMARIAM@FHR.COM</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1639,22 +1639,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09-05-2025 03:04:34 PM</t>
+          <t>09-09-2025 09:48:23 AM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-08-2025 09:08:16 AM</t>
+          <t>09-09-2025 09:48:51 AM</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>SPC-G942X54, FHR-1B1KH04, MSP-005054</t>
+          <t>PC-GQMKN34, FHR-3KJBQ54, FHR-F9GR624, FHR-D90QDZ3, FHR-G8GR624, FHR-MXL9144C61, FHR-5CG213BX6D, FHR-5CD8506CR3</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1666,96 +1666,96 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Devon Holz</t>
+          <t>Derek Wilfong</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DEVON.HOLZ@FHR.COM</t>
+          <t>DEREK.WILFONG@FHR.COM</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:14 PM</t>
+          <t>09-09-2025 09:02:55 AM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:42 PM</t>
+          <t>09-09-2025 09:03:28 AM</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>FHR-5CG2219ZDW, PC-2MQ5140ZD9</t>
+          <t>FHR-5CG1314K33</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Shawn Sieben</t>
+          <t>Joel Mccabe</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Shawn.Sieben@fhr.com</t>
+          <t>JOEL.MCCABE@FHR.COM</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09-04-2025 09:29:38 AM</t>
+          <t>09-05-2025 03:04:34 PM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-05-2025 12:58:04 PM</t>
+          <t>09-08-2025 09:08:16 AM</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>FHR-CND8426B2G, FHR-5CD3507T46, FHR-8CC84008DL</t>
+          <t>SPC-G942X54, FHR-1B1KH04, MSP-005054</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Carrie Simpson</t>
+          <t>Devon Holz</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CARRIE.SIMPSON@FHR.COM</t>
+          <t>DEVON.HOLZ@FHR.COM</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1765,22 +1765,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:03 PM</t>
+          <t>09-05-2025 02:23:14 PM</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:30 PM</t>
+          <t>09-05-2025 02:23:42 PM</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZSD, FHR-8CG83488SZ, PC-001NS23373BF</t>
+          <t>PC-2MQ5140ZD9, FHR-5CG2219ZDW</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1792,17 +1792,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Chris Pratt</t>
+          <t>Shawn Sieben</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chris.Pratt@fhr.com</t>
+          <t>Shawn.Sieben@fhr.com</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
+          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1812,17 +1812,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09-02-2025 04:16:05 PM</t>
+          <t>09-04-2025 09:29:38 AM</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09-04-2025 01:23:58 PM</t>
+          <t>09-05-2025 12:58:04 PM</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>PC-MXL53644K5, FHR-5CD016BPV0, FHR-MXL8361TTS</t>
+          <t>FHR-5CD3507T46, FHR-CND8426B2G, FHR-8CC84008DL</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1834,12 +1834,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Manuel Moreno Jr</t>
+          <t>Carrie Simpson</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MANUEL.MORENO@FHR.COM</t>
+          <t>CARRIE.SIMPSON@FHR.COM</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1849,22 +1849,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>05-02-2025 08:54:50 AM</t>
+          <t>09-04-2025 03:17:03 PM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-04-2025 01:17:10 PM</t>
+          <t>09-04-2025 03:17:30 PM</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>SPC-5BJ8D14, PC-5CG4143GRG, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
+          <t>FHR-8CG83488SZ, PC-2MQ5140ZSD, PC-001NS23373BF</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1876,96 +1876,96 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ben Sandiford</t>
+          <t>Chris Pratt</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ben.sandiford@fhr.com</t>
+          <t>Chris.Pratt@fhr.com</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:18 PM</t>
+          <t>09-02-2025 04:16:05 PM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:48 PM</t>
+          <t>09-04-2025 01:23:58 PM</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>PC-33VW824233M4, PC-1H95220MS6</t>
+          <t>PC-MXL53644K5, FHR-5CD016BPV0, FHR-MXL8361TTS</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Denise Schardt</t>
+          <t>Manuel Moreno Jr</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DENISE.SCHARDT@FHR.COM</t>
+          <t>MANUEL.MORENO@FHR.COM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09-03-2025 02:48:18 PM</t>
+          <t>05-02-2025 08:54:50 AM</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-04-2025 01:00:11 PM</t>
+          <t>09-04-2025 01:17:10 PM</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
+          <t>SPC-5BJ8D14, PC-5CG4143GRG, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ray Aslesen</t>
+          <t>Ben Sandiford</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RAY.ASLESEN@FHR.COM</t>
+          <t>ben.sandiford@fhr.com</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1975,22 +1975,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09-04-2025 07:28:33 AM</t>
+          <t>09-04-2025 01:11:18 PM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-04-2025 07:29:01 AM</t>
+          <t>09-04-2025 01:11:48 PM</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>PC-MXL4523KGB, PC-2MQ5140ZSW, FHR-0F00CQM2332, FHR-CND1440HBV</t>
+          <t>PC-1H95220MS6, PC-33VW824233M4</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2002,54 +2002,54 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>Denise Schardt</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>DENISE.SCHARDT@FHR.COM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-04-2025 06:11:34 AM</t>
+          <t>09-03-2025 02:48:18 PM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-04-2025 06:12:02 AM</t>
+          <t>09-04-2025 01:00:11 PM</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Dora Heimsoth</t>
+          <t>Ray Aslesen</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>dora.heimsoth1@fhr.com</t>
+          <t>RAY.ASLESEN@FHR.COM</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2059,22 +2059,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09-03-2025 03:00:34 PM</t>
+          <t>09-04-2025 07:28:33 AM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-03-2025 03:01:01 PM</t>
+          <t>09-04-2025 07:29:01 AM</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>PC-339W925073R3, PC-86XGSV3</t>
+          <t>PC-MXL4523KGB, PC-2MQ5140ZSW, FHR-0F00CQM2332, FHR-CND1440HBV</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2086,12 +2086,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Stephen Rodriguez</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2101,22 +2101,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09-03-2025 02:28:45 PM</t>
+          <t>09-04-2025 06:11:34 AM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-03-2025 02:29:20 PM</t>
+          <t>09-04-2025 06:12:02 AM</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>FHR-MXL4424X3B</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2128,54 +2128,54 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Matt Skrobarcek</t>
+          <t>Dora Heimsoth</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
+          <t>dora.heimsoth1@fhr.com</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:08 AM</t>
+          <t>09-03-2025 03:00:34 PM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:38 AM</t>
+          <t>09-03-2025 03:01:01 PM</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
+          <t>PC-339W925073R3, PC-86XGSV3</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Justin Nava</t>
+          <t>Stephen Rodriguez</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>JUSTIN.NAVA@FHR.COM</t>
+          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2185,22 +2185,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-03-2025 09:44:33 AM</t>
+          <t>09-03-2025 02:28:45 PM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>09-03-2025 09:45:02 AM</t>
+          <t>09-03-2025 02:29:20 PM</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>SPC-82TKZ84, FHR-5CG4240WQT, FHR-MXL9223BVJ</t>
+          <t>FHR-MXL90223C1 FHR-MXL902239Z FHR-MXL9332KN0 FHR-MXL902239R CND837B026 FHR-MXL9153QWC KII-MXL2424F2T FHR-5CG12812WW FHR-MXL3132SQX FHR-MXL3132SN7 FHR-MXL3132SNW FHR-MXL3132SS3 FHR-MXL3132SS4 FHR-MXL90224D2 FHR-8CG806569G KII-MXL24156FT FHR-MXL4424X3B FHR-MXL5043GK0 FHR-MXL5043GK1 SPC-DX6LZ84 SPC-MXL24156CD</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2212,222 +2212,222 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Logan Tom</t>
+          <t>Matt Skrobarcek</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>logan.tom@fhr.com</t>
+          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:15 PM</t>
+          <t>09-03-2025 09:46:08 AM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:42 PM</t>
+          <t>09-03-2025 09:46:38 AM</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
+          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Travis Sumerfelt</t>
+          <t>Justin Nava</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>travis.sumerfelt@fhr.com</t>
+          <t>JUSTIN.NAVA@FHR.COM</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-02-2025 11:06:03 AM</t>
+          <t>09-03-2025 09:44:33 AM</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09-02-2025 11:07:05 AM</t>
+          <t>09-03-2025 09:45:02 AM</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>PC-2MQ514108Q</t>
+          <t>FHR-5CG4240WQT, FHR-MXL9223BVJ</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Carlos Garcia Jr.</t>
+          <t>Logan Tom</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CARLOS.GARCIAJR@FHR.COM</t>
+          <t>logan.tom@fhr.com</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>08-27-2025 09:24:59 PM</t>
+          <t>09-02-2025 02:39:15 PM</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09-02-2025 08:26:34 AM</t>
+          <t>09-02-2025 02:39:42 PM</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>FHR-4PMKN34</t>
+          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Billy Royal</t>
+          <t>Travis Sumerfelt</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BILLY.ROYAL@FHR.COM</t>
+          <t>travis.sumerfelt@fhr.com</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:06 PM</t>
+          <t>09-02-2025 11:06:03 AM</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:34 PM</t>
+          <t>09-02-2025 11:07:05 AM</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>FHR-5CD2331XLD</t>
+          <t>PC-2MQ514108Q</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Samuel Paulus</t>
+          <t>Carlos Garcia Jr.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>samuel.paulus@fhr.com</t>
+          <t>CARLOS.GARCIAJR@FHR.COM</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:17 PM</t>
+          <t>08-27-2025 09:24:59 PM</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:45 PM</t>
+          <t>09-02-2025 08:26:34 AM</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
+          <t>FHR-4PMKN34</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Derya Broll</t>
+          <t>Billy Royal</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DERYA.BROLL@FHR.COM</t>
+          <t>BILLY.ROYAL@FHR.COM</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2437,22 +2437,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:07 PM</t>
+          <t>08-29-2025 04:48:06 PM</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:37 PM</t>
+          <t>08-29-2025 04:48:34 PM</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
+          <t>FHR-5CD2331XLD</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2464,54 +2464,54 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Joseph Moberly</t>
+          <t>Samuel Paulus</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>joseph.moberly@fhr.com</t>
+          <t>samuel.paulus@fhr.com</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>08-28-2025 01:10:49 PM</t>
+          <t>08-29-2025 01:00:17 PM</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>08-28-2025 01:11:16 PM</t>
+          <t>08-29-2025 01:00:45 PM</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>PC-1H852009W3, PC-5CG2415PYM</t>
+          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Lindi Dinn</t>
+          <t>Derya Broll</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>LINDI.DINN@FHR.COM</t>
+          <t>DERYA.BROLL@FHR.COM</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2521,22 +2521,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:14 PM</t>
+          <t>08-29-2025 12:10:07 PM</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:40 PM</t>
+          <t>08-29-2025 12:10:37 PM</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>PC-1H852009X5, FHR-CND1440HKF, FHR-8CC8412KMN, PC-36KMG25193M4, FHR-51990492553</t>
+          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2548,96 +2548,96 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Rodney Cotten</t>
+          <t>Joseph Moberly</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>RODNEY.COTTEN@FHR.COM</t>
+          <t>joseph.moberly@fhr.com</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:02 PM</t>
+          <t>08-28-2025 01:10:49 PM</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:30 PM</t>
+          <t>08-28-2025 01:11:16 PM</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>PC-5CD5100K7L, FHR-5CG7515059</t>
+          <t>PC-1H852009W3, PC-5CG2415PYM</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Chad Schaner</t>
+          <t>Lindi Dinn</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CHAD.SCHANER@FHR.COM</t>
+          <t>LINDI.DINN@FHR.COM</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Dell Pro Rugged RB14250 14" Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>08-04-2025 01:41:48 PM</t>
+          <t>08-27-2025 02:53:14 PM</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>08-27-2025 01:20:37 PM</t>
+          <t>08-27-2025 02:53:40 PM</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>FHR-8H0GH04, FHR-8CG7352CR5, FHR-DYW9BT3, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-187491253</t>
+          <t>FHR-CND1440HKF, PC-1H852009X5, FHR-8CC8412KMN, PC-36KMG25193M4, FHR-51990492553</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Denise Gonzalez</t>
+          <t>Rodney Cotten</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DENISE.GONZALEZ@FHR.COM</t>
+          <t>RODNEY.COTTEN@FHR.COM</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2652,17 +2652,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:17 AM</t>
+          <t>08-27-2025 02:27:02 PM</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:45 AM</t>
+          <t>08-27-2025 02:27:30 PM</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>PC-34Y4825063R3, SPC-63V03Z3, SPC-D0R03Z3, PC-5WXDQV3</t>
+          <t>PC-33JGC25073R3, PC-5CD5100K7L, FHR-5CG7515059</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2674,54 +2674,54 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Kris Adkins</t>
+          <t>Chad Schaner</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>KRISTOPHER.ADKINS@FHR.COM</t>
+          <t>CHAD.SCHANER@FHR.COM</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>Dell Pro Rugged RB14250 14" Laptop</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>08-26-2025 08:20:43 PM</t>
+          <t>08-04-2025 01:41:48 PM</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>08-26-2025 08:21:16 PM</t>
+          <t>08-27-2025 01:20:37 PM</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>PC-34WWG25063R3</t>
+          <t>FHR-8H0GH04, FHR-8CG7352CR5, FHR-DYW9BT3, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-187491253</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Jose Cardona</t>
+          <t>Denise Gonzalez</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>JOSE.CARDONA@FHR.COM</t>
+          <t>DENISE.GONZALEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2731,22 +2731,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>08-26-2025 09:00:40 AM</t>
+          <t>08-27-2025 07:15:17 AM</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>08-26-2025 09:01:09 AM</t>
+          <t>08-27-2025 07:15:45 AM</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>FHR-5CG30935LZ, CPC-JOSEC-BGVEA</t>
+          <t>FHR-MXL401238S, SPC-D0R03Z3, SPC-63V03Z3, PC-34Y4825063R3, PC-5WXDQV3</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2758,101 +2758,101 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Phillip Norell</t>
+          <t>Kris Adkins</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PHILLIP.NORELL@FHR.COM</t>
+          <t>KRISTOPHER.ADKINS@FHR.COM</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:13 PM</t>
+          <t>08-26-2025 08:20:43 PM</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:39 PM</t>
+          <t>08-26-2025 08:21:16 PM</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>FHR-5CG213CGKR, PC-1H85200B08</t>
+          <t>PC-34WWG25063R3</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Anne Lee</t>
+          <t>Jose Cardona</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ANNE.LEE@FHR.COM</t>
+          <t>JOSE.CARDONA@FHR.COM</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:00 AM</t>
+          <t>08-26-2025 09:00:40 AM</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:30 AM</t>
+          <t>08-26-2025 09:01:09 AM</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
+          <t>SPC-5CG40111C6, CPC-JOSEC-BGVEA, FHR-5CG30935LZ</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>David Barnholt</t>
+          <t>Phillip Norell</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>david.barnholt@fhr.com</t>
+          <t>PHILLIP.NORELL@FHR.COM</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2862,76 +2862,76 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:27 AM</t>
+          <t>08-25-2025 02:58:13 PM</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:54 AM</t>
+          <t>08-25-2025 02:58:39 PM</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>PC-1H852009SD</t>
+          <t>FHR-5CG213CGKR, PC-1H85200B08</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Eric Enders</t>
+          <t>Anne Lee</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>eric.enders@fhr.com</t>
+          <t>ANNE.LEE@FHR.COM</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:30 AM</t>
+          <t>08-25-2025 10:13:00 AM</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:59 AM</t>
+          <t>08-25-2025 10:13:30 AM</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>PC-2MQ514115J</t>
+          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sean Garza</t>
+          <t>David Barnholt</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>sean.garza@fhr.com</t>
+          <t>david.barnholt@fhr.com</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2941,22 +2941,22 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>08-19-2025 01:01:15 AM</t>
+          <t>08-22-2025 11:11:27 AM</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:18 AM</t>
+          <t>08-22-2025 11:11:54 AM</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>SPC-3B6G25073R3</t>
+          <t>PC-1H852009SD</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2968,54 +2968,54 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Joe Rohl</t>
+          <t>Eric Enders</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>JOE.ROHL@FHR.COM</t>
+          <t>eric.enders@fhr.com</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>08-19-2025 02:44:07 PM</t>
+          <t>08-22-2025 07:55:30 AM</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:14 AM</t>
+          <t>08-22-2025 07:55:59 AM</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
+          <t>PC-2MQ514115J</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>David Ybarra</t>
+          <t>Sean Garza</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DAVID.YBARRA@FHR.COM</t>
+          <t>sean.garza@fhr.com</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3025,22 +3025,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:30 AM</t>
+          <t>08-19-2025 01:01:15 AM</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:58 AM</t>
+          <t>08-22-2025 07:34:18 AM</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
+          <t>SPC-3B6G25073R3</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3052,101 +3052,101 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>Joe Rohl</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>JOE.ROHL@FHR.COM</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:19 AM</t>
+          <t>08-19-2025 02:44:07 PM</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:48 AM</t>
+          <t>08-22-2025 07:34:14 AM</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Cole Brewster</t>
+          <t>David Ybarra</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>cole.brewster@fhr.com</t>
+          <t>DAVID.YBARRA@FHR.COM</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-20-2025 01:48:49 PM</t>
+          <t>08-22-2025 07:18:30 AM</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-20-2025 01:49:17 PM</t>
+          <t>08-22-2025 07:18:58 AM</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>PC-34Y3Q25063R3, FHR-5CG1276WN7</t>
+          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Brenna Gerety</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BRENNA.GERETY@FHR.COM</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3156,76 +3156,76 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:01 AM</t>
+          <t>08-22-2025 06:59:19 AM</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:29 AM</t>
+          <t>08-22-2025 06:59:48 AM</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>PC-5CG5040677, FHR-5CG0036B94</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Daniel Jurach</t>
+          <t>Cole Brewster</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>daniel.jurach@fhr.com</t>
+          <t>cole.brewster@fhr.com</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
+          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>08-18-2025 11:58:20 AM</t>
+          <t>08-20-2025 01:48:49 PM</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>08-19-2025 10:21:28 AM</t>
+          <t>08-20-2025 01:49:17 PM</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>PC-2MQ514110T</t>
+          <t>FHR-5CG1276WN7, PC-34Y3Q25063R3</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Tony Short</t>
+          <t>Brenna Gerety</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ANTHONY.SHORT@KPLSRV.COM</t>
+          <t>BRENNA.GERETY@FHR.COM</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3235,22 +3235,22 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:07 AM</t>
+          <t>08-20-2025 07:58:01 AM</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:38 AM</t>
+          <t>08-20-2025 07:58:29 AM</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>PC-5CD5100KK7, PC-5CD229GR66, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
+          <t>PC-5CG5040677, FHR-5CG0036B94</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3262,121 +3262,121 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Chad Remer</t>
+          <t>Daniel Jurach</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CHAD.REMER@FHR.COM</t>
+          <t>daniel.jurach@fhr.com</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:04 AM</t>
+          <t>08-18-2025 11:58:20 AM</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:34 AM</t>
+          <t>08-19-2025 10:21:28 AM</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
+          <t>PC-2MQ514110T</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Nicholas Hanson</t>
+          <t>Tony Short</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NICK.HANSON@FHR.COM</t>
+          <t>ANTHONY.SHORT@KPLSRV.COM</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:17 AM</t>
+          <t>08-18-2025 10:21:07 AM</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:46 AM</t>
+          <t>08-18-2025 10:21:38 AM</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
+          <t>PC-5CD229GR66, PC-5CD5100KK7, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Harold Irvin</t>
+          <t>Chad Remer</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>HAROLD.IRVIN@FHR.COM</t>
+          <t>CHAD.REMER@FHR.COM</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:06 PM</t>
+          <t>08-18-2025 09:26:04 AM</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:37 PM</t>
+          <t>08-18-2025 09:26:34 AM</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>PC-2MQ51410F2, FHR-5CG2156Z1X</t>
+          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3388,12 +3388,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sandra Akarolo</t>
+          <t>Nicholas Hanson</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>sandra.akarolo@fhr.com</t>
+          <t>NICK.HANSON@FHR.COM</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3403,22 +3403,22 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-13-2025 01:51:42 PM</t>
+          <t>08-15-2025 07:06:17 AM</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-14-2025 08:58:56 AM</t>
+          <t>08-15-2025 07:06:46 AM</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>FHR-5CG213CDWV</t>
+          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3430,17 +3430,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Paul Fisher</t>
+          <t>Harold Irvin</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PAUL.FISHER@FHR.COM</t>
+          <t>HAROLD.IRVIN@FHR.COM</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3450,17 +3450,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:23 PM</t>
+          <t>08-14-2025 02:45:06 PM</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:56 PM</t>
+          <t>08-14-2025 02:45:37 PM</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
+          <t>PC-2MQ51410F2, FHR-5CG2156Z1X</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3472,54 +3472,54 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Robert Corley</t>
+          <t>Sandra Akarolo</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ROBERT.CORLEY@FHR.COM</t>
+          <t>sandra.akarolo@fhr.com</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-12-2025 06:27:18 PM</t>
+          <t>08-13-2025 01:51:42 PM</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>08-13-2025 12:47:38 PM</t>
+          <t>08-14-2025 08:58:56 AM</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
+          <t>FHR-5CG213CDWV</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Jeff Baker</t>
+          <t>Paul Fisher</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>JEFF.BAKER@FHR.COM</t>
+          <t>PAUL.FISHER@FHR.COM</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3529,22 +3529,22 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:02 AM</t>
+          <t>08-13-2025 05:07:23 PM</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:30 AM</t>
+          <t>08-13-2025 05:07:56 PM</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
+          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3556,348 +3556,348 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Kemal Simpson</t>
+          <t>Robert Corley</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>kemal.simpson@fhr.com</t>
+          <t>ROBERT.CORLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-13-2025 07:17:41 AM</t>
+          <t>08-12-2025 06:27:18 PM</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>08-13-2025 07:18:09 AM</t>
+          <t>08-13-2025 12:47:38 PM</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>FHR-5CG1073F3X</t>
+          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Robert Jimenez</t>
+          <t>Jeff Baker</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ROBERT.JIMENEZ@FHR.COM</t>
+          <t>JEFF.BAKER@FHR.COM</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:22 AM</t>
+          <t>08-13-2025 09:11:02 AM</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:51 AM</t>
+          <t>08-13-2025 09:11:30 AM</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
+          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Kevin Miller</t>
+          <t>Kemal Simpson</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>KEVIN.MILLER@FHR.COM</t>
+          <t>kemal.simpson@fhr.com</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:21 AM</t>
+          <t>08-13-2025 07:17:41 AM</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:49 AM</t>
+          <t>08-13-2025 07:18:09 AM</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
+          <t>FHR-5CG1073F3X</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Tucker Lansing</t>
+          <t>Robert Jimenez</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>tucker.lansing@fhr.com</t>
+          <t>ROBERT.JIMENEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:05 AM</t>
+          <t>08-12-2025 11:43:22 AM</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:44 AM</t>
+          <t>08-12-2025 11:43:51 AM</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>PC-2MQ5141103</t>
+          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Kairos Logan</t>
+          <t>Kevin Miller</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>kairos.logan@fhr.com</t>
+          <t>KEVIN.MILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:17 PM</t>
+          <t>08-12-2025 09:11:21 AM</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:45 PM</t>
+          <t>08-12-2025 09:11:49 AM</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>PC-2MQ51410BZ</t>
+          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Louis Stump</t>
+          <t>Tucker Lansing</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>LOUIS.STUMP@FHR.COM</t>
+          <t>tucker.lansing@fhr.com</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>07-20-2025 06:49:35 AM</t>
+          <t>08-12-2025 08:13:05 AM</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>08-11-2025 03:03:35 PM</t>
+          <t>08-12-2025 08:13:44 AM</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
+          <t>PC-2MQ5141103</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Kairos Logan</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>kairos.logan@fhr.com</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-11-2025 12:57:47 PM</t>
+          <t>08-11-2025 04:54:17 PM</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>08-11-2025 12:58:15 PM</t>
+          <t>08-11-2025 04:54:45 PM</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
+          <t>PC-2MQ51410BZ</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Alex Fairbanks</t>
+          <t>Louis Stump</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Alex.Fairbanks@fhr.com</t>
+          <t>LOUIS.STUMP@FHR.COM</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>08-11-2025 09:58:56 AM</t>
+          <t>07-20-2025 06:49:35 AM</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>08-11-2025 09:59:25 AM</t>
+          <t>08-11-2025 03:03:35 PM</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>PC-5CD5100K77, FHR-5CG2261RYZ, FHR-MXL3132S8S</t>
+          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Cole Wilson</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>cole.wilson@fhr.com</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3907,22 +3907,22 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>08-11-2025 08:57:56 AM</t>
+          <t>08-11-2025 12:57:47 PM</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>08-11-2025 08:58:25 AM</t>
+          <t>08-11-2025 12:58:15 PM</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z9H</t>
+          <t>PC-2MQ5270TFX, FHR-MXL2415603, PC-01VYP23013BF</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3934,96 +3934,96 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Alex Fairbanks</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>Alex.Fairbanks@fhr.com</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:07 AM</t>
+          <t>08-11-2025 09:58:56 AM</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:36 AM</t>
+          <t>08-11-2025 09:59:25 AM</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
+          <t>FHR-5CG2261RYZ, FHR-MXL3132S8S, PC-5CD5100K77</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Bobby Peddycord</t>
+          <t>Cole Wilson</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>bobby.peddycord@fhr.com</t>
+          <t>cole.wilson@fhr.com</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>08-07-2025 10:38:48 AM</t>
+          <t>08-11-2025 08:57:56 AM</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>08-11-2025 07:13:21 AM</t>
+          <t>08-11-2025 08:58:25 AM</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
+          <t>PC-2MQ5140Z9H</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Charles Oliver</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CHARLES.OLIVER@FHR.COM</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4038,17 +4038,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>08-11-2025 05:46:52 AM</t>
+          <t>08-11-2025 08:33:07 AM</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>08-11-2025 05:47:20 AM</t>
+          <t>08-11-2025 08:33:36 AM</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>PC-36KFF25193M4</t>
+          <t>PC-2MQ5270TFX, FHR-MXL2415603, PC-01VYP23013BF</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4060,17 +4060,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Rudy Barajas</t>
+          <t>Bobby Peddycord</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>RUDY.BARAJAS@FHR.COM</t>
+          <t>bobby.peddycord@fhr.com</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4080,123 +4080,123 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>08-06-2025 04:56:54 AM</t>
+          <t>08-07-2025 10:38:48 AM</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>08-08-2025 01:09:23 PM</t>
+          <t>08-11-2025 07:13:21 AM</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>PC-33BYB25013M4, FHR-J2V03Z3, PC-2MQ514105T, FHR-MXL24156CF</t>
+          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Braxton Holes</t>
+          <t>Charles Oliver</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>braxton.holes@fhr.com</t>
+          <t>CHARLES.OLIVER@FHR.COM</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>08-07-2025 08:51:34 AM</t>
+          <t>08-11-2025 05:46:52 AM</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>08-08-2025 11:34:27 AM</t>
+          <t>08-11-2025 05:47:20 AM</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGP, FHR-5CD231D3NH, FHR-5CD01052SN</t>
+          <t>PC-36KFF25193M4</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Andrea Unruh</t>
+          <t>Rudy Barajas</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ANDREA.UNRUH@FHR.COM</t>
+          <t>RUDY.BARAJAS@FHR.COM</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:28 AM</t>
+          <t>08-06-2025 04:56:54 AM</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:56 AM</t>
+          <t>08-08-2025 01:09:23 PM</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>PC-36KG325193M4, PC-014GF22373BF</t>
+          <t>PC-33BYB25013M4, FHR-J2V03Z3, PC-2MQ514105T, FHR-MXL24156CF</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Caleb Quanrud</t>
+          <t>Braxton Holes</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>caleb.quanrud@fhr.com</t>
+          <t>braxton.holes@fhr.com</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4206,118 +4206,118 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:28 PM</t>
+          <t>08-07-2025 08:51:34 AM</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:58 PM</t>
+          <t>08-08-2025 11:34:27 AM</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
+          <t>FHR-5CD231D3NH, PC-5CD5100KGP, FHR-5CD01052SN</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Jean Jaime</t>
+          <t>Andrea Unruh</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>JEAN.JAIME@FHR.COM</t>
+          <t>ANDREA.UNRUH@FHR.COM</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:32 PM</t>
+          <t>08-08-2025 08:17:28 AM</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>08-07-2025 02:12:00 PM</t>
+          <t>08-08-2025 08:17:56 AM</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
+          <t>PC-36KG325193M4, PC-014GF22373BF</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Caleb Quanrud</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>caleb.quanrud@fhr.com</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>08-07-2025 02:10:24 PM</t>
+          <t>08-07-2025 03:06:28 PM</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:00 PM</t>
+          <t>08-07-2025 03:06:58 PM</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
+          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Jean Jaime</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>JEAN.JAIME@FHR.COM</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4327,22 +4327,22 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:23 PM</t>
+          <t>08-07-2025 02:11:32 PM</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:59 PM</t>
+          <t>08-07-2025 02:12:00 PM</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
+          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4354,54 +4354,54 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Branden Roering</t>
+          <t>Rick Schwing</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>branden.roering@fhr.com</t>
+          <t>rick.schwing@fhr.com</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:17 PM</t>
+          <t>08-07-2025 02:10:24 PM</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:45 PM</t>
+          <t>08-07-2025 02:11:00 PM</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>PC-2MQ5141148</t>
+          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Christopher Brooks</t>
+          <t>Rick Schwing</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
+          <t>rick.schwing@fhr.com</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4411,22 +4411,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>08-06-2025 12:44:08 PM</t>
+          <t>08-07-2025 02:09:23 PM</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>08-07-2025 09:46:49 AM</t>
+          <t>08-07-2025 02:09:59 PM</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
+          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4438,306 +4438,306 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Justin Hinojosa</t>
+          <t>Branden Roering</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>justin.hinojosa@fhr.com</t>
+          <t>branden.roering@fhr.com</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:01 AM</t>
+          <t>08-07-2025 12:49:17 PM</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:29 AM</t>
+          <t>08-07-2025 12:49:45 PM</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>PC-MXL24156FQ SPC-MXL24156FQ FHR-8CG80416HL FHR-8CG806569G FHR-8CG7236C1X FHR-G3BCDZ3 FHR-MXL3132SS4 FHR-8CG80416GX FHR-MXL90224D2 FHR-8J5ZK44 FHR-MXL3132SN7 FHR-MXL3132SS3 FHR-9K8ZK44 FHR-MXL3132SQX KII-MXL2424F2T FHR-MXL5043GK1 FHR-MXL5043GK0 FHR-MXL3132SRR FHR-BK001HK222 FHR-MXL3132SNW FHR-5CD439J37S FHR-MXL3132SP1</t>
+          <t>PC-2MQ5141148</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Josiah Peterson</t>
+          <t>Christopher Brooks</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>JOSIAH.PETERSON@FHR.COM</t>
+          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>08-06-2025 08:30:11 AM</t>
+          <t>08-06-2025 12:44:08 PM</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>08-06-2025 08:31:02 AM</t>
+          <t>08-07-2025 09:46:49 AM</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TC1, FHR-5CD30764W6</t>
+          <t>PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Andrew Berndt</t>
+          <t>Justin Hinojosa</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>andrew.berndt@fhr.com</t>
+          <t>justin.hinojosa@fhr.com</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>08-05-2025 01:32:29 PM</t>
+          <t>08-06-2025 11:55:01 AM</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>08-05-2025 01:33:21 PM</t>
+          <t>08-06-2025 11:55:29 AM</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>PC-2MQ514100C</t>
+          <t>PC-MXL24156FQ SPC-MXL24156FQ FHR-8CG80416HL FHR-8CG806569G FHR-8CG7236C1X FHR-G3BCDZ3 FHR-MXL3132SS4 FHR-8CG80416GX FHR-MXL90224D2 FHR-8J5ZK44 FHR-MXL3132SN7 FHR-MXL3132SS3 FHR-9K8ZK44 FHR-MXL3132SQX KII-MXL2424F2T FHR-MXL5043GK1 FHR-MXL5043GK0 FHR-MXL3132SRR FHR-BK001HK222 FHR-MXL3132SNW FHR-5CD439J37S FHR-MXL3132SP1</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Matthew VanLanen</t>
+          <t>Josiah Peterson</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>matthew.vanlanen@fhr.com</t>
+          <t>JOSIAH.PETERSON@FHR.COM</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:12 AM</t>
+          <t>08-06-2025 08:30:11 AM</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:39 AM</t>
+          <t>08-06-2025 08:31:02 AM</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
+          <t>PC-2MQ5270TC1, FHR-5CD30764W6</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Arturo Vasquez Jr</t>
+          <t>Andrew Berndt</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ARTURO.VASQUEZ@FHR.COM</t>
+          <t>andrew.berndt@fhr.com</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>07-30-2025 12:56:40 PM</t>
+          <t>08-05-2025 01:32:29 PM</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>08-05-2025 09:13:23 AM</t>
+          <t>08-05-2025 01:33:21 PM</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>SPC-37MW25123GX, FHR-MXL4123NY2, FHR-8CG82809D5, FHR-5CG31302WM, FHR-MXL9223BRW</t>
+          <t>PC-2MQ514100C</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Christopher Koerner</t>
+          <t>Matthew VanLanen</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.KOERNER@FHR.COM</t>
+          <t>matthew.vanlanen@fhr.com</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>08-05-2025 08:14:41 AM</t>
+          <t>08-05-2025 10:28:12 AM</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>08-05-2025 08:15:12 AM</t>
+          <t>08-05-2025 10:28:39 AM</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>PC-5CD4514XZX, FHR-59309202153</t>
+          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Eric Derieux</t>
+          <t>Arturo Vasquez Jr</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ERIC.DERIEUX@FHR.COM</t>
+          <t>ARTURO.VASQUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>US-TX-BEAUMONT2 - FHR-Beaumont TX - Beaumont - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>08-05-2025 08:01:44 AM</t>
+          <t>07-30-2025 12:56:40 PM</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>08-05-2025 08:02:14 AM</t>
+          <t>08-05-2025 09:13:23 AM</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TDP, FHR-5CG8353ZC7, DESKTOP-JU70CMA</t>
+          <t>SPC-37MW25123GX, FHR-8CG82809D5, FHR-5CG31302WM, FHR-MXL9223BRW</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Ryan Sabin</t>
+          <t>Christopher Koerner</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ryan.sabin@fhr.com</t>
+          <t>CHRISTOPHER.KOERNER@FHR.COM</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4747,22 +4747,22 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>08-04-2025 12:02:32 PM</t>
+          <t>08-05-2025 08:14:41 AM</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>08-04-2025 12:03:01 PM</t>
+          <t>08-05-2025 08:15:12 AM</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZHM, FHR-5CG1092Y8L, PC-2MQ5040SX3</t>
+          <t>PC-5CD4514XZX, FHR-59309202153</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4774,17 +4774,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Nate Claseman</t>
+          <t>Eric Derieux</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>nate.claseman@fhr.com</t>
+          <t>ERIC.DERIEUX@FHR.COM</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-BEAUMONT2 - FHR-Beaumont TX - Beaumont - Koch</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4794,76 +4794,76 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>08-03-2025 01:32:09 PM</t>
+          <t>08-05-2025 08:01:44 AM</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>08-03-2025 01:32:37 PM</t>
+          <t>08-05-2025 08:02:14 AM</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>FHR-MXL2394SXC, PC-2MQ5270TFN, FHR-8CG7352CTV</t>
+          <t>PC-2MQ5270TDP, FHR-5CG8353ZC7, DESKTOP-JU70CMA</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Koy Straks</t>
+          <t>Ryan Sabin</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>koy.straks@fhr.com</t>
+          <t>ryan.sabin@fhr.com</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>08-01-2025 02:42:24 PM</t>
+          <t>08-04-2025 12:02:32 PM</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>08-01-2025 02:42:52 PM</t>
+          <t>08-04-2025 12:03:01 PM</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TF5</t>
+          <t>PC-2MQ5140ZHM, FHR-5CG1092Y8L, PC-2MQ5040SX3</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Gaven Girton</t>
+          <t>Nate Claseman</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>gaven.girton@fhr.com</t>
+          <t>nate.claseman@fhr.com</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4873,22 +4873,22 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>08-01-2025 02:05:31 PM</t>
+          <t>08-03-2025 01:32:09 PM</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>08-01-2025 02:05:58 PM</t>
+          <t>08-03-2025 01:32:37 PM</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZGG</t>
+          <t>PC-2MQ5270TFN, FHR-MXL2394SXC, FHR-8CG7352CTV</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4900,96 +4900,96 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Shaun McVay</t>
+          <t>Koy Straks</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>shaun.mcvay@fhr.com</t>
+          <t>koy.straks@fhr.com</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>08-01-2025 01:07:44 PM</t>
+          <t>08-01-2025 02:42:24 PM</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>08-01-2025 01:08:17 PM</t>
+          <t>08-01-2025 02:42:52 PM</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>PC-5CD5100KG2</t>
+          <t>PC-2MQ5270TF5</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>David Escamilla</t>
+          <t>Gaven Girton</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DAVID.ESCAMILLA@FHR.COM</t>
+          <t>gaven.girton@fhr.com</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>08-01-2025 07:36:23 AM</t>
+          <t>08-01-2025 02:05:31 PM</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>08-01-2025 07:36:54 AM</t>
+          <t>08-01-2025 02:05:58 PM</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>SPC-CRWXJ74, FHR-MXL11033PZ, PC-34MXB25193M4</t>
+          <t>PC-2MQ5140ZGG</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Troy Pena</t>
+          <t>Shaun McVay</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>troy.pena@fhr.com</t>
+          <t>shaun.mcvay@fhr.com</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4999,22 +4999,22 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>07-31-2025 04:49:13 PM</t>
+          <t>08-01-2025 01:07:44 PM</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>07-31-2025 04:49:40 PM</t>
+          <t>08-01-2025 01:08:17 PM</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>FHR-MXL2165D4H, FHR-87ZPDZ3, PC-34P3C25193M4, FHR-5CG24913Q4</t>
+          <t>PC-5CD5100KG2</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5026,79 +5026,79 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Hannah Shea</t>
+          <t>David Escamilla</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>hannah.shea@fhr.com</t>
+          <t>DAVID.ESCAMILLA@FHR.COM</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>07-31-2025 10:42:49 AM</t>
+          <t>08-01-2025 07:36:23 AM</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>07-31-2025 10:43:15 AM</t>
+          <t>08-01-2025 07:36:54 AM</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TCB, PC-5CG213CFKZ</t>
+          <t>SPC-CRWXJ74, FHR-MXL11033PZ, PC-34MXB25193M4</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Tara Schultz</t>
+          <t>Troy Pena</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TARA.SCHULTZ@FHR.COM</t>
+          <t>troy.pena@fhr.com</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>07-31-2025 08:59:51 AM</t>
+          <t>07-31-2025 04:49:13 PM</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>07-31-2025 09:00:19 AM</t>
+          <t>07-31-2025 04:49:40 PM</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZHK, FHR-2TK95201XD</t>
+          <t>FHR-87ZPDZ3, FHR-MXL2165D4H, PC-34P3C25193M4, FHR-5CG24913Q4</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5110,12 +5110,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Dave Larson</t>
+          <t>Hannah Shea</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>dave.larson@fhr.com</t>
+          <t>hannah.shea@fhr.com</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5125,22 +5125,22 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>07-31-2025 08:30:21 AM</t>
+          <t>07-31-2025 10:42:49 AM</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>07-31-2025 08:30:52 AM</t>
+          <t>07-31-2025 10:43:15 AM</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZFS, PC-5CG31302L2</t>
+          <t>PC-2MQ5270TCB, PC-5CG213CFKZ</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5152,37 +5152,37 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Andy Harrison</t>
+          <t>Tara Schultz</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ANDY.HARRISON@FHR.COM</t>
+          <t>TARA.SCHULTZ@FHR.COM</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>07-30-2025 06:15:56 PM</t>
+          <t>07-31-2025 08:59:51 AM</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>07-30-2025 06:16:23 PM</t>
+          <t>07-31-2025 09:00:19 AM</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>PC-34MWB25193M4, PC-JTKJ414, FHR-5CG1314JWW</t>
+          <t>FHR-2TK95201XD, PC-2MQ5140ZHK</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5194,168 +5194,168 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Matt Hoveland</t>
+          <t>Dave Larson</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MATT.HOVELAND@FHR.COM</t>
+          <t>dave.larson@fhr.com</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>07-30-2025 04:10:43 PM</t>
+          <t>07-31-2025 08:30:21 AM</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>07-30-2025 04:11:10 PM</t>
+          <t>07-31-2025 08:30:52 AM</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>FHR-5CG2060QSH, FHR-MXL9061CF9, PC-5CD5100K9P</t>
+          <t>PC-2MQ5140ZFS, PC-5CG31302L2</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>James Pfeifer</t>
+          <t>Andy Harrison</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>JAMES.PFEIFER@FHR.COM</t>
+          <t>ANDY.HARRISON@FHR.COM</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>07-28-2025 10:17:28 AM</t>
+          <t>07-30-2025 06:15:56 PM</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>07-30-2025 02:09:54 PM</t>
+          <t>07-30-2025 06:16:23 PM</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>SPC-5CD5100K9D, PC-5CD2331XGS</t>
+          <t>PC-34MWB25193M4, PC-JTKJ414, FHR-5CG1314JWW</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Arnold Ortiz</t>
+          <t>Matt Hoveland</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ARNOLD.ORTIZ@FHR.COM</t>
+          <t>MATT.HOVELAND@FHR.COM</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>07-24-2025 05:52:42 AM</t>
+          <t>07-30-2025 04:10:43 PM</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>07-30-2025 12:54:23 PM</t>
+          <t>07-30-2025 04:11:10 PM</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>FHR-5CG2096F0R, FHR-5CG2060QFY, SPC-6YF2X54</t>
+          <t>FHR-MXL9061CF9, FHR-5CG2060QSH, PC-5CD5100K9P</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Shaun Passmore</t>
+          <t>James Pfeifer</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SHAUN.PASSMORE@FHR.COM</t>
+          <t>JAMES.PFEIFER@FHR.COM</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>07-30-2025 10:20:42 AM</t>
+          <t>07-28-2025 10:17:28 AM</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>07-30-2025 10:21:10 AM</t>
+          <t>07-30-2025 02:09:54 PM</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>PC-34P9325193M4</t>
+          <t>SPC-5CD5100K9D, PC-5CD2331XGS</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>

--- a/output/fhr_computer_requests.xlsx
+++ b/output/fhr_computer_requests.xlsx
@@ -532,306 +532,306 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Vicente Castillo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DANIEL.BRAUN@FHR.COM</t>
+          <t>VICENTE.CASTILLO@FHR.COM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09-18-2025 02:27:18 PM</t>
+          <t>09-22-2025 08:10:41 AM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>09-18-2025 02:27:46 PM</t>
+          <t>09-22-2025 08:11:09 AM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>FHR-5CG7312MP6</t>
+          <t>PC-334QH231933F, FHR-MXL3132SQX</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Roberto Montelongo</t>
+          <t>Dillon Sailer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>roberto.montelongo@fhr.com</t>
+          <t>dillon.sailer@fhr.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09-18-2025 09:01:15 AM</t>
+          <t>09-19-2025 04:55:25 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>09-18-2025 09:01:46 AM</t>
+          <t>09-19-2025 04:55:54 PM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FHR-5CG2156GT3, USWHL-1276WN9</t>
+          <t>FHR-LOANPB18, FHR-5CG201416N</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Trevor Willberg</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>trevor.willberg@fhr.com</t>
+          <t>DANIEL.BRAUN@FHR.COM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09-17-2025 10:21:00 AM</t>
+          <t>09-18-2025 02:27:18 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09-17-2025 12:52:13 PM</t>
+          <t>09-18-2025 02:27:46 PM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>FHR-5CG7312MP6</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cory Strandlien</t>
+          <t>Roberto Montelongo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cory.strandlien@fhr.com</t>
+          <t>roberto.montelongo@fhr.com</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09-17-2025 09:55:48 AM</t>
+          <t>09-18-2025 09:01:15 AM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09-17-2025 12:44:37 PM</t>
+          <t>09-18-2025 09:01:46 AM</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>FHR-5CG2156GT3, USWHL-1276WN9</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Enrique Flores</t>
+          <t>Trevor Willberg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENRIQUE.FLORES@FHR.COM</t>
+          <t>trevor.willberg@fhr.com</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09-17-2025 10:03:05 AM</t>
+          <t>09-17-2025 10:21:00 AM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-17-2025 10:03:36 AM</t>
+          <t>09-17-2025 12:52:13 PM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>FHR-2UA8311QWT, FHR-5CG1240T5M, FHR-5CD4154J0P</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jason Henke</t>
+          <t>Cory Strandlien</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JASON.HENKE@FHR.COM</t>
+          <t>cory.strandlien@fhr.com</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09-17-2025 09:38:30 AM</t>
+          <t>09-17-2025 09:55:48 AM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-17-2025 09:39:02 AM</t>
+          <t>09-17-2025 12:44:37 PM</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>FHR-5CG2151LHM</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jed Illg</t>
+          <t>Enrique Flores</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jed.Illg@fhr.com</t>
+          <t>ENRIQUE.FLORES@FHR.COM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-17-2025 08:33:21 AM</t>
+          <t>09-17-2025 10:03:05 AM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-17-2025 08:33:50 AM</t>
+          <t>09-17-2025 10:03:36 AM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>FHR-5CG2156GG9</t>
+          <t>FHR-2UA8311QWT, FHR-5CG1240T5M, FHR-5CD4154J0P</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Shannon Angle</t>
+          <t>Jason Henke</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>shannon.angle@kochcc.com</t>
+          <t>JASON.HENKE@FHR.COM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -841,22 +841,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-17-2025 07:50:45 AM</t>
+          <t>09-17-2025 09:38:30 AM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-17-2025 07:51:14 AM</t>
+          <t>09-17-2025 09:39:02 AM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
+          <t>FHR-5CG2151LHM</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -868,138 +868,138 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bryeton Canchola</t>
+          <t>Jed Illg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bryeton.canchola@fhr.com</t>
+          <t>Jed.Illg@fhr.com</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-16-2025 03:26:59 PM</t>
+          <t>09-17-2025 08:33:21 AM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-16-2025 03:27:26 PM</t>
+          <t>09-17-2025 08:33:50 AM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>SPC-MXL24155VV FHR-MXL1022SZ3 FHR-MXL24156C3 SPC-MXL24155W5 SPC-MXL3324PYM SPC-MXL3324PZ0 FHR-MXL2223BDL FHR-MXL9502C5W FHR-MXL9333W07 PC-01W3B23013BF FHR-MXL1022T0R FHR-MXL24155WF FHR-MXL13349Z2 SPC-MXL3324PZ2 FHR-MXL90224C1 FHR-BK000V1 FHR-B9XFH04 SPC-MXL3324PYD SPC-MXL3324PYP FHR-8V4TNZ3</t>
+          <t>FHR-5CG2156GG9, PC-2MQ5290Z98</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Charles Cooley Jr</t>
+          <t>Shannon Angle</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHARLES.COOLEY@FHR.COM</t>
+          <t>shannon.angle@kochcc.com</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09-16-2025 02:26:57 PM</t>
+          <t>09-17-2025 07:50:45 AM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-16-2025 02:27:28 PM</t>
+          <t>09-17-2025 07:51:14 AM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>FHR-5CG225854R</t>
+          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Patrick Tiller</t>
+          <t>Bryeton Canchola</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PATRICK.TILLER@FHR.COM</t>
+          <t>bryeton.canchola@fhr.com</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09-16-2025 12:20:22 PM</t>
+          <t>09-16-2025 03:26:59 PM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09-16-2025 12:20:49 PM</t>
+          <t>09-16-2025 03:27:26 PM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>FHR-5CG1240T4Q, PC-JZ4TNZ3, PC-1H85200B13, FHR-5CG815441G, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
+          <t>SPC-MXL24155VV FHR-MXL1022SZ3 FHR-MXL24156C3 SPC-MXL24155W5 SPC-MXL3324PYM SPC-MXL3324PZ0 FHR-MXL2223BDL FHR-MXL9502C5W FHR-MXL9333W07 PC-01W3B23013BF FHR-MXL1022T0R FHR-MXL24155WF FHR-MXL13349Z2 SPC-MXL3324PZ2 FHR-MXL90224C1 FHR-BK000V1 FHR-B9XFH04 SPC-MXL3324PYD SPC-MXL3324PYP FHR-8V4TNZ3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bryan Garcia</t>
+          <t>Charles Cooley Jr</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bryan.garcia1@fhr.com</t>
+          <t>CHARLES.COOLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1009,22 +1009,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09-16-2025 07:46:13 AM</t>
+          <t>09-16-2025 02:26:57 PM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09-16-2025 07:46:49 AM</t>
+          <t>09-16-2025 02:27:28 PM</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>PC-33J3M25073R3, PC-BZQ03Z3, PC-5CG408495P</t>
+          <t>FHR-5CG225854R</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1036,264 +1036,264 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Troy Hull</t>
+          <t>Patrick Tiller</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TROY.HULL@FHR.COM</t>
+          <t>PATRICK.TILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09-16-2025 06:55:54 AM</t>
+          <t>09-16-2025 12:20:22 PM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-16-2025 06:56:26 AM</t>
+          <t>09-16-2025 12:20:49 PM</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>PC-5CG4151LFY</t>
+          <t>FHR-5CG1240T4Q, PC-JZ4TNZ3, PC-1H85200B13, FHR-5CG815441G, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Crystal Link</t>
+          <t>Bryan Garcia</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CRYSTAL.LINK@FHR.COM</t>
+          <t>bryan.garcia1@fhr.com</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09-15-2025 11:01:25 AM</t>
+          <t>09-16-2025 07:46:13 AM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09-15-2025 11:01:54 AM</t>
+          <t>09-16-2025 07:46:49 AM</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>PC-5CG1465ZKZ, FHR-5CG0254D4T</t>
+          <t>PC-5CG408495P, PC-BZQ03Z3, PC-33J3M25073R3</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Alex Lodholz</t>
+          <t>Troy Hull</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>alex.lodholz@fhr.com</t>
+          <t>TROY.HULL@FHR.COM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09-15-2025 09:14:43 AM</t>
+          <t>09-16-2025 06:55:54 AM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-15-2025 09:15:12 AM</t>
+          <t>09-16-2025 06:56:26 AM</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>PC-5CG4151LFY</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Brendan Snell</t>
+          <t>Crystal Link</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>brendan.snell@fhr.com</t>
+          <t>CRYSTAL.LINK@FHR.COM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:12 AM</t>
+          <t>09-15-2025 11:01:25 AM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:46 AM</t>
+          <t>09-15-2025 11:01:54 AM</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>FHR-5CG2156XDV</t>
+          <t>FHR-5CG0254D4T, PC-5CG1465ZKZ, PC-1H85200B04</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Joey Guerrero</t>
+          <t>Alex Lodholz</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>joey.guerrero1@fhr.com</t>
+          <t>alex.lodholz@fhr.com</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09-15-2025 06:33:41 AM</t>
+          <t>09-15-2025 09:14:43 AM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-15-2025 06:34:14 AM</t>
+          <t>09-15-2025 09:15:12 AM</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>PC-33B8725073R3, PC-9659600351</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Eddie Buskirk</t>
+          <t>Brendan Snell</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EDDIE.BUSKIRK@FHR.COM</t>
+          <t>brendan.snell@fhr.com</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09-12-2025 01:52:56 PM</t>
+          <t>09-15-2025 08:15:12 AM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-12-2025 01:53:24 PM</t>
+          <t>09-15-2025 08:15:46 AM</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>PC-1H85200B0W, FHR-5CG9326W2B</t>
+          <t>FHR-5CG2156XDV</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sammantha Reynolds</t>
+          <t>Joey Guerrero</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sammantha.reynolds1@fhr.com</t>
+          <t>joey.guerrero1@fhr.com</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1303,22 +1303,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>09-12-2025 08:18:55 AM</t>
+          <t>09-15-2025 06:33:41 AM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09-12-2025 08:19:25 AM</t>
+          <t>09-15-2025 06:34:14 AM</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
+          <t>PC-33B8725073R3, PC-9659600351</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1330,101 +1330,101 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Victor Sauceda</t>
+          <t>Eddie Buskirk</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>victor.sauceda@fhr.com</t>
+          <t>EDDIE.BUSKIRK@FHR.COM</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:03 AM</t>
+          <t>09-12-2025 01:52:56 PM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:33 AM</t>
+          <t>09-12-2025 01:53:24 PM</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PC-33W4325273R3, FHR-5CD8522C54</t>
+          <t>PC-1H85200B0W, FHR-5CG9326W2B</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Mitch O'Keefe</t>
+          <t>Sammantha Reynolds</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MITCH.OKEEFE@FHR.COM</t>
+          <t>sammantha.reynolds1@fhr.com</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:11 PM</t>
+          <t>09-12-2025 08:18:55 AM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:39 PM</t>
+          <t>09-12-2025 08:19:25 AM</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>FHR-MXL23843M2, MSP-CTLU27, PC-1H85200B09, FHR-5CG1344HQ7</t>
+          <t>PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Joe Bedynek</t>
+          <t>Victor Sauceda</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>JOE.BEDYNEK@FHR.COM</t>
+          <t>victor.sauceda@fhr.com</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1434,160 +1434,160 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:10 PM</t>
+          <t>09-11-2025 09:46:03 AM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:36 PM</t>
+          <t>09-11-2025 09:46:33 AM</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>PC-33W6D25273R3, FHR-5CD026KSTV</t>
+          <t>PC-33W4325273R3, FHR-5CD8522C54</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ruben Hernandez</t>
+          <t>Mitch O'Keefe</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ruben.hernandez@fhr.com</t>
+          <t>MITCH.OKEEFE@FHR.COM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>09-10-2025 02:51:54 PM</t>
+          <t>09-10-2025 05:54:11 PM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>09-10-2025 02:52:21 PM</t>
+          <t>09-10-2025 05:54:39 PM</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>PC-2MQ5141117, PC-5CD231GKV7</t>
+          <t>FHR-MXL23843M2, MSP-CTLU27, PC-1H85200B09, FHR-5CG1344HQ7</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lauren Sada</t>
+          <t>Joe Bedynek</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>lauren.sada@fhr.com</t>
+          <t>JOE.BEDYNEK@FHR.COM</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:21 PM</t>
+          <t>09-10-2025 02:54:10 PM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:49 PM</t>
+          <t>09-10-2025 02:54:36 PM</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>PC-33W6D25273R3, FHR-5CD026KSTV</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Kevin Harvey</t>
+          <t>Ruben Hernandez</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>KEVIN.HARVEY@FHR.COM</t>
+          <t>ruben.hernandez@fhr.com</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>09-10-2025 08:38:42 AM</t>
+          <t>09-10-2025 02:51:54 PM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09-10-2025 08:39:13 AM</t>
+          <t>09-10-2025 02:52:21 PM</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>FHR-5CG1236JK6, PC-2MQ5290Z3G</t>
+          <t>PC-5CD231GKV7, PC-2MQ5141117</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Matt Olson</t>
+          <t>Lauren Sada</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MATTHEW.OLSON@FHR.COM</t>
+          <t>lauren.sada@fhr.com</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1597,22 +1597,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09-09-2025 11:43:57 AM</t>
+          <t>09-10-2025 01:27:21 PM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-09-2025 11:44:26 AM</t>
+          <t>09-10-2025 01:27:49 PM</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>FHR-5CD40711PF, PC-2MQ5290Z8Z, FHR-5CG918242Z</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1624,12 +1624,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sam Weldemariam</t>
+          <t>Kevin Harvey</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SAM.WELDEMARIAM@FHR.COM</t>
+          <t>KEVIN.HARVEY@FHR.COM</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1644,17 +1644,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:23 AM</t>
+          <t>09-10-2025 08:38:42 AM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:51 AM</t>
+          <t>09-10-2025 08:39:13 AM</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>PC-GQMKN34, FHR-3KJBQ54, FHR-F9GR624, FHR-D90QDZ3, FHR-G8GR624, FHR-MXL9144C61, FHR-5CG213BX6D, FHR-5CD8506CR3</t>
+          <t>PC-2MQ5290Z3G, FHR-5CG1236JK6</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1666,54 +1666,54 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Derek Wilfong</t>
+          <t>Matt Olson</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DEREK.WILFONG@FHR.COM</t>
+          <t>MATTHEW.OLSON@FHR.COM</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09-09-2025 09:02:55 AM</t>
+          <t>09-09-2025 11:43:57 AM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-09-2025 09:03:28 AM</t>
+          <t>09-09-2025 11:44:26 AM</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>FHR-5CG1314K33</t>
+          <t>FHR-5CD40711PF, PC-2MQ5290Z8Z, FHR-5CG918242Z</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Joel Mccabe</t>
+          <t>Sam Weldemariam</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>JOEL.MCCABE@FHR.COM</t>
+          <t>SAM.WELDEMARIAM@FHR.COM</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1723,22 +1723,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09-05-2025 03:04:34 PM</t>
+          <t>09-09-2025 09:48:23 AM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-08-2025 09:08:16 AM</t>
+          <t>09-09-2025 09:48:51 AM</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>SPC-G942X54, FHR-1B1KH04, MSP-005054</t>
+          <t>FHR-F9GR624, PC-GQMKN34, FHR-3KJBQ54, FHR-G8GR624, FHR-D90QDZ3, FHR-MXL9144C61, FHR-5CG213BX6D, FHR-5CD8506CR3</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1750,96 +1750,96 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Devon Holz</t>
+          <t>Derek Wilfong</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DEVON.HOLZ@FHR.COM</t>
+          <t>DEREK.WILFONG@FHR.COM</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:14 PM</t>
+          <t>09-09-2025 09:02:55 AM</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:42 PM</t>
+          <t>09-09-2025 09:03:28 AM</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZD9, FHR-5CG2219ZDW</t>
+          <t>FHR-5CG1314K33</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Shawn Sieben</t>
+          <t>Joel Mccabe</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Shawn.Sieben@fhr.com</t>
+          <t>JOEL.MCCABE@FHR.COM</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09-04-2025 09:29:38 AM</t>
+          <t>09-05-2025 03:04:34 PM</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09-05-2025 12:58:04 PM</t>
+          <t>09-08-2025 09:08:16 AM</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>FHR-5CD3507T46, FHR-CND8426B2G, FHR-8CC84008DL</t>
+          <t>SPC-G942X54, FHR-1B1KH04, MSP-005054</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Carrie Simpson</t>
+          <t>Devon Holz</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CARRIE.SIMPSON@FHR.COM</t>
+          <t>DEVON.HOLZ@FHR.COM</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1849,22 +1849,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:03 PM</t>
+          <t>09-05-2025 02:23:14 PM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:30 PM</t>
+          <t>09-05-2025 02:23:42 PM</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>FHR-8CG83488SZ, PC-2MQ5140ZSD, PC-001NS23373BF</t>
+          <t>PC-2MQ5140ZD9, FHR-5CG2219ZDW</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1876,17 +1876,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Chris Pratt</t>
+          <t>Shawn Sieben</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chris.Pratt@fhr.com</t>
+          <t>Shawn.Sieben@fhr.com</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
+          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1896,17 +1896,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09-02-2025 04:16:05 PM</t>
+          <t>09-04-2025 09:29:38 AM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09-04-2025 01:23:58 PM</t>
+          <t>09-05-2025 12:58:04 PM</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>PC-MXL53644K5, FHR-5CD016BPV0, FHR-MXL8361TTS</t>
+          <t>FHR-CND8426B2G, FHR-5CD3507T46, FHR-8CC84008DL</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1918,12 +1918,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Manuel Moreno Jr</t>
+          <t>Carrie Simpson</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MANUEL.MORENO@FHR.COM</t>
+          <t>CARRIE.SIMPSON@FHR.COM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1933,22 +1933,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>05-02-2025 08:54:50 AM</t>
+          <t>09-04-2025 03:17:03 PM</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-04-2025 01:17:10 PM</t>
+          <t>09-04-2025 03:17:30 PM</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>SPC-5BJ8D14, PC-5CG4143GRG, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
+          <t>PC-2MQ5140ZSD, PC-001NS23373BF</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1960,96 +1960,96 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ben Sandiford</t>
+          <t>Chris Pratt</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ben.sandiford@fhr.com</t>
+          <t>Chris.Pratt@fhr.com</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:18 PM</t>
+          <t>09-02-2025 04:16:05 PM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:48 PM</t>
+          <t>09-04-2025 01:23:58 PM</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>PC-1H95220MS6, PC-33VW824233M4</t>
+          <t>FHR-5CD016BPV0, PC-MXL53644K5, FHR-MXL8361TTS</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Denise Schardt</t>
+          <t>Manuel Moreno Jr</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DENISE.SCHARDT@FHR.COM</t>
+          <t>MANUEL.MORENO@FHR.COM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-03-2025 02:48:18 PM</t>
+          <t>05-02-2025 08:54:50 AM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-04-2025 01:00:11 PM</t>
+          <t>09-04-2025 01:17:10 PM</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
+          <t>SPC-5BJ8D14, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Ray Aslesen</t>
+          <t>Ben Sandiford</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RAY.ASLESEN@FHR.COM</t>
+          <t>ben.sandiford@fhr.com</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2059,22 +2059,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09-04-2025 07:28:33 AM</t>
+          <t>09-04-2025 01:11:18 PM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-04-2025 07:29:01 AM</t>
+          <t>09-04-2025 01:11:48 PM</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>PC-MXL4523KGB, PC-2MQ5140ZSW, FHR-0F00CQM2332, FHR-CND1440HBV</t>
+          <t>PC-33VW824233M4, PC-1H95220MS6</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2086,54 +2086,54 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>Denise Schardt</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>DENISE.SCHARDT@FHR.COM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09-04-2025 06:11:34 AM</t>
+          <t>09-03-2025 02:48:18 PM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-04-2025 06:12:02 AM</t>
+          <t>09-04-2025 01:00:11 PM</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Dora Heimsoth</t>
+          <t>Ray Aslesen</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>dora.heimsoth1@fhr.com</t>
+          <t>RAY.ASLESEN@FHR.COM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2143,22 +2143,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>09-03-2025 03:00:34 PM</t>
+          <t>09-04-2025 07:28:33 AM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>09-03-2025 03:01:01 PM</t>
+          <t>09-04-2025 07:29:01 AM</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>PC-339W925073R3, PC-86XGSV3</t>
+          <t>PC-MXL4523KGB, PC-2MQ5140ZSW, FHR-0F00CQM2332, FHR-CND1440HBV</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2170,12 +2170,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Stephen Rodriguez</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2185,22 +2185,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-03-2025 02:28:45 PM</t>
+          <t>09-04-2025 06:11:34 AM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>09-03-2025 02:29:20 PM</t>
+          <t>09-04-2025 06:12:02 AM</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>FHR-MXL90223C1 FHR-MXL902239Z FHR-MXL9332KN0 FHR-MXL902239R CND837B026 FHR-MXL9153QWC KII-MXL2424F2T FHR-5CG12812WW FHR-MXL3132SQX FHR-MXL3132SN7 FHR-MXL3132SNW FHR-MXL3132SS3 FHR-MXL3132SS4 FHR-MXL90224D2 FHR-8CG806569G KII-MXL24156FT FHR-MXL4424X3B FHR-MXL5043GK0 FHR-MXL5043GK1 SPC-DX6LZ84 SPC-MXL24156CD</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2212,54 +2212,54 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Matt Skrobarcek</t>
+          <t>Dora Heimsoth</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
+          <t>dora.heimsoth1@fhr.com</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:08 AM</t>
+          <t>09-03-2025 03:00:34 PM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:38 AM</t>
+          <t>09-03-2025 03:01:01 PM</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
+          <t>PC-339W925073R3, PC-86XGSV3</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Justin Nava</t>
+          <t>Stephen Rodriguez</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>JUSTIN.NAVA@FHR.COM</t>
+          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2269,22 +2269,22 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-03-2025 09:44:33 AM</t>
+          <t>09-03-2025 02:28:45 PM</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09-03-2025 09:45:02 AM</t>
+          <t>09-03-2025 02:29:20 PM</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>FHR-5CG4240WQT, FHR-MXL9223BVJ</t>
+          <t>FHR-MXL4424X3B, SPC-DX6LZ84</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2296,222 +2296,222 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Logan Tom</t>
+          <t>Matt Skrobarcek</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>logan.tom@fhr.com</t>
+          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:15 PM</t>
+          <t>09-03-2025 09:46:08 AM</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:42 PM</t>
+          <t>09-03-2025 09:46:38 AM</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
+          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Travis Sumerfelt</t>
+          <t>Justin Nava</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>travis.sumerfelt@fhr.com</t>
+          <t>JUSTIN.NAVA@FHR.COM</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-02-2025 11:06:03 AM</t>
+          <t>09-03-2025 09:44:33 AM</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>09-02-2025 11:07:05 AM</t>
+          <t>09-03-2025 09:45:02 AM</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>PC-2MQ514108Q</t>
+          <t>SPC-82TKZ84, FHR-5CG4240WQT, FHR-MXL9223BVJ</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Carlos Garcia Jr.</t>
+          <t>Logan Tom</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CARLOS.GARCIAJR@FHR.COM</t>
+          <t>logan.tom@fhr.com</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>08-27-2025 09:24:59 PM</t>
+          <t>09-02-2025 02:39:15 PM</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>09-02-2025 08:26:34 AM</t>
+          <t>09-02-2025 02:39:42 PM</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>FHR-4PMKN34</t>
+          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Billy Royal</t>
+          <t>Travis Sumerfelt</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BILLY.ROYAL@FHR.COM</t>
+          <t>travis.sumerfelt@fhr.com</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:06 PM</t>
+          <t>09-02-2025 11:06:03 AM</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:34 PM</t>
+          <t>09-02-2025 11:07:05 AM</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>FHR-5CD2331XLD</t>
+          <t>PC-2MQ514108Q</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Samuel Paulus</t>
+          <t>Carlos Garcia Jr.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>samuel.paulus@fhr.com</t>
+          <t>CARLOS.GARCIAJR@FHR.COM</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:17 PM</t>
+          <t>08-27-2025 09:24:59 PM</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:45 PM</t>
+          <t>09-02-2025 08:26:34 AM</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
+          <t>FHR-4PMKN34</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Derya Broll</t>
+          <t>Billy Royal</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DERYA.BROLL@FHR.COM</t>
+          <t>BILLY.ROYAL@FHR.COM</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2521,22 +2521,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:07 PM</t>
+          <t>08-29-2025 04:48:06 PM</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:37 PM</t>
+          <t>08-29-2025 04:48:34 PM</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
+          <t>FHR-5CD2331XLD</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2548,54 +2548,54 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Joseph Moberly</t>
+          <t>Samuel Paulus</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>joseph.moberly@fhr.com</t>
+          <t>samuel.paulus@fhr.com</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>08-28-2025 01:10:49 PM</t>
+          <t>08-29-2025 01:00:17 PM</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>08-28-2025 01:11:16 PM</t>
+          <t>08-29-2025 01:00:45 PM</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>PC-1H852009W3, PC-5CG2415PYM</t>
+          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Lindi Dinn</t>
+          <t>Derya Broll</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>LINDI.DINN@FHR.COM</t>
+          <t>DERYA.BROLL@FHR.COM</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2605,22 +2605,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:14 PM</t>
+          <t>08-29-2025 12:10:07 PM</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:40 PM</t>
+          <t>08-29-2025 12:10:37 PM</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>FHR-CND1440HKF, PC-1H852009X5, FHR-8CC8412KMN, PC-36KMG25193M4, FHR-51990492553</t>
+          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2632,96 +2632,96 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Rodney Cotten</t>
+          <t>Joseph Moberly</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>RODNEY.COTTEN@FHR.COM</t>
+          <t>joseph.moberly@fhr.com</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:02 PM</t>
+          <t>08-28-2025 01:10:49 PM</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:30 PM</t>
+          <t>08-28-2025 01:11:16 PM</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>PC-33JGC25073R3, PC-5CD5100K7L, FHR-5CG7515059</t>
+          <t>PC-1H852009W3, PC-5CG2415PYM</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Chad Schaner</t>
+          <t>Lindi Dinn</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CHAD.SCHANER@FHR.COM</t>
+          <t>LINDI.DINN@FHR.COM</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Dell Pro Rugged RB14250 14" Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>08-04-2025 01:41:48 PM</t>
+          <t>08-27-2025 02:53:14 PM</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>08-27-2025 01:20:37 PM</t>
+          <t>08-27-2025 02:53:40 PM</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>FHR-8H0GH04, FHR-8CG7352CR5, FHR-DYW9BT3, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-187491253</t>
+          <t>FHR-CND1440HKF, PC-1H852009X5, PC-36KMG25193M4, FHR-8CC8412KMN, FHR-51990492553</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Denise Gonzalez</t>
+          <t>Rodney Cotten</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DENISE.GONZALEZ@FHR.COM</t>
+          <t>RODNEY.COTTEN@FHR.COM</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2736,17 +2736,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:17 AM</t>
+          <t>08-27-2025 02:27:02 PM</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:45 AM</t>
+          <t>08-27-2025 02:27:30 PM</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>FHR-MXL401238S, SPC-D0R03Z3, SPC-63V03Z3, PC-34Y4825063R3, PC-5WXDQV3</t>
+          <t>PC-33JGC25073R3, PC-5CD5100K7L, FHR-5CG7515059</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2758,54 +2758,54 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Kris Adkins</t>
+          <t>Chad Schaner</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>KRISTOPHER.ADKINS@FHR.COM</t>
+          <t>CHAD.SCHANER@FHR.COM</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>Dell Pro Rugged RB14250 14" Laptop</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08-26-2025 08:20:43 PM</t>
+          <t>08-04-2025 01:41:48 PM</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>08-26-2025 08:21:16 PM</t>
+          <t>08-27-2025 01:20:37 PM</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>PC-34WWG25063R3</t>
+          <t>FHR-8H0GH04, FHR-8CG7352CR5, FHR-DYW9BT3, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-187491253</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Jose Cardona</t>
+          <t>Denise Gonzalez</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>JOSE.CARDONA@FHR.COM</t>
+          <t>DENISE.GONZALEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2815,22 +2815,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>08-26-2025 09:00:40 AM</t>
+          <t>08-27-2025 07:15:17 AM</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>08-26-2025 09:01:09 AM</t>
+          <t>08-27-2025 07:15:45 AM</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>SPC-5CG40111C6, CPC-JOSEC-BGVEA, FHR-5CG30935LZ</t>
+          <t>SPC-G1V03Z3, SPC-23V03Z3, SPC-G3V03Z3, SPC-63V03Z3, SPC-D0R03Z3, PC-34Y4825063R3, PC-5WXDQV3</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2842,101 +2842,101 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Phillip Norell</t>
+          <t>Kris Adkins</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PHILLIP.NORELL@FHR.COM</t>
+          <t>KRISTOPHER.ADKINS@FHR.COM</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:13 PM</t>
+          <t>08-26-2025 08:20:43 PM</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:39 PM</t>
+          <t>08-26-2025 08:21:16 PM</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>FHR-5CG213CGKR, PC-1H85200B08</t>
+          <t>FHR-3NMKN34, PC-34WWG25063R3</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Anne Lee</t>
+          <t>Jose Cardona</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ANNE.LEE@FHR.COM</t>
+          <t>JOSE.CARDONA@FHR.COM</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:00 AM</t>
+          <t>08-26-2025 09:00:40 AM</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:30 AM</t>
+          <t>08-26-2025 09:01:09 AM</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
+          <t>FHR-5CG30935LZ, SPC-5CG40111C6, CPC-JOSEC-BGVEA, SPC-5CG4084VQJ, SPC-5CG40111D5</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>David Barnholt</t>
+          <t>Phillip Norell</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>david.barnholt@fhr.com</t>
+          <t>PHILLIP.NORELL@FHR.COM</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2946,76 +2946,76 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:27 AM</t>
+          <t>08-25-2025 02:58:13 PM</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:54 AM</t>
+          <t>08-25-2025 02:58:39 PM</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>PC-1H852009SD</t>
+          <t>FHR-5CG213CGKR, PC-1H85200B08</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Eric Enders</t>
+          <t>Anne Lee</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>eric.enders@fhr.com</t>
+          <t>ANNE.LEE@FHR.COM</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:30 AM</t>
+          <t>08-25-2025 10:13:00 AM</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:59 AM</t>
+          <t>08-25-2025 10:13:30 AM</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>PC-2MQ514115J</t>
+          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sean Garza</t>
+          <t>David Barnholt</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>sean.garza@fhr.com</t>
+          <t>david.barnholt@fhr.com</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3025,22 +3025,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08-19-2025 01:01:15 AM</t>
+          <t>08-22-2025 11:11:27 AM</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:18 AM</t>
+          <t>08-22-2025 11:11:54 AM</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>SPC-3B6G25073R3</t>
+          <t>PC-1H852009SD</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3052,54 +3052,54 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Joe Rohl</t>
+          <t>Eric Enders</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>JOE.ROHL@FHR.COM</t>
+          <t>eric.enders@fhr.com</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>08-19-2025 02:44:07 PM</t>
+          <t>08-22-2025 07:55:30 AM</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:14 AM</t>
+          <t>08-22-2025 07:55:59 AM</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
+          <t>PC-2MQ514115J</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>David Ybarra</t>
+          <t>Sean Garza</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DAVID.YBARRA@FHR.COM</t>
+          <t>sean.garza@fhr.com</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3109,22 +3109,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:30 AM</t>
+          <t>08-19-2025 01:01:15 AM</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:58 AM</t>
+          <t>08-22-2025 07:34:18 AM</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
+          <t>SPC-3B6G25073R3</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3136,101 +3136,101 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>Joe Rohl</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>JOE.ROHL@FHR.COM</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:19 AM</t>
+          <t>08-19-2025 02:44:07 PM</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:48 AM</t>
+          <t>08-22-2025 07:34:14 AM</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Cole Brewster</t>
+          <t>David Ybarra</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>cole.brewster@fhr.com</t>
+          <t>DAVID.YBARRA@FHR.COM</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>08-20-2025 01:48:49 PM</t>
+          <t>08-22-2025 07:18:30 AM</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>08-20-2025 01:49:17 PM</t>
+          <t>08-22-2025 07:18:58 AM</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>FHR-5CG1276WN7, PC-34Y3Q25063R3</t>
+          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Brenna Gerety</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BRENNA.GERETY@FHR.COM</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3240,76 +3240,76 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:01 AM</t>
+          <t>08-22-2025 06:59:19 AM</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:29 AM</t>
+          <t>08-22-2025 06:59:48 AM</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>PC-5CG5040677, FHR-5CG0036B94</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Daniel Jurach</t>
+          <t>Cole Brewster</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>daniel.jurach@fhr.com</t>
+          <t>cole.brewster@fhr.com</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
+          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-18-2025 11:58:20 AM</t>
+          <t>08-20-2025 01:48:49 PM</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-19-2025 10:21:28 AM</t>
+          <t>08-20-2025 01:49:17 PM</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>PC-2MQ514110T</t>
+          <t>FHR-5CG1276WN7, PC-34Y3Q25063R3</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Tony Short</t>
+          <t>Brenna Gerety</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ANTHONY.SHORT@KPLSRV.COM</t>
+          <t>BRENNA.GERETY@FHR.COM</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3319,22 +3319,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:07 AM</t>
+          <t>08-20-2025 07:58:01 AM</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:38 AM</t>
+          <t>08-20-2025 07:58:29 AM</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>PC-5CD229GR66, PC-5CD5100KK7, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
+          <t>PC-5CG5040677, FHR-5CG0036B94</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3346,121 +3346,121 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Chad Remer</t>
+          <t>Daniel Jurach</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CHAD.REMER@FHR.COM</t>
+          <t>daniel.jurach@fhr.com</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:04 AM</t>
+          <t>08-18-2025 11:58:20 AM</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:34 AM</t>
+          <t>08-19-2025 10:21:28 AM</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
+          <t>PC-2MQ514110T</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Nicholas Hanson</t>
+          <t>Tony Short</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NICK.HANSON@FHR.COM</t>
+          <t>ANTHONY.SHORT@KPLSRV.COM</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:17 AM</t>
+          <t>08-18-2025 10:21:07 AM</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:46 AM</t>
+          <t>08-18-2025 10:21:38 AM</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
+          <t>PC-5CD229GR66, PC-5CD5100KK7, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Harold Irvin</t>
+          <t>Chad Remer</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>HAROLD.IRVIN@FHR.COM</t>
+          <t>CHAD.REMER@FHR.COM</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:06 PM</t>
+          <t>08-18-2025 09:26:04 AM</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:37 PM</t>
+          <t>08-18-2025 09:26:34 AM</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>PC-2MQ51410F2, FHR-5CG2156Z1X</t>
+          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3472,12 +3472,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sandra Akarolo</t>
+          <t>Nicholas Hanson</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>sandra.akarolo@fhr.com</t>
+          <t>NICK.HANSON@FHR.COM</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3487,22 +3487,22 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-13-2025 01:51:42 PM</t>
+          <t>08-15-2025 07:06:17 AM</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>08-14-2025 08:58:56 AM</t>
+          <t>08-15-2025 07:06:46 AM</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>FHR-5CG213CDWV</t>
+          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3514,17 +3514,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Paul Fisher</t>
+          <t>Harold Irvin</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PAUL.FISHER@FHR.COM</t>
+          <t>HAROLD.IRVIN@FHR.COM</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3534,17 +3534,17 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:23 PM</t>
+          <t>08-14-2025 02:45:06 PM</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:56 PM</t>
+          <t>08-14-2025 02:45:37 PM</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
+          <t>PC-2MQ51410F2, FHR-5CG2156Z1X</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3556,54 +3556,54 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Robert Corley</t>
+          <t>Sandra Akarolo</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ROBERT.CORLEY@FHR.COM</t>
+          <t>sandra.akarolo@fhr.com</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-12-2025 06:27:18 PM</t>
+          <t>08-13-2025 01:51:42 PM</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>08-13-2025 12:47:38 PM</t>
+          <t>08-14-2025 08:58:56 AM</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
+          <t>FHR-5CG213CDWV</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Jeff Baker</t>
+          <t>Paul Fisher</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>JEFF.BAKER@FHR.COM</t>
+          <t>PAUL.FISHER@FHR.COM</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3613,22 +3613,22 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:02 AM</t>
+          <t>08-13-2025 05:07:23 PM</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:30 AM</t>
+          <t>08-13-2025 05:07:56 PM</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
+          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3640,348 +3640,348 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Kemal Simpson</t>
+          <t>Robert Corley</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>kemal.simpson@fhr.com</t>
+          <t>ROBERT.CORLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-13-2025 07:17:41 AM</t>
+          <t>08-12-2025 06:27:18 PM</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>08-13-2025 07:18:09 AM</t>
+          <t>08-13-2025 12:47:38 PM</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>FHR-5CG1073F3X</t>
+          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Robert Jimenez</t>
+          <t>Jeff Baker</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ROBERT.JIMENEZ@FHR.COM</t>
+          <t>JEFF.BAKER@FHR.COM</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:22 AM</t>
+          <t>08-13-2025 09:11:02 AM</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:51 AM</t>
+          <t>08-13-2025 09:11:30 AM</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
+          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Kevin Miller</t>
+          <t>Kemal Simpson</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>KEVIN.MILLER@FHR.COM</t>
+          <t>kemal.simpson@fhr.com</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:21 AM</t>
+          <t>08-13-2025 07:17:41 AM</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:49 AM</t>
+          <t>08-13-2025 07:18:09 AM</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
+          <t>FHR-5CG1073F3X</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Tucker Lansing</t>
+          <t>Robert Jimenez</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>tucker.lansing@fhr.com</t>
+          <t>ROBERT.JIMENEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:05 AM</t>
+          <t>08-12-2025 11:43:22 AM</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:44 AM</t>
+          <t>08-12-2025 11:43:51 AM</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>PC-2MQ5141103</t>
+          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Kairos Logan</t>
+          <t>Kevin Miller</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>kairos.logan@fhr.com</t>
+          <t>KEVIN.MILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:17 PM</t>
+          <t>08-12-2025 09:11:21 AM</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:45 PM</t>
+          <t>08-12-2025 09:11:49 AM</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>PC-2MQ51410BZ</t>
+          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Louis Stump</t>
+          <t>Tucker Lansing</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LOUIS.STUMP@FHR.COM</t>
+          <t>tucker.lansing@fhr.com</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>07-20-2025 06:49:35 AM</t>
+          <t>08-12-2025 08:13:05 AM</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>08-11-2025 03:03:35 PM</t>
+          <t>08-12-2025 08:13:44 AM</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
+          <t>PC-2MQ5141103</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Kairos Logan</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>kairos.logan@fhr.com</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>08-11-2025 12:57:47 PM</t>
+          <t>08-11-2025 04:54:17 PM</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>08-11-2025 12:58:15 PM</t>
+          <t>08-11-2025 04:54:45 PM</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFX, FHR-MXL2415603, PC-01VYP23013BF</t>
+          <t>PC-2MQ51410BZ</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Alex Fairbanks</t>
+          <t>Louis Stump</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Alex.Fairbanks@fhr.com</t>
+          <t>LOUIS.STUMP@FHR.COM</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>08-11-2025 09:58:56 AM</t>
+          <t>07-20-2025 06:49:35 AM</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>08-11-2025 09:59:25 AM</t>
+          <t>08-11-2025 03:03:35 PM</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>FHR-5CG2261RYZ, FHR-MXL3132S8S, PC-5CD5100K77</t>
+          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Cole Wilson</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>cole.wilson@fhr.com</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3991,22 +3991,22 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>08-11-2025 08:57:56 AM</t>
+          <t>08-11-2025 12:57:47 PM</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>08-11-2025 08:58:25 AM</t>
+          <t>08-11-2025 12:58:15 PM</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z9H</t>
+          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4018,96 +4018,96 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Alex Fairbanks</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>Alex.Fairbanks@fhr.com</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:07 AM</t>
+          <t>08-11-2025 09:58:56 AM</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:36 AM</t>
+          <t>08-11-2025 09:59:25 AM</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFX, FHR-MXL2415603, PC-01VYP23013BF</t>
+          <t>FHR-5CG2261RYZ, FHR-MXL3132S8S, PC-5CD5100K77</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Bobby Peddycord</t>
+          <t>Cole Wilson</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>bobby.peddycord@fhr.com</t>
+          <t>cole.wilson@fhr.com</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>08-07-2025 10:38:48 AM</t>
+          <t>08-11-2025 08:57:56 AM</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>08-11-2025 07:13:21 AM</t>
+          <t>08-11-2025 08:58:25 AM</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
+          <t>PC-2MQ5140Z9H</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Charles Oliver</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CHARLES.OLIVER@FHR.COM</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4122,17 +4122,17 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>08-11-2025 05:46:52 AM</t>
+          <t>08-11-2025 08:33:07 AM</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>08-11-2025 05:47:20 AM</t>
+          <t>08-11-2025 08:33:36 AM</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>PC-36KFF25193M4</t>
+          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4144,17 +4144,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Rudy Barajas</t>
+          <t>Bobby Peddycord</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>RUDY.BARAJAS@FHR.COM</t>
+          <t>bobby.peddycord@fhr.com</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4164,123 +4164,123 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>08-06-2025 04:56:54 AM</t>
+          <t>08-07-2025 10:38:48 AM</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>08-08-2025 01:09:23 PM</t>
+          <t>08-11-2025 07:13:21 AM</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>PC-33BYB25013M4, FHR-J2V03Z3, PC-2MQ514105T, FHR-MXL24156CF</t>
+          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Braxton Holes</t>
+          <t>Charles Oliver</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>braxton.holes@fhr.com</t>
+          <t>CHARLES.OLIVER@FHR.COM</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>08-07-2025 08:51:34 AM</t>
+          <t>08-11-2025 05:46:52 AM</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>08-08-2025 11:34:27 AM</t>
+          <t>08-11-2025 05:47:20 AM</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>FHR-5CD231D3NH, PC-5CD5100KGP, FHR-5CD01052SN</t>
+          <t>PC-36KFF25193M4</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Andrea Unruh</t>
+          <t>Rudy Barajas</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ANDREA.UNRUH@FHR.COM</t>
+          <t>RUDY.BARAJAS@FHR.COM</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:28 AM</t>
+          <t>08-06-2025 04:56:54 AM</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:56 AM</t>
+          <t>08-08-2025 01:09:23 PM</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>PC-36KG325193M4, PC-014GF22373BF</t>
+          <t>PC-33BYB25013M4, FHR-J2V03Z3, PC-2MQ514105T, FHR-MXL24156CF</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Caleb Quanrud</t>
+          <t>Braxton Holes</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>caleb.quanrud@fhr.com</t>
+          <t>braxton.holes@fhr.com</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4290,118 +4290,118 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:28 PM</t>
+          <t>08-07-2025 08:51:34 AM</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:58 PM</t>
+          <t>08-08-2025 11:34:27 AM</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
+          <t>FHR-5CD231D3NH, PC-5CD5100KGP, FHR-5CD01052SN</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Jean Jaime</t>
+          <t>Andrea Unruh</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>JEAN.JAIME@FHR.COM</t>
+          <t>ANDREA.UNRUH@FHR.COM</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:32 PM</t>
+          <t>08-08-2025 08:17:28 AM</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>08-07-2025 02:12:00 PM</t>
+          <t>08-08-2025 08:17:56 AM</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
+          <t>PC-36KG325193M4, PC-014GF22373BF</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Caleb Quanrud</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>caleb.quanrud@fhr.com</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>08-07-2025 02:10:24 PM</t>
+          <t>08-07-2025 03:06:28 PM</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:00 PM</t>
+          <t>08-07-2025 03:06:58 PM</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
+          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Jean Jaime</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>JEAN.JAIME@FHR.COM</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4411,22 +4411,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:23 PM</t>
+          <t>08-07-2025 02:11:32 PM</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:59 PM</t>
+          <t>08-07-2025 02:12:00 PM</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
+          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4438,54 +4438,54 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Branden Roering</t>
+          <t>Rick Schwing</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>branden.roering@fhr.com</t>
+          <t>rick.schwing@fhr.com</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:17 PM</t>
+          <t>08-07-2025 02:10:24 PM</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:45 PM</t>
+          <t>08-07-2025 02:11:00 PM</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>PC-2MQ5141148</t>
+          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Christopher Brooks</t>
+          <t>Rick Schwing</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
+          <t>rick.schwing@fhr.com</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4495,22 +4495,22 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>08-06-2025 12:44:08 PM</t>
+          <t>08-07-2025 02:09:23 PM</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>08-07-2025 09:46:49 AM</t>
+          <t>08-07-2025 02:09:59 PM</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
+          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4522,306 +4522,306 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Justin Hinojosa</t>
+          <t>Branden Roering</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>justin.hinojosa@fhr.com</t>
+          <t>branden.roering@fhr.com</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:01 AM</t>
+          <t>08-07-2025 12:49:17 PM</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:29 AM</t>
+          <t>08-07-2025 12:49:45 PM</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>PC-MXL24156FQ SPC-MXL24156FQ FHR-8CG80416HL FHR-8CG806569G FHR-8CG7236C1X FHR-G3BCDZ3 FHR-MXL3132SS4 FHR-8CG80416GX FHR-MXL90224D2 FHR-8J5ZK44 FHR-MXL3132SN7 FHR-MXL3132SS3 FHR-9K8ZK44 FHR-MXL3132SQX KII-MXL2424F2T FHR-MXL5043GK1 FHR-MXL5043GK0 FHR-MXL3132SRR FHR-BK001HK222 FHR-MXL3132SNW FHR-5CD439J37S FHR-MXL3132SP1</t>
+          <t>PC-2MQ5141148</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Josiah Peterson</t>
+          <t>Christopher Brooks</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>JOSIAH.PETERSON@FHR.COM</t>
+          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>08-06-2025 08:30:11 AM</t>
+          <t>08-06-2025 12:44:08 PM</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>08-06-2025 08:31:02 AM</t>
+          <t>08-07-2025 09:46:49 AM</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TC1, FHR-5CD30764W6</t>
+          <t>PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Andrew Berndt</t>
+          <t>Justin Hinojosa</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>andrew.berndt@fhr.com</t>
+          <t>justin.hinojosa@fhr.com</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>08-05-2025 01:32:29 PM</t>
+          <t>08-06-2025 11:55:01 AM</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>08-05-2025 01:33:21 PM</t>
+          <t>08-06-2025 11:55:29 AM</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>PC-2MQ514100C</t>
+          <t>PC-MXL24156FQ SPC-MXL24156FQ FHR-8CG80416HL FHR-8CG806569G FHR-8CG7236C1X FHR-G3BCDZ3 FHR-MXL3132SS4 FHR-8CG80416GX FHR-MXL90224D2 FHR-8J5ZK44 FHR-MXL3132SN7 FHR-MXL3132SS3 FHR-9K8ZK44 FHR-MXL3132SQX KII-MXL2424F2T FHR-MXL5043GK1 FHR-MXL5043GK0 FHR-MXL3132SRR FHR-BK001HK222 FHR-MXL3132SNW FHR-5CD439J37S FHR-MXL3132SP1</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Matthew VanLanen</t>
+          <t>Josiah Peterson</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>matthew.vanlanen@fhr.com</t>
+          <t>JOSIAH.PETERSON@FHR.COM</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:12 AM</t>
+          <t>08-06-2025 08:30:11 AM</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:39 AM</t>
+          <t>08-06-2025 08:31:02 AM</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
+          <t>FHR-5CD30764W6, PC-2MQ5270TC1</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Arturo Vasquez Jr</t>
+          <t>Andrew Berndt</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ARTURO.VASQUEZ@FHR.COM</t>
+          <t>andrew.berndt@fhr.com</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>07-30-2025 12:56:40 PM</t>
+          <t>08-05-2025 01:32:29 PM</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>08-05-2025 09:13:23 AM</t>
+          <t>08-05-2025 01:33:21 PM</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>SPC-37MW25123GX, FHR-8CG82809D5, FHR-5CG31302WM, FHR-MXL9223BRW</t>
+          <t>PC-2MQ514100C</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Christopher Koerner</t>
+          <t>Matthew VanLanen</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.KOERNER@FHR.COM</t>
+          <t>matthew.vanlanen@fhr.com</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>08-05-2025 08:14:41 AM</t>
+          <t>08-05-2025 10:28:12 AM</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>08-05-2025 08:15:12 AM</t>
+          <t>08-05-2025 10:28:39 AM</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>PC-5CD4514XZX, FHR-59309202153</t>
+          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Eric Derieux</t>
+          <t>Arturo Vasquez Jr</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ERIC.DERIEUX@FHR.COM</t>
+          <t>ARTURO.VASQUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>US-TX-BEAUMONT2 - FHR-Beaumont TX - Beaumont - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>08-05-2025 08:01:44 AM</t>
+          <t>07-30-2025 12:56:40 PM</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>08-05-2025 08:02:14 AM</t>
+          <t>08-05-2025 09:13:23 AM</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TDP, FHR-5CG8353ZC7, DESKTOP-JU70CMA</t>
+          <t>SPC-37MW25123GX, FHR-8CG82809D5, FHR-5CG31302WM, FHR-MXL9223BRW</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Ryan Sabin</t>
+          <t>Christopher Koerner</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ryan.sabin@fhr.com</t>
+          <t>CHRISTOPHER.KOERNER@FHR.COM</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4831,22 +4831,22 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>08-04-2025 12:02:32 PM</t>
+          <t>08-05-2025 08:14:41 AM</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>08-04-2025 12:03:01 PM</t>
+          <t>08-05-2025 08:15:12 AM</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZHM, FHR-5CG1092Y8L, PC-2MQ5040SX3</t>
+          <t>PC-5CD4514XZX, FHR-59309202153</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4858,17 +4858,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Nate Claseman</t>
+          <t>Eric Derieux</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>nate.claseman@fhr.com</t>
+          <t>ERIC.DERIEUX@FHR.COM</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-BEAUMONT2 - FHR-Beaumont TX - Beaumont - Koch</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4878,76 +4878,76 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>08-03-2025 01:32:09 PM</t>
+          <t>08-05-2025 08:01:44 AM</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>08-03-2025 01:32:37 PM</t>
+          <t>08-05-2025 08:02:14 AM</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFN, FHR-MXL2394SXC, FHR-8CG7352CTV</t>
+          <t>PC-2MQ5270TDP, FHR-5CG8353ZC7, DESKTOP-JU70CMA</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Koy Straks</t>
+          <t>Ryan Sabin</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>koy.straks@fhr.com</t>
+          <t>ryan.sabin@fhr.com</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>08-01-2025 02:42:24 PM</t>
+          <t>08-04-2025 12:02:32 PM</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>08-01-2025 02:42:52 PM</t>
+          <t>08-04-2025 12:03:01 PM</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TF5</t>
+          <t>PC-2MQ5140ZHM, FHR-5CG1092Y8L, PC-2MQ5040SX3</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Gaven Girton</t>
+          <t>Nate Claseman</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>gaven.girton@fhr.com</t>
+          <t>nate.claseman@fhr.com</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4957,22 +4957,22 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>08-01-2025 02:05:31 PM</t>
+          <t>08-03-2025 01:32:09 PM</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>08-01-2025 02:05:58 PM</t>
+          <t>08-03-2025 01:32:37 PM</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZGG</t>
+          <t>PC-2MQ5270TFN, FHR-MXL2394SWH, FHR-MXL2394SXC, FHR-8CG7352CTV</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4984,96 +4984,96 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Shaun McVay</t>
+          <t>Koy Straks</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>shaun.mcvay@fhr.com</t>
+          <t>koy.straks@fhr.com</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>08-01-2025 01:07:44 PM</t>
+          <t>08-01-2025 02:42:24 PM</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>08-01-2025 01:08:17 PM</t>
+          <t>08-01-2025 02:42:52 PM</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>PC-5CD5100KG2</t>
+          <t>PC-2MQ5270TF5</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>David Escamilla</t>
+          <t>Gaven Girton</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DAVID.ESCAMILLA@FHR.COM</t>
+          <t>gaven.girton@fhr.com</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>08-01-2025 07:36:23 AM</t>
+          <t>08-01-2025 02:05:31 PM</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>08-01-2025 07:36:54 AM</t>
+          <t>08-01-2025 02:05:58 PM</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>SPC-CRWXJ74, FHR-MXL11033PZ, PC-34MXB25193M4</t>
+          <t>PC-2MQ5140ZGG</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Troy Pena</t>
+          <t>Shaun McVay</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>troy.pena@fhr.com</t>
+          <t>shaun.mcvay@fhr.com</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5083,22 +5083,22 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>07-31-2025 04:49:13 PM</t>
+          <t>08-01-2025 01:07:44 PM</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>07-31-2025 04:49:40 PM</t>
+          <t>08-01-2025 01:08:17 PM</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>FHR-87ZPDZ3, FHR-MXL2165D4H, PC-34P3C25193M4, FHR-5CG24913Q4</t>
+          <t>PC-5CD5100KG2</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5110,79 +5110,79 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Hannah Shea</t>
+          <t>David Escamilla</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>hannah.shea@fhr.com</t>
+          <t>DAVID.ESCAMILLA@FHR.COM</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>07-31-2025 10:42:49 AM</t>
+          <t>08-01-2025 07:36:23 AM</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>07-31-2025 10:43:15 AM</t>
+          <t>08-01-2025 07:36:54 AM</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TCB, PC-5CG213CFKZ</t>
+          <t>SPC-CRWXJ74, FHR-MXL11033PZ, PC-34MXB25193M4</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Tara Schultz</t>
+          <t>Troy Pena</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TARA.SCHULTZ@FHR.COM</t>
+          <t>troy.pena@fhr.com</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>07-31-2025 08:59:51 AM</t>
+          <t>07-31-2025 04:49:13 PM</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>07-31-2025 09:00:19 AM</t>
+          <t>07-31-2025 04:49:40 PM</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>FHR-2TK95201XD, PC-2MQ5140ZHK</t>
+          <t>FHR-MXL2165D4H, FHR-87ZPDZ3, PC-34P3C25193M4, FHR-5CG24913Q4</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5194,12 +5194,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Dave Larson</t>
+          <t>Hannah Shea</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>dave.larson@fhr.com</t>
+          <t>hannah.shea@fhr.com</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5209,22 +5209,22 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>07-31-2025 08:30:21 AM</t>
+          <t>07-31-2025 10:42:49 AM</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>07-31-2025 08:30:52 AM</t>
+          <t>07-31-2025 10:43:15 AM</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZFS, PC-5CG31302L2</t>
+          <t>PC-2MQ5270TCB, PC-5CG213CFKZ</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5236,37 +5236,37 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Andy Harrison</t>
+          <t>Tara Schultz</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ANDY.HARRISON@FHR.COM</t>
+          <t>TARA.SCHULTZ@FHR.COM</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>07-30-2025 06:15:56 PM</t>
+          <t>07-31-2025 08:59:51 AM</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>07-30-2025 06:16:23 PM</t>
+          <t>07-31-2025 09:00:19 AM</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>PC-34MWB25193M4, PC-JTKJ414, FHR-5CG1314JWW</t>
+          <t>PC-2MQ5140ZHK, FHR-2TK95201XD</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5278,84 +5278,84 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Matt Hoveland</t>
+          <t>Dave Larson</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MATT.HOVELAND@FHR.COM</t>
+          <t>dave.larson@fhr.com</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>07-30-2025 04:10:43 PM</t>
+          <t>07-31-2025 08:30:21 AM</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>07-30-2025 04:11:10 PM</t>
+          <t>07-31-2025 08:30:52 AM</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>FHR-MXL9061CF9, FHR-5CG2060QSH, PC-5CD5100K9P</t>
+          <t>PC-2MQ5140ZFS, PC-5CG31302L2</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>James Pfeifer</t>
+          <t>Andy Harrison</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>JAMES.PFEIFER@FHR.COM</t>
+          <t>ANDY.HARRISON@FHR.COM</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>07-28-2025 10:17:28 AM</t>
+          <t>07-30-2025 06:15:56 PM</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>07-30-2025 02:09:54 PM</t>
+          <t>07-30-2025 06:16:23 PM</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>SPC-5CD5100K9D, PC-5CD2331XGS</t>
+          <t>PC-JTKJ414, PC-34MWB25193M4, FHR-5CG1314JWW</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>

--- a/output/fhr_computer_requests.xlsx
+++ b/output/fhr_computer_requests.xlsx
@@ -532,12 +532,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Vicente Castillo</t>
+          <t>Robert Cliburn</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VICENTE.CASTILLO@FHR.COM</t>
+          <t>ROBERT.CLIBURN@FHR.COM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -547,22 +547,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09-22-2025 08:10:41 AM</t>
+          <t>09-23-2025 07:36:34 AM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>09-22-2025 08:11:09 AM</t>
+          <t>09-23-2025 07:37:02 AM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PC-334QH231933F, FHR-MXL3132SQX</t>
+          <t>FHR-5CG0472YYT</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -574,17 +574,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dillon Sailer</t>
+          <t>Brinson Bryan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dillon.sailer@fhr.com</t>
+          <t>BRINSON.BRYAN@FHR.COM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -594,328 +594,328 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09-19-2025 04:55:25 PM</t>
+          <t>09-22-2025 08:31:09 AM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>09-19-2025 04:55:54 PM</t>
+          <t>09-22-2025 08:31:38 AM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FHR-LOANPB18, FHR-5CG201416N</t>
+          <t>FHR-5CD229GR46</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Vicente Castillo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DANIEL.BRAUN@FHR.COM</t>
+          <t>VICENTE.CASTILLO@FHR.COM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09-18-2025 02:27:18 PM</t>
+          <t>09-22-2025 08:10:41 AM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09-18-2025 02:27:46 PM</t>
+          <t>09-22-2025 08:11:09 AM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FHR-5CG7312MP6</t>
+          <t>FHR-9K8ZK44, PC-334QH231933F, FHR-MXL3132SQX</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Roberto Montelongo</t>
+          <t>Dillon Sailer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>roberto.montelongo@fhr.com</t>
+          <t>dillon.sailer@fhr.com</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09-18-2025 09:01:15 AM</t>
+          <t>09-19-2025 04:55:25 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09-18-2025 09:01:46 AM</t>
+          <t>09-19-2025 04:55:54 PM</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FHR-5CG2156GT3, USWHL-1276WN9</t>
+          <t>FHR-LOANPB18, FHR-5CG201416N</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Trevor Willberg</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>trevor.willberg@fhr.com</t>
+          <t>DANIEL.BRAUN@FHR.COM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09-17-2025 10:21:00 AM</t>
+          <t>09-18-2025 02:27:18 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-17-2025 12:52:13 PM</t>
+          <t>09-18-2025 02:27:46 PM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>FHR-5CG7312MP6</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cory Strandlien</t>
+          <t>Roberto Montelongo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cory.strandlien@fhr.com</t>
+          <t>roberto.montelongo@fhr.com</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09-17-2025 09:55:48 AM</t>
+          <t>09-18-2025 09:01:15 AM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-17-2025 12:44:37 PM</t>
+          <t>09-18-2025 09:01:46 AM</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>PC-33VX725273R3, FHR-5CG2156GT3, USWHL-1276WN9</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Enrique Flores</t>
+          <t>Trevor Willberg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENRIQUE.FLORES@FHR.COM</t>
+          <t>trevor.willberg@fhr.com</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-17-2025 10:03:05 AM</t>
+          <t>09-17-2025 10:21:00 AM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-17-2025 10:03:36 AM</t>
+          <t>09-17-2025 12:52:13 PM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>FHR-2UA8311QWT, FHR-5CG1240T5M, FHR-5CD4154J0P</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jason Henke</t>
+          <t>Cory Strandlien</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>JASON.HENKE@FHR.COM</t>
+          <t>cory.strandlien@fhr.com</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-17-2025 09:38:30 AM</t>
+          <t>09-17-2025 09:55:48 AM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-17-2025 09:39:02 AM</t>
+          <t>09-17-2025 12:44:37 PM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>FHR-5CG2151LHM</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jed Illg</t>
+          <t>Enrique Flores</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jed.Illg@fhr.com</t>
+          <t>ENRIQUE.FLORES@FHR.COM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-17-2025 08:33:21 AM</t>
+          <t>09-17-2025 10:03:05 AM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-17-2025 08:33:50 AM</t>
+          <t>09-17-2025 10:03:36 AM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FHR-5CG2156GG9, PC-2MQ5290Z98</t>
+          <t>FHR-2UA8311QWT, FHR-5CG1240T5M, FHR-5CD4154J0P</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Shannon Angle</t>
+          <t>Jason Henke</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>shannon.angle@kochcc.com</t>
+          <t>JASON.HENKE@FHR.COM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -925,22 +925,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09-17-2025 07:50:45 AM</t>
+          <t>09-17-2025 09:38:30 AM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-17-2025 07:51:14 AM</t>
+          <t>09-17-2025 09:39:02 AM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
+          <t>FHR-5CG2151LHM</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -952,138 +952,138 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bryeton Canchola</t>
+          <t>Jed Illg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bryeton.canchola@fhr.com</t>
+          <t>Jed.Illg@fhr.com</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09-16-2025 03:26:59 PM</t>
+          <t>09-17-2025 08:33:21 AM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09-16-2025 03:27:26 PM</t>
+          <t>09-17-2025 08:33:50 AM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>SPC-MXL24155VV FHR-MXL1022SZ3 FHR-MXL24156C3 SPC-MXL24155W5 SPC-MXL3324PYM SPC-MXL3324PZ0 FHR-MXL2223BDL FHR-MXL9502C5W FHR-MXL9333W07 PC-01W3B23013BF FHR-MXL1022T0R FHR-MXL24155WF FHR-MXL13349Z2 SPC-MXL3324PZ2 FHR-MXL90224C1 FHR-BK000V1 FHR-B9XFH04 SPC-MXL3324PYD SPC-MXL3324PYP FHR-8V4TNZ3</t>
+          <t>PC-2MQ5290Z98, FHR-5CG2156GG9</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Charles Cooley Jr</t>
+          <t>Shannon Angle</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHARLES.COOLEY@FHR.COM</t>
+          <t>shannon.angle@kochcc.com</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09-16-2025 02:26:57 PM</t>
+          <t>09-17-2025 07:50:45 AM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09-16-2025 02:27:28 PM</t>
+          <t>09-17-2025 07:51:14 AM</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>FHR-5CG225854R</t>
+          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Patrick Tiller</t>
+          <t>Bryeton Canchola</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PATRICK.TILLER@FHR.COM</t>
+          <t>bryeton.canchola@fhr.com</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09-16-2025 12:20:22 PM</t>
+          <t>09-16-2025 03:26:59 PM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-16-2025 12:20:49 PM</t>
+          <t>09-16-2025 03:27:26 PM</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>FHR-5CG1240T4Q, PC-JZ4TNZ3, PC-1H85200B13, FHR-5CG815441G, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
+          <t>SPC-MXL24155VV FHR-MXL1022SZ3 FHR-MXL24156C3 SPC-MXL24155W5 SPC-MXL3324PYM SPC-MXL3324PZ0 FHR-MXL2223BDL FHR-MXL9502C5W FHR-MXL9333W07 PC-01W3B23013BF FHR-MXL1022T0R FHR-MXL24155WF FHR-MXL13349Z2 SPC-MXL3324PZ2 FHR-MXL90224C1 FHR-BK000V1 FHR-B9XFH04 SPC-MXL3324PYD SPC-MXL3324PYP FHR-8V4TNZ3</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bryan Garcia</t>
+          <t>Charles Cooley Jr</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bryan.garcia1@fhr.com</t>
+          <t>CHARLES.COOLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1093,22 +1093,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09-16-2025 07:46:13 AM</t>
+          <t>09-16-2025 02:26:57 PM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09-16-2025 07:46:49 AM</t>
+          <t>09-16-2025 02:27:28 PM</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>PC-5CG408495P, PC-BZQ03Z3, PC-33J3M25073R3</t>
+          <t>FHR-5CG225854R, PC-2MQ5140ZJR</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1120,264 +1120,264 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Troy Hull</t>
+          <t>Patrick Tiller</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TROY.HULL@FHR.COM</t>
+          <t>PATRICK.TILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09-16-2025 06:55:54 AM</t>
+          <t>09-16-2025 12:20:22 PM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-16-2025 06:56:26 AM</t>
+          <t>09-16-2025 12:20:49 PM</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>PC-5CG4151LFY</t>
+          <t>FHR-5CG1240T4Q, PC-JZ4TNZ3, PC-1H85200B13, FHR-5CG815441G, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Crystal Link</t>
+          <t>Bryan Garcia</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CRYSTAL.LINK@FHR.COM</t>
+          <t>bryan.garcia1@fhr.com</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09-15-2025 11:01:25 AM</t>
+          <t>09-16-2025 07:46:13 AM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-15-2025 11:01:54 AM</t>
+          <t>09-16-2025 07:46:49 AM</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>FHR-5CG0254D4T, PC-5CG1465ZKZ, PC-1H85200B04</t>
+          <t>PC-33J3M25073R3, PC-BZQ03Z3, PC-5CG408495P</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Alex Lodholz</t>
+          <t>Troy Hull</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>alex.lodholz@fhr.com</t>
+          <t>TROY.HULL@FHR.COM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09-15-2025 09:14:43 AM</t>
+          <t>09-16-2025 06:55:54 AM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-15-2025 09:15:12 AM</t>
+          <t>09-16-2025 06:56:26 AM</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>FHR-MXL24155WF, PC-5CG4151LFY</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Brendan Snell</t>
+          <t>Crystal Link</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>brendan.snell@fhr.com</t>
+          <t>CRYSTAL.LINK@FHR.COM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:12 AM</t>
+          <t>09-15-2025 11:01:25 AM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:46 AM</t>
+          <t>09-15-2025 11:01:54 AM</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>FHR-5CG2156XDV</t>
+          <t>PC-1H85200B04, PC-5CG1465ZKZ, FHR-5CG0254D4T</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Joey Guerrero</t>
+          <t>Alex Lodholz</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>joey.guerrero1@fhr.com</t>
+          <t>alex.lodholz@fhr.com</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>09-15-2025 06:33:41 AM</t>
+          <t>09-15-2025 09:14:43 AM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09-15-2025 06:34:14 AM</t>
+          <t>09-15-2025 09:15:12 AM</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>PC-33B8725073R3, PC-9659600351</t>
+          <t>PC-2MQ514103N</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Eddie Buskirk</t>
+          <t>Brendan Snell</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>EDDIE.BUSKIRK@FHR.COM</t>
+          <t>brendan.snell@fhr.com</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>09-12-2025 01:52:56 PM</t>
+          <t>09-15-2025 08:15:12 AM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>09-12-2025 01:53:24 PM</t>
+          <t>09-15-2025 08:15:46 AM</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PC-1H85200B0W, FHR-5CG9326W2B</t>
+          <t>FHR-5CG2156XDV</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sammantha Reynolds</t>
+          <t>Joey Guerrero</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>sammantha.reynolds1@fhr.com</t>
+          <t>joey.guerrero1@fhr.com</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1387,22 +1387,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>09-12-2025 08:18:55 AM</t>
+          <t>09-15-2025 06:33:41 AM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>09-12-2025 08:19:25 AM</t>
+          <t>09-15-2025 06:34:14 AM</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
+          <t>PC-33B8725073R3, PC-9659600351</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1414,101 +1414,101 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Victor Sauceda</t>
+          <t>Eddie Buskirk</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>victor.sauceda@fhr.com</t>
+          <t>EDDIE.BUSKIRK@FHR.COM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:03 AM</t>
+          <t>09-12-2025 01:52:56 PM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:33 AM</t>
+          <t>09-12-2025 01:53:24 PM</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>PC-33W4325273R3, FHR-5CD8522C54</t>
+          <t>PC-1H85200B0W, FHR-5CG9326W2B</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mitch O'Keefe</t>
+          <t>Sammantha Reynolds</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MITCH.OKEEFE@FHR.COM</t>
+          <t>sammantha.reynolds1@fhr.com</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:11 PM</t>
+          <t>09-12-2025 08:18:55 AM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:39 PM</t>
+          <t>09-12-2025 08:19:25 AM</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>FHR-MXL23843M2, MSP-CTLU27, PC-1H85200B09, FHR-5CG1344HQ7</t>
+          <t>PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Joe Bedynek</t>
+          <t>Victor Sauceda</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>JOE.BEDYNEK@FHR.COM</t>
+          <t>victor.sauceda@fhr.com</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1518,160 +1518,160 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:10 PM</t>
+          <t>09-11-2025 09:46:03 AM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:36 PM</t>
+          <t>09-11-2025 09:46:33 AM</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>PC-33W6D25273R3, FHR-5CD026KSTV</t>
+          <t>PC-33W4325273R3, FHR-5CD8522C54</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ruben Hernandez</t>
+          <t>Mitch O'Keefe</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ruben.hernandez@fhr.com</t>
+          <t>MITCH.OKEEFE@FHR.COM</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>09-10-2025 02:51:54 PM</t>
+          <t>09-10-2025 05:54:11 PM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09-10-2025 02:52:21 PM</t>
+          <t>09-10-2025 05:54:39 PM</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>PC-5CD231GKV7, PC-2MQ5141117</t>
+          <t>MSP-CTLU27, PC-1H85200B09, FHR-5CG1344HQ7</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lauren Sada</t>
+          <t>Joe Bedynek</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>lauren.sada@fhr.com</t>
+          <t>JOE.BEDYNEK@FHR.COM</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:21 PM</t>
+          <t>09-10-2025 02:54:10 PM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:49 PM</t>
+          <t>09-10-2025 02:54:36 PM</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>PC-33W6D25273R3, FHR-5CD026KSTV</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Kevin Harvey</t>
+          <t>Ruben Hernandez</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>KEVIN.HARVEY@FHR.COM</t>
+          <t>ruben.hernandez@fhr.com</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09-10-2025 08:38:42 AM</t>
+          <t>09-10-2025 02:51:54 PM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-10-2025 08:39:13 AM</t>
+          <t>09-10-2025 02:52:21 PM</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>PC-2MQ5290Z3G, FHR-5CG1236JK6</t>
+          <t>PC-5CD231GKV7, PC-2MQ5141117</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Matt Olson</t>
+          <t>Lauren Sada</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MATTHEW.OLSON@FHR.COM</t>
+          <t>lauren.sada@fhr.com</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1681,22 +1681,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09-09-2025 11:43:57 AM</t>
+          <t>09-10-2025 01:27:21 PM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-09-2025 11:44:26 AM</t>
+          <t>09-10-2025 01:27:49 PM</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>FHR-5CD40711PF, PC-2MQ5290Z8Z, FHR-5CG918242Z</t>
+          <t>PC-2MQ5140ZMH</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1708,12 +1708,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sam Weldemariam</t>
+          <t>Kevin Harvey</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SAM.WELDEMARIAM@FHR.COM</t>
+          <t>KEVIN.HARVEY@FHR.COM</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1728,17 +1728,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:23 AM</t>
+          <t>09-10-2025 08:38:42 AM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:51 AM</t>
+          <t>09-10-2025 08:39:13 AM</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>FHR-F9GR624, PC-GQMKN34, FHR-3KJBQ54, FHR-G8GR624, FHR-D90QDZ3, FHR-MXL9144C61, FHR-5CG213BX6D, FHR-5CD8506CR3</t>
+          <t>PC-2MQ5290Z3G, FHR-5CG1236JK6</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1750,54 +1750,54 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Derek Wilfong</t>
+          <t>Matt Olson</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DEREK.WILFONG@FHR.COM</t>
+          <t>MATTHEW.OLSON@FHR.COM</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09-09-2025 09:02:55 AM</t>
+          <t>09-09-2025 11:43:57 AM</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09-09-2025 09:03:28 AM</t>
+          <t>09-09-2025 11:44:26 AM</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>FHR-5CG1314K33</t>
+          <t>PC-2MQ5290Z8Z, FHR-5CD40711PF, FHR-5CG918242Z</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Joel Mccabe</t>
+          <t>Sam Weldemariam</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>JOEL.MCCABE@FHR.COM</t>
+          <t>SAM.WELDEMARIAM@FHR.COM</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1807,22 +1807,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09-05-2025 03:04:34 PM</t>
+          <t>09-09-2025 09:48:23 AM</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09-08-2025 09:08:16 AM</t>
+          <t>09-09-2025 09:48:51 AM</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>SPC-G942X54, FHR-1B1KH04, MSP-005054</t>
+          <t>FHR-3KJBQ54, PC-GQMKN34, FHR-5CG213BX6D, FHR-G8GR624, FHR-D90QDZ3, FHR-F9GR624, FHR-MXL9144C61, FHR-5CD8506CR3</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1834,96 +1834,96 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Devon Holz</t>
+          <t>Derek Wilfong</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DEVON.HOLZ@FHR.COM</t>
+          <t>DEREK.WILFONG@FHR.COM</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:14 PM</t>
+          <t>09-09-2025 09:02:55 AM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:42 PM</t>
+          <t>09-09-2025 09:03:28 AM</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZD9, FHR-5CG2219ZDW</t>
+          <t>FHR-5CG1314K33</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Shawn Sieben</t>
+          <t>Joel Mccabe</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Shawn.Sieben@fhr.com</t>
+          <t>JOEL.MCCABE@FHR.COM</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09-04-2025 09:29:38 AM</t>
+          <t>09-05-2025 03:04:34 PM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09-05-2025 12:58:04 PM</t>
+          <t>09-08-2025 09:08:16 AM</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>FHR-CND8426B2G, FHR-5CD3507T46, FHR-8CC84008DL</t>
+          <t>FHR-1B1KH04, MSP-005054</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Carrie Simpson</t>
+          <t>Devon Holz</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CARRIE.SIMPSON@FHR.COM</t>
+          <t>DEVON.HOLZ@FHR.COM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1933,22 +1933,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:03 PM</t>
+          <t>09-05-2025 02:23:14 PM</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:30 PM</t>
+          <t>09-05-2025 02:23:42 PM</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZSD, PC-001NS23373BF</t>
+          <t>PC-2MQ5140ZD9, FHR-5CG2219ZDW</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1960,17 +1960,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Chris Pratt</t>
+          <t>Shawn Sieben</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chris.Pratt@fhr.com</t>
+          <t>Shawn.Sieben@fhr.com</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
+          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1980,17 +1980,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09-02-2025 04:16:05 PM</t>
+          <t>09-04-2025 09:29:38 AM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-04-2025 01:23:58 PM</t>
+          <t>09-05-2025 12:58:04 PM</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>FHR-5CD016BPV0, PC-MXL53644K5, FHR-MXL8361TTS</t>
+          <t>FHR-CND8426B2G, FHR-5CD3507T46, FHR-8CC84008DL</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2002,12 +2002,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Manuel Moreno Jr</t>
+          <t>Carrie Simpson</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MANUEL.MORENO@FHR.COM</t>
+          <t>CARRIE.SIMPSON@FHR.COM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2017,22 +2017,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>05-02-2025 08:54:50 AM</t>
+          <t>09-04-2025 03:17:03 PM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-04-2025 01:17:10 PM</t>
+          <t>09-04-2025 03:17:30 PM</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>SPC-5BJ8D14, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
+          <t>PC-2MQ5140ZSD, PC-001NS23373BF</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2044,96 +2044,96 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Ben Sandiford</t>
+          <t>Chris Pratt</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ben.sandiford@fhr.com</t>
+          <t>Chris.Pratt@fhr.com</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:18 PM</t>
+          <t>09-02-2025 04:16:05 PM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:48 PM</t>
+          <t>09-04-2025 01:23:58 PM</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>PC-33VW824233M4, PC-1H95220MS6</t>
+          <t>PC-MXL53644K5, FHR-5CD016BPV0, FHR-MXL8361TTS</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Denise Schardt</t>
+          <t>Manuel Moreno Jr</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DENISE.SCHARDT@FHR.COM</t>
+          <t>MANUEL.MORENO@FHR.COM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09-03-2025 02:48:18 PM</t>
+          <t>05-02-2025 08:54:50 AM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-04-2025 01:00:11 PM</t>
+          <t>09-04-2025 01:17:10 PM</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
+          <t>SPC-5BJ8D14, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ray Aslesen</t>
+          <t>Ben Sandiford</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RAY.ASLESEN@FHR.COM</t>
+          <t>ben.sandiford@fhr.com</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2143,22 +2143,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>09-04-2025 07:28:33 AM</t>
+          <t>09-04-2025 01:11:18 PM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>09-04-2025 07:29:01 AM</t>
+          <t>09-04-2025 01:11:48 PM</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>PC-MXL4523KGB, PC-2MQ5140ZSW, FHR-0F00CQM2332, FHR-CND1440HBV</t>
+          <t>PC-1H95220MS6, PC-33VW824233M4</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2170,54 +2170,54 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>Denise Schardt</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>DENISE.SCHARDT@FHR.COM</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-04-2025 06:11:34 AM</t>
+          <t>09-03-2025 02:48:18 PM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>09-04-2025 06:12:02 AM</t>
+          <t>09-04-2025 01:00:11 PM</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Dora Heimsoth</t>
+          <t>Ray Aslesen</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>dora.heimsoth1@fhr.com</t>
+          <t>RAY.ASLESEN@FHR.COM</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2227,22 +2227,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-03-2025 03:00:34 PM</t>
+          <t>09-04-2025 07:28:33 AM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09-03-2025 03:01:01 PM</t>
+          <t>09-04-2025 07:29:01 AM</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>PC-339W925073R3, PC-86XGSV3</t>
+          <t>PC-MXL4523KGB, PC-2MQ5140ZSW, FHR-0F00CQM2332, FHR-CND1440HBV</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2254,12 +2254,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Stephen Rodriguez</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2269,22 +2269,22 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-03-2025 02:28:45 PM</t>
+          <t>09-04-2025 06:11:34 AM</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09-03-2025 02:29:20 PM</t>
+          <t>09-04-2025 06:12:02 AM</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>FHR-MXL4424X3B, SPC-DX6LZ84</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2296,54 +2296,54 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Matt Skrobarcek</t>
+          <t>Dora Heimsoth</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
+          <t>dora.heimsoth1@fhr.com</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:08 AM</t>
+          <t>09-03-2025 03:00:34 PM</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:38 AM</t>
+          <t>09-03-2025 03:01:01 PM</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
+          <t>PC-339W925073R3, PC-86XGSV3</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Justin Nava</t>
+          <t>Stephen Rodriguez</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>JUSTIN.NAVA@FHR.COM</t>
+          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2353,22 +2353,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-03-2025 09:44:33 AM</t>
+          <t>09-03-2025 02:28:45 PM</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>09-03-2025 09:45:02 AM</t>
+          <t>09-03-2025 02:29:20 PM</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>SPC-82TKZ84, FHR-5CG4240WQT, FHR-MXL9223BVJ</t>
+          <t>FHR-MXL90223C1 FHR-MXL902239Z FHR-MXL9332KN0 FHR-MXL902239R CND837B026 FHR-MXL9153QWC KII-MXL2424F2T FHR-5CG12812WW FHR-MXL3132SQX FHR-MXL3132SN7 FHR-MXL3132SNW FHR-MXL3132SS3 FHR-MXL3132SS4 FHR-MXL90224D2 FHR-8CG806569G KII-MXL24156FT FHR-MXL4424X3B FHR-MXL5043GK0 FHR-MXL5043GK1 SPC-DX6LZ84 SPC-MXL24156CD</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2380,222 +2380,222 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Logan Tom</t>
+          <t>Matt Skrobarcek</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>logan.tom@fhr.com</t>
+          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:15 PM</t>
+          <t>09-03-2025 09:46:08 AM</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:42 PM</t>
+          <t>09-03-2025 09:46:38 AM</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
+          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Travis Sumerfelt</t>
+          <t>Justin Nava</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>travis.sumerfelt@fhr.com</t>
+          <t>JUSTIN.NAVA@FHR.COM</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-02-2025 11:06:03 AM</t>
+          <t>09-03-2025 09:44:33 AM</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>09-02-2025 11:07:05 AM</t>
+          <t>09-03-2025 09:45:02 AM</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>PC-2MQ514108Q</t>
+          <t>SPC-82TKZ84, FHR-5CG4240WQT, FHR-MXL9223BVJ</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Carlos Garcia Jr.</t>
+          <t>Logan Tom</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CARLOS.GARCIAJR@FHR.COM</t>
+          <t>logan.tom@fhr.com</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>08-27-2025 09:24:59 PM</t>
+          <t>09-02-2025 02:39:15 PM</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>09-02-2025 08:26:34 AM</t>
+          <t>09-02-2025 02:39:42 PM</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>FHR-4PMKN34</t>
+          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Billy Royal</t>
+          <t>Travis Sumerfelt</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BILLY.ROYAL@FHR.COM</t>
+          <t>travis.sumerfelt@fhr.com</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:06 PM</t>
+          <t>09-02-2025 11:06:03 AM</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:34 PM</t>
+          <t>09-02-2025 11:07:05 AM</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>FHR-5CD2331XLD</t>
+          <t>PC-2MQ514108Q</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Samuel Paulus</t>
+          <t>Carlos Garcia Jr.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>samuel.paulus@fhr.com</t>
+          <t>CARLOS.GARCIAJR@FHR.COM</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:17 PM</t>
+          <t>08-27-2025 09:24:59 PM</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:45 PM</t>
+          <t>09-02-2025 08:26:34 AM</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
+          <t>FHR-FRMKN34</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Derya Broll</t>
+          <t>Billy Royal</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DERYA.BROLL@FHR.COM</t>
+          <t>BILLY.ROYAL@FHR.COM</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2605,22 +2605,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:07 PM</t>
+          <t>08-29-2025 04:48:06 PM</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:37 PM</t>
+          <t>08-29-2025 04:48:34 PM</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
+          <t>FHR-5CD2331XLD</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2632,54 +2632,54 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Joseph Moberly</t>
+          <t>Samuel Paulus</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>joseph.moberly@fhr.com</t>
+          <t>samuel.paulus@fhr.com</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>08-28-2025 01:10:49 PM</t>
+          <t>08-29-2025 01:00:17 PM</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>08-28-2025 01:11:16 PM</t>
+          <t>08-29-2025 01:00:45 PM</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>PC-1H852009W3, PC-5CG2415PYM</t>
+          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Lindi Dinn</t>
+          <t>Derya Broll</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>LINDI.DINN@FHR.COM</t>
+          <t>DERYA.BROLL@FHR.COM</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2689,22 +2689,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:14 PM</t>
+          <t>08-29-2025 12:10:07 PM</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:40 PM</t>
+          <t>08-29-2025 12:10:37 PM</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>FHR-CND1440HKF, PC-1H852009X5, PC-36KMG25193M4, FHR-8CC8412KMN, FHR-51990492553</t>
+          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2716,96 +2716,96 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Rodney Cotten</t>
+          <t>Joseph Moberly</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>RODNEY.COTTEN@FHR.COM</t>
+          <t>joseph.moberly@fhr.com</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:02 PM</t>
+          <t>08-28-2025 01:10:49 PM</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:30 PM</t>
+          <t>08-28-2025 01:11:16 PM</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>PC-33JGC25073R3, PC-5CD5100K7L, FHR-5CG7515059</t>
+          <t>PC-1H852009W3, PC-5CG2415PYM</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Chad Schaner</t>
+          <t>Lindi Dinn</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CHAD.SCHANER@FHR.COM</t>
+          <t>LINDI.DINN@FHR.COM</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Dell Pro Rugged RB14250 14" Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08-04-2025 01:41:48 PM</t>
+          <t>08-27-2025 02:53:14 PM</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>08-27-2025 01:20:37 PM</t>
+          <t>08-27-2025 02:53:40 PM</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>FHR-8H0GH04, FHR-8CG7352CR5, FHR-DYW9BT3, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-187491253</t>
+          <t>PC-36KMG25193M4, PC-1H852009X5, FHR-8CC8412KMN, FHR-CND1440HKF, FHR-51990492553</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Denise Gonzalez</t>
+          <t>Rodney Cotten</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DENISE.GONZALEZ@FHR.COM</t>
+          <t>RODNEY.COTTEN@FHR.COM</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2820,17 +2820,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:17 AM</t>
+          <t>08-27-2025 02:27:02 PM</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:45 AM</t>
+          <t>08-27-2025 02:27:30 PM</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>SPC-G1V03Z3, SPC-23V03Z3, SPC-G3V03Z3, SPC-63V03Z3, SPC-D0R03Z3, PC-34Y4825063R3, PC-5WXDQV3</t>
+          <t>PC-33JGC25073R3, PC-5CD5100K7L, FHR-5CG7515059</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2842,54 +2842,54 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Kris Adkins</t>
+          <t>Chad Schaner</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>KRISTOPHER.ADKINS@FHR.COM</t>
+          <t>CHAD.SCHANER@FHR.COM</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>Dell Pro Rugged RB14250 14" Laptop</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>08-26-2025 08:20:43 PM</t>
+          <t>08-04-2025 01:41:48 PM</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>08-26-2025 08:21:16 PM</t>
+          <t>08-27-2025 01:20:37 PM</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>FHR-3NMKN34, PC-34WWG25063R3</t>
+          <t>FHR-DYW9BT3, FHR-8H0GH04, FHR-8CG7352CR5, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-187491253</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Jose Cardona</t>
+          <t>Denise Gonzalez</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>JOSE.CARDONA@FHR.COM</t>
+          <t>DENISE.GONZALEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2899,22 +2899,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>08-26-2025 09:00:40 AM</t>
+          <t>08-27-2025 07:15:17 AM</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>08-26-2025 09:01:09 AM</t>
+          <t>08-27-2025 07:15:45 AM</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>FHR-5CG30935LZ, SPC-5CG40111C6, CPC-JOSEC-BGVEA, SPC-5CG4084VQJ, SPC-5CG40111D5</t>
+          <t>SPC-83V03Z3, SPC-D0R03Z3, PC-34Y4825063R3, PC-5WXDQV3</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2926,101 +2926,101 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Phillip Norell</t>
+          <t>Kris Adkins</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PHILLIP.NORELL@FHR.COM</t>
+          <t>KRISTOPHER.ADKINS@FHR.COM</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:13 PM</t>
+          <t>08-26-2025 08:20:43 PM</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:39 PM</t>
+          <t>08-26-2025 08:21:16 PM</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>FHR-5CG213CGKR, PC-1H85200B08</t>
+          <t>PC-34WWG25063R3</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Anne Lee</t>
+          <t>Jose Cardona</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ANNE.LEE@FHR.COM</t>
+          <t>JOSE.CARDONA@FHR.COM</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:00 AM</t>
+          <t>08-26-2025 09:00:40 AM</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:30 AM</t>
+          <t>08-26-2025 09:01:09 AM</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
+          <t>CPC-JOSEC-BGVEA, FHR-5CG30935LZ, SPC-5CG40111D5</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>David Barnholt</t>
+          <t>Phillip Norell</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>david.barnholt@fhr.com</t>
+          <t>PHILLIP.NORELL@FHR.COM</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3030,76 +3030,76 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:27 AM</t>
+          <t>08-25-2025 02:58:13 PM</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:54 AM</t>
+          <t>08-25-2025 02:58:39 PM</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>PC-1H852009SD</t>
+          <t>PC-1H85200B08, FHR-5CG213CGKR</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Eric Enders</t>
+          <t>Anne Lee</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>eric.enders@fhr.com</t>
+          <t>ANNE.LEE@FHR.COM</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:30 AM</t>
+          <t>08-25-2025 10:13:00 AM</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:59 AM</t>
+          <t>08-25-2025 10:13:30 AM</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>PC-2MQ514115J</t>
+          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sean Garza</t>
+          <t>David Barnholt</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>sean.garza@fhr.com</t>
+          <t>david.barnholt@fhr.com</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3109,22 +3109,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-19-2025 01:01:15 AM</t>
+          <t>08-22-2025 11:11:27 AM</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:18 AM</t>
+          <t>08-22-2025 11:11:54 AM</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>SPC-3B6G25073R3</t>
+          <t>PC-1H852009SD</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3136,54 +3136,54 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Joe Rohl</t>
+          <t>Eric Enders</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>JOE.ROHL@FHR.COM</t>
+          <t>eric.enders@fhr.com</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-19-2025 02:44:07 PM</t>
+          <t>08-22-2025 07:55:30 AM</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:14 AM</t>
+          <t>08-22-2025 07:55:59 AM</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
+          <t>PC-2MQ514115J</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>David Ybarra</t>
+          <t>Sean Garza</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DAVID.YBARRA@FHR.COM</t>
+          <t>sean.garza@fhr.com</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3193,22 +3193,22 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:30 AM</t>
+          <t>08-19-2025 01:01:15 AM</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:58 AM</t>
+          <t>08-22-2025 07:34:18 AM</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
+          <t>FHR-GTQKN34, SPC-3B6G25073R3</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3220,101 +3220,101 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>Joe Rohl</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>JOE.ROHL@FHR.COM</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:19 AM</t>
+          <t>08-19-2025 02:44:07 PM</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:48 AM</t>
+          <t>08-22-2025 07:34:14 AM</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Cole Brewster</t>
+          <t>David Ybarra</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>cole.brewster@fhr.com</t>
+          <t>DAVID.YBARRA@FHR.COM</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-20-2025 01:48:49 PM</t>
+          <t>08-22-2025 07:18:30 AM</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-20-2025 01:49:17 PM</t>
+          <t>08-22-2025 07:18:58 AM</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>FHR-5CG1276WN7, PC-34Y3Q25063R3</t>
+          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Brenna Gerety</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BRENNA.GERETY@FHR.COM</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3324,76 +3324,76 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:01 AM</t>
+          <t>08-22-2025 06:59:19 AM</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:29 AM</t>
+          <t>08-22-2025 06:59:48 AM</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>PC-5CG5040677, FHR-5CG0036B94</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Daniel Jurach</t>
+          <t>Cole Brewster</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>daniel.jurach@fhr.com</t>
+          <t>cole.brewster@fhr.com</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
+          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-18-2025 11:58:20 AM</t>
+          <t>08-20-2025 01:48:49 PM</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-19-2025 10:21:28 AM</t>
+          <t>08-20-2025 01:49:17 PM</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>PC-2MQ514110T</t>
+          <t>PC-34Y3Q25063R3, FHR-5CG1276WN7</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Tony Short</t>
+          <t>Brenna Gerety</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ANTHONY.SHORT@KPLSRV.COM</t>
+          <t>BRENNA.GERETY@FHR.COM</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3403,22 +3403,22 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:07 AM</t>
+          <t>08-20-2025 07:58:01 AM</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:38 AM</t>
+          <t>08-20-2025 07:58:29 AM</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>PC-5CD229GR66, PC-5CD5100KK7, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
+          <t>PC-5CG5040677, FHR-5CG0036B94</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3430,121 +3430,121 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Chad Remer</t>
+          <t>Daniel Jurach</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CHAD.REMER@FHR.COM</t>
+          <t>daniel.jurach@fhr.com</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:04 AM</t>
+          <t>08-18-2025 11:58:20 AM</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:34 AM</t>
+          <t>08-19-2025 10:21:28 AM</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
+          <t>PC-2MQ514110T</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Nicholas Hanson</t>
+          <t>Tony Short</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NICK.HANSON@FHR.COM</t>
+          <t>ANTHONY.SHORT@KPLSRV.COM</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:17 AM</t>
+          <t>08-18-2025 10:21:07 AM</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:46 AM</t>
+          <t>08-18-2025 10:21:38 AM</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
+          <t>PC-5CD5100KK7, PC-5CD229GR66, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Harold Irvin</t>
+          <t>Chad Remer</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>HAROLD.IRVIN@FHR.COM</t>
+          <t>CHAD.REMER@FHR.COM</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:06 PM</t>
+          <t>08-18-2025 09:26:04 AM</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:37 PM</t>
+          <t>08-18-2025 09:26:34 AM</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>PC-2MQ51410F2, FHR-5CG2156Z1X</t>
+          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3556,12 +3556,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sandra Akarolo</t>
+          <t>Nicholas Hanson</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>sandra.akarolo@fhr.com</t>
+          <t>NICK.HANSON@FHR.COM</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3571,22 +3571,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-13-2025 01:51:42 PM</t>
+          <t>08-15-2025 07:06:17 AM</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>08-14-2025 08:58:56 AM</t>
+          <t>08-15-2025 07:06:46 AM</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>FHR-5CG213CDWV</t>
+          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3598,17 +3598,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Paul Fisher</t>
+          <t>Harold Irvin</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PAUL.FISHER@FHR.COM</t>
+          <t>HAROLD.IRVIN@FHR.COM</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3618,17 +3618,17 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:23 PM</t>
+          <t>08-14-2025 02:45:06 PM</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:56 PM</t>
+          <t>08-14-2025 02:45:37 PM</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
+          <t>PC-2MQ51410F2, FHR-5CG2156Z1X</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3640,54 +3640,54 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Robert Corley</t>
+          <t>Sandra Akarolo</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ROBERT.CORLEY@FHR.COM</t>
+          <t>sandra.akarolo@fhr.com</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-12-2025 06:27:18 PM</t>
+          <t>08-13-2025 01:51:42 PM</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>08-13-2025 12:47:38 PM</t>
+          <t>08-14-2025 08:58:56 AM</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
+          <t>FHR-5CG213CDWV</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Jeff Baker</t>
+          <t>Paul Fisher</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>JEFF.BAKER@FHR.COM</t>
+          <t>PAUL.FISHER@FHR.COM</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3697,22 +3697,22 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:02 AM</t>
+          <t>08-13-2025 05:07:23 PM</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:30 AM</t>
+          <t>08-13-2025 05:07:56 PM</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
+          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3724,348 +3724,348 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Kemal Simpson</t>
+          <t>Robert Corley</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>kemal.simpson@fhr.com</t>
+          <t>ROBERT.CORLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-13-2025 07:17:41 AM</t>
+          <t>08-12-2025 06:27:18 PM</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>08-13-2025 07:18:09 AM</t>
+          <t>08-13-2025 12:47:38 PM</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>FHR-5CG1073F3X</t>
+          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Robert Jimenez</t>
+          <t>Jeff Baker</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ROBERT.JIMENEZ@FHR.COM</t>
+          <t>JEFF.BAKER@FHR.COM</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:22 AM</t>
+          <t>08-13-2025 09:11:02 AM</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:51 AM</t>
+          <t>08-13-2025 09:11:30 AM</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
+          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Kevin Miller</t>
+          <t>Kemal Simpson</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>KEVIN.MILLER@FHR.COM</t>
+          <t>kemal.simpson@fhr.com</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:21 AM</t>
+          <t>08-13-2025 07:17:41 AM</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:49 AM</t>
+          <t>08-13-2025 07:18:09 AM</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
+          <t>FHR-5CG1073F3X</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Tucker Lansing</t>
+          <t>Robert Jimenez</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>tucker.lansing@fhr.com</t>
+          <t>ROBERT.JIMENEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:05 AM</t>
+          <t>08-12-2025 11:43:22 AM</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:44 AM</t>
+          <t>08-12-2025 11:43:51 AM</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>PC-2MQ5141103</t>
+          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Kairos Logan</t>
+          <t>Kevin Miller</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>kairos.logan@fhr.com</t>
+          <t>KEVIN.MILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:17 PM</t>
+          <t>08-12-2025 09:11:21 AM</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:45 PM</t>
+          <t>08-12-2025 09:11:49 AM</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>PC-2MQ51410BZ</t>
+          <t>FHR-5CG1240ZLL, PC-1H851300KN</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Louis Stump</t>
+          <t>Tucker Lansing</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>LOUIS.STUMP@FHR.COM</t>
+          <t>tucker.lansing@fhr.com</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>07-20-2025 06:49:35 AM</t>
+          <t>08-12-2025 08:13:05 AM</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>08-11-2025 03:03:35 PM</t>
+          <t>08-12-2025 08:13:44 AM</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
+          <t>PC-2MQ5141103</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Kairos Logan</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>kairos.logan@fhr.com</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>08-11-2025 12:57:47 PM</t>
+          <t>08-11-2025 04:54:17 PM</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>08-11-2025 12:58:15 PM</t>
+          <t>08-11-2025 04:54:45 PM</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
+          <t>PC-2MQ51410BZ</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Alex Fairbanks</t>
+          <t>Louis Stump</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Alex.Fairbanks@fhr.com</t>
+          <t>LOUIS.STUMP@FHR.COM</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>08-11-2025 09:58:56 AM</t>
+          <t>07-20-2025 06:49:35 AM</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>08-11-2025 09:59:25 AM</t>
+          <t>08-11-2025 03:03:35 PM</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>FHR-5CG2261RYZ, FHR-MXL3132S8S, PC-5CD5100K77</t>
+          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Cole Wilson</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>cole.wilson@fhr.com</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4075,22 +4075,22 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>08-11-2025 08:57:56 AM</t>
+          <t>08-11-2025 12:57:47 PM</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>08-11-2025 08:58:25 AM</t>
+          <t>08-11-2025 12:58:15 PM</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z9H</t>
+          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4102,96 +4102,96 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Alex Fairbanks</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>Alex.Fairbanks@fhr.com</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:07 AM</t>
+          <t>08-11-2025 09:58:56 AM</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:36 AM</t>
+          <t>08-11-2025 09:59:25 AM</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
+          <t>FHR-5CG2261RYZ, FHR-MXL3132S8S, PC-5CD5100K77</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Bobby Peddycord</t>
+          <t>Cole Wilson</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>bobby.peddycord@fhr.com</t>
+          <t>cole.wilson@fhr.com</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>08-07-2025 10:38:48 AM</t>
+          <t>08-11-2025 08:57:56 AM</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>08-11-2025 07:13:21 AM</t>
+          <t>08-11-2025 08:58:25 AM</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
+          <t>PC-2MQ5140Z9H</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Charles Oliver</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CHARLES.OLIVER@FHR.COM</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4206,17 +4206,17 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>08-11-2025 05:46:52 AM</t>
+          <t>08-11-2025 08:33:07 AM</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>08-11-2025 05:47:20 AM</t>
+          <t>08-11-2025 08:33:36 AM</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>PC-36KFF25193M4</t>
+          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4228,17 +4228,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Rudy Barajas</t>
+          <t>Bobby Peddycord</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>RUDY.BARAJAS@FHR.COM</t>
+          <t>bobby.peddycord@fhr.com</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4248,123 +4248,123 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>08-06-2025 04:56:54 AM</t>
+          <t>08-07-2025 10:38:48 AM</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>08-08-2025 01:09:23 PM</t>
+          <t>08-11-2025 07:13:21 AM</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>PC-33BYB25013M4, FHR-J2V03Z3, PC-2MQ514105T, FHR-MXL24156CF</t>
+          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Braxton Holes</t>
+          <t>Charles Oliver</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>braxton.holes@fhr.com</t>
+          <t>CHARLES.OLIVER@FHR.COM</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>08-07-2025 08:51:34 AM</t>
+          <t>08-11-2025 05:46:52 AM</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>08-08-2025 11:34:27 AM</t>
+          <t>08-11-2025 05:47:20 AM</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>FHR-5CD231D3NH, PC-5CD5100KGP, FHR-5CD01052SN</t>
+          <t>PC-36KFF25193M4</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Andrea Unruh</t>
+          <t>Rudy Barajas</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ANDREA.UNRUH@FHR.COM</t>
+          <t>RUDY.BARAJAS@FHR.COM</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:28 AM</t>
+          <t>08-06-2025 04:56:54 AM</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:56 AM</t>
+          <t>08-08-2025 01:09:23 PM</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>PC-36KG325193M4, PC-014GF22373BF</t>
+          <t>PC-33BYB25013M4, FHR-J2V03Z3, PC-2MQ514105T, FHR-MXL24156CF</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Caleb Quanrud</t>
+          <t>Braxton Holes</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>caleb.quanrud@fhr.com</t>
+          <t>braxton.holes@fhr.com</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4374,118 +4374,118 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:28 PM</t>
+          <t>08-07-2025 08:51:34 AM</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:58 PM</t>
+          <t>08-08-2025 11:34:27 AM</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
+          <t>FHR-5CD231D3NH, PC-5CD5100KGP, FHR-5CD01052SN</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Jean Jaime</t>
+          <t>Andrea Unruh</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>JEAN.JAIME@FHR.COM</t>
+          <t>ANDREA.UNRUH@FHR.COM</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:32 PM</t>
+          <t>08-08-2025 08:17:28 AM</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>08-07-2025 02:12:00 PM</t>
+          <t>08-08-2025 08:17:56 AM</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
+          <t>PC-36KG325193M4, PC-014GF22373BF</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Caleb Quanrud</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>caleb.quanrud@fhr.com</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>08-07-2025 02:10:24 PM</t>
+          <t>08-07-2025 03:06:28 PM</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:00 PM</t>
+          <t>08-07-2025 03:06:58 PM</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
+          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Jean Jaime</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>JEAN.JAIME@FHR.COM</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4495,22 +4495,22 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:23 PM</t>
+          <t>08-07-2025 02:11:32 PM</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:59 PM</t>
+          <t>08-07-2025 02:12:00 PM</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
+          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4522,54 +4522,54 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Branden Roering</t>
+          <t>Rick Schwing</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>branden.roering@fhr.com</t>
+          <t>rick.schwing@fhr.com</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:17 PM</t>
+          <t>08-07-2025 02:10:24 PM</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:45 PM</t>
+          <t>08-07-2025 02:11:00 PM</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>PC-2MQ5141148</t>
+          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Christopher Brooks</t>
+          <t>Rick Schwing</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
+          <t>rick.schwing@fhr.com</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4579,22 +4579,22 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>08-06-2025 12:44:08 PM</t>
+          <t>08-07-2025 02:09:23 PM</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>08-07-2025 09:46:49 AM</t>
+          <t>08-07-2025 02:09:59 PM</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
+          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4606,306 +4606,306 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Justin Hinojosa</t>
+          <t>Branden Roering</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>justin.hinojosa@fhr.com</t>
+          <t>branden.roering@fhr.com</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:01 AM</t>
+          <t>08-07-2025 12:49:17 PM</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:29 AM</t>
+          <t>08-07-2025 12:49:45 PM</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>PC-MXL24156FQ SPC-MXL24156FQ FHR-8CG80416HL FHR-8CG806569G FHR-8CG7236C1X FHR-G3BCDZ3 FHR-MXL3132SS4 FHR-8CG80416GX FHR-MXL90224D2 FHR-8J5ZK44 FHR-MXL3132SN7 FHR-MXL3132SS3 FHR-9K8ZK44 FHR-MXL3132SQX KII-MXL2424F2T FHR-MXL5043GK1 FHR-MXL5043GK0 FHR-MXL3132SRR FHR-BK001HK222 FHR-MXL3132SNW FHR-5CD439J37S FHR-MXL3132SP1</t>
+          <t>PC-2MQ5141148</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Josiah Peterson</t>
+          <t>Christopher Brooks</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>JOSIAH.PETERSON@FHR.COM</t>
+          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>08-06-2025 08:30:11 AM</t>
+          <t>08-06-2025 12:44:08 PM</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>08-06-2025 08:31:02 AM</t>
+          <t>08-07-2025 09:46:49 AM</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>FHR-5CD30764W6, PC-2MQ5270TC1</t>
+          <t>PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Andrew Berndt</t>
+          <t>Justin Hinojosa</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>andrew.berndt@fhr.com</t>
+          <t>justin.hinojosa@fhr.com</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>08-05-2025 01:32:29 PM</t>
+          <t>08-06-2025 11:55:01 AM</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>08-05-2025 01:33:21 PM</t>
+          <t>08-06-2025 11:55:29 AM</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>PC-2MQ514100C</t>
+          <t>PC-MXL24156FQ SPC-MXL24156FQ FHR-8CG80416HL FHR-8CG806569G FHR-8CG7236C1X FHR-G3BCDZ3 FHR-MXL3132SS4 FHR-8CG80416GX FHR-MXL90224D2 FHR-8J5ZK44 FHR-MXL3132SN7 FHR-MXL3132SS3 FHR-9K8ZK44 FHR-MXL3132SQX KII-MXL2424F2T FHR-MXL5043GK1 FHR-MXL5043GK0 FHR-MXL3132SRR FHR-BK001HK222 FHR-MXL3132SNW FHR-5CD439J37S FHR-MXL3132SP1</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Matthew VanLanen</t>
+          <t>Josiah Peterson</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>matthew.vanlanen@fhr.com</t>
+          <t>JOSIAH.PETERSON@FHR.COM</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:12 AM</t>
+          <t>08-06-2025 08:30:11 AM</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:39 AM</t>
+          <t>08-06-2025 08:31:02 AM</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
+          <t>PC-2MQ5270TC1, FHR-5CD30764W6</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Arturo Vasquez Jr</t>
+          <t>Andrew Berndt</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ARTURO.VASQUEZ@FHR.COM</t>
+          <t>andrew.berndt@fhr.com</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>07-30-2025 12:56:40 PM</t>
+          <t>08-05-2025 01:32:29 PM</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>08-05-2025 09:13:23 AM</t>
+          <t>08-05-2025 01:33:21 PM</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>SPC-37MW25123GX, FHR-8CG82809D5, FHR-5CG31302WM, FHR-MXL9223BRW</t>
+          <t>PC-2MQ514100C</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Christopher Koerner</t>
+          <t>Matthew VanLanen</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.KOERNER@FHR.COM</t>
+          <t>matthew.vanlanen@fhr.com</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>08-05-2025 08:14:41 AM</t>
+          <t>08-05-2025 10:28:12 AM</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>08-05-2025 08:15:12 AM</t>
+          <t>08-05-2025 10:28:39 AM</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>PC-5CD4514XZX, FHR-59309202153</t>
+          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Eric Derieux</t>
+          <t>Arturo Vasquez Jr</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ERIC.DERIEUX@FHR.COM</t>
+          <t>ARTURO.VASQUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>US-TX-BEAUMONT2 - FHR-Beaumont TX - Beaumont - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>08-05-2025 08:01:44 AM</t>
+          <t>07-30-2025 12:56:40 PM</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>08-05-2025 08:02:14 AM</t>
+          <t>08-05-2025 09:13:23 AM</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TDP, FHR-5CG8353ZC7, DESKTOP-JU70CMA</t>
+          <t>SPC-37MW25123GX, FHR-8CG82809D5, FHR-5CG31302WM, FHR-MXL9223BRW</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Ryan Sabin</t>
+          <t>Christopher Koerner</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ryan.sabin@fhr.com</t>
+          <t>CHRISTOPHER.KOERNER@FHR.COM</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4915,22 +4915,22 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>08-04-2025 12:02:32 PM</t>
+          <t>08-05-2025 08:14:41 AM</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>08-04-2025 12:03:01 PM</t>
+          <t>08-05-2025 08:15:12 AM</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZHM, FHR-5CG1092Y8L, PC-2MQ5040SX3</t>
+          <t>PC-5CD4514XZX, FHR-59309202153</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4942,17 +4942,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Nate Claseman</t>
+          <t>Eric Derieux</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>nate.claseman@fhr.com</t>
+          <t>ERIC.DERIEUX@FHR.COM</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-BEAUMONT2 - FHR-Beaumont TX - Beaumont - Koch</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4962,76 +4962,76 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>08-03-2025 01:32:09 PM</t>
+          <t>08-05-2025 08:01:44 AM</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>08-03-2025 01:32:37 PM</t>
+          <t>08-05-2025 08:02:14 AM</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFN, FHR-MXL2394SWH, FHR-MXL2394SXC, FHR-8CG7352CTV</t>
+          <t>PC-2MQ5270TDP, FHR-5CG8353ZC7, DESKTOP-JU70CMA</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Koy Straks</t>
+          <t>Ryan Sabin</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>koy.straks@fhr.com</t>
+          <t>ryan.sabin@fhr.com</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>08-01-2025 02:42:24 PM</t>
+          <t>08-04-2025 12:02:32 PM</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>08-01-2025 02:42:52 PM</t>
+          <t>08-04-2025 12:03:01 PM</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TF5</t>
+          <t>PC-2MQ5140ZHM, FHR-5CG1092Y8L, PC-2MQ5040SX3</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Gaven Girton</t>
+          <t>Nate Claseman</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>gaven.girton@fhr.com</t>
+          <t>nate.claseman@fhr.com</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>08-01-2025 02:05:31 PM</t>
+          <t>08-03-2025 01:32:09 PM</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>08-01-2025 02:05:58 PM</t>
+          <t>08-03-2025 01:32:37 PM</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZGG</t>
+          <t>PC-2MQ5270TFN, FHR-MXL2394SXC, FHR-8CG7352CTV</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5068,96 +5068,96 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Shaun McVay</t>
+          <t>Koy Straks</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>shaun.mcvay@fhr.com</t>
+          <t>koy.straks@fhr.com</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>08-01-2025 01:07:44 PM</t>
+          <t>08-01-2025 02:42:24 PM</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>08-01-2025 01:08:17 PM</t>
+          <t>08-01-2025 02:42:52 PM</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>PC-5CD5100KG2</t>
+          <t>PC-2MQ5270TF5</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>David Escamilla</t>
+          <t>Gaven Girton</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DAVID.ESCAMILLA@FHR.COM</t>
+          <t>gaven.girton@fhr.com</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>08-01-2025 07:36:23 AM</t>
+          <t>08-01-2025 02:05:31 PM</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>08-01-2025 07:36:54 AM</t>
+          <t>08-01-2025 02:05:58 PM</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>SPC-CRWXJ74, FHR-MXL11033PZ, PC-34MXB25193M4</t>
+          <t>PC-2MQ5140ZGG</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Troy Pena</t>
+          <t>Shaun McVay</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>troy.pena@fhr.com</t>
+          <t>shaun.mcvay@fhr.com</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5167,22 +5167,22 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>07-31-2025 04:49:13 PM</t>
+          <t>08-01-2025 01:07:44 PM</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>07-31-2025 04:49:40 PM</t>
+          <t>08-01-2025 01:08:17 PM</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>FHR-MXL2165D4H, FHR-87ZPDZ3, PC-34P3C25193M4, FHR-5CG24913Q4</t>
+          <t>PC-5CD5100KG2</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5194,79 +5194,79 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Hannah Shea</t>
+          <t>David Escamilla</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>hannah.shea@fhr.com</t>
+          <t>DAVID.ESCAMILLA@FHR.COM</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>07-31-2025 10:42:49 AM</t>
+          <t>08-01-2025 07:36:23 AM</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>07-31-2025 10:43:15 AM</t>
+          <t>08-01-2025 07:36:54 AM</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TCB, PC-5CG213CFKZ</t>
+          <t>SPC-CRWXJ74, FHR-MXL11033PZ, PC-34MXB25193M4</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Tara Schultz</t>
+          <t>Troy Pena</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TARA.SCHULTZ@FHR.COM</t>
+          <t>troy.pena@fhr.com</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>07-31-2025 08:59:51 AM</t>
+          <t>07-31-2025 04:49:13 PM</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>07-31-2025 09:00:19 AM</t>
+          <t>07-31-2025 04:49:40 PM</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZHK, FHR-2TK95201XD</t>
+          <t>PC-F481894, FHR-87ZPDZ3, FHR-MXL2165D4H, PC-34P3C25193M4, FHR-5CG24913Q4</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5278,12 +5278,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Dave Larson</t>
+          <t>Hannah Shea</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>dave.larson@fhr.com</t>
+          <t>hannah.shea@fhr.com</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5293,22 +5293,22 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>07-31-2025 08:30:21 AM</t>
+          <t>07-31-2025 10:42:49 AM</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>07-31-2025 08:30:52 AM</t>
+          <t>07-31-2025 10:43:15 AM</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZFS, PC-5CG31302L2</t>
+          <t>PC-2MQ5270TCB, PC-5CG213CFKZ</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5320,37 +5320,37 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Andy Harrison</t>
+          <t>Tara Schultz</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ANDY.HARRISON@FHR.COM</t>
+          <t>TARA.SCHULTZ@FHR.COM</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>07-30-2025 06:15:56 PM</t>
+          <t>07-31-2025 08:59:51 AM</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>07-30-2025 06:16:23 PM</t>
+          <t>07-31-2025 09:00:19 AM</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>PC-JTKJ414, PC-34MWB25193M4, FHR-5CG1314JWW</t>
+          <t>PC-2MQ5140ZHK, FHR-2TK95201XD</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">

--- a/output/fhr_computer_requests.xlsx
+++ b/output/fhr_computer_requests.xlsx
@@ -532,12 +532,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Robert Cliburn</t>
+          <t>Jimmy Nguyen</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ROBERT.CLIBURN@FHR.COM</t>
+          <t>jimmy.nguyen@fhr.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -547,22 +547,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09-23-2025 07:36:34 AM</t>
+          <t>08-04-2025 01:48:09 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>09-23-2025 07:37:02 AM</t>
+          <t>09-23-2025 03:22:38 PM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>FHR-5CG0472YYT</t>
+          <t>FHR-2M9CK74, FHR-5CG1465S8V</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -574,12 +574,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brinson Bryan</t>
+          <t>Robert Cliburn</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRINSON.BRYAN@FHR.COM</t>
+          <t>ROBERT.CLIBURN@FHR.COM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -589,22 +589,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09-22-2025 08:31:09 AM</t>
+          <t>09-23-2025 07:36:34 AM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>09-22-2025 08:31:38 AM</t>
+          <t>09-23-2025 07:37:02 AM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FHR-5CD229GR46</t>
+          <t>FHR-5CG0472YYT</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -616,12 +616,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Vicente Castillo</t>
+          <t>Brinson Bryan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VICENTE.CASTILLO@FHR.COM</t>
+          <t>BRINSON.BRYAN@FHR.COM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -631,22 +631,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09-22-2025 08:10:41 AM</t>
+          <t>09-22-2025 08:31:09 AM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09-22-2025 08:11:09 AM</t>
+          <t>09-22-2025 08:31:38 AM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FHR-9K8ZK44, PC-334QH231933F, FHR-MXL3132SQX</t>
+          <t>FHR-5CD229GR46</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -658,59 +658,59 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dillon Sailer</t>
+          <t>Vicente Castillo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dillon.sailer@fhr.com</t>
+          <t>VICENTE.CASTILLO@FHR.COM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09-19-2025 04:55:25 PM</t>
+          <t>09-22-2025 08:10:41 AM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09-19-2025 04:55:54 PM</t>
+          <t>09-22-2025 08:11:09 AM</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FHR-LOANPB18, FHR-5CG201416N</t>
+          <t>FHR-9K8ZK44, PC-334QH231933F, FHR-MXL3132SQX</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Dillon Sailer</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DANIEL.BRAUN@FHR.COM</t>
+          <t>dillon.sailer@fhr.com</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -720,118 +720,118 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09-18-2025 02:27:18 PM</t>
+          <t>09-19-2025 04:55:25 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-18-2025 02:27:46 PM</t>
+          <t>09-19-2025 04:55:54 PM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>FHR-5CG7312MP6</t>
+          <t>FHR-LOANPB18, FHR-5CG201416N</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Roberto Montelongo</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>roberto.montelongo@fhr.com</t>
+          <t>DANIEL.BRAUN@FHR.COM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09-18-2025 09:01:15 AM</t>
+          <t>09-18-2025 02:27:18 PM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-18-2025 09:01:46 AM</t>
+          <t>09-18-2025 02:27:46 PM</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PC-33VX725273R3, FHR-5CG2156GT3, USWHL-1276WN9</t>
+          <t>PC-1H85200B0S, FHR-5CG7312MP6</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Trevor Willberg</t>
+          <t>Roberto Montelongo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>trevor.willberg@fhr.com</t>
+          <t>roberto.montelongo@fhr.com</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-17-2025 10:21:00 AM</t>
+          <t>09-18-2025 09:01:15 AM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-17-2025 12:52:13 PM</t>
+          <t>09-18-2025 09:01:46 AM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>FHR-5CG2156GT3, PC-33VX725273R3, USWHL-1276WN9</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cory Strandlien</t>
+          <t>Trevor Willberg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cory.strandlien@fhr.com</t>
+          <t>trevor.willberg@fhr.com</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-17-2025 09:55:48 AM</t>
+          <t>09-17-2025 10:21:00 AM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-17-2025 12:44:37 PM</t>
+          <t>09-17-2025 12:52:13 PM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -868,101 +868,101 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Enrique Flores</t>
+          <t>Cory Strandlien</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENRIQUE.FLORES@FHR.COM</t>
+          <t>cory.strandlien@fhr.com</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-17-2025 10:03:05 AM</t>
+          <t>09-17-2025 09:55:48 AM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-17-2025 10:03:36 AM</t>
+          <t>09-17-2025 12:44:37 PM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FHR-2UA8311QWT, FHR-5CG1240T5M, FHR-5CD4154J0P</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jason Henke</t>
+          <t>Enrique Flores</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>JASON.HENKE@FHR.COM</t>
+          <t>ENRIQUE.FLORES@FHR.COM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09-17-2025 09:38:30 AM</t>
+          <t>09-17-2025 10:03:05 AM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-17-2025 09:39:02 AM</t>
+          <t>09-17-2025 10:03:36 AM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>FHR-5CG2151LHM</t>
+          <t>FHR-2UA8311QWT, FHR-5CG1240T5M, FHR-5CD4154J0P</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jed Illg</t>
+          <t>Jason Henke</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jed.Illg@fhr.com</t>
+          <t>JASON.HENKE@FHR.COM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -972,81 +972,81 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09-17-2025 08:33:21 AM</t>
+          <t>09-17-2025 09:38:30 AM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09-17-2025 08:33:50 AM</t>
+          <t>09-17-2025 09:39:02 AM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PC-2MQ5290Z98, FHR-5CG2156GG9</t>
+          <t>FHR-5CG2151LHM, PC-2MQ5290Z9F</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Shannon Angle</t>
+          <t>Jed Illg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>shannon.angle@kochcc.com</t>
+          <t>Jed.Illg@fhr.com</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09-17-2025 07:50:45 AM</t>
+          <t>09-17-2025 08:33:21 AM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09-17-2025 07:51:14 AM</t>
+          <t>09-17-2025 08:33:50 AM</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
+          <t>FHR-5CG2156GG9, PC-2MQ5290Z98</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bryeton Canchola</t>
+          <t>Shannon Angle</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>bryeton.canchola@fhr.com</t>
+          <t>shannon.angle@kochcc.com</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1056,34 +1056,34 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09-16-2025 03:26:59 PM</t>
+          <t>09-17-2025 07:50:45 AM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-16-2025 03:27:26 PM</t>
+          <t>09-17-2025 07:51:14 AM</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>SPC-MXL24155VV FHR-MXL1022SZ3 FHR-MXL24156C3 SPC-MXL24155W5 SPC-MXL3324PYM SPC-MXL3324PZ0 FHR-MXL2223BDL FHR-MXL9502C5W FHR-MXL9333W07 PC-01W3B23013BF FHR-MXL1022T0R FHR-MXL24155WF FHR-MXL13349Z2 SPC-MXL3324PZ2 FHR-MXL90224C1 FHR-BK000V1 FHR-B9XFH04 SPC-MXL3324PYD SPC-MXL3324PYP FHR-8V4TNZ3</t>
+          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Charles Cooley Jr</t>
+          <t>Bryeton Canchola</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHARLES.COOLEY@FHR.COM</t>
+          <t>bryeton.canchola@fhr.com</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1093,22 +1093,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09-16-2025 02:26:57 PM</t>
+          <t>09-16-2025 03:26:59 PM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09-16-2025 02:27:28 PM</t>
+          <t>09-16-2025 03:27:26 PM</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>FHR-5CG225854R, PC-2MQ5140ZJR</t>
+          <t>SPC-MXL24155VV FHR-MXL1022SZ3 FHR-MXL24156C3 SPC-MXL24155W5 SPC-MXL3324PYM SPC-MXL3324PZ0 FHR-MXL2223BDL FHR-MXL9502C5W FHR-MXL9333W07 PC-01W3B23013BF FHR-MXL1022T0R FHR-MXL24155WF FHR-MXL13349Z2 SPC-MXL3324PZ2 FHR-MXL90224C1 FHR-BK000V1 FHR-B9XFH04 SPC-MXL3324PYD SPC-MXL3324PYP FHR-8V4TNZ3</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1120,96 +1120,96 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Patrick Tiller</t>
+          <t>Charles Cooley Jr</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PATRICK.TILLER@FHR.COM</t>
+          <t>CHARLES.COOLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09-16-2025 12:20:22 PM</t>
+          <t>09-16-2025 02:26:57 PM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-16-2025 12:20:49 PM</t>
+          <t>09-16-2025 02:27:28 PM</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>FHR-5CG1240T4Q, PC-JZ4TNZ3, PC-1H85200B13, FHR-5CG815441G, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
+          <t>FHR-5CG225854R, PC-2MQ5140ZJR</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bryan Garcia</t>
+          <t>Patrick Tiller</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bryan.garcia1@fhr.com</t>
+          <t>PATRICK.TILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09-16-2025 07:46:13 AM</t>
+          <t>09-16-2025 12:20:22 PM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-16-2025 07:46:49 AM</t>
+          <t>09-16-2025 12:20:49 PM</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>PC-33J3M25073R3, PC-BZQ03Z3, PC-5CG408495P</t>
+          <t>PC-JZ4TNZ3, FHR-5CG1240T4Q, PC-1H85200B13, FHR-5CG815441G, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Troy Hull</t>
+          <t>Bryan Garcia</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TROY.HULL@FHR.COM</t>
+          <t>bryan.garcia1@fhr.com</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1224,17 +1224,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09-16-2025 06:55:54 AM</t>
+          <t>09-16-2025 07:46:13 AM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-16-2025 06:56:26 AM</t>
+          <t>09-16-2025 07:46:49 AM</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>FHR-MXL24155WF, PC-5CG4151LFY</t>
+          <t>PC-33J3M25073R3, PC-BZQ03Z3, PC-5CG408495P</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1246,180 +1246,180 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Crystal Link</t>
+          <t>Troy Hull</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CRYSTAL.LINK@FHR.COM</t>
+          <t>TROY.HULL@FHR.COM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09-15-2025 11:01:25 AM</t>
+          <t>09-16-2025 06:55:54 AM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-15-2025 11:01:54 AM</t>
+          <t>09-16-2025 06:56:26 AM</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>PC-1H85200B04, PC-5CG1465ZKZ, FHR-5CG0254D4T</t>
+          <t>FHR-MXL2394ST8, FHR-MXL24155WF, PC-5CG4151LFY</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Alex Lodholz</t>
+          <t>Crystal Link</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>alex.lodholz@fhr.com</t>
+          <t>CRYSTAL.LINK@FHR.COM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>09-15-2025 09:14:43 AM</t>
+          <t>09-15-2025 11:01:25 AM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09-15-2025 09:15:12 AM</t>
+          <t>09-15-2025 11:01:54 AM</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>PC-2MQ514103N</t>
+          <t>PC-5CG1465ZKZ, PC-1H85200B04, FHR-5CG0254D4T</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brendan Snell</t>
+          <t>Alex Lodholz</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>brendan.snell@fhr.com</t>
+          <t>alex.lodholz@fhr.com</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:12 AM</t>
+          <t>09-15-2025 09:14:43 AM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:46 AM</t>
+          <t>09-15-2025 09:15:12 AM</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>FHR-5CG2156XDV</t>
+          <t>PC-2MQ514103N</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Joey Guerrero</t>
+          <t>Brendan Snell</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>joey.guerrero1@fhr.com</t>
+          <t>brendan.snell@fhr.com</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>09-15-2025 06:33:41 AM</t>
+          <t>09-15-2025 08:15:12 AM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>09-15-2025 06:34:14 AM</t>
+          <t>09-15-2025 08:15:46 AM</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>PC-33B8725073R3, PC-9659600351</t>
+          <t>FHR-5CG2156XDV</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Eddie Buskirk</t>
+          <t>Joey Guerrero</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>EDDIE.BUSKIRK@FHR.COM</t>
+          <t>joey.guerrero1@fhr.com</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1429,22 +1429,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>09-12-2025 01:52:56 PM</t>
+          <t>09-15-2025 06:33:41 AM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>09-12-2025 01:53:24 PM</t>
+          <t>09-15-2025 06:34:14 AM</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>PC-1H85200B0W, FHR-5CG9326W2B</t>
+          <t>PC-33B8725073R3, PC-9659600351</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1456,12 +1456,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sammantha Reynolds</t>
+          <t>Eddie Buskirk</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>sammantha.reynolds1@fhr.com</t>
+          <t>EDDIE.BUSKIRK@FHR.COM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1471,22 +1471,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>09-12-2025 08:18:55 AM</t>
+          <t>09-12-2025 01:52:56 PM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>09-12-2025 08:19:25 AM</t>
+          <t>09-12-2025 01:53:24 PM</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
+          <t>PC-1H85200B0W, FHR-5CG9326W2B</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1498,54 +1498,54 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Victor Sauceda</t>
+          <t>Sammantha Reynolds</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>victor.sauceda@fhr.com</t>
+          <t>sammantha.reynolds1@fhr.com</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:03 AM</t>
+          <t>09-12-2025 08:18:55 AM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:33 AM</t>
+          <t>09-12-2025 08:19:25 AM</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>PC-33W4325273R3, FHR-5CD8522C54</t>
+          <t>PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Mitch O'Keefe</t>
+          <t>Victor Sauceda</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MITCH.OKEEFE@FHR.COM</t>
+          <t>victor.sauceda@fhr.com</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1555,22 +1555,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:11 PM</t>
+          <t>09-11-2025 09:46:03 AM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:39 PM</t>
+          <t>09-11-2025 09:46:33 AM</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>MSP-CTLU27, PC-1H85200B09, FHR-5CG1344HQ7</t>
+          <t>PC-33W4325273R3, FHR-5CD8522C54</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1582,101 +1582,101 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Joe Bedynek</t>
+          <t>Mitch O'Keefe</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>JOE.BEDYNEK@FHR.COM</t>
+          <t>MITCH.OKEEFE@FHR.COM</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:10 PM</t>
+          <t>09-10-2025 05:54:11 PM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:36 PM</t>
+          <t>09-10-2025 05:54:39 PM</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>PC-33W6D25273R3, FHR-5CD026KSTV</t>
+          <t>FHR-MXL23843MP, MSP-CTLU27, PC-1H85200B09, FHR-5CG1344HQ7</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ruben Hernandez</t>
+          <t>Joe Bedynek</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ruben.hernandez@fhr.com</t>
+          <t>JOE.BEDYNEK@FHR.COM</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09-10-2025 02:51:54 PM</t>
+          <t>09-10-2025 02:54:10 PM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-10-2025 02:52:21 PM</t>
+          <t>09-10-2025 02:54:36 PM</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>PC-5CD231GKV7, PC-2MQ5141117</t>
+          <t>PC-33W6D25273R3, FHR-5CD026KSTV</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lauren Sada</t>
+          <t>Ruben Hernandez</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>lauren.sada@fhr.com</t>
+          <t>ruben.hernandez@fhr.com</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1686,34 +1686,34 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:21 PM</t>
+          <t>09-10-2025 02:51:54 PM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:49 PM</t>
+          <t>09-10-2025 02:52:21 PM</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZMH</t>
+          <t>PC-5CD231GKV7, PC-2MQ5141117</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Kevin Harvey</t>
+          <t>Lauren Sada</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>KEVIN.HARVEY@FHR.COM</t>
+          <t>lauren.sada@fhr.com</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1723,22 +1723,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09-10-2025 08:38:42 AM</t>
+          <t>09-10-2025 01:27:21 PM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-10-2025 08:39:13 AM</t>
+          <t>09-10-2025 01:27:49 PM</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>PC-2MQ5290Z3G, FHR-5CG1236JK6</t>
+          <t>PC-2MQ5140ZMH</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1750,12 +1750,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Matt Olson</t>
+          <t>Kevin Harvey</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MATTHEW.OLSON@FHR.COM</t>
+          <t>KEVIN.HARVEY@FHR.COM</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1770,17 +1770,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09-09-2025 11:43:57 AM</t>
+          <t>09-10-2025 08:38:42 AM</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09-09-2025 11:44:26 AM</t>
+          <t>09-10-2025 08:39:13 AM</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>PC-2MQ5290Z8Z, FHR-5CD40711PF, FHR-5CG918242Z</t>
+          <t>PC-2MQ5290Z3G, FHR-5CG1236JK6</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1792,12 +1792,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sam Weldemariam</t>
+          <t>Matt Olson</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SAM.WELDEMARIAM@FHR.COM</t>
+          <t>MATTHEW.OLSON@FHR.COM</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1812,17 +1812,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:23 AM</t>
+          <t>09-09-2025 11:43:57 AM</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:51 AM</t>
+          <t>09-09-2025 11:44:26 AM</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>FHR-3KJBQ54, PC-GQMKN34, FHR-5CG213BX6D, FHR-G8GR624, FHR-D90QDZ3, FHR-F9GR624, FHR-MXL9144C61, FHR-5CD8506CR3</t>
+          <t>FHR-5CD40711PF, PC-2MQ5290Z8Z, FHR-5CG918242Z</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1834,558 +1834,558 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Derek Wilfong</t>
+          <t>Sam Weldemariam</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DEREK.WILFONG@FHR.COM</t>
+          <t>SAM.WELDEMARIAM@FHR.COM</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09-09-2025 09:02:55 AM</t>
+          <t>09-09-2025 09:48:23 AM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-09-2025 09:03:28 AM</t>
+          <t>09-09-2025 09:48:51 AM</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>FHR-5CG1314K33</t>
+          <t>FHR-F9GR624, FHR-D90QDZ3, FHR-3KJBQ54, FHR-G8GR624, PC-GQMKN34, FHR-MXL9144C61, FHR-5CG213BX6D, FHR-5CD8506CR3</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Joel Mccabe</t>
+          <t>Derek Wilfong</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>JOEL.MCCABE@FHR.COM</t>
+          <t>DEREK.WILFONG@FHR.COM</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09-05-2025 03:04:34 PM</t>
+          <t>09-09-2025 09:02:55 AM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09-08-2025 09:08:16 AM</t>
+          <t>09-09-2025 09:03:28 AM</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>FHR-1B1KH04, MSP-005054</t>
+          <t>FHR-5CG1314K33</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Devon Holz</t>
+          <t>Joel Mccabe</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DEVON.HOLZ@FHR.COM</t>
+          <t>JOEL.MCCABE@FHR.COM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:14 PM</t>
+          <t>09-05-2025 03:04:34 PM</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:42 PM</t>
+          <t>09-08-2025 09:08:16 AM</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZD9, FHR-5CG2219ZDW</t>
+          <t>SPC-G942X54, FHR-1B1KH04, MSP-005054</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Shawn Sieben</t>
+          <t>Devon Holz</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Shawn.Sieben@fhr.com</t>
+          <t>DEVON.HOLZ@FHR.COM</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09-04-2025 09:29:38 AM</t>
+          <t>09-05-2025 02:23:14 PM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-05-2025 12:58:04 PM</t>
+          <t>09-05-2025 02:23:42 PM</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>FHR-CND8426B2G, FHR-5CD3507T46, FHR-8CC84008DL</t>
+          <t>PC-2MQ5140ZD9, FHR-5CG2219ZDW</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Carrie Simpson</t>
+          <t>Shawn Sieben</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CARRIE.SIMPSON@FHR.COM</t>
+          <t>Shawn.Sieben@fhr.com</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:03 PM</t>
+          <t>09-04-2025 09:29:38 AM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:30 PM</t>
+          <t>09-05-2025 12:58:04 PM</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZSD, PC-001NS23373BF</t>
+          <t>FHR-CND8426B2G, FHR-5CD3507T46, FHR-8CC84008DL</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Chris Pratt</t>
+          <t>Carrie Simpson</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chris.Pratt@fhr.com</t>
+          <t>CARRIE.SIMPSON@FHR.COM</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09-02-2025 04:16:05 PM</t>
+          <t>09-04-2025 03:17:03 PM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-04-2025 01:23:58 PM</t>
+          <t>09-04-2025 03:17:30 PM</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>PC-MXL53644K5, FHR-5CD016BPV0, FHR-MXL8361TTS</t>
+          <t>PC-2MQ5140ZSD, PC-001NS23373BF</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Manuel Moreno Jr</t>
+          <t>Chris Pratt</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MANUEL.MORENO@FHR.COM</t>
+          <t>Chris.Pratt@fhr.com</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>05-02-2025 08:54:50 AM</t>
+          <t>09-02-2025 04:16:05 PM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-04-2025 01:17:10 PM</t>
+          <t>09-04-2025 01:23:58 PM</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>SPC-5BJ8D14, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
+          <t>FHR-5CD016BPV0, PC-MXL53644K5, FHR-MXL8361TTS</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ben Sandiford</t>
+          <t>Manuel Moreno Jr</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ben.sandiford@fhr.com</t>
+          <t>MANUEL.MORENO@FHR.COM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:18 PM</t>
+          <t>05-02-2025 08:54:50 AM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:48 PM</t>
+          <t>09-04-2025 01:17:10 PM</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>PC-1H95220MS6, PC-33VW824233M4</t>
+          <t>SPC-5BJ8D14, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Denise Schardt</t>
+          <t>Ben Sandiford</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DENISE.SCHARDT@FHR.COM</t>
+          <t>ben.sandiford@fhr.com</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-03-2025 02:48:18 PM</t>
+          <t>09-04-2025 01:11:18 PM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>09-04-2025 01:00:11 PM</t>
+          <t>09-04-2025 01:11:48 PM</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
+          <t>PC-33VW824233M4, PC-1H95220MS6</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Ray Aslesen</t>
+          <t>Denise Schardt</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RAY.ASLESEN@FHR.COM</t>
+          <t>DENISE.SCHARDT@FHR.COM</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-04-2025 07:28:33 AM</t>
+          <t>09-03-2025 02:48:18 PM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09-04-2025 07:29:01 AM</t>
+          <t>09-04-2025 01:00:11 PM</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>PC-MXL4523KGB, PC-2MQ5140ZSW, FHR-0F00CQM2332, FHR-CND1440HBV</t>
+          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>Ray Aslesen</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>RAY.ASLESEN@FHR.COM</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-04-2025 06:11:34 AM</t>
+          <t>09-04-2025 07:28:33 AM</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09-04-2025 06:12:02 AM</t>
+          <t>09-04-2025 07:29:01 AM</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>PC-MXL4523KGB, PC-2MQ5140ZSW, FHR-0F00CQM2332, FHR-CND1440HBV</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Dora Heimsoth</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>dora.heimsoth1@fhr.com</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-03-2025 03:00:34 PM</t>
+          <t>09-04-2025 06:11:34 AM</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09-03-2025 03:01:01 PM</t>
+          <t>09-04-2025 06:12:02 AM</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>PC-339W925073R3, PC-86XGSV3</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Stephen Rodriguez</t>
+          <t>Dora Heimsoth</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
+          <t>dora.heimsoth1@fhr.com</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-03-2025 02:28:45 PM</t>
+          <t>09-03-2025 03:00:34 PM</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>09-03-2025 02:29:20 PM</t>
+          <t>09-03-2025 03:01:01 PM</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>FHR-MXL90223C1 FHR-MXL902239Z FHR-MXL9332KN0 FHR-MXL902239R CND837B026 FHR-MXL9153QWC KII-MXL2424F2T FHR-5CG12812WW FHR-MXL3132SQX FHR-MXL3132SN7 FHR-MXL3132SNW FHR-MXL3132SS3 FHR-MXL3132SS4 FHR-MXL90224D2 FHR-8CG806569G KII-MXL24156FT FHR-MXL4424X3B FHR-MXL5043GK0 FHR-MXL5043GK1 SPC-DX6LZ84 SPC-MXL24156CD</t>
+          <t>PC-339W925073R3, PC-86XGSV3</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Matt Skrobarcek</t>
+          <t>Stephen Rodriguez</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
+          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2395,22 +2395,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:08 AM</t>
+          <t>09-03-2025 02:28:45 PM</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:38 AM</t>
+          <t>09-03-2025 02:29:20 PM</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
+          <t>FHR-MXL90223C1 FHR-MXL902239Z FHR-MXL9332KN0 FHR-MXL902239R CND837B026 FHR-MXL9153QWC KII-MXL2424F2T FHR-5CG12812WW FHR-MXL3132SQX FHR-MXL3132SN7 FHR-MXL3132SNW FHR-MXL3132SS3 FHR-MXL3132SS4 FHR-MXL90224D2 FHR-8CG806569G KII-MXL24156FT FHR-MXL4424X3B FHR-MXL5043GK0 FHR-MXL5043GK1 SPC-DX6LZ84 SPC-MXL24156CD</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2422,12 +2422,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Justin Nava</t>
+          <t>Matt Skrobarcek</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>JUSTIN.NAVA@FHR.COM</t>
+          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2437,22 +2437,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-03-2025 09:44:33 AM</t>
+          <t>09-03-2025 09:46:08 AM</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>09-03-2025 09:45:02 AM</t>
+          <t>09-03-2025 09:46:38 AM</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>SPC-82TKZ84, FHR-5CG4240WQT, FHR-MXL9223BVJ</t>
+          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2464,59 +2464,59 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Logan Tom</t>
+          <t>Justin Nava</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>logan.tom@fhr.com</t>
+          <t>JUSTIN.NAVA@FHR.COM</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:15 PM</t>
+          <t>09-03-2025 09:44:33 AM</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:42 PM</t>
+          <t>09-03-2025 09:45:02 AM</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
+          <t>SPC-82TKZ84, FHR-5CG4240WQT, FHR-MXL9223BVJ</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Travis Sumerfelt</t>
+          <t>Logan Tom</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>travis.sumerfelt@fhr.com</t>
+          <t>logan.tom@fhr.com</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2526,76 +2526,76 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-02-2025 11:06:03 AM</t>
+          <t>09-02-2025 02:39:15 PM</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>09-02-2025 11:07:05 AM</t>
+          <t>09-02-2025 02:39:42 PM</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>PC-2MQ514108Q</t>
+          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Carlos Garcia Jr.</t>
+          <t>Travis Sumerfelt</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CARLOS.GARCIAJR@FHR.COM</t>
+          <t>travis.sumerfelt@fhr.com</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>08-27-2025 09:24:59 PM</t>
+          <t>09-02-2025 11:06:03 AM</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09-02-2025 08:26:34 AM</t>
+          <t>09-02-2025 11:07:05 AM</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>FHR-FRMKN34</t>
+          <t>PC-2MQ514108Q</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Billy Royal</t>
+          <t>Carlos Garcia Jr.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BILLY.ROYAL@FHR.COM</t>
+          <t>CARLOS.GARCIAJR@FHR.COM</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2605,22 +2605,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:06 PM</t>
+          <t>08-27-2025 09:24:59 PM</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:34 PM</t>
+          <t>09-02-2025 08:26:34 AM</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>FHR-5CD2331XLD</t>
+          <t>FHR-FRMKN34</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2632,59 +2632,59 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Samuel Paulus</t>
+          <t>Billy Royal</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>samuel.paulus@fhr.com</t>
+          <t>BILLY.ROYAL@FHR.COM</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:17 PM</t>
+          <t>08-29-2025 04:48:06 PM</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:45 PM</t>
+          <t>08-29-2025 04:48:34 PM</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
+          <t>FHR-5CD2331XLD</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Derya Broll</t>
+          <t>Samuel Paulus</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DERYA.BROLL@FHR.COM</t>
+          <t>samuel.paulus@fhr.com</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2694,81 +2694,81 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:07 PM</t>
+          <t>08-29-2025 01:00:17 PM</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:37 PM</t>
+          <t>08-29-2025 01:00:45 PM</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
+          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Joseph Moberly</t>
+          <t>Derya Broll</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>joseph.moberly@fhr.com</t>
+          <t>DERYA.BROLL@FHR.COM</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>08-28-2025 01:10:49 PM</t>
+          <t>08-29-2025 12:10:07 PM</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>08-28-2025 01:11:16 PM</t>
+          <t>08-29-2025 12:10:37 PM</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>PC-1H852009W3, PC-5CG2415PYM</t>
+          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Lindi Dinn</t>
+          <t>Joseph Moberly</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>LINDI.DINN@FHR.COM</t>
+          <t>joseph.moberly@fhr.com</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2778,34 +2778,34 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:14 PM</t>
+          <t>08-28-2025 01:10:49 PM</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:40 PM</t>
+          <t>08-28-2025 01:11:16 PM</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>PC-36KMG25193M4, PC-1H852009X5, FHR-8CC8412KMN, FHR-CND1440HKF, FHR-51990492553</t>
+          <t>PC-1H852009W3, PC-5CG2415PYM</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Rodney Cotten</t>
+          <t>Lindi Dinn</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>RODNEY.COTTEN@FHR.COM</t>
+          <t>LINDI.DINN@FHR.COM</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2815,22 +2815,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:02 PM</t>
+          <t>08-27-2025 02:53:14 PM</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:30 PM</t>
+          <t>08-27-2025 02:53:40 PM</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>PC-33JGC25073R3, PC-5CD5100K7L, FHR-5CG7515059</t>
+          <t>PC-36KMG25193M4, PC-1H852009X5, FHR-8CC8412KMN, FHR-CND1440HKF, FHR-51990492553</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2842,96 +2842,96 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Chad Schaner</t>
+          <t>Rodney Cotten</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CHAD.SCHANER@FHR.COM</t>
+          <t>RODNEY.COTTEN@FHR.COM</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Dell Pro Rugged RB14250 14" Laptop</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>08-04-2025 01:41:48 PM</t>
+          <t>08-27-2025 02:27:02 PM</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>08-27-2025 01:20:37 PM</t>
+          <t>08-27-2025 02:27:30 PM</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>FHR-DYW9BT3, FHR-8H0GH04, FHR-8CG7352CR5, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-187491253</t>
+          <t>PC-33JGC25073R3, PC-5CD5100K7L, FHR-5CG7515059</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Denise Gonzalez</t>
+          <t>Chad Schaner</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DENISE.GONZALEZ@FHR.COM</t>
+          <t>CHAD.SCHANER@FHR.COM</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>Dell Pro Rugged RB14250 14" Laptop</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:17 AM</t>
+          <t>08-04-2025 01:41:48 PM</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:45 AM</t>
+          <t>08-27-2025 01:20:37 PM</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>SPC-83V03Z3, SPC-D0R03Z3, PC-34Y4825063R3, PC-5WXDQV3</t>
+          <t>FHR-8H0GH04, FHR-8CG7352CR5, FHR-DYW9BT3, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-187491253</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kris Adkins</t>
+          <t>Denise Gonzalez</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>KRISTOPHER.ADKINS@FHR.COM</t>
+          <t>DENISE.GONZALEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2946,17 +2946,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>08-26-2025 08:20:43 PM</t>
+          <t>08-27-2025 07:15:17 AM</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>08-26-2025 08:21:16 PM</t>
+          <t>08-27-2025 07:15:45 AM</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>PC-34WWG25063R3</t>
+          <t>SPC-83V03Z3, SPC-D0R03Z3, SPC-G1V03Z3, PC-34Y4825063R3, PC-5WXDQV3</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2968,12 +2968,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Jose Cardona</t>
+          <t>Kris Adkins</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>JOSE.CARDONA@FHR.COM</t>
+          <t>KRISTOPHER.ADKINS@FHR.COM</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2983,22 +2983,22 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>08-26-2025 09:00:40 AM</t>
+          <t>08-26-2025 08:20:43 PM</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>08-26-2025 09:01:09 AM</t>
+          <t>08-26-2025 08:21:16 PM</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>CPC-JOSEC-BGVEA, FHR-5CG30935LZ, SPC-5CG40111D5</t>
+          <t>PC-34WWG25063R3</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3010,54 +3010,54 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Phillip Norell</t>
+          <t>Jose Cardona</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PHILLIP.NORELL@FHR.COM</t>
+          <t>JOSE.CARDONA@FHR.COM</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:13 PM</t>
+          <t>08-26-2025 09:00:40 AM</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:39 PM</t>
+          <t>08-26-2025 09:01:09 AM</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>PC-1H85200B08, FHR-5CG213CGKR</t>
+          <t>CPC-JOSEC-BGVEA, FHR-5CG30935LZ, SPC-5CG40111D5</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Anne Lee</t>
+          <t>Phillip Norell</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ANNE.LEE@FHR.COM</t>
+          <t>PHILLIP.NORELL@FHR.COM</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3067,22 +3067,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:00 AM</t>
+          <t>08-25-2025 02:58:13 PM</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:30 AM</t>
+          <t>08-25-2025 02:58:39 PM</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
+          <t>FHR-5CG213CGKR, PC-1H85200B08</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3094,185 +3094,185 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>David Barnholt</t>
+          <t>Anne Lee</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>david.barnholt@fhr.com</t>
+          <t>ANNE.LEE@FHR.COM</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:27 AM</t>
+          <t>08-25-2025 10:13:00 AM</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:54 AM</t>
+          <t>08-25-2025 10:13:30 AM</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>PC-1H852009SD</t>
+          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Eric Enders</t>
+          <t>David Barnholt</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>eric.enders@fhr.com</t>
+          <t>david.barnholt@fhr.com</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:30 AM</t>
+          <t>08-22-2025 11:11:27 AM</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:59 AM</t>
+          <t>08-22-2025 11:11:54 AM</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>PC-2MQ514115J</t>
+          <t>PC-1H852009SD</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sean Garza</t>
+          <t>Eric Enders</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>sean.garza@fhr.com</t>
+          <t>eric.enders@fhr.com</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>08-19-2025 01:01:15 AM</t>
+          <t>08-22-2025 07:55:30 AM</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:18 AM</t>
+          <t>08-22-2025 07:55:59 AM</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>FHR-GTQKN34, SPC-3B6G25073R3</t>
+          <t>PC-2MQ514115J</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Joe Rohl</t>
+          <t>Sean Garza</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>JOE.ROHL@FHR.COM</t>
+          <t>sean.garza@fhr.com</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-19-2025 02:44:07 PM</t>
+          <t>08-19-2025 01:01:15 AM</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:14 AM</t>
+          <t>08-22-2025 07:34:18 AM</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
+          <t>FHR-GTQKN34, SPC-3B6G25073R3</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>David Ybarra</t>
+          <t>Joe Rohl</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DAVID.YBARRA@FHR.COM</t>
+          <t>JOE.ROHL@FHR.COM</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3282,34 +3282,34 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:30 AM</t>
+          <t>08-19-2025 02:44:07 PM</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:58 AM</t>
+          <t>08-22-2025 07:34:14 AM</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
+          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>David Ybarra</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>DAVID.YBARRA@FHR.COM</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3319,22 +3319,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:19 AM</t>
+          <t>08-22-2025 07:18:30 AM</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:48 AM</t>
+          <t>08-22-2025 07:18:58 AM</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3346,101 +3346,101 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Cole Brewster</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>cole.brewster@fhr.com</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-20-2025 01:48:49 PM</t>
+          <t>08-22-2025 06:59:19 AM</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-20-2025 01:49:17 PM</t>
+          <t>08-22-2025 06:59:48 AM</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>PC-34Y3Q25063R3, FHR-5CG1276WN7</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Brenna Gerety</t>
+          <t>Cole Brewster</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BRENNA.GERETY@FHR.COM</t>
+          <t>cole.brewster@fhr.com</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:01 AM</t>
+          <t>08-20-2025 01:48:49 PM</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:29 AM</t>
+          <t>08-20-2025 01:49:17 PM</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>PC-5CG5040677, FHR-5CG0036B94</t>
+          <t>PC-34Y3Q25063R3, FHR-5CG1276WN7</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Daniel Jurach</t>
+          <t>Brenna Gerety</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>daniel.jurach@fhr.com</t>
+          <t>BRENNA.GERETY@FHR.COM</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3450,118 +3450,118 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-18-2025 11:58:20 AM</t>
+          <t>08-20-2025 07:58:01 AM</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-19-2025 10:21:28 AM</t>
+          <t>08-20-2025 07:58:29 AM</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>PC-2MQ514110T</t>
+          <t>PC-5CG5040677, FHR-5CG0036B94</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Tony Short</t>
+          <t>Daniel Jurach</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ANTHONY.SHORT@KPLSRV.COM</t>
+          <t>daniel.jurach@fhr.com</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:07 AM</t>
+          <t>08-18-2025 11:58:20 AM</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:38 AM</t>
+          <t>08-19-2025 10:21:28 AM</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>PC-5CD5100KK7, PC-5CD229GR66, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
+          <t>PC-2MQ514110T</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Chad Remer</t>
+          <t>Tony Short</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CHAD.REMER@FHR.COM</t>
+          <t>ANTHONY.SHORT@KPLSRV.COM</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:04 AM</t>
+          <t>08-18-2025 10:21:07 AM</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:34 AM</t>
+          <t>08-18-2025 10:21:38 AM</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
+          <t>PC-5CD229GR66, PC-5CD5100KK7, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Nicholas Hanson</t>
+          <t>Chad Remer</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NICK.HANSON@FHR.COM</t>
+          <t>CHAD.REMER@FHR.COM</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3571,22 +3571,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:17 AM</t>
+          <t>08-18-2025 09:26:04 AM</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:46 AM</t>
+          <t>08-18-2025 09:26:34 AM</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
+          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3598,17 +3598,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Harold Irvin</t>
+          <t>Nicholas Hanson</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>HAROLD.IRVIN@FHR.COM</t>
+          <t>NICK.HANSON@FHR.COM</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3618,17 +3618,17 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:06 PM</t>
+          <t>08-15-2025 07:06:17 AM</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:37 PM</t>
+          <t>08-15-2025 07:06:46 AM</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>PC-2MQ51410F2, FHR-5CG2156Z1X</t>
+          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3640,37 +3640,37 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sandra Akarolo</t>
+          <t>Harold Irvin</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>sandra.akarolo@fhr.com</t>
+          <t>HAROLD.IRVIN@FHR.COM</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-13-2025 01:51:42 PM</t>
+          <t>08-14-2025 02:45:06 PM</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>08-14-2025 08:58:56 AM</t>
+          <t>08-14-2025 02:45:37 PM</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>FHR-5CG213CDWV</t>
+          <t>FHR-5CG2156Z1X, PC-2MQ51410F2</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3682,12 +3682,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Paul Fisher</t>
+          <t>Sandra Akarolo</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PAUL.FISHER@FHR.COM</t>
+          <t>sandra.akarolo@fhr.com</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3697,22 +3697,22 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:23 PM</t>
+          <t>08-13-2025 01:51:42 PM</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:56 PM</t>
+          <t>08-14-2025 08:58:56 AM</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
+          <t>FHR-5CG213CDWV</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3724,96 +3724,96 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Robert Corley</t>
+          <t>Paul Fisher</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ROBERT.CORLEY@FHR.COM</t>
+          <t>PAUL.FISHER@FHR.COM</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-12-2025 06:27:18 PM</t>
+          <t>08-13-2025 05:07:23 PM</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>08-13-2025 12:47:38 PM</t>
+          <t>08-13-2025 05:07:56 PM</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
+          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Jeff Baker</t>
+          <t>Robert Corley</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>JEFF.BAKER@FHR.COM</t>
+          <t>ROBERT.CORLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:02 AM</t>
+          <t>08-12-2025 06:27:18 PM</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:30 AM</t>
+          <t>08-13-2025 12:47:38 PM</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
+          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Kemal Simpson</t>
+          <t>Jeff Baker</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>kemal.simpson@fhr.com</t>
+          <t>JEFF.BAKER@FHR.COM</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3823,22 +3823,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-13-2025 07:17:41 AM</t>
+          <t>08-13-2025 09:11:02 AM</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>08-13-2025 07:18:09 AM</t>
+          <t>08-13-2025 09:11:30 AM</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>FHR-5CG1073F3X</t>
+          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3850,54 +3850,54 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Robert Jimenez</t>
+          <t>Kemal Simpson</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ROBERT.JIMENEZ@FHR.COM</t>
+          <t>kemal.simpson@fhr.com</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:22 AM</t>
+          <t>08-13-2025 07:17:41 AM</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:51 AM</t>
+          <t>08-13-2025 07:18:09 AM</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
+          <t>FHR-5CG1073F3X</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Kevin Miller</t>
+          <t>Robert Jimenez</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>KEVIN.MILLER@FHR.COM</t>
+          <t>ROBERT.JIMENEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3907,22 +3907,22 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:21 AM</t>
+          <t>08-12-2025 11:43:22 AM</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:49 AM</t>
+          <t>08-12-2025 11:43:51 AM</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>FHR-5CG1240ZLL, PC-1H851300KN</t>
+          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3934,59 +3934,59 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Tucker Lansing</t>
+          <t>Kevin Miller</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>tucker.lansing@fhr.com</t>
+          <t>KEVIN.MILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:05 AM</t>
+          <t>08-12-2025 09:11:21 AM</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:44 AM</t>
+          <t>08-12-2025 09:11:49 AM</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>PC-2MQ5141103</t>
+          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Kairos Logan</t>
+          <t>Tucker Lansing</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>kairos.logan@fhr.com</t>
+          <t>tucker.lansing@fhr.com</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3996,76 +3996,76 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:17 PM</t>
+          <t>08-12-2025 08:13:05 AM</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:45 PM</t>
+          <t>08-12-2025 08:13:44 AM</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>PC-2MQ51410BZ</t>
+          <t>PC-2MQ5141103</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Louis Stump</t>
+          <t>Kairos Logan</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>LOUIS.STUMP@FHR.COM</t>
+          <t>kairos.logan@fhr.com</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>07-20-2025 06:49:35 AM</t>
+          <t>08-11-2025 04:54:17 PM</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>08-11-2025 03:03:35 PM</t>
+          <t>08-11-2025 04:54:45 PM</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
+          <t>PC-2MQ51410BZ</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Louis Stump</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>LOUIS.STUMP@FHR.COM</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4075,22 +4075,22 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>08-11-2025 12:57:47 PM</t>
+          <t>07-20-2025 06:49:35 AM</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>08-11-2025 12:58:15 PM</t>
+          <t>08-11-2025 03:03:35 PM</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
+          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4102,96 +4102,96 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Alex Fairbanks</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Alex.Fairbanks@fhr.com</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>08-11-2025 09:58:56 AM</t>
+          <t>08-11-2025 12:57:47 PM</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>08-11-2025 09:59:25 AM</t>
+          <t>08-11-2025 12:58:15 PM</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>FHR-5CG2261RYZ, FHR-MXL3132S8S, PC-5CD5100K77</t>
+          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Cole Wilson</t>
+          <t>Alex Fairbanks</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>cole.wilson@fhr.com</t>
+          <t>Alex.Fairbanks@fhr.com</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>08-11-2025 08:57:56 AM</t>
+          <t>08-11-2025 09:58:56 AM</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>08-11-2025 08:58:25 AM</t>
+          <t>08-11-2025 09:59:25 AM</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z9H</t>
+          <t>FHR-MXL3132S8S, PC-5CD5100K77, FHR-5CG2261RYZ</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Cole Wilson</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>cole.wilson@fhr.com</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4201,22 +4201,22 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:07 AM</t>
+          <t>08-11-2025 08:57:56 AM</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:36 AM</t>
+          <t>08-11-2025 08:58:25 AM</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
+          <t>PC-2MQ5140Z9H</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4228,96 +4228,96 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Bobby Peddycord</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>bobby.peddycord@fhr.com</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>08-07-2025 10:38:48 AM</t>
+          <t>08-11-2025 08:33:07 AM</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>08-11-2025 07:13:21 AM</t>
+          <t>08-11-2025 08:33:36 AM</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
+          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Charles Oliver</t>
+          <t>Bobby Peddycord</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CHARLES.OLIVER@FHR.COM</t>
+          <t>bobby.peddycord@fhr.com</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>08-11-2025 05:46:52 AM</t>
+          <t>08-07-2025 10:38:48 AM</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>08-11-2025 05:47:20 AM</t>
+          <t>08-11-2025 07:13:21 AM</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>PC-36KFF25193M4</t>
+          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Rudy Barajas</t>
+          <t>Charles Oliver</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>RUDY.BARAJAS@FHR.COM</t>
+          <t>CHARLES.OLIVER@FHR.COM</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4327,22 +4327,22 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>08-06-2025 04:56:54 AM</t>
+          <t>08-11-2025 05:46:52 AM</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>08-08-2025 01:09:23 PM</t>
+          <t>08-11-2025 05:47:20 AM</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>PC-33BYB25013M4, FHR-J2V03Z3, PC-2MQ514105T, FHR-MXL24156CF</t>
+          <t>PC-36KFF25193M4</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4354,143 +4354,143 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Braxton Holes</t>
+          <t>Rudy Barajas</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>braxton.holes@fhr.com</t>
+          <t>RUDY.BARAJAS@FHR.COM</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>08-07-2025 08:51:34 AM</t>
+          <t>08-06-2025 04:56:54 AM</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>08-08-2025 11:34:27 AM</t>
+          <t>08-08-2025 01:09:23 PM</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>FHR-5CD231D3NH, PC-5CD5100KGP, FHR-5CD01052SN</t>
+          <t>PC-33BYB25013M4, PC-2MQ514105T, FHR-J2V03Z3, FHR-MXL24156CF</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Andrea Unruh</t>
+          <t>Braxton Holes</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ANDREA.UNRUH@FHR.COM</t>
+          <t>braxton.holes@fhr.com</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:28 AM</t>
+          <t>08-07-2025 08:51:34 AM</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:56 AM</t>
+          <t>08-08-2025 11:34:27 AM</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>PC-36KG325193M4, PC-014GF22373BF</t>
+          <t>FHR-5CD231D3NH, PC-5CD5100KGP, FHR-5CD01052SN</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Caleb Quanrud</t>
+          <t>Andrea Unruh</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>caleb.quanrud@fhr.com</t>
+          <t>ANDREA.UNRUH@FHR.COM</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:28 PM</t>
+          <t>08-08-2025 08:17:28 AM</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:58 PM</t>
+          <t>08-08-2025 08:17:56 AM</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
+          <t>PC-36KG325193M4, PC-014GF22373BF</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Jean Jaime</t>
+          <t>Caleb Quanrud</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>JEAN.JAIME@FHR.COM</t>
+          <t>caleb.quanrud@fhr.com</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4500,34 +4500,34 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:32 PM</t>
+          <t>08-07-2025 03:06:28 PM</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>08-07-2025 02:12:00 PM</t>
+          <t>08-07-2025 03:06:58 PM</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
+          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Jean Jaime</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>JEAN.JAIME@FHR.COM</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4537,22 +4537,22 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>08-07-2025 02:10:24 PM</t>
+          <t>08-07-2025 02:11:32 PM</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:00 PM</t>
+          <t>08-07-2025 02:12:00 PM</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
+          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4584,12 +4584,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:23 PM</t>
+          <t>08-07-2025 02:10:24 PM</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:59 PM</t>
+          <t>08-07-2025 02:11:00 PM</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4606,96 +4606,96 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Branden Roering</t>
+          <t>Rick Schwing</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>branden.roering@fhr.com</t>
+          <t>rick.schwing@fhr.com</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:17 PM</t>
+          <t>08-07-2025 02:09:23 PM</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:45 PM</t>
+          <t>08-07-2025 02:09:59 PM</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>PC-2MQ5141148</t>
+          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Christopher Brooks</t>
+          <t>Branden Roering</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
+          <t>branden.roering@fhr.com</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>08-06-2025 12:44:08 PM</t>
+          <t>08-07-2025 12:49:17 PM</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>08-07-2025 09:46:49 AM</t>
+          <t>08-07-2025 12:49:45 PM</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
+          <t>PC-2MQ5141148</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Justin Hinojosa</t>
+          <t>Christopher Brooks</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>justin.hinojosa@fhr.com</t>
+          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4705,22 +4705,22 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:01 AM</t>
+          <t>08-06-2025 12:44:08 PM</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:29 AM</t>
+          <t>08-07-2025 09:46:49 AM</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>PC-MXL24156FQ SPC-MXL24156FQ FHR-8CG80416HL FHR-8CG806569G FHR-8CG7236C1X FHR-G3BCDZ3 FHR-MXL3132SS4 FHR-8CG80416GX FHR-MXL90224D2 FHR-8J5ZK44 FHR-MXL3132SN7 FHR-MXL3132SS3 FHR-9K8ZK44 FHR-MXL3132SQX KII-MXL2424F2T FHR-MXL5043GK1 FHR-MXL5043GK0 FHR-MXL3132SRR FHR-BK001HK222 FHR-MXL3132SNW FHR-5CD439J37S FHR-MXL3132SP1</t>
+          <t>PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4732,101 +4732,101 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Josiah Peterson</t>
+          <t>Justin Hinojosa</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>JOSIAH.PETERSON@FHR.COM</t>
+          <t>justin.hinojosa@fhr.com</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>08-06-2025 08:30:11 AM</t>
+          <t>08-06-2025 11:55:01 AM</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>08-06-2025 08:31:02 AM</t>
+          <t>08-06-2025 11:55:29 AM</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TC1, FHR-5CD30764W6</t>
+          <t>PC-MXL24156FQ SPC-MXL24156FQ FHR-8CG80416HL FHR-8CG806569G FHR-8CG7236C1X FHR-G3BCDZ3 FHR-MXL3132SS4 FHR-8CG80416GX FHR-MXL90224D2 FHR-8J5ZK44 FHR-MXL3132SN7 FHR-MXL3132SS3 FHR-9K8ZK44 FHR-MXL3132SQX KII-MXL2424F2T FHR-MXL5043GK1 FHR-MXL5043GK0 FHR-MXL3132SRR FHR-BK001HK222 FHR-MXL3132SNW FHR-5CD439J37S FHR-MXL3132SP1</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Andrew Berndt</t>
+          <t>Josiah Peterson</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>andrew.berndt@fhr.com</t>
+          <t>JOSIAH.PETERSON@FHR.COM</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>08-05-2025 01:32:29 PM</t>
+          <t>08-06-2025 08:30:11 AM</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>08-05-2025 01:33:21 PM</t>
+          <t>08-06-2025 08:31:02 AM</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>PC-2MQ514100C</t>
+          <t>FHR-5CD30764W6, PC-2MQ5270TC1</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Matthew VanLanen</t>
+          <t>Andrew Berndt</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>matthew.vanlanen@fhr.com</t>
+          <t>andrew.berndt@fhr.com</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4836,17 +4836,17 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:12 AM</t>
+          <t>08-05-2025 01:32:29 PM</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:39 AM</t>
+          <t>08-05-2025 01:33:21 PM</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
+          <t>PC-2MQ514100C</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4858,180 +4858,180 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Arturo Vasquez Jr</t>
+          <t>Matthew VanLanen</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ARTURO.VASQUEZ@FHR.COM</t>
+          <t>matthew.vanlanen@fhr.com</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>07-30-2025 12:56:40 PM</t>
+          <t>08-05-2025 10:28:12 AM</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>08-05-2025 09:13:23 AM</t>
+          <t>08-05-2025 10:28:39 AM</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>SPC-37MW25123GX, FHR-8CG82809D5, FHR-5CG31302WM, FHR-MXL9223BRW</t>
+          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Christopher Koerner</t>
+          <t>Arturo Vasquez Jr</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.KOERNER@FHR.COM</t>
+          <t>ARTURO.VASQUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>08-05-2025 08:14:41 AM</t>
+          <t>07-30-2025 12:56:40 PM</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>08-05-2025 08:15:12 AM</t>
+          <t>08-05-2025 09:13:23 AM</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>PC-5CD4514XZX, FHR-59309202153</t>
+          <t>FHR-MXL4123NY2, FHR-8CG82809D5, FHR-5CG31302WM, SPC-37MW25123GX, FHR-MXL9223BRW</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Eric Derieux</t>
+          <t>Christopher Koerner</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ERIC.DERIEUX@FHR.COM</t>
+          <t>CHRISTOPHER.KOERNER@FHR.COM</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>US-TX-BEAUMONT2 - FHR-Beaumont TX - Beaumont - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>08-05-2025 08:01:44 AM</t>
+          <t>08-05-2025 08:14:41 AM</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>08-05-2025 08:02:14 AM</t>
+          <t>08-05-2025 08:15:12 AM</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TDP, FHR-5CG8353ZC7, DESKTOP-JU70CMA</t>
+          <t>PC-5CD4514XZX, FHR-59309202153</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Ryan Sabin</t>
+          <t>Eric Derieux</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ryan.sabin@fhr.com</t>
+          <t>ERIC.DERIEUX@FHR.COM</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-BEAUMONT2 - FHR-Beaumont TX - Beaumont - Koch</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>08-04-2025 12:02:32 PM</t>
+          <t>08-05-2025 08:01:44 AM</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>08-04-2025 12:03:01 PM</t>
+          <t>08-05-2025 08:02:14 AM</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZHM, FHR-5CG1092Y8L, PC-2MQ5040SX3</t>
+          <t>PC-2MQ5270TDP, FHR-5CG8353ZC7, DESKTOP-JU70CMA</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Nate Claseman</t>
+          <t>Ryan Sabin</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>nate.claseman@fhr.com</t>
+          <t>ryan.sabin@fhr.com</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>08-03-2025 01:32:09 PM</t>
+          <t>08-04-2025 12:02:32 PM</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>08-03-2025 01:32:37 PM</t>
+          <t>08-04-2025 12:03:01 PM</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFN, FHR-MXL2394SXC, FHR-8CG7352CTV</t>
+          <t>PC-2MQ5140ZHM, FHR-5CG1092Y8L, PC-2MQ5040SX3</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5068,17 +5068,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Koy Straks</t>
+          <t>Nate Claseman</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>koy.straks@fhr.com</t>
+          <t>nate.claseman@fhr.com</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5088,118 +5088,118 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>08-01-2025 02:42:24 PM</t>
+          <t>08-03-2025 01:32:09 PM</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>08-01-2025 02:42:52 PM</t>
+          <t>08-03-2025 01:32:37 PM</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TF5</t>
+          <t>PC-2MQ5270TFN, FHR-MXL2394SXC, FHR-8CG7352CTV</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Gaven Girton</t>
+          <t>Koy Straks</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>gaven.girton@fhr.com</t>
+          <t>koy.straks@fhr.com</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>08-01-2025 02:05:31 PM</t>
+          <t>08-01-2025 02:42:24 PM</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>08-01-2025 02:05:58 PM</t>
+          <t>08-01-2025 02:42:52 PM</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZGG</t>
+          <t>PC-2MQ5270TF5</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Shaun McVay</t>
+          <t>Gaven Girton</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>shaun.mcvay@fhr.com</t>
+          <t>gaven.girton@fhr.com</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>08-01-2025 01:07:44 PM</t>
+          <t>08-01-2025 02:05:31 PM</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>08-01-2025 01:08:17 PM</t>
+          <t>08-01-2025 02:05:58 PM</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>PC-5CD5100KG2</t>
+          <t>PC-2MQ5140ZGG</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>David Escamilla</t>
+          <t>Shaun McVay</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DAVID.ESCAMILLA@FHR.COM</t>
+          <t>shaun.mcvay@fhr.com</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5209,22 +5209,22 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>08-01-2025 07:36:23 AM</t>
+          <t>08-01-2025 01:07:44 PM</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>08-01-2025 07:36:54 AM</t>
+          <t>08-01-2025 01:08:17 PM</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>SPC-CRWXJ74, FHR-MXL11033PZ, PC-34MXB25193M4</t>
+          <t>PC-5CD5100KG2</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5236,12 +5236,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Troy Pena</t>
+          <t>David Escamilla</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>troy.pena@fhr.com</t>
+          <t>DAVID.ESCAMILLA@FHR.COM</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5256,17 +5256,17 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>07-31-2025 04:49:13 PM</t>
+          <t>08-01-2025 07:36:23 AM</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>07-31-2025 04:49:40 PM</t>
+          <t>08-01-2025 07:36:54 AM</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>PC-F481894, FHR-87ZPDZ3, FHR-MXL2165D4H, PC-34P3C25193M4, FHR-5CG24913Q4</t>
+          <t>SPC-CRWXJ74, FHR-MXL11033PZ, PC-34MXB25193M4</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5278,84 +5278,84 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Hannah Shea</t>
+          <t>Troy Pena</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>hannah.shea@fhr.com</t>
+          <t>troy.pena@fhr.com</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>07-31-2025 10:42:49 AM</t>
+          <t>07-31-2025 04:49:13 PM</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>07-31-2025 10:43:15 AM</t>
+          <t>07-31-2025 04:49:40 PM</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TCB, PC-5CG213CFKZ</t>
+          <t>FHR-5CG24913Q4, PC-34P3C25193M4, FHR-MXL2165D4H, FHR-87ZPDZ3</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Tara Schultz</t>
+          <t>Hannah Shea</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TARA.SCHULTZ@FHR.COM</t>
+          <t>hannah.shea@fhr.com</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>07-31-2025 08:59:51 AM</t>
+          <t>07-31-2025 10:42:49 AM</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>07-31-2025 09:00:19 AM</t>
+          <t>07-31-2025 10:43:15 AM</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZHK, FHR-2TK95201XD</t>
+          <t>PC-2MQ5270TCB, PC-5CG213CFKZ</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>

--- a/output/fhr_computer_requests.xlsx
+++ b/output/fhr_computer_requests.xlsx
@@ -532,12 +532,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jimmy Nguyen</t>
+          <t>Alex Pierce</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jimmy.nguyen@fhr.com</t>
+          <t>ALEXANDER.PIERCE@FHR.COM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -547,22 +547,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08-04-2025 01:48:09 PM</t>
+          <t>09-24-2025 07:19:02 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>09-23-2025 03:22:38 PM</t>
+          <t>09-24-2025 07:19:31 PM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>FHR-2M9CK74, FHR-5CG1465S8V</t>
+          <t>FHR-0F01W2H2301</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -574,54 +574,54 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Robert Cliburn</t>
+          <t>Lindsey Kuzma</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ROBERT.CLIBURN@FHR.COM</t>
+          <t>LINDSEY.KUZMA@FHR.COM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09-23-2025 07:36:34 AM</t>
+          <t>09-24-2025 01:01:16 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>09-23-2025 07:37:02 AM</t>
+          <t>09-24-2025 01:01:46 PM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FHR-5CG0472YYT</t>
+          <t>PC-000PN23253BF</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brinson Bryan</t>
+          <t>Antonio Vargas</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRINSON.BRYAN@FHR.COM</t>
+          <t>antonio.vargas@fhr.com</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -636,17 +636,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09-22-2025 08:31:09 AM</t>
+          <t>09-22-2025 10:19:51 AM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09-22-2025 08:31:38 AM</t>
+          <t>09-24-2025 12:54:47 PM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FHR-5CD229GR46</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -658,138 +658,138 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Vicente Castillo</t>
+          <t>Tammie Fletchall</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VICENTE.CASTILLO@FHR.COM</t>
+          <t>TAMMIE.FLETCHALL@FHR.COM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09-22-2025 08:10:41 AM</t>
+          <t>09-23-2025 03:41:36 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09-22-2025 08:11:09 AM</t>
+          <t>09-24-2025 11:34:29 AM</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FHR-9K8ZK44, PC-334QH231933F, FHR-MXL3132SQX</t>
+          <t>PC-5CG2261RSB</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dillon Sailer</t>
+          <t>Jimmy Nguyen</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dillon.sailer@fhr.com</t>
+          <t>jimmy.nguyen@fhr.com</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09-19-2025 04:55:25 PM</t>
+          <t>08-04-2025 01:48:09 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-19-2025 04:55:54 PM</t>
+          <t>09-23-2025 03:22:38 PM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>FHR-LOANPB18, FHR-5CG201416N</t>
+          <t>FHR-2M9CK74, FHR-5CG1465S8V</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Robert Cliburn</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DANIEL.BRAUN@FHR.COM</t>
+          <t>ROBERT.CLIBURN@FHR.COM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09-18-2025 02:27:18 PM</t>
+          <t>09-23-2025 07:36:34 AM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-18-2025 02:27:46 PM</t>
+          <t>09-23-2025 07:37:02 AM</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PC-1H85200B0S, FHR-5CG7312MP6</t>
+          <t>FHR-5CG0472YYT</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Roberto Montelongo</t>
+          <t>Brinson Bryan</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>roberto.montelongo@fhr.com</t>
+          <t>BRINSON.BRYAN@FHR.COM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -799,22 +799,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-18-2025 09:01:15 AM</t>
+          <t>09-22-2025 08:31:09 AM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-18-2025 09:01:46 AM</t>
+          <t>09-22-2025 08:31:38 AM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>FHR-5CG2156GT3, PC-33VX725273R3, USWHL-1276WN9</t>
+          <t>FHR-5CD229GR46</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -826,54 +826,54 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Trevor Willberg</t>
+          <t>Vicente Castillo</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>trevor.willberg@fhr.com</t>
+          <t>VICENTE.CASTILLO@FHR.COM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-17-2025 10:21:00 AM</t>
+          <t>09-22-2025 08:10:41 AM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-17-2025 12:52:13 PM</t>
+          <t>09-22-2025 08:11:09 AM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>FHR-9K8ZK44, PC-334QH231933F, FHR-MXL3132SQX</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cory Strandlien</t>
+          <t>Dillon Sailer</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cory.strandlien@fhr.com</t>
+          <t>dillon.sailer@fhr.com</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -883,22 +883,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-17-2025 09:55:48 AM</t>
+          <t>09-19-2025 04:55:25 PM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-17-2025 12:44:37 PM</t>
+          <t>09-19-2025 04:55:54 PM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>FHR-LOANPB18, FHR-5CG201416N</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -910,17 +910,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Enrique Flores</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENRIQUE.FLORES@FHR.COM</t>
+          <t>DANIEL.BRAUN@FHR.COM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -930,76 +930,76 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09-17-2025 10:03:05 AM</t>
+          <t>09-18-2025 02:27:18 PM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-17-2025 10:03:36 AM</t>
+          <t>09-18-2025 02:27:46 PM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>FHR-2UA8311QWT, FHR-5CG1240T5M, FHR-5CD4154J0P</t>
+          <t>PC-1H85200B0S, FHR-5CG7312MP6</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jason Henke</t>
+          <t>Roberto Montelongo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>JASON.HENKE@FHR.COM</t>
+          <t>roberto.montelongo@fhr.com</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09-17-2025 09:38:30 AM</t>
+          <t>09-18-2025 09:01:15 AM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09-17-2025 09:39:02 AM</t>
+          <t>09-18-2025 09:01:46 AM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>FHR-5CG2151LHM, PC-2MQ5290Z9F</t>
+          <t>FHR-5CG2156GT3, PC-33VX725273R3, USWHL-1276WN9</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jed Illg</t>
+          <t>Trevor Willberg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jed.Illg@fhr.com</t>
+          <t>trevor.willberg@fhr.com</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1009,22 +1009,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09-17-2025 08:33:21 AM</t>
+          <t>09-17-2025 10:21:00 AM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09-17-2025 08:33:50 AM</t>
+          <t>09-17-2025 12:52:13 PM</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>FHR-5CG2156GG9, PC-2MQ5290Z98</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1036,54 +1036,54 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Shannon Angle</t>
+          <t>Cory Strandlien</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>shannon.angle@kochcc.com</t>
+          <t>cory.strandlien@fhr.com</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09-17-2025 07:50:45 AM</t>
+          <t>09-17-2025 09:55:48 AM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-17-2025 07:51:14 AM</t>
+          <t>09-17-2025 12:44:37 PM</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bryeton Canchola</t>
+          <t>Enrique Flores</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bryeton.canchola@fhr.com</t>
+          <t>ENRIQUE.FLORES@FHR.COM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1093,22 +1093,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09-16-2025 03:26:59 PM</t>
+          <t>09-17-2025 10:03:05 AM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09-16-2025 03:27:26 PM</t>
+          <t>09-17-2025 10:03:36 AM</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>SPC-MXL24155VV FHR-MXL1022SZ3 FHR-MXL24156C3 SPC-MXL24155W5 SPC-MXL3324PYM SPC-MXL3324PZ0 FHR-MXL2223BDL FHR-MXL9502C5W FHR-MXL9333W07 PC-01W3B23013BF FHR-MXL1022T0R FHR-MXL24155WF FHR-MXL13349Z2 SPC-MXL3324PZ2 FHR-MXL90224C1 FHR-BK000V1 FHR-B9XFH04 SPC-MXL3324PYD SPC-MXL3324PYP FHR-8V4TNZ3</t>
+          <t>FHR-2UA8311QWT, FHR-5CG1240T5M, FHR-5CD4154J0P</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1120,101 +1120,101 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Charles Cooley Jr</t>
+          <t>Jason Henke</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHARLES.COOLEY@FHR.COM</t>
+          <t>JASON.HENKE@FHR.COM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09-16-2025 02:26:57 PM</t>
+          <t>09-17-2025 09:38:30 AM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-16-2025 02:27:28 PM</t>
+          <t>09-17-2025 09:39:02 AM</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>FHR-5CG225854R, PC-2MQ5140ZJR</t>
+          <t>FHR-5CG2151LHM, PC-2MQ5290Z9F</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Patrick Tiller</t>
+          <t>Jed Illg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PATRICK.TILLER@FHR.COM</t>
+          <t>Jed.Illg@fhr.com</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09-16-2025 12:20:22 PM</t>
+          <t>09-17-2025 08:33:21 AM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-16-2025 12:20:49 PM</t>
+          <t>09-17-2025 08:33:50 AM</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>PC-JZ4TNZ3, FHR-5CG1240T4Q, PC-1H85200B13, FHR-5CG815441G, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
+          <t>FHR-5CG2156GG9, PC-2MQ5290Z98</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bryan Garcia</t>
+          <t>Shannon Angle</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bryan.garcia1@fhr.com</t>
+          <t>shannon.angle@kochcc.com</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1224,34 +1224,34 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09-16-2025 07:46:13 AM</t>
+          <t>09-17-2025 07:50:45 AM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-16-2025 07:46:49 AM</t>
+          <t>09-17-2025 07:51:14 AM</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>PC-33J3M25073R3, PC-BZQ03Z3, PC-5CG408495P</t>
+          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Troy Hull</t>
+          <t>Bryeton Canchola</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TROY.HULL@FHR.COM</t>
+          <t>bryeton.canchola@fhr.com</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1266,17 +1266,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09-16-2025 06:55:54 AM</t>
+          <t>09-16-2025 03:26:59 PM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-16-2025 06:56:26 AM</t>
+          <t>09-16-2025 03:27:26 PM</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>FHR-MXL2394ST8, FHR-MXL24155WF, PC-5CG4151LFY</t>
+          <t>SPC-MXL24155VV FHR-MXL1022SZ3 FHR-MXL24156C3 SPC-MXL24155W5 SPC-MXL3324PYM SPC-MXL3324PZ0 FHR-MXL2223BDL FHR-MXL9502C5W FHR-MXL9333W07 PC-01W3B23013BF FHR-MXL1022T0R FHR-MXL24155WF FHR-MXL13349Z2 SPC-MXL3324PZ2 FHR-MXL90224C1 FHR-BK000V1 FHR-B9XFH04 SPC-MXL3324PYD SPC-MXL3324PYP FHR-8V4TNZ3</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1288,138 +1288,138 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Crystal Link</t>
+          <t>Charles Cooley Jr</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CRYSTAL.LINK@FHR.COM</t>
+          <t>CHARLES.COOLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>09-15-2025 11:01:25 AM</t>
+          <t>09-16-2025 02:26:57 PM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09-15-2025 11:01:54 AM</t>
+          <t>09-16-2025 02:27:28 PM</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>PC-5CG1465ZKZ, PC-1H85200B04, FHR-5CG0254D4T</t>
+          <t>FHR-5CG225854R, PC-2MQ5140ZJR</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Alex Lodholz</t>
+          <t>Patrick Tiller</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>alex.lodholz@fhr.com</t>
+          <t>PATRICK.TILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>09-15-2025 09:14:43 AM</t>
+          <t>09-16-2025 12:20:22 PM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>09-15-2025 09:15:12 AM</t>
+          <t>09-16-2025 12:20:49 PM</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PC-2MQ514103N</t>
+          <t>PC-JZ4TNZ3, FHR-5CG1240T4Q, PC-1H85200B13, FHR-5CG815441G, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brendan Snell</t>
+          <t>Bryan Garcia</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>brendan.snell@fhr.com</t>
+          <t>bryan.garcia1@fhr.com</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:12 AM</t>
+          <t>09-16-2025 07:46:13 AM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:46 AM</t>
+          <t>09-16-2025 07:46:49 AM</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>FHR-5CG2156XDV</t>
+          <t>PC-33J3M25073R3, PC-BZQ03Z3, PC-5CG408495P</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Joey Guerrero</t>
+          <t>Troy Hull</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>joey.guerrero1@fhr.com</t>
+          <t>TROY.HULL@FHR.COM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1434,17 +1434,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>09-15-2025 06:33:41 AM</t>
+          <t>09-16-2025 06:55:54 AM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>09-15-2025 06:34:14 AM</t>
+          <t>09-16-2025 06:56:26 AM</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>PC-33B8725073R3, PC-9659600351</t>
+          <t>FHR-MXL2394ST8, FHR-MXL24155WF, PC-5CG4151LFY</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1456,17 +1456,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Eddie Buskirk</t>
+          <t>Crystal Link</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EDDIE.BUSKIRK@FHR.COM</t>
+          <t>CRYSTAL.LINK@FHR.COM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1476,39 +1476,39 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>09-12-2025 01:52:56 PM</t>
+          <t>09-15-2025 11:01:25 AM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>09-12-2025 01:53:24 PM</t>
+          <t>09-15-2025 11:01:54 AM</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>PC-1H85200B0W, FHR-5CG9326W2B</t>
+          <t>PC-5CG1465ZKZ, PC-1H85200B04, FHR-5CG0254D4T</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sammantha Reynolds</t>
+          <t>Alex Lodholz</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>sammantha.reynolds1@fhr.com</t>
+          <t>alex.lodholz@fhr.com</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1518,118 +1518,118 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09-12-2025 08:18:55 AM</t>
+          <t>09-15-2025 09:14:43 AM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>09-12-2025 08:19:25 AM</t>
+          <t>09-15-2025 09:15:12 AM</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
+          <t>PC-2MQ514103N</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Victor Sauceda</t>
+          <t>Brendan Snell</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>victor.sauceda@fhr.com</t>
+          <t>brendan.snell@fhr.com</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:03 AM</t>
+          <t>09-15-2025 08:15:12 AM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:33 AM</t>
+          <t>09-15-2025 08:15:46 AM</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>PC-33W4325273R3, FHR-5CD8522C54</t>
+          <t>FHR-5CG2156XDV</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Mitch O'Keefe</t>
+          <t>Joey Guerrero</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MITCH.OKEEFE@FHR.COM</t>
+          <t>joey.guerrero1@fhr.com</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:11 PM</t>
+          <t>09-15-2025 06:33:41 AM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:39 PM</t>
+          <t>09-15-2025 06:34:14 AM</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>FHR-MXL23843MP, MSP-CTLU27, PC-1H85200B09, FHR-5CG1344HQ7</t>
+          <t>PC-33B8725073R3, PC-9659600351</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Joe Bedynek</t>
+          <t>Eddie Buskirk</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>JOE.BEDYNEK@FHR.COM</t>
+          <t>EDDIE.BUSKIRK@FHR.COM</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1639,22 +1639,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:10 PM</t>
+          <t>09-12-2025 01:52:56 PM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:36 PM</t>
+          <t>09-12-2025 01:53:24 PM</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>PC-33W6D25273R3, FHR-5CD026KSTV</t>
+          <t>PC-1H85200B0W, FHR-5CG9326W2B</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1666,17 +1666,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ruben Hernandez</t>
+          <t>Sammantha Reynolds</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ruben.hernandez@fhr.com</t>
+          <t>sammantha.reynolds1@fhr.com</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1686,34 +1686,34 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09-10-2025 02:51:54 PM</t>
+          <t>09-12-2025 08:18:55 AM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-10-2025 02:52:21 PM</t>
+          <t>09-12-2025 08:19:25 AM</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>PC-5CD231GKV7, PC-2MQ5141117</t>
+          <t>PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Lauren Sada</t>
+          <t>Victor Sauceda</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>lauren.sada@fhr.com</t>
+          <t>victor.sauceda@fhr.com</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1723,22 +1723,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:21 PM</t>
+          <t>09-11-2025 09:46:03 AM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:49 PM</t>
+          <t>09-11-2025 09:46:33 AM</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZMH</t>
+          <t>PC-33W4325273R3, FHR-5CD8522C54</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1750,12 +1750,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Kevin Harvey</t>
+          <t>Mitch O'Keefe</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>KEVIN.HARVEY@FHR.COM</t>
+          <t>MITCH.OKEEFE@FHR.COM</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1765,22 +1765,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09-10-2025 08:38:42 AM</t>
+          <t>09-10-2025 05:54:11 PM</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09-10-2025 08:39:13 AM</t>
+          <t>09-10-2025 05:54:39 PM</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>PC-2MQ5290Z3G, FHR-5CG1236JK6</t>
+          <t>FHR-MXL23843MP, MSP-CTLU27, PC-1H85200B09, FHR-5CG1344HQ7</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1792,138 +1792,138 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Matt Olson</t>
+          <t>Joe Bedynek</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MATTHEW.OLSON@FHR.COM</t>
+          <t>JOE.BEDYNEK@FHR.COM</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09-09-2025 11:43:57 AM</t>
+          <t>09-10-2025 02:54:10 PM</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09-09-2025 11:44:26 AM</t>
+          <t>09-10-2025 02:54:36 PM</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>FHR-5CD40711PF, PC-2MQ5290Z8Z, FHR-5CG918242Z</t>
+          <t>PC-33W6D25273R3, FHR-5CD026KSTV</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sam Weldemariam</t>
+          <t>Ruben Hernandez</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SAM.WELDEMARIAM@FHR.COM</t>
+          <t>ruben.hernandez@fhr.com</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:23 AM</t>
+          <t>09-10-2025 02:51:54 PM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:51 AM</t>
+          <t>09-10-2025 02:52:21 PM</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>FHR-F9GR624, FHR-D90QDZ3, FHR-3KJBQ54, FHR-G8GR624, PC-GQMKN34, FHR-MXL9144C61, FHR-5CG213BX6D, FHR-5CD8506CR3</t>
+          <t>PC-5CD231GKV7, PC-2MQ5141117</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Derek Wilfong</t>
+          <t>Lauren Sada</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DEREK.WILFONG@FHR.COM</t>
+          <t>lauren.sada@fhr.com</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09-09-2025 09:02:55 AM</t>
+          <t>09-10-2025 01:27:21 PM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09-09-2025 09:03:28 AM</t>
+          <t>09-10-2025 01:27:49 PM</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>FHR-5CG1314K33</t>
+          <t>PC-2MQ5140ZMH</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Joel Mccabe</t>
+          <t>Kevin Harvey</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>JOEL.MCCABE@FHR.COM</t>
+          <t>KEVIN.HARVEY@FHR.COM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1933,22 +1933,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09-05-2025 03:04:34 PM</t>
+          <t>09-10-2025 08:38:42 AM</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-08-2025 09:08:16 AM</t>
+          <t>09-10-2025 08:39:13 AM</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>SPC-G942X54, FHR-1B1KH04, MSP-005054</t>
+          <t>PC-2MQ5290Z3G, FHR-5CG1236JK6</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1960,17 +1960,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Devon Holz</t>
+          <t>Matt Olson</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DEVON.HOLZ@FHR.COM</t>
+          <t>MATTHEW.OLSON@FHR.COM</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1980,160 +1980,160 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:14 PM</t>
+          <t>09-09-2025 11:43:57 AM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:42 PM</t>
+          <t>09-09-2025 11:44:26 AM</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZD9, FHR-5CG2219ZDW</t>
+          <t>FHR-5CD40711PF, PC-2MQ5290Z8Z, FHR-5CG918242Z</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Shawn Sieben</t>
+          <t>Sam Weldemariam</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Shawn.Sieben@fhr.com</t>
+          <t>SAM.WELDEMARIAM@FHR.COM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-04-2025 09:29:38 AM</t>
+          <t>09-09-2025 09:48:23 AM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-05-2025 12:58:04 PM</t>
+          <t>09-09-2025 09:48:51 AM</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>FHR-CND8426B2G, FHR-5CD3507T46, FHR-8CC84008DL</t>
+          <t>FHR-F9GR624, FHR-D90QDZ3, FHR-3KJBQ54, FHR-G8GR624, PC-GQMKN34, FHR-MXL9144C61, FHR-5CG213BX6D, FHR-5CD8506CR3</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Carrie Simpson</t>
+          <t>Derek Wilfong</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CARRIE.SIMPSON@FHR.COM</t>
+          <t>DEREK.WILFONG@FHR.COM</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:03 PM</t>
+          <t>09-09-2025 09:02:55 AM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:30 PM</t>
+          <t>09-09-2025 09:03:28 AM</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZSD, PC-001NS23373BF</t>
+          <t>FHR-5CG1314K33</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Chris Pratt</t>
+          <t>Joel Mccabe</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chris.Pratt@fhr.com</t>
+          <t>JOEL.MCCABE@FHR.COM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09-02-2025 04:16:05 PM</t>
+          <t>09-05-2025 03:04:34 PM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-04-2025 01:23:58 PM</t>
+          <t>09-08-2025 09:08:16 AM</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>FHR-5CD016BPV0, PC-MXL53644K5, FHR-MXL8361TTS</t>
+          <t>SPC-G942X54, FHR-1B1KH04, MSP-005054</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Manuel Moreno Jr</t>
+          <t>Devon Holz</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MANUEL.MORENO@FHR.COM</t>
+          <t>DEVON.HOLZ@FHR.COM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2143,22 +2143,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>05-02-2025 08:54:50 AM</t>
+          <t>09-05-2025 02:23:14 PM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>09-04-2025 01:17:10 PM</t>
+          <t>09-05-2025 02:23:42 PM</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>SPC-5BJ8D14, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
+          <t>PC-2MQ5140ZD9, FHR-5CG2219ZDW</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2170,138 +2170,138 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Ben Sandiford</t>
+          <t>Shawn Sieben</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ben.sandiford@fhr.com</t>
+          <t>Shawn.Sieben@fhr.com</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:18 PM</t>
+          <t>09-04-2025 09:29:38 AM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:48 PM</t>
+          <t>09-05-2025 12:58:04 PM</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>PC-33VW824233M4, PC-1H95220MS6</t>
+          <t>FHR-CND8426B2G, FHR-5CD3507T46, FHR-8CC84008DL</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Denise Schardt</t>
+          <t>Carrie Simpson</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DENISE.SCHARDT@FHR.COM</t>
+          <t>CARRIE.SIMPSON@FHR.COM</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-03-2025 02:48:18 PM</t>
+          <t>09-04-2025 03:17:03 PM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09-04-2025 01:00:11 PM</t>
+          <t>09-04-2025 03:17:30 PM</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
+          <t>PC-2MQ5140ZSD, PC-001NS23373BF</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Ray Aslesen</t>
+          <t>Chris Pratt</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RAY.ASLESEN@FHR.COM</t>
+          <t>Chris.Pratt@fhr.com</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-04-2025 07:28:33 AM</t>
+          <t>09-02-2025 04:16:05 PM</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09-04-2025 07:29:01 AM</t>
+          <t>09-04-2025 01:23:58 PM</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>PC-MXL4523KGB, PC-2MQ5140ZSW, FHR-0F00CQM2332, FHR-CND1440HBV</t>
+          <t>FHR-5CD016BPV0, PC-MXL53644K5, FHR-MXL8361TTS</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>Manuel Moreno Jr</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>MANUEL.MORENO@FHR.COM</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2311,22 +2311,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-04-2025 06:11:34 AM</t>
+          <t>05-02-2025 08:54:50 AM</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09-04-2025 06:12:02 AM</t>
+          <t>09-04-2025 01:17:10 PM</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>SPC-5BJ8D14, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2338,12 +2338,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Dora Heimsoth</t>
+          <t>Ben Sandiford</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>dora.heimsoth1@fhr.com</t>
+          <t>ben.sandiford@fhr.com</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2353,22 +2353,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-03-2025 03:00:34 PM</t>
+          <t>09-04-2025 01:11:18 PM</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>09-03-2025 03:01:01 PM</t>
+          <t>09-04-2025 01:11:48 PM</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>PC-339W925073R3, PC-86XGSV3</t>
+          <t>PC-33VW824233M4, PC-1H95220MS6</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2380,96 +2380,96 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Stephen Rodriguez</t>
+          <t>Denise Schardt</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
+          <t>DENISE.SCHARDT@FHR.COM</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-03-2025 02:28:45 PM</t>
+          <t>09-03-2025 02:48:18 PM</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>09-03-2025 02:29:20 PM</t>
+          <t>09-04-2025 01:00:11 PM</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>FHR-MXL90223C1 FHR-MXL902239Z FHR-MXL9332KN0 FHR-MXL902239R CND837B026 FHR-MXL9153QWC KII-MXL2424F2T FHR-5CG12812WW FHR-MXL3132SQX FHR-MXL3132SN7 FHR-MXL3132SNW FHR-MXL3132SS3 FHR-MXL3132SS4 FHR-MXL90224D2 FHR-8CG806569G KII-MXL24156FT FHR-MXL4424X3B FHR-MXL5043GK0 FHR-MXL5043GK1 SPC-DX6LZ84 SPC-MXL24156CD</t>
+          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Matt Skrobarcek</t>
+          <t>Ray Aslesen</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
+          <t>RAY.ASLESEN@FHR.COM</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:08 AM</t>
+          <t>09-04-2025 07:28:33 AM</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:38 AM</t>
+          <t>09-04-2025 07:29:01 AM</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
+          <t>PC-MXL4523KGB, PC-2MQ5140ZSW, FHR-0F00CQM2332, FHR-CND1440HBV</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Justin Nava</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>JUSTIN.NAVA@FHR.COM</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2479,22 +2479,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-03-2025 09:44:33 AM</t>
+          <t>09-04-2025 06:11:34 AM</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>09-03-2025 09:45:02 AM</t>
+          <t>09-04-2025 06:12:02 AM</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>SPC-82TKZ84, FHR-5CG4240WQT, FHR-MXL9223BVJ</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2506,12 +2506,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Logan Tom</t>
+          <t>Dora Heimsoth</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>logan.tom@fhr.com</t>
+          <t>dora.heimsoth1@fhr.com</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2521,22 +2521,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:15 PM</t>
+          <t>09-03-2025 03:00:34 PM</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:42 PM</t>
+          <t>09-03-2025 03:01:01 PM</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
+          <t>PC-339W925073R3, PC-86XGSV3</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2548,54 +2548,54 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Travis Sumerfelt</t>
+          <t>Stephen Rodriguez</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>travis.sumerfelt@fhr.com</t>
+          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-02-2025 11:06:03 AM</t>
+          <t>09-03-2025 02:28:45 PM</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09-02-2025 11:07:05 AM</t>
+          <t>09-03-2025 02:29:20 PM</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>PC-2MQ514108Q</t>
+          <t>FHR-MXL90223C1 FHR-MXL902239Z FHR-MXL9332KN0 FHR-MXL902239R CND837B026 FHR-MXL9153QWC KII-MXL2424F2T FHR-5CG12812WW FHR-MXL3132SQX FHR-MXL3132SN7 FHR-MXL3132SNW FHR-MXL3132SS3 FHR-MXL3132SS4 FHR-MXL90224D2 FHR-8CG806569G KII-MXL24156FT FHR-MXL4424X3B FHR-MXL5043GK0 FHR-MXL5043GK1 SPC-DX6LZ84 SPC-MXL24156CD</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Carlos Garcia Jr.</t>
+          <t>Matt Skrobarcek</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CARLOS.GARCIAJR@FHR.COM</t>
+          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2605,22 +2605,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>08-27-2025 09:24:59 PM</t>
+          <t>09-03-2025 09:46:08 AM</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>09-02-2025 08:26:34 AM</t>
+          <t>09-03-2025 09:46:38 AM</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>FHR-FRMKN34</t>
+          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2632,12 +2632,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Billy Royal</t>
+          <t>Justin Nava</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BILLY.ROYAL@FHR.COM</t>
+          <t>JUSTIN.NAVA@FHR.COM</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2647,22 +2647,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:06 PM</t>
+          <t>09-03-2025 09:44:33 AM</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:34 PM</t>
+          <t>09-03-2025 09:45:02 AM</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>FHR-5CD2331XLD</t>
+          <t>SPC-82TKZ84, FHR-5CG4240WQT, FHR-MXL9223BVJ</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2674,17 +2674,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Samuel Paulus</t>
+          <t>Logan Tom</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>samuel.paulus@fhr.com</t>
+          <t>logan.tom@fhr.com</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2694,17 +2694,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:17 PM</t>
+          <t>09-02-2025 02:39:15 PM</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:45 PM</t>
+          <t>09-02-2025 02:39:42 PM</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
+          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2716,17 +2716,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Derya Broll</t>
+          <t>Travis Sumerfelt</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DERYA.BROLL@FHR.COM</t>
+          <t>travis.sumerfelt@fhr.com</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2736,76 +2736,76 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:07 PM</t>
+          <t>09-02-2025 11:06:03 AM</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:37 PM</t>
+          <t>09-02-2025 11:07:05 AM</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
+          <t>PC-2MQ514108Q</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Joseph Moberly</t>
+          <t>Carlos Garcia Jr.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>joseph.moberly@fhr.com</t>
+          <t>CARLOS.GARCIAJR@FHR.COM</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08-28-2025 01:10:49 PM</t>
+          <t>08-27-2025 09:24:59 PM</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>08-28-2025 01:11:16 PM</t>
+          <t>09-02-2025 08:26:34 AM</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>PC-1H852009W3, PC-5CG2415PYM</t>
+          <t>FHR-FRMKN34</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Lindi Dinn</t>
+          <t>Billy Royal</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>LINDI.DINN@FHR.COM</t>
+          <t>BILLY.ROYAL@FHR.COM</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2820,17 +2820,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:14 PM</t>
+          <t>08-29-2025 04:48:06 PM</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:40 PM</t>
+          <t>08-29-2025 04:48:34 PM</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>PC-36KMG25193M4, PC-1H852009X5, FHR-8CC8412KMN, FHR-CND1440HKF, FHR-51990492553</t>
+          <t>FHR-5CD2331XLD</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2842,138 +2842,138 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Rodney Cotten</t>
+          <t>Samuel Paulus</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>RODNEY.COTTEN@FHR.COM</t>
+          <t>samuel.paulus@fhr.com</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:02 PM</t>
+          <t>08-29-2025 01:00:17 PM</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:30 PM</t>
+          <t>08-29-2025 01:00:45 PM</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>PC-33JGC25073R3, PC-5CD5100K7L, FHR-5CG7515059</t>
+          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Chad Schaner</t>
+          <t>Derya Broll</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CHAD.SCHANER@FHR.COM</t>
+          <t>DERYA.BROLL@FHR.COM</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Dell Pro Rugged RB14250 14" Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>08-04-2025 01:41:48 PM</t>
+          <t>08-29-2025 12:10:07 PM</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>08-27-2025 01:20:37 PM</t>
+          <t>08-29-2025 12:10:37 PM</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>FHR-8H0GH04, FHR-8CG7352CR5, FHR-DYW9BT3, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-187491253</t>
+          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Denise Gonzalez</t>
+          <t>Joseph Moberly</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DENISE.GONZALEZ@FHR.COM</t>
+          <t>joseph.moberly@fhr.com</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:17 AM</t>
+          <t>08-28-2025 01:10:49 PM</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:45 AM</t>
+          <t>08-28-2025 01:11:16 PM</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>SPC-83V03Z3, SPC-D0R03Z3, SPC-G1V03Z3, PC-34Y4825063R3, PC-5WXDQV3</t>
+          <t>PC-1H852009W3, PC-5CG2415PYM</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Kris Adkins</t>
+          <t>Lindi Dinn</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KRISTOPHER.ADKINS@FHR.COM</t>
+          <t>LINDI.DINN@FHR.COM</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2983,22 +2983,22 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>08-26-2025 08:20:43 PM</t>
+          <t>08-27-2025 02:53:14 PM</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>08-26-2025 08:21:16 PM</t>
+          <t>08-27-2025 02:53:40 PM</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>PC-34WWG25063R3</t>
+          <t>PC-36KMG25193M4, PC-1H852009X5, FHR-8CC8412KMN, FHR-CND1440HKF, FHR-51990492553</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3010,12 +3010,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Jose Cardona</t>
+          <t>Rodney Cotten</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>JOSE.CARDONA@FHR.COM</t>
+          <t>RODNEY.COTTEN@FHR.COM</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3025,22 +3025,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08-26-2025 09:00:40 AM</t>
+          <t>08-27-2025 02:27:02 PM</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>08-26-2025 09:01:09 AM</t>
+          <t>08-27-2025 02:27:30 PM</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>CPC-JOSEC-BGVEA, FHR-5CG30935LZ, SPC-5CG40111D5</t>
+          <t>PC-33JGC25073R3, PC-5CD5100K7L, FHR-5CG7515059</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3052,12 +3052,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Phillip Norell</t>
+          <t>Chad Schaner</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PHILLIP.NORELL@FHR.COM</t>
+          <t>CHAD.SCHANER@FHR.COM</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3067,22 +3067,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Dell Pro Rugged RB14250 14" Laptop</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:13 PM</t>
+          <t>08-04-2025 01:41:48 PM</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:39 PM</t>
+          <t>08-27-2025 01:20:37 PM</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>FHR-5CG213CGKR, PC-1H85200B08</t>
+          <t>FHR-8H0GH04, FHR-8CG7352CR5, FHR-DYW9BT3, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-187491253</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3094,54 +3094,54 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Anne Lee</t>
+          <t>Denise Gonzalez</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ANNE.LEE@FHR.COM</t>
+          <t>DENISE.GONZALEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:00 AM</t>
+          <t>08-27-2025 07:15:17 AM</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:30 AM</t>
+          <t>08-27-2025 07:15:45 AM</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
+          <t>SPC-83V03Z3, SPC-D0R03Z3, SPC-G1V03Z3, PC-34Y4825063R3, PC-5WXDQV3</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>David Barnholt</t>
+          <t>Kris Adkins</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>david.barnholt@fhr.com</t>
+          <t>KRISTOPHER.ADKINS@FHR.COM</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3151,22 +3151,22 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:27 AM</t>
+          <t>08-26-2025 08:20:43 PM</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:54 AM</t>
+          <t>08-26-2025 08:21:16 PM</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>PC-1H852009SD</t>
+          <t>PC-34WWG25063R3</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3178,17 +3178,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Eric Enders</t>
+          <t>Jose Cardona</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>eric.enders@fhr.com</t>
+          <t>JOSE.CARDONA@FHR.COM</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3198,76 +3198,76 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:30 AM</t>
+          <t>08-26-2025 09:00:40 AM</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:59 AM</t>
+          <t>08-26-2025 09:01:09 AM</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>PC-2MQ514115J</t>
+          <t>CPC-JOSEC-BGVEA, FHR-5CG30935LZ, SPC-5CG40111D5</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sean Garza</t>
+          <t>Phillip Norell</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>sean.garza@fhr.com</t>
+          <t>PHILLIP.NORELL@FHR.COM</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-19-2025 01:01:15 AM</t>
+          <t>08-25-2025 02:58:13 PM</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:18 AM</t>
+          <t>08-25-2025 02:58:39 PM</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>FHR-GTQKN34, SPC-3B6G25073R3</t>
+          <t>FHR-5CG213CGKR, PC-1H85200B08</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Joe Rohl</t>
+          <t>Anne Lee</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>JOE.ROHL@FHR.COM</t>
+          <t>ANNE.LEE@FHR.COM</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3277,22 +3277,22 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-19-2025 02:44:07 PM</t>
+          <t>08-25-2025 10:13:00 AM</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:14 AM</t>
+          <t>08-25-2025 10:13:30 AM</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
+          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3304,12 +3304,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>David Ybarra</t>
+          <t>David Barnholt</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DAVID.YBARRA@FHR.COM</t>
+          <t>david.barnholt@fhr.com</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3324,17 +3324,17 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:30 AM</t>
+          <t>08-22-2025 11:11:27 AM</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:58 AM</t>
+          <t>08-22-2025 11:11:54 AM</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
+          <t>PC-1H852009SD</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3346,17 +3346,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>Eric Enders</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>eric.enders@fhr.com</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3366,39 +3366,39 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:19 AM</t>
+          <t>08-22-2025 07:55:30 AM</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:48 AM</t>
+          <t>08-22-2025 07:55:59 AM</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>PC-2MQ514115J</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Cole Brewster</t>
+          <t>Sean Garza</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>cole.brewster@fhr.com</t>
+          <t>sean.garza@fhr.com</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3408,101 +3408,101 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-20-2025 01:48:49 PM</t>
+          <t>08-19-2025 01:01:15 AM</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-20-2025 01:49:17 PM</t>
+          <t>08-22-2025 07:34:18 AM</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>PC-34Y3Q25063R3, FHR-5CG1276WN7</t>
+          <t>FHR-GTQKN34, SPC-3B6G25073R3</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Brenna Gerety</t>
+          <t>Joe Rohl</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BRENNA.GERETY@FHR.COM</t>
+          <t>JOE.ROHL@FHR.COM</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:01 AM</t>
+          <t>08-19-2025 02:44:07 PM</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:29 AM</t>
+          <t>08-22-2025 07:34:14 AM</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>PC-5CG5040677, FHR-5CG0036B94</t>
+          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Daniel Jurach</t>
+          <t>David Ybarra</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>daniel.jurach@fhr.com</t>
+          <t>DAVID.YBARRA@FHR.COM</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-18-2025 11:58:20 AM</t>
+          <t>08-22-2025 07:18:30 AM</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>08-19-2025 10:21:28 AM</t>
+          <t>08-22-2025 07:18:58 AM</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>PC-2MQ514110T</t>
+          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3514,101 +3514,101 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Tony Short</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ANTHONY.SHORT@KPLSRV.COM</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:07 AM</t>
+          <t>08-22-2025 06:59:19 AM</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:38 AM</t>
+          <t>08-22-2025 06:59:48 AM</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>PC-5CD229GR66, PC-5CD5100KK7, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Chad Remer</t>
+          <t>Cole Brewster</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CHAD.REMER@FHR.COM</t>
+          <t>cole.brewster@fhr.com</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:04 AM</t>
+          <t>08-20-2025 01:48:49 PM</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:34 AM</t>
+          <t>08-20-2025 01:49:17 PM</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
+          <t>PC-34Y3Q25063R3, FHR-5CG1276WN7</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Nicholas Hanson</t>
+          <t>Brenna Gerety</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NICK.HANSON@FHR.COM</t>
+          <t>BRENNA.GERETY@FHR.COM</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3618,39 +3618,39 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:17 AM</t>
+          <t>08-20-2025 07:58:01 AM</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:46 AM</t>
+          <t>08-20-2025 07:58:29 AM</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
+          <t>PC-5CG5040677, FHR-5CG0036B94</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Harold Irvin</t>
+          <t>Daniel Jurach</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>HAROLD.IRVIN@FHR.COM</t>
+          <t>daniel.jurach@fhr.com</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
+          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3660,76 +3660,76 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:06 PM</t>
+          <t>08-18-2025 11:58:20 AM</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:37 PM</t>
+          <t>08-19-2025 10:21:28 AM</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>FHR-5CG2156Z1X, PC-2MQ51410F2</t>
+          <t>PC-2MQ514110T</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sandra Akarolo</t>
+          <t>Tony Short</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>sandra.akarolo@fhr.com</t>
+          <t>ANTHONY.SHORT@KPLSRV.COM</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-13-2025 01:51:42 PM</t>
+          <t>08-18-2025 10:21:07 AM</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>08-14-2025 08:58:56 AM</t>
+          <t>08-18-2025 10:21:38 AM</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>FHR-5CG213CDWV</t>
+          <t>PC-5CD229GR66, PC-5CD5100KK7, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Paul Fisher</t>
+          <t>Chad Remer</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PAUL.FISHER@FHR.COM</t>
+          <t>CHAD.REMER@FHR.COM</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3739,22 +3739,22 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:23 PM</t>
+          <t>08-18-2025 09:26:04 AM</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:56 PM</t>
+          <t>08-18-2025 09:26:34 AM</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
+          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3766,79 +3766,79 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Robert Corley</t>
+          <t>Nicholas Hanson</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ROBERT.CORLEY@FHR.COM</t>
+          <t>NICK.HANSON@FHR.COM</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-12-2025 06:27:18 PM</t>
+          <t>08-15-2025 07:06:17 AM</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>08-13-2025 12:47:38 PM</t>
+          <t>08-15-2025 07:06:46 AM</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
+          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Jeff Baker</t>
+          <t>Harold Irvin</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>JEFF.BAKER@FHR.COM</t>
+          <t>HAROLD.IRVIN@FHR.COM</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:02 AM</t>
+          <t>08-14-2025 02:45:06 PM</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:30 AM</t>
+          <t>08-14-2025 02:45:37 PM</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
+          <t>FHR-5CG2156Z1X, PC-2MQ51410F2</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3850,12 +3850,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Kemal Simpson</t>
+          <t>Sandra Akarolo</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>kemal.simpson@fhr.com</t>
+          <t>sandra.akarolo@fhr.com</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3865,22 +3865,22 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>08-13-2025 07:17:41 AM</t>
+          <t>08-13-2025 01:51:42 PM</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>08-13-2025 07:18:09 AM</t>
+          <t>08-14-2025 08:58:56 AM</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>FHR-5CG1073F3X</t>
+          <t>FHR-5CG213CDWV</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3892,96 +3892,96 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Robert Jimenez</t>
+          <t>Paul Fisher</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ROBERT.JIMENEZ@FHR.COM</t>
+          <t>PAUL.FISHER@FHR.COM</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:22 AM</t>
+          <t>08-13-2025 05:07:23 PM</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:51 AM</t>
+          <t>08-13-2025 05:07:56 PM</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
+          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Kevin Miller</t>
+          <t>Robert Corley</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>KEVIN.MILLER@FHR.COM</t>
+          <t>ROBERT.CORLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:21 AM</t>
+          <t>08-12-2025 06:27:18 PM</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:49 AM</t>
+          <t>08-13-2025 12:47:38 PM</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
+          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Tucker Lansing</t>
+          <t>Jeff Baker</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>tucker.lansing@fhr.com</t>
+          <t>JEFF.BAKER@FHR.COM</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3991,22 +3991,22 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:05 AM</t>
+          <t>08-13-2025 09:11:02 AM</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:44 AM</t>
+          <t>08-13-2025 09:11:30 AM</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>PC-2MQ5141103</t>
+          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4018,17 +4018,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Kairos Logan</t>
+          <t>Kemal Simpson</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>kairos.logan@fhr.com</t>
+          <t>kemal.simpson@fhr.com</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4038,34 +4038,34 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:17 PM</t>
+          <t>08-13-2025 07:17:41 AM</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:45 PM</t>
+          <t>08-13-2025 07:18:09 AM</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>PC-2MQ51410BZ</t>
+          <t>FHR-5CG1073F3X</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Louis Stump</t>
+          <t>Robert Jimenez</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>LOUIS.STUMP@FHR.COM</t>
+          <t>ROBERT.JIMENEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4080,17 +4080,17 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>07-20-2025 06:49:35 AM</t>
+          <t>08-12-2025 11:43:22 AM</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>08-11-2025 03:03:35 PM</t>
+          <t>08-12-2025 11:43:51 AM</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
+          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4102,12 +4102,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Kevin Miller</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>KEVIN.MILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4117,22 +4117,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>08-11-2025 12:57:47 PM</t>
+          <t>08-12-2025 09:11:21 AM</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>08-11-2025 12:58:15 PM</t>
+          <t>08-12-2025 09:11:49 AM</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
+          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4144,12 +4144,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Alex Fairbanks</t>
+          <t>Tucker Lansing</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Alex.Fairbanks@fhr.com</t>
+          <t>tucker.lansing@fhr.com</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4159,22 +4159,22 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>08-11-2025 09:58:56 AM</t>
+          <t>08-12-2025 08:13:05 AM</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>08-11-2025 09:59:25 AM</t>
+          <t>08-12-2025 08:13:44 AM</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>FHR-MXL3132S8S, PC-5CD5100K77, FHR-5CG2261RYZ</t>
+          <t>PC-2MQ5141103</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4186,54 +4186,54 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Cole Wilson</t>
+          <t>Kairos Logan</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>cole.wilson@fhr.com</t>
+          <t>kairos.logan@fhr.com</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>08-11-2025 08:57:56 AM</t>
+          <t>08-11-2025 04:54:17 PM</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>08-11-2025 08:58:25 AM</t>
+          <t>08-11-2025 04:54:45 PM</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z9H</t>
+          <t>PC-2MQ51410BZ</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Louis Stump</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>LOUIS.STUMP@FHR.COM</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4248,17 +4248,17 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:07 AM</t>
+          <t>07-20-2025 06:49:35 AM</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:36 AM</t>
+          <t>08-11-2025 03:03:35 PM</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
+          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4270,96 +4270,96 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Bobby Peddycord</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>bobby.peddycord@fhr.com</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>08-07-2025 10:38:48 AM</t>
+          <t>08-11-2025 12:57:47 PM</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>08-11-2025 07:13:21 AM</t>
+          <t>08-11-2025 12:58:15 PM</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
+          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Charles Oliver</t>
+          <t>Alex Fairbanks</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CHARLES.OLIVER@FHR.COM</t>
+          <t>Alex.Fairbanks@fhr.com</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>08-11-2025 05:46:52 AM</t>
+          <t>08-11-2025 09:58:56 AM</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>08-11-2025 05:47:20 AM</t>
+          <t>08-11-2025 09:59:25 AM</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>PC-36KFF25193M4</t>
+          <t>FHR-MXL3132S8S, PC-5CD5100K77, FHR-5CG2261RYZ</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Rudy Barajas</t>
+          <t>Cole Wilson</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>RUDY.BARAJAS@FHR.COM</t>
+          <t>cole.wilson@fhr.com</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4369,22 +4369,22 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>08-06-2025 04:56:54 AM</t>
+          <t>08-11-2025 08:57:56 AM</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>08-08-2025 01:09:23 PM</t>
+          <t>08-11-2025 08:58:25 AM</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>PC-33BYB25013M4, PC-2MQ514105T, FHR-J2V03Z3, FHR-MXL24156CF</t>
+          <t>PC-2MQ5140Z9H</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4396,138 +4396,138 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Braxton Holes</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>braxton.holes@fhr.com</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>08-07-2025 08:51:34 AM</t>
+          <t>08-11-2025 08:33:07 AM</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>08-08-2025 11:34:27 AM</t>
+          <t>08-11-2025 08:33:36 AM</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>FHR-5CD231D3NH, PC-5CD5100KGP, FHR-5CD01052SN</t>
+          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Andrea Unruh</t>
+          <t>Bobby Peddycord</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ANDREA.UNRUH@FHR.COM</t>
+          <t>bobby.peddycord@fhr.com</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:28 AM</t>
+          <t>08-07-2025 10:38:48 AM</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:56 AM</t>
+          <t>08-11-2025 07:13:21 AM</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>PC-36KG325193M4, PC-014GF22373BF</t>
+          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Caleb Quanrud</t>
+          <t>Charles Oliver</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>caleb.quanrud@fhr.com</t>
+          <t>CHARLES.OLIVER@FHR.COM</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:28 PM</t>
+          <t>08-11-2025 05:46:52 AM</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:58 PM</t>
+          <t>08-11-2025 05:47:20 AM</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
+          <t>PC-36KFF25193M4</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Jean Jaime</t>
+          <t>Rudy Barajas</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>JEAN.JAIME@FHR.COM</t>
+          <t>RUDY.BARAJAS@FHR.COM</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4537,22 +4537,22 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:32 PM</t>
+          <t>08-06-2025 04:56:54 AM</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>08-07-2025 02:12:00 PM</t>
+          <t>08-08-2025 01:09:23 PM</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
+          <t>PC-33BYB25013M4, PC-2MQ514105T, FHR-J2V03Z3, FHR-MXL24156CF</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4564,59 +4564,59 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Braxton Holes</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>braxton.holes@fhr.com</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>08-07-2025 02:10:24 PM</t>
+          <t>08-07-2025 08:51:34 AM</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:00 PM</t>
+          <t>08-08-2025 11:34:27 AM</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
+          <t>FHR-5CD231D3NH, PC-5CD5100KGP, FHR-5CD01052SN</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Andrea Unruh</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>ANDREA.UNRUH@FHR.COM</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4626,59 +4626,59 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:23 PM</t>
+          <t>08-08-2025 08:17:28 AM</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:59 PM</t>
+          <t>08-08-2025 08:17:56 AM</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
+          <t>PC-36KG325193M4, PC-014GF22373BF</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Branden Roering</t>
+          <t>Caleb Quanrud</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>branden.roering@fhr.com</t>
+          <t>caleb.quanrud@fhr.com</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:17 PM</t>
+          <t>08-07-2025 03:06:28 PM</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:45 PM</t>
+          <t>08-07-2025 03:06:58 PM</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>PC-2MQ5141148</t>
+          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4690,12 +4690,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Christopher Brooks</t>
+          <t>Jean Jaime</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
+          <t>JEAN.JAIME@FHR.COM</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4710,17 +4710,17 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>08-06-2025 12:44:08 PM</t>
+          <t>08-07-2025 02:11:32 PM</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>08-07-2025 09:46:49 AM</t>
+          <t>08-07-2025 02:12:00 PM</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
+          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4732,12 +4732,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Justin Hinojosa</t>
+          <t>Rick Schwing</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>justin.hinojosa@fhr.com</t>
+          <t>rick.schwing@fhr.com</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4747,22 +4747,22 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:01 AM</t>
+          <t>08-07-2025 02:10:24 PM</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:29 AM</t>
+          <t>08-07-2025 02:11:00 PM</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>PC-MXL24156FQ SPC-MXL24156FQ FHR-8CG80416HL FHR-8CG806569G FHR-8CG7236C1X FHR-G3BCDZ3 FHR-MXL3132SS4 FHR-8CG80416GX FHR-MXL90224D2 FHR-8J5ZK44 FHR-MXL3132SN7 FHR-MXL3132SS3 FHR-9K8ZK44 FHR-MXL3132SQX KII-MXL2424F2T FHR-MXL5043GK1 FHR-MXL5043GK0 FHR-MXL3132SRR FHR-BK001HK222 FHR-MXL3132SNW FHR-5CD439J37S FHR-MXL3132SP1</t>
+          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4774,59 +4774,59 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Josiah Peterson</t>
+          <t>Rick Schwing</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>JOSIAH.PETERSON@FHR.COM</t>
+          <t>rick.schwing@fhr.com</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>08-06-2025 08:30:11 AM</t>
+          <t>08-07-2025 02:09:23 PM</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>08-06-2025 08:31:02 AM</t>
+          <t>08-07-2025 02:09:59 PM</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>FHR-5CD30764W6, PC-2MQ5270TC1</t>
+          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Andrew Berndt</t>
+          <t>Branden Roering</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>andrew.berndt@fhr.com</t>
+          <t>branden.roering@fhr.com</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
+          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4836,76 +4836,76 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>08-05-2025 01:32:29 PM</t>
+          <t>08-07-2025 12:49:17 PM</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>08-05-2025 01:33:21 PM</t>
+          <t>08-07-2025 12:49:45 PM</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>PC-2MQ514100C</t>
+          <t>PC-2MQ5141148</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Matthew VanLanen</t>
+          <t>Christopher Brooks</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>matthew.vanlanen@fhr.com</t>
+          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:12 AM</t>
+          <t>08-06-2025 12:44:08 PM</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:39 AM</t>
+          <t>08-07-2025 09:46:49 AM</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
+          <t>PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Arturo Vasquez Jr</t>
+          <t>Justin Hinojosa</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ARTURO.VASQUEZ@FHR.COM</t>
+          <t>justin.hinojosa@fhr.com</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4920,17 +4920,17 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>07-30-2025 12:56:40 PM</t>
+          <t>08-06-2025 11:55:01 AM</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>08-05-2025 09:13:23 AM</t>
+          <t>08-06-2025 11:55:29 AM</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>FHR-MXL4123NY2, FHR-8CG82809D5, FHR-5CG31302WM, SPC-37MW25123GX, FHR-MXL9223BRW</t>
+          <t>PC-MXL24156FQ SPC-MXL24156FQ FHR-8CG80416HL FHR-8CG806569G FHR-8CG7236C1X FHR-G3BCDZ3 FHR-MXL3132SS4 FHR-8CG80416GX FHR-MXL90224D2 FHR-8J5ZK44 FHR-MXL3132SN7 FHR-MXL3132SS3 FHR-9K8ZK44 FHR-MXL3132SQX KII-MXL2424F2T FHR-MXL5043GK1 FHR-MXL5043GK0 FHR-MXL3132SRR FHR-BK001HK222 FHR-MXL3132SNW FHR-5CD439J37S FHR-MXL3132SP1</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4942,12 +4942,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Christopher Koerner</t>
+          <t>Josiah Peterson</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.KOERNER@FHR.COM</t>
+          <t>JOSIAH.PETERSON@FHR.COM</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4957,22 +4957,22 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>08-05-2025 08:14:41 AM</t>
+          <t>08-06-2025 08:30:11 AM</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>08-05-2025 08:15:12 AM</t>
+          <t>08-06-2025 08:31:02 AM</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>PC-5CD4514XZX, FHR-59309202153</t>
+          <t>FHR-5CD30764W6, PC-2MQ5270TC1</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4984,37 +4984,37 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Eric Derieux</t>
+          <t>Andrew Berndt</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ERIC.DERIEUX@FHR.COM</t>
+          <t>andrew.berndt@fhr.com</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>US-TX-BEAUMONT2 - FHR-Beaumont TX - Beaumont - Koch</t>
+          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>08-05-2025 08:01:44 AM</t>
+          <t>08-05-2025 01:32:29 PM</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>08-05-2025 08:02:14 AM</t>
+          <t>08-05-2025 01:33:21 PM</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TDP, FHR-5CG8353ZC7, DESKTOP-JU70CMA</t>
+          <t>PC-2MQ514100C</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5026,17 +5026,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Ryan Sabin</t>
+          <t>Matthew VanLanen</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ryan.sabin@fhr.com</t>
+          <t>matthew.vanlanen@fhr.com</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5046,316 +5046,316 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>08-04-2025 12:02:32 PM</t>
+          <t>08-05-2025 10:28:12 AM</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>08-04-2025 12:03:01 PM</t>
+          <t>08-05-2025 10:28:39 AM</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZHM, FHR-5CG1092Y8L, PC-2MQ5040SX3</t>
+          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Nate Claseman</t>
+          <t>Arturo Vasquez Jr</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>nate.claseman@fhr.com</t>
+          <t>ARTURO.VASQUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>08-03-2025 01:32:09 PM</t>
+          <t>07-30-2025 12:56:40 PM</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>08-03-2025 01:32:37 PM</t>
+          <t>08-05-2025 09:13:23 AM</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFN, FHR-MXL2394SXC, FHR-8CG7352CTV</t>
+          <t>FHR-MXL4123NY2, FHR-8CG82809D5, FHR-5CG31302WM, SPC-37MW25123GX, FHR-MXL9223BRW</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Koy Straks</t>
+          <t>Christopher Koerner</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>koy.straks@fhr.com</t>
+          <t>CHRISTOPHER.KOERNER@FHR.COM</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>08-01-2025 02:42:24 PM</t>
+          <t>08-05-2025 08:14:41 AM</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>08-01-2025 02:42:52 PM</t>
+          <t>08-05-2025 08:15:12 AM</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TF5</t>
+          <t>PC-5CD4514XZX, FHR-59309202153</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Gaven Girton</t>
+          <t>Eric Derieux</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>gaven.girton@fhr.com</t>
+          <t>ERIC.DERIEUX@FHR.COM</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-BEAUMONT2 - FHR-Beaumont TX - Beaumont - Koch</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>08-01-2025 02:05:31 PM</t>
+          <t>08-05-2025 08:01:44 AM</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>08-01-2025 02:05:58 PM</t>
+          <t>08-05-2025 08:02:14 AM</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZGG</t>
+          <t>PC-2MQ5270TDP, FHR-5CG8353ZC7, DESKTOP-JU70CMA</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Shaun McVay</t>
+          <t>Ryan Sabin</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>shaun.mcvay@fhr.com</t>
+          <t>ryan.sabin@fhr.com</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>08-01-2025 01:07:44 PM</t>
+          <t>08-04-2025 12:02:32 PM</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>08-01-2025 01:08:17 PM</t>
+          <t>08-04-2025 12:03:01 PM</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>PC-5CD5100KG2</t>
+          <t>PC-2MQ5140ZHM, FHR-5CG1092Y8L, PC-2MQ5040SX3</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>David Escamilla</t>
+          <t>Nate Claseman</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DAVID.ESCAMILLA@FHR.COM</t>
+          <t>nate.claseman@fhr.com</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>08-01-2025 07:36:23 AM</t>
+          <t>08-03-2025 01:32:09 PM</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>08-01-2025 07:36:54 AM</t>
+          <t>08-03-2025 01:32:37 PM</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>SPC-CRWXJ74, FHR-MXL11033PZ, PC-34MXB25193M4</t>
+          <t>PC-2MQ5270TFN, FHR-MXL2394SXC, FHR-8CG7352CTV</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Troy Pena</t>
+          <t>Koy Straks</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>troy.pena@fhr.com</t>
+          <t>koy.straks@fhr.com</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>07-31-2025 04:49:13 PM</t>
+          <t>08-01-2025 02:42:24 PM</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>07-31-2025 04:49:40 PM</t>
+          <t>08-01-2025 02:42:52 PM</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>FHR-5CG24913Q4, PC-34P3C25193M4, FHR-MXL2165D4H, FHR-87ZPDZ3</t>
+          <t>PC-2MQ5270TF5</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Hannah Shea</t>
+          <t>Gaven Girton</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>hannah.shea@fhr.com</t>
+          <t>gaven.girton@fhr.com</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>07-31-2025 10:42:49 AM</t>
+          <t>08-01-2025 02:05:31 PM</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>07-31-2025 10:43:15 AM</t>
+          <t>08-01-2025 02:05:58 PM</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TCB, PC-5CG213CFKZ</t>
+          <t>PC-2MQ5140ZGG</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>

--- a/output/fhr_computer_requests.xlsx
+++ b/output/fhr_computer_requests.xlsx
@@ -532,54 +532,54 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alex Pierce</t>
+          <t>Nicholas Hanson</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ALEXANDER.PIERCE@FHR.COM</t>
+          <t>NICK.HANSON@FHR.COM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09-24-2025 07:19:02 PM</t>
+          <t>09-25-2025 04:07:28 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>09-24-2025 07:19:31 PM</t>
+          <t>09-25-2025 04:07:56 PM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>FHR-0F01W2H2301</t>
+          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lindsey Kuzma</t>
+          <t>Sam Raimann</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LINDSEY.KUZMA@FHR.COM</t>
+          <t>SAM.RAIMANN@FHR.COM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -589,22 +589,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09-24-2025 01:01:16 PM</t>
+          <t>09-25-2025 03:18:39 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>09-24-2025 01:01:46 PM</t>
+          <t>09-25-2025 03:19:11 PM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PC-000PN23253BF</t>
+          <t>FHR-5CG1465ZKQ</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -616,138 +616,138 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Antonio Vargas</t>
+          <t>Todd Holder</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>antonio.vargas@fhr.com</t>
+          <t>todd.holder@fhr.com</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-AUSTIN2 - FHR-Austin - Austin - Koch</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09-22-2025 10:19:51 AM</t>
+          <t>09-25-2025 10:44:40 AM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09-24-2025 12:54:47 PM</t>
+          <t>09-25-2025 10:45:09 AM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>PC-5CG3341P05</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tammie Fletchall</t>
+          <t>Alex Pierce</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TAMMIE.FLETCHALL@FHR.COM</t>
+          <t>ALEXANDER.PIERCE@FHR.COM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09-23-2025 03:41:36 PM</t>
+          <t>09-24-2025 07:19:02 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09-24-2025 11:34:29 AM</t>
+          <t>09-24-2025 07:19:31 PM</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PC-5CG2261RSB</t>
+          <t>FHR-0F01W2H2301</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jimmy Nguyen</t>
+          <t>Lindsey Kuzma</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jimmy.nguyen@fhr.com</t>
+          <t>LINDSEY.KUZMA@FHR.COM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>08-04-2025 01:48:09 PM</t>
+          <t>09-24-2025 01:01:16 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-23-2025 03:22:38 PM</t>
+          <t>09-24-2025 01:01:46 PM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>FHR-2M9CK74, FHR-5CG1465S8V</t>
+          <t>PC-000PN23253BF</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Robert Cliburn</t>
+          <t>Antonio Vargas</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ROBERT.CLIBURN@FHR.COM</t>
+          <t>antonio.vargas@fhr.com</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09-23-2025 07:36:34 AM</t>
+          <t>09-22-2025 10:19:51 AM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-23-2025 07:37:02 AM</t>
+          <t>09-24-2025 12:54:47 PM</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>FHR-5CG0472YYT</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -784,54 +784,54 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Brinson Bryan</t>
+          <t>Tammie Fletchall</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRINSON.BRYAN@FHR.COM</t>
+          <t>TAMMIE.FLETCHALL@FHR.COM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-22-2025 08:31:09 AM</t>
+          <t>09-23-2025 03:41:36 PM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-22-2025 08:31:38 AM</t>
+          <t>09-24-2025 11:34:29 AM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>FHR-5CD229GR46</t>
+          <t>PC-5CG2261RSB</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Vicente Castillo</t>
+          <t>Jimmy Nguyen</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VICENTE.CASTILLO@FHR.COM</t>
+          <t>jimmy.nguyen@fhr.com</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -841,22 +841,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-22-2025 08:10:41 AM</t>
+          <t>08-04-2025 01:48:09 PM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-22-2025 08:11:09 AM</t>
+          <t>09-23-2025 03:22:38 PM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>FHR-9K8ZK44, PC-334QH231933F, FHR-MXL3132SQX</t>
+          <t>FHR-2M9CK74, FHR-5CG1465S8V</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -868,59 +868,59 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dillon Sailer</t>
+          <t>Robert Cliburn</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>dillon.sailer@fhr.com</t>
+          <t>ROBERT.CLIBURN@FHR.COM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-19-2025 04:55:25 PM</t>
+          <t>09-23-2025 07:36:34 AM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-19-2025 04:55:54 PM</t>
+          <t>09-23-2025 07:37:02 AM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FHR-LOANPB18, FHR-5CG201416N</t>
+          <t>FHR-5CG0472YYT</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Brinson Bryan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DANIEL.BRAUN@FHR.COM</t>
+          <t>BRINSON.BRYAN@FHR.COM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -930,34 +930,34 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09-18-2025 02:27:18 PM</t>
+          <t>09-22-2025 08:31:09 AM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-18-2025 02:27:46 PM</t>
+          <t>09-22-2025 08:31:38 AM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>PC-1H85200B0S, FHR-5CG7312MP6</t>
+          <t>FHR-5CD229GR46</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Roberto Montelongo</t>
+          <t>Vicente Castillo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>roberto.montelongo@fhr.com</t>
+          <t>VICENTE.CASTILLO@FHR.COM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,22 +967,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09-18-2025 09:01:15 AM</t>
+          <t>09-22-2025 08:10:41 AM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09-18-2025 09:01:46 AM</t>
+          <t>09-22-2025 08:11:09 AM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>FHR-5CG2156GT3, PC-33VX725273R3, USWHL-1276WN9</t>
+          <t>PC-334QH231933F, FHR-MXL3132SQX</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -994,12 +994,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Trevor Willberg</t>
+          <t>Dillon Sailer</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>trevor.willberg@fhr.com</t>
+          <t>dillon.sailer@fhr.com</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1009,22 +1009,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09-17-2025 10:21:00 AM</t>
+          <t>09-19-2025 04:55:25 PM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09-17-2025 12:52:13 PM</t>
+          <t>09-19-2025 04:55:54 PM</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>FHR-LOANPB18, FHR-5CG201416N</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1036,54 +1036,54 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cory Strandlien</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cory.strandlien@fhr.com</t>
+          <t>DANIEL.BRAUN@FHR.COM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09-17-2025 09:55:48 AM</t>
+          <t>09-18-2025 02:27:18 PM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-17-2025 12:44:37 PM</t>
+          <t>09-18-2025 02:27:46 PM</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>FHR-5CG7312MP6, PC-1H85200B0S</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Enrique Flores</t>
+          <t>Roberto Montelongo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENRIQUE.FLORES@FHR.COM</t>
+          <t>roberto.montelongo@fhr.com</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1093,22 +1093,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09-17-2025 10:03:05 AM</t>
+          <t>09-18-2025 09:01:15 AM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09-17-2025 10:03:36 AM</t>
+          <t>09-18-2025 09:01:46 AM</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>FHR-2UA8311QWT, FHR-5CG1240T5M, FHR-5CD4154J0P</t>
+          <t>PC-33VX725273R3, FHR-5CG2156GT3, USWHL-1276WN9</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1120,54 +1120,54 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jason Henke</t>
+          <t>Trevor Willberg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>JASON.HENKE@FHR.COM</t>
+          <t>trevor.willberg@fhr.com</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09-17-2025 09:38:30 AM</t>
+          <t>09-17-2025 10:21:00 AM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-17-2025 09:39:02 AM</t>
+          <t>09-17-2025 12:52:13 PM</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>FHR-5CG2151LHM, PC-2MQ5290Z9F</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jed Illg</t>
+          <t>Cory Strandlien</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jed.Illg@fhr.com</t>
+          <t>cory.strandlien@fhr.com</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1177,22 +1177,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09-17-2025 08:33:21 AM</t>
+          <t>09-17-2025 09:55:48 AM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-17-2025 08:33:50 AM</t>
+          <t>09-17-2025 12:44:37 PM</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>FHR-5CG2156GG9, PC-2MQ5290Z98</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1204,138 +1204,138 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Shannon Angle</t>
+          <t>Enrique Flores</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>shannon.angle@kochcc.com</t>
+          <t>ENRIQUE.FLORES@FHR.COM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09-17-2025 07:50:45 AM</t>
+          <t>09-17-2025 10:03:05 AM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-17-2025 07:51:14 AM</t>
+          <t>09-17-2025 10:03:36 AM</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
+          <t>FHR-5CG1240T5M, FHR-2UA8311QWT, FHR-5CD4154J0P</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bryeton Canchola</t>
+          <t>Jason Henke</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bryeton.canchola@fhr.com</t>
+          <t>JASON.HENKE@FHR.COM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09-16-2025 03:26:59 PM</t>
+          <t>09-17-2025 09:38:30 AM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-16-2025 03:27:26 PM</t>
+          <t>09-17-2025 09:39:02 AM</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SPC-MXL24155VV FHR-MXL1022SZ3 FHR-MXL24156C3 SPC-MXL24155W5 SPC-MXL3324PYM SPC-MXL3324PZ0 FHR-MXL2223BDL FHR-MXL9502C5W FHR-MXL9333W07 PC-01W3B23013BF FHR-MXL1022T0R FHR-MXL24155WF FHR-MXL13349Z2 SPC-MXL3324PZ2 FHR-MXL90224C1 FHR-BK000V1 FHR-B9XFH04 SPC-MXL3324PYD SPC-MXL3324PYP FHR-8V4TNZ3</t>
+          <t>FHR-5CG2151LHM, PC-2MQ5290Z9F</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Charles Cooley Jr</t>
+          <t>Jed Illg</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CHARLES.COOLEY@FHR.COM</t>
+          <t>Jed.Illg@fhr.com</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>09-16-2025 02:26:57 PM</t>
+          <t>09-17-2025 08:33:21 AM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09-16-2025 02:27:28 PM</t>
+          <t>09-17-2025 08:33:50 AM</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>FHR-5CG225854R, PC-2MQ5140ZJR</t>
+          <t>FHR-5CG2156GG9, PC-2MQ5290Z98</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Patrick Tiller</t>
+          <t>Shannon Angle</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PATRICK.TILLER@FHR.COM</t>
+          <t>shannon.angle@kochcc.com</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1345,22 +1345,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>09-16-2025 12:20:22 PM</t>
+          <t>09-17-2025 07:50:45 AM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>09-16-2025 12:20:49 PM</t>
+          <t>09-17-2025 07:51:14 AM</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PC-JZ4TNZ3, FHR-5CG1240T4Q, PC-1H85200B13, FHR-5CG815441G, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
+          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1372,12 +1372,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bryan Garcia</t>
+          <t>Bryeton Canchola</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>bryan.garcia1@fhr.com</t>
+          <t>bryeton.canchola@fhr.com</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1392,17 +1392,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>09-16-2025 07:46:13 AM</t>
+          <t>09-16-2025 03:26:59 PM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>09-16-2025 07:46:49 AM</t>
+          <t>09-16-2025 03:27:26 PM</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>PC-33J3M25073R3, PC-BZQ03Z3, PC-5CG408495P</t>
+          <t>SPC-MXL24155VV FHR-MXL1022SZ3 FHR-MXL24156C3 SPC-MXL24155W5 SPC-MXL3324PYM SPC-MXL3324PZ0 FHR-MXL2223BDL FHR-MXL9502C5W FHR-MXL9333W07 PC-01W3B23013BF FHR-MXL1022T0R FHR-MXL24155WF FHR-MXL13349Z2 SPC-MXL3324PZ2 FHR-MXL90224C1 FHR-BK000V1 FHR-B9XFH04 SPC-MXL3324PYD SPC-MXL3324PYP FHR-8V4TNZ3</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1414,12 +1414,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Troy Hull</t>
+          <t>Charles Cooley Jr</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TROY.HULL@FHR.COM</t>
+          <t>CHARLES.COOLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1429,22 +1429,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>09-16-2025 06:55:54 AM</t>
+          <t>09-16-2025 02:26:57 PM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>09-16-2025 06:56:26 AM</t>
+          <t>09-16-2025 02:27:28 PM</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>FHR-MXL2394ST8, FHR-MXL24155WF, PC-5CG4151LFY</t>
+          <t>FHR-5CG225854R, PC-2MQ5140ZJR</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1456,17 +1456,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Crystal Link</t>
+          <t>Patrick Tiller</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CRYSTAL.LINK@FHR.COM</t>
+          <t>PATRICK.TILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1476,249 +1476,249 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>09-15-2025 11:01:25 AM</t>
+          <t>09-16-2025 12:20:22 PM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>09-15-2025 11:01:54 AM</t>
+          <t>09-16-2025 12:20:49 PM</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>PC-5CG1465ZKZ, PC-1H85200B04, FHR-5CG0254D4T</t>
+          <t>PC-JZ4TNZ3, FHR-5CG1240T4Q, PC-1H85200B13, FHR-5CG815441G, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Alex Lodholz</t>
+          <t>Bryan Garcia</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>alex.lodholz@fhr.com</t>
+          <t>bryan.garcia1@fhr.com</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09-15-2025 09:14:43 AM</t>
+          <t>09-16-2025 07:46:13 AM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>09-15-2025 09:15:12 AM</t>
+          <t>09-16-2025 07:46:49 AM</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>PC-2MQ514103N</t>
+          <t>PC-33J3M25073R3, PC-BZQ03Z3, PC-5CG408495P</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Brendan Snell</t>
+          <t>Troy Hull</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>brendan.snell@fhr.com</t>
+          <t>TROY.HULL@FHR.COM</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:12 AM</t>
+          <t>09-16-2025 06:55:54 AM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:46 AM</t>
+          <t>09-16-2025 06:56:26 AM</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>FHR-5CG2156XDV</t>
+          <t>FHR-MXL24155WF, PC-33PCV25273R3, FHR-MXL2394ST8, PC-5CG4151LFY</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Joey Guerrero</t>
+          <t>Crystal Link</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>joey.guerrero1@fhr.com</t>
+          <t>CRYSTAL.LINK@FHR.COM</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09-15-2025 06:33:41 AM</t>
+          <t>09-15-2025 11:01:25 AM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-15-2025 06:34:14 AM</t>
+          <t>09-15-2025 11:01:54 AM</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>PC-33B8725073R3, PC-9659600351</t>
+          <t>PC-5CG1465ZKZ, PC-1H85200B04, FHR-5CG0254D4T</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Eddie Buskirk</t>
+          <t>Alex Lodholz</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>EDDIE.BUSKIRK@FHR.COM</t>
+          <t>alex.lodholz@fhr.com</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09-12-2025 01:52:56 PM</t>
+          <t>09-15-2025 09:14:43 AM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-12-2025 01:53:24 PM</t>
+          <t>09-15-2025 09:15:12 AM</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>PC-1H85200B0W, FHR-5CG9326W2B</t>
+          <t>PC-2MQ514103N</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sammantha Reynolds</t>
+          <t>Brendan Snell</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>sammantha.reynolds1@fhr.com</t>
+          <t>brendan.snell@fhr.com</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09-12-2025 08:18:55 AM</t>
+          <t>09-15-2025 08:15:12 AM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-12-2025 08:19:25 AM</t>
+          <t>09-15-2025 08:15:46 AM</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
+          <t>FHR-5CG2156XDV</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Victor Sauceda</t>
+          <t>Joey Guerrero</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>victor.sauceda@fhr.com</t>
+          <t>joey.guerrero1@fhr.com</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1728,39 +1728,39 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:03 AM</t>
+          <t>09-15-2025 06:33:41 AM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:33 AM</t>
+          <t>09-15-2025 06:34:14 AM</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>PC-33W4325273R3, FHR-5CD8522C54</t>
+          <t>PC-33B8725073R3, PC-9659600351</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Mitch O'Keefe</t>
+          <t>Eddie Buskirk</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MITCH.OKEEFE@FHR.COM</t>
+          <t>EDDIE.BUSKIRK@FHR.COM</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1770,34 +1770,34 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:11 PM</t>
+          <t>09-12-2025 01:52:56 PM</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:39 PM</t>
+          <t>09-12-2025 01:53:24 PM</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>FHR-MXL23843MP, MSP-CTLU27, PC-1H85200B09, FHR-5CG1344HQ7</t>
+          <t>PC-1H85200B0W, FHR-5CG9326W2B</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Joe Bedynek</t>
+          <t>Sammantha Reynolds</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>JOE.BEDYNEK@FHR.COM</t>
+          <t>sammantha.reynolds1@fhr.com</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1807,22 +1807,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:10 PM</t>
+          <t>09-12-2025 08:18:55 AM</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:36 PM</t>
+          <t>09-12-2025 08:19:25 AM</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>PC-33W6D25273R3, FHR-5CD026KSTV</t>
+          <t>PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1834,54 +1834,54 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ruben Hernandez</t>
+          <t>Victor Sauceda</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ruben.hernandez@fhr.com</t>
+          <t>victor.sauceda@fhr.com</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09-10-2025 02:51:54 PM</t>
+          <t>09-11-2025 09:46:03 AM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-10-2025 02:52:21 PM</t>
+          <t>09-11-2025 09:46:33 AM</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>PC-5CD231GKV7, PC-2MQ5141117</t>
+          <t>PC-33W4325273R3, FHR-5CD8522C54</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Lauren Sada</t>
+          <t>Mitch O'Keefe</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>lauren.sada@fhr.com</t>
+          <t>MITCH.OKEEFE@FHR.COM</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1891,22 +1891,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:21 PM</t>
+          <t>09-10-2025 05:54:11 PM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:49 PM</t>
+          <t>09-10-2025 05:54:39 PM</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZMH</t>
+          <t>MSP-CTLU27, FHR-MXL23843MP, PC-1H85200B09, FHR-5CG1344HQ7</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1918,96 +1918,96 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Kevin Harvey</t>
+          <t>Joe Bedynek</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>KEVIN.HARVEY@FHR.COM</t>
+          <t>JOE.BEDYNEK@FHR.COM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09-10-2025 08:38:42 AM</t>
+          <t>09-10-2025 02:54:10 PM</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-10-2025 08:39:13 AM</t>
+          <t>09-10-2025 02:54:36 PM</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>PC-2MQ5290Z3G, FHR-5CG1236JK6</t>
+          <t>PC-33W6D25273R3, FHR-5CD026KSTV</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Matt Olson</t>
+          <t>Ruben Hernandez</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MATTHEW.OLSON@FHR.COM</t>
+          <t>ruben.hernandez@fhr.com</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09-09-2025 11:43:57 AM</t>
+          <t>09-10-2025 02:51:54 PM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-09-2025 11:44:26 AM</t>
+          <t>09-10-2025 02:52:21 PM</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>FHR-5CD40711PF, PC-2MQ5290Z8Z, FHR-5CG918242Z</t>
+          <t>PC-5CD231GKV7, PC-2MQ5141117</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sam Weldemariam</t>
+          <t>Lauren Sada</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SAM.WELDEMARIAM@FHR.COM</t>
+          <t>lauren.sada@fhr.com</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2017,22 +2017,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:23 AM</t>
+          <t>09-10-2025 01:27:21 PM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:51 AM</t>
+          <t>09-10-2025 01:27:49 PM</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>FHR-F9GR624, FHR-D90QDZ3, FHR-3KJBQ54, FHR-G8GR624, PC-GQMKN34, FHR-MXL9144C61, FHR-5CG213BX6D, FHR-5CD8506CR3</t>
+          <t>PC-2MQ5140ZMH</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2044,54 +2044,54 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Derek Wilfong</t>
+          <t>Kevin Harvey</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DEREK.WILFONG@FHR.COM</t>
+          <t>KEVIN.HARVEY@FHR.COM</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09-09-2025 09:02:55 AM</t>
+          <t>09-10-2025 08:38:42 AM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-09-2025 09:03:28 AM</t>
+          <t>09-10-2025 08:39:13 AM</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>FHR-5CG1314K33</t>
+          <t>PC-2MQ5290Z3G, FHR-5CG1236JK6</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Joel Mccabe</t>
+          <t>Matt Olson</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>JOEL.MCCABE@FHR.COM</t>
+          <t>MATTHEW.OLSON@FHR.COM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2101,22 +2101,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09-05-2025 03:04:34 PM</t>
+          <t>09-09-2025 11:43:57 AM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-08-2025 09:08:16 AM</t>
+          <t>09-09-2025 11:44:26 AM</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>SPC-G942X54, FHR-1B1KH04, MSP-005054</t>
+          <t>FHR-5CD40711PF, PC-2MQ5290Z8Z, FHR-5CG918242Z</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2128,17 +2128,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Devon Holz</t>
+          <t>Sam Weldemariam</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DEVON.HOLZ@FHR.COM</t>
+          <t>SAM.WELDEMARIAM@FHR.COM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2148,59 +2148,59 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:14 PM</t>
+          <t>09-09-2025 09:48:23 AM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:42 PM</t>
+          <t>09-09-2025 09:48:51 AM</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZD9, FHR-5CG2219ZDW</t>
+          <t>FHR-3KJBQ54, PC-GQMKN34, FHR-G8GR624, FHR-F9GR624, FHR-MXL9144C61, FHR-5CG213BX6D, FHR-D90QDZ3, FHR-5CD8506CR3</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Shawn Sieben</t>
+          <t>Derek Wilfong</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Shawn.Sieben@fhr.com</t>
+          <t>DEREK.WILFONG@FHR.COM</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-04-2025 09:29:38 AM</t>
+          <t>09-09-2025 09:02:55 AM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>09-05-2025 12:58:04 PM</t>
+          <t>09-09-2025 09:03:28 AM</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>FHR-CND8426B2G, FHR-5CD3507T46, FHR-8CC84008DL</t>
+          <t>FHR-5CG1314K33</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2212,205 +2212,205 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Carrie Simpson</t>
+          <t>Joel Mccabe</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CARRIE.SIMPSON@FHR.COM</t>
+          <t>JOEL.MCCABE@FHR.COM</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:03 PM</t>
+          <t>09-05-2025 03:04:34 PM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:30 PM</t>
+          <t>09-08-2025 09:08:16 AM</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZSD, PC-001NS23373BF</t>
+          <t>FHR-1B1KH04, SPC-G942X54, MSP-005054</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Chris Pratt</t>
+          <t>Devon Holz</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Chris.Pratt@fhr.com</t>
+          <t>DEVON.HOLZ@FHR.COM</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-02-2025 04:16:05 PM</t>
+          <t>09-05-2025 02:23:14 PM</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09-04-2025 01:23:58 PM</t>
+          <t>09-05-2025 02:23:42 PM</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>FHR-5CD016BPV0, PC-MXL53644K5, FHR-MXL8361TTS</t>
+          <t>PC-2MQ5140ZD9, FHR-5CG2219ZDW</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Manuel Moreno Jr</t>
+          <t>Shawn Sieben</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MANUEL.MORENO@FHR.COM</t>
+          <t>Shawn.Sieben@fhr.com</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>05-02-2025 08:54:50 AM</t>
+          <t>09-04-2025 09:29:38 AM</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09-04-2025 01:17:10 PM</t>
+          <t>09-05-2025 12:58:04 PM</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>SPC-5BJ8D14, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
+          <t>FHR-MXL0041QDS, FHR-CND8426B2G, FHR-5CD3507T46, FHR-8CC84008DL</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ben Sandiford</t>
+          <t>Carrie Simpson</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ben.sandiford@fhr.com</t>
+          <t>CARRIE.SIMPSON@FHR.COM</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:18 PM</t>
+          <t>09-04-2025 03:17:03 PM</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:48 PM</t>
+          <t>09-04-2025 03:17:30 PM</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>PC-33VW824233M4, PC-1H95220MS6</t>
+          <t>PC-2MQ5140ZSD, PC-001NS23373BF</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Denise Schardt</t>
+          <t>Chris Pratt</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DENISE.SCHARDT@FHR.COM</t>
+          <t>Chris.Pratt@fhr.com</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-03-2025 02:48:18 PM</t>
+          <t>09-02-2025 04:16:05 PM</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>09-04-2025 01:00:11 PM</t>
+          <t>09-04-2025 01:23:58 PM</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
+          <t>FHR-5CD016BPV0, PC-MXL53644K5, FHR-MXL8361TTS</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2422,180 +2422,180 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ray Aslesen</t>
+          <t>Manuel Moreno Jr</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>RAY.ASLESEN@FHR.COM</t>
+          <t>MANUEL.MORENO@FHR.COM</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-04-2025 07:28:33 AM</t>
+          <t>05-02-2025 08:54:50 AM</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>09-04-2025 07:29:01 AM</t>
+          <t>09-04-2025 01:17:10 PM</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>PC-MXL4523KGB, PC-2MQ5140ZSW, FHR-0F00CQM2332, FHR-CND1440HBV</t>
+          <t>SPC-5BJ8D14, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>Ben Sandiford</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>ben.sandiford@fhr.com</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-04-2025 06:11:34 AM</t>
+          <t>09-04-2025 01:11:18 PM</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>09-04-2025 06:12:02 AM</t>
+          <t>09-04-2025 01:11:48 PM</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>PC-33VW824233M4, PC-1H95220MS6</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Dora Heimsoth</t>
+          <t>Denise Schardt</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>dora.heimsoth1@fhr.com</t>
+          <t>DENISE.SCHARDT@FHR.COM</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-03-2025 03:00:34 PM</t>
+          <t>09-03-2025 02:48:18 PM</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>09-03-2025 03:01:01 PM</t>
+          <t>09-04-2025 01:00:11 PM</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>PC-339W925073R3, PC-86XGSV3</t>
+          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Stephen Rodriguez</t>
+          <t>Ray Aslesen</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
+          <t>RAY.ASLESEN@FHR.COM</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-03-2025 02:28:45 PM</t>
+          <t>09-04-2025 07:28:33 AM</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09-03-2025 02:29:20 PM</t>
+          <t>09-04-2025 07:29:01 AM</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>FHR-MXL90223C1 FHR-MXL902239Z FHR-MXL9332KN0 FHR-MXL902239R CND837B026 FHR-MXL9153QWC KII-MXL2424F2T FHR-5CG12812WW FHR-MXL3132SQX FHR-MXL3132SN7 FHR-MXL3132SNW FHR-MXL3132SS3 FHR-MXL3132SS4 FHR-MXL90224D2 FHR-8CG806569G KII-MXL24156FT FHR-MXL4424X3B FHR-MXL5043GK0 FHR-MXL5043GK1 SPC-DX6LZ84 SPC-MXL24156CD</t>
+          <t>PC-MXL4523KGB, PC-2MQ5140ZSW, FHR-0F00CQM2332, FHR-CND1440HBV</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Matt Skrobarcek</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2605,22 +2605,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:08 AM</t>
+          <t>09-04-2025 06:11:34 AM</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:38 AM</t>
+          <t>09-04-2025 06:12:02 AM</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2632,138 +2632,138 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Justin Nava</t>
+          <t>Dora Heimsoth</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>JUSTIN.NAVA@FHR.COM</t>
+          <t>dora.heimsoth1@fhr.com</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-03-2025 09:44:33 AM</t>
+          <t>09-03-2025 03:00:34 PM</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>09-03-2025 09:45:02 AM</t>
+          <t>09-03-2025 03:01:01 PM</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>SPC-82TKZ84, FHR-5CG4240WQT, FHR-MXL9223BVJ</t>
+          <t>PC-339W925073R3, PC-86XGSV3</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Logan Tom</t>
+          <t>Stephen Rodriguez</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>logan.tom@fhr.com</t>
+          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:15 PM</t>
+          <t>09-03-2025 02:28:45 PM</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:42 PM</t>
+          <t>09-03-2025 02:29:20 PM</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
+          <t>FHR-MXL90223C1 FHR-MXL902239Z FHR-MXL9332KN0 FHR-MXL902239R CND837B026 FHR-MXL9153QWC KII-MXL2424F2T FHR-5CG12812WW FHR-MXL3132SQX FHR-MXL3132SN7 FHR-MXL3132SNW FHR-MXL3132SS3 FHR-MXL3132SS4 FHR-MXL90224D2 FHR-8CG806569G KII-MXL24156FT FHR-MXL4424X3B FHR-MXL5043GK0 FHR-MXL5043GK1 SPC-DX6LZ84 SPC-MXL24156CD</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Travis Sumerfelt</t>
+          <t>Matt Skrobarcek</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>travis.sumerfelt@fhr.com</t>
+          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-02-2025 11:06:03 AM</t>
+          <t>09-03-2025 09:46:08 AM</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>09-02-2025 11:07:05 AM</t>
+          <t>09-03-2025 09:46:38 AM</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>PC-2MQ514108Q</t>
+          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Carlos Garcia Jr.</t>
+          <t>Justin Nava</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CARLOS.GARCIAJR@FHR.COM</t>
+          <t>JUSTIN.NAVA@FHR.COM</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2773,22 +2773,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08-27-2025 09:24:59 PM</t>
+          <t>09-03-2025 09:44:33 AM</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>09-02-2025 08:26:34 AM</t>
+          <t>09-03-2025 09:45:02 AM</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>FHR-FRMKN34</t>
+          <t>FHR-5CG4240WQT, SPC-82TKZ84, FHR-MXL9223BVJ</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2800,59 +2800,59 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Billy Royal</t>
+          <t>Logan Tom</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BILLY.ROYAL@FHR.COM</t>
+          <t>logan.tom@fhr.com</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:06 PM</t>
+          <t>09-02-2025 02:39:15 PM</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:34 PM</t>
+          <t>09-02-2025 02:39:42 PM</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>FHR-5CD2331XLD</t>
+          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Samuel Paulus</t>
+          <t>Travis Sumerfelt</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>samuel.paulus@fhr.com</t>
+          <t>travis.sumerfelt@fhr.com</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
+          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2862,34 +2862,34 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:17 PM</t>
+          <t>09-02-2025 11:06:03 AM</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:45 PM</t>
+          <t>09-02-2025 11:07:05 AM</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
+          <t>PC-2MQ514108Q</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Derya Broll</t>
+          <t>Carlos Garcia Jr.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DERYA.BROLL@FHR.COM</t>
+          <t>CARLOS.GARCIAJR@FHR.COM</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2899,22 +2899,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:07 PM</t>
+          <t>08-27-2025 09:24:59 PM</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:37 PM</t>
+          <t>09-02-2025 08:26:34 AM</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
+          <t>FHR-FRMKN34</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2926,17 +2926,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Joseph Moberly</t>
+          <t>Billy Royal</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>joseph.moberly@fhr.com</t>
+          <t>BILLY.ROYAL@FHR.COM</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2946,76 +2946,76 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>08-28-2025 01:10:49 PM</t>
+          <t>08-29-2025 04:48:06 PM</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>08-28-2025 01:11:16 PM</t>
+          <t>08-29-2025 04:48:34 PM</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>PC-1H852009W3, PC-5CG2415PYM</t>
+          <t>FHR-5CD2331XLD</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Lindi Dinn</t>
+          <t>Samuel Paulus</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LINDI.DINN@FHR.COM</t>
+          <t>samuel.paulus@fhr.com</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:14 PM</t>
+          <t>08-29-2025 01:00:17 PM</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:40 PM</t>
+          <t>08-29-2025 01:00:45 PM</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>PC-36KMG25193M4, PC-1H852009X5, FHR-8CC8412KMN, FHR-CND1440HKF, FHR-51990492553</t>
+          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Rodney Cotten</t>
+          <t>Derya Broll</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>RODNEY.COTTEN@FHR.COM</t>
+          <t>DERYA.BROLL@FHR.COM</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3025,22 +3025,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:02 PM</t>
+          <t>08-29-2025 12:10:07 PM</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:30 PM</t>
+          <t>08-29-2025 12:10:37 PM</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>PC-33JGC25073R3, PC-5CD5100K7L, FHR-5CG7515059</t>
+          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3052,54 +3052,54 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Chad Schaner</t>
+          <t>Joseph Moberly</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CHAD.SCHANER@FHR.COM</t>
+          <t>joseph.moberly@fhr.com</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Dell Pro Rugged RB14250 14" Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>08-04-2025 01:41:48 PM</t>
+          <t>08-28-2025 01:10:49 PM</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>08-27-2025 01:20:37 PM</t>
+          <t>08-28-2025 01:11:16 PM</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>FHR-8H0GH04, FHR-8CG7352CR5, FHR-DYW9BT3, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-187491253</t>
+          <t>PC-1H852009W3, PC-5CG2415PYM</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Denise Gonzalez</t>
+          <t>Lindi Dinn</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DENISE.GONZALEZ@FHR.COM</t>
+          <t>LINDI.DINN@FHR.COM</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3109,22 +3109,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:17 AM</t>
+          <t>08-27-2025 02:53:14 PM</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:45 AM</t>
+          <t>08-27-2025 02:53:40 PM</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>SPC-83V03Z3, SPC-D0R03Z3, SPC-G1V03Z3, PC-34Y4825063R3, PC-5WXDQV3</t>
+          <t>FHR-8CC8412KMN, FHR-CND1440HKF, PC-36KMG25193M4, PC-1H852009X5, FHR-51990492553</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3136,12 +3136,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Kris Adkins</t>
+          <t>Rodney Cotten</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>KRISTOPHER.ADKINS@FHR.COM</t>
+          <t>RODNEY.COTTEN@FHR.COM</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3156,17 +3156,17 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-26-2025 08:20:43 PM</t>
+          <t>08-27-2025 02:27:02 PM</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-26-2025 08:21:16 PM</t>
+          <t>08-27-2025 02:27:30 PM</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>PC-34WWG25063R3</t>
+          <t>PC-33JGC25073R3, PC-5CD5100K7L, FHR-5CG7515059</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3178,138 +3178,138 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Jose Cardona</t>
+          <t>Chad Schaner</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>JOSE.CARDONA@FHR.COM</t>
+          <t>CHAD.SCHANER@FHR.COM</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Dell Pro Rugged RB14250 14" Laptop</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>08-26-2025 09:00:40 AM</t>
+          <t>08-04-2025 01:41:48 PM</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>08-26-2025 09:01:09 AM</t>
+          <t>08-27-2025 01:20:37 PM</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>CPC-JOSEC-BGVEA, FHR-5CG30935LZ, SPC-5CG40111D5</t>
+          <t>FHR-8H0GH04, FHR-8CG7352CR5, FHR-DYW9BT3, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-187491253</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Phillip Norell</t>
+          <t>Denise Gonzalez</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PHILLIP.NORELL@FHR.COM</t>
+          <t>DENISE.GONZALEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:13 PM</t>
+          <t>08-27-2025 07:15:17 AM</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:39 PM</t>
+          <t>08-27-2025 07:15:45 AM</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>FHR-5CG213CGKR, PC-1H85200B08</t>
+          <t>SPC-83V03Z3, SPC-D0R03Z3, SPC-G1V03Z3, PC-34Y4825063R3, PC-5WXDQV3</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Anne Lee</t>
+          <t>Kris Adkins</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ANNE.LEE@FHR.COM</t>
+          <t>KRISTOPHER.ADKINS@FHR.COM</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:00 AM</t>
+          <t>08-26-2025 08:20:43 PM</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:30 AM</t>
+          <t>08-26-2025 08:21:16 PM</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
+          <t>PC-34WWG25063R3</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>David Barnholt</t>
+          <t>Jose Cardona</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>david.barnholt@fhr.com</t>
+          <t>JOSE.CARDONA@FHR.COM</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3319,22 +3319,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:27 AM</t>
+          <t>08-26-2025 09:00:40 AM</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:54 AM</t>
+          <t>08-26-2025 09:01:09 AM</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>PC-1H852009SD</t>
+          <t>FHR-5CG30935LZ, CPC-JOSEC-BGVEA, SPC-5CG40111D5</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3346,101 +3346,101 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Eric Enders</t>
+          <t>Phillip Norell</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>eric.enders@fhr.com</t>
+          <t>PHILLIP.NORELL@FHR.COM</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:30 AM</t>
+          <t>08-25-2025 02:58:13 PM</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:59 AM</t>
+          <t>08-25-2025 02:58:39 PM</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>PC-2MQ514115J</t>
+          <t>FHR-5CG213CGKR, PC-1H85200B08</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sean Garza</t>
+          <t>Anne Lee</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>sean.garza@fhr.com</t>
+          <t>ANNE.LEE@FHR.COM</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-19-2025 01:01:15 AM</t>
+          <t>08-25-2025 10:13:00 AM</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:18 AM</t>
+          <t>08-25-2025 10:13:30 AM</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>FHR-GTQKN34, SPC-3B6G25073R3</t>
+          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Joe Rohl</t>
+          <t>David Barnholt</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>JOE.ROHL@FHR.COM</t>
+          <t>david.barnholt@fhr.com</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3450,76 +3450,76 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-19-2025 02:44:07 PM</t>
+          <t>08-22-2025 11:11:27 AM</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:14 AM</t>
+          <t>08-22-2025 11:11:54 AM</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
+          <t>PC-1H852009SD</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>David Ybarra</t>
+          <t>Eric Enders</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DAVID.YBARRA@FHR.COM</t>
+          <t>eric.enders@fhr.com</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:30 AM</t>
+          <t>08-22-2025 07:55:30 AM</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:58 AM</t>
+          <t>08-22-2025 07:55:59 AM</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
+          <t>PC-2MQ514115J</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>Sean Garza</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>sean.garza@fhr.com</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3529,22 +3529,22 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:19 AM</t>
+          <t>08-19-2025 01:01:15 AM</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:48 AM</t>
+          <t>08-22-2025 07:34:18 AM</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>FHR-GTQKN34, SPC-3B6G25073R3</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3556,101 +3556,101 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Cole Brewster</t>
+          <t>Joe Rohl</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>cole.brewster@fhr.com</t>
+          <t>JOE.ROHL@FHR.COM</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-20-2025 01:48:49 PM</t>
+          <t>08-19-2025 02:44:07 PM</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>08-20-2025 01:49:17 PM</t>
+          <t>08-22-2025 07:34:14 AM</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>PC-34Y3Q25063R3, FHR-5CG1276WN7</t>
+          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Brenna Gerety</t>
+          <t>David Ybarra</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BRENNA.GERETY@FHR.COM</t>
+          <t>DAVID.YBARRA@FHR.COM</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:01 AM</t>
+          <t>08-22-2025 07:18:30 AM</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:29 AM</t>
+          <t>08-22-2025 07:18:58 AM</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>PC-5CG5040677, FHR-5CG0036B94</t>
+          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Daniel Jurach</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>daniel.jurach@fhr.com</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3660,17 +3660,17 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-18-2025 11:58:20 AM</t>
+          <t>08-22-2025 06:59:19 AM</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>08-19-2025 10:21:28 AM</t>
+          <t>08-22-2025 06:59:48 AM</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>PC-2MQ514110T</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3682,101 +3682,101 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Tony Short</t>
+          <t>Cole Brewster</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ANTHONY.SHORT@KPLSRV.COM</t>
+          <t>cole.brewster@fhr.com</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:07 AM</t>
+          <t>08-20-2025 01:48:49 PM</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:38 AM</t>
+          <t>08-20-2025 01:49:17 PM</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>PC-5CD229GR66, PC-5CD5100KK7, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
+          <t>PC-34Y3Q25063R3, FHR-5CG1276WN7</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Chad Remer</t>
+          <t>Brenna Gerety</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CHAD.REMER@FHR.COM</t>
+          <t>BRENNA.GERETY@FHR.COM</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:04 AM</t>
+          <t>08-20-2025 07:58:01 AM</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:34 AM</t>
+          <t>08-20-2025 07:58:29 AM</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
+          <t>PC-5CG5040677, FHR-5CG0036B94</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Nicholas Hanson</t>
+          <t>Daniel Jurach</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NICK.HANSON@FHR.COM</t>
+          <t>daniel.jurach@fhr.com</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3786,76 +3786,76 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:17 AM</t>
+          <t>08-18-2025 11:58:20 AM</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:46 AM</t>
+          <t>08-19-2025 10:21:28 AM</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
+          <t>PC-2MQ514110T</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Harold Irvin</t>
+          <t>Tony Short</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>HAROLD.IRVIN@FHR.COM</t>
+          <t>ANTHONY.SHORT@KPLSRV.COM</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:06 PM</t>
+          <t>08-18-2025 10:21:07 AM</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:37 PM</t>
+          <t>08-18-2025 10:21:38 AM</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>FHR-5CG2156Z1X, PC-2MQ51410F2</t>
+          <t>PC-5CD229GR66, PC-5CD5100KK7, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sandra Akarolo</t>
+          <t>Chad Remer</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>sandra.akarolo@fhr.com</t>
+          <t>CHAD.REMER@FHR.COM</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3865,22 +3865,22 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>08-13-2025 01:51:42 PM</t>
+          <t>08-18-2025 09:26:04 AM</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>08-14-2025 08:58:56 AM</t>
+          <t>08-18-2025 09:26:34 AM</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>FHR-5CG213CDWV</t>
+          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3892,12 +3892,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Paul Fisher</t>
+          <t>Nicholas Hanson</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PAUL.FISHER@FHR.COM</t>
+          <t>NICK.HANSON@FHR.COM</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3912,17 +3912,17 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:23 PM</t>
+          <t>08-15-2025 07:06:17 AM</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:56 PM</t>
+          <t>08-15-2025 07:06:46 AM</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
+          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3934,54 +3934,54 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Robert Corley</t>
+          <t>Harold Irvin</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ROBERT.CORLEY@FHR.COM</t>
+          <t>HAROLD.IRVIN@FHR.COM</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
+          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>08-12-2025 06:27:18 PM</t>
+          <t>08-14-2025 02:45:06 PM</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>08-13-2025 12:47:38 PM</t>
+          <t>08-14-2025 02:45:37 PM</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
+          <t>FHR-5CG2156Z1X, PC-2MQ51410F2</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Jeff Baker</t>
+          <t>Sandra Akarolo</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>JEFF.BAKER@FHR.COM</t>
+          <t>sandra.akarolo@fhr.com</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3991,22 +3991,22 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:02 AM</t>
+          <t>08-13-2025 01:51:42 PM</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:30 AM</t>
+          <t>08-14-2025 08:58:56 AM</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
+          <t>FHR-5CG213CDWV</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4018,12 +4018,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Kemal Simpson</t>
+          <t>Paul Fisher</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>kemal.simpson@fhr.com</t>
+          <t>PAUL.FISHER@FHR.COM</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4038,17 +4038,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>08-13-2025 07:17:41 AM</t>
+          <t>08-13-2025 05:07:23 PM</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>08-13-2025 07:18:09 AM</t>
+          <t>08-13-2025 05:07:56 PM</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>FHR-5CG1073F3X</t>
+          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4060,96 +4060,96 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Robert Jimenez</t>
+          <t>Robert Corley</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ROBERT.JIMENEZ@FHR.COM</t>
+          <t>ROBERT.CORLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:22 AM</t>
+          <t>08-12-2025 06:27:18 PM</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:51 AM</t>
+          <t>08-13-2025 12:47:38 PM</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
+          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Kevin Miller</t>
+          <t>Jeff Baker</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>KEVIN.MILLER@FHR.COM</t>
+          <t>JEFF.BAKER@FHR.COM</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:21 AM</t>
+          <t>08-13-2025 09:11:02 AM</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:49 AM</t>
+          <t>08-13-2025 09:11:30 AM</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
+          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Tucker Lansing</t>
+          <t>Kemal Simpson</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>tucker.lansing@fhr.com</t>
+          <t>kemal.simpson@fhr.com</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4164,17 +4164,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:05 AM</t>
+          <t>08-13-2025 07:17:41 AM</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:44 AM</t>
+          <t>08-13-2025 07:18:09 AM</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>PC-2MQ5141103</t>
+          <t>FHR-5CG1073F3X</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4186,54 +4186,54 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Kairos Logan</t>
+          <t>Robert Jimenez</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>kairos.logan@fhr.com</t>
+          <t>ROBERT.JIMENEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:17 PM</t>
+          <t>08-12-2025 11:43:22 AM</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:45 PM</t>
+          <t>08-12-2025 11:43:51 AM</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>PC-2MQ51410BZ</t>
+          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Louis Stump</t>
+          <t>Kevin Miller</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>LOUIS.STUMP@FHR.COM</t>
+          <t>KEVIN.MILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4243,22 +4243,22 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>07-20-2025 06:49:35 AM</t>
+          <t>08-12-2025 09:11:21 AM</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>08-11-2025 03:03:35 PM</t>
+          <t>08-12-2025 09:11:49 AM</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
+          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4270,96 +4270,96 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Tucker Lansing</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>tucker.lansing@fhr.com</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>08-11-2025 12:57:47 PM</t>
+          <t>08-12-2025 08:13:05 AM</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>08-11-2025 12:58:15 PM</t>
+          <t>08-12-2025 08:13:44 AM</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
+          <t>PC-2MQ5141103</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Alex Fairbanks</t>
+          <t>Kairos Logan</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Alex.Fairbanks@fhr.com</t>
+          <t>kairos.logan@fhr.com</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>08-11-2025 09:58:56 AM</t>
+          <t>08-11-2025 04:54:17 PM</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>08-11-2025 09:59:25 AM</t>
+          <t>08-11-2025 04:54:45 PM</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>FHR-MXL3132S8S, PC-5CD5100K77, FHR-5CG2261RYZ</t>
+          <t>PC-2MQ51410BZ</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Cole Wilson</t>
+          <t>Louis Stump</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>cole.wilson@fhr.com</t>
+          <t>LOUIS.STUMP@FHR.COM</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4369,22 +4369,22 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>08-11-2025 08:57:56 AM</t>
+          <t>07-20-2025 06:49:35 AM</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>08-11-2025 08:58:25 AM</t>
+          <t>08-11-2025 03:03:35 PM</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z9H</t>
+          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4411,17 +4411,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:07 AM</t>
+          <t>08-11-2025 12:57:47 PM</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:36 AM</t>
+          <t>08-11-2025 12:58:15 PM</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4438,54 +4438,54 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Bobby Peddycord</t>
+          <t>Alex Fairbanks</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>bobby.peddycord@fhr.com</t>
+          <t>Alex.Fairbanks@fhr.com</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>08-07-2025 10:38:48 AM</t>
+          <t>08-11-2025 09:58:56 AM</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>08-11-2025 07:13:21 AM</t>
+          <t>08-11-2025 09:59:25 AM</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
+          <t>FHR-MXL3132S8S, PC-5CD5100K77, FHR-5CG2261RYZ</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Charles Oliver</t>
+          <t>Cole Wilson</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CHARLES.OLIVER@FHR.COM</t>
+          <t>cole.wilson@fhr.com</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4495,22 +4495,22 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>08-11-2025 05:46:52 AM</t>
+          <t>08-11-2025 08:57:56 AM</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>08-11-2025 05:47:20 AM</t>
+          <t>08-11-2025 08:58:25 AM</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>PC-36KFF25193M4</t>
+          <t>PC-2MQ5140Z9H</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4522,12 +4522,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rudy Barajas</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>RUDY.BARAJAS@FHR.COM</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4537,22 +4537,22 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>08-06-2025 04:56:54 AM</t>
+          <t>08-11-2025 08:33:07 AM</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>08-08-2025 01:09:23 PM</t>
+          <t>08-11-2025 08:33:36 AM</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>PC-33BYB25013M4, PC-2MQ514105T, FHR-J2V03Z3, FHR-MXL24156CF</t>
+          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4564,37 +4564,37 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Braxton Holes</t>
+          <t>Bobby Peddycord</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>braxton.holes@fhr.com</t>
+          <t>bobby.peddycord@fhr.com</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
+          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>08-07-2025 08:51:34 AM</t>
+          <t>08-07-2025 10:38:48 AM</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>08-08-2025 11:34:27 AM</t>
+          <t>08-11-2025 07:13:21 AM</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>FHR-5CD231D3NH, PC-5CD5100KGP, FHR-5CD01052SN</t>
+          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4606,17 +4606,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Andrea Unruh</t>
+          <t>Charles Oliver</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ANDREA.UNRUH@FHR.COM</t>
+          <t>CHARLES.OLIVER@FHR.COM</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4626,81 +4626,81 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:28 AM</t>
+          <t>08-11-2025 05:46:52 AM</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:56 AM</t>
+          <t>08-11-2025 05:47:20 AM</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>PC-36KG325193M4, PC-014GF22373BF</t>
+          <t>PC-36KFF25193M4</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Caleb Quanrud</t>
+          <t>Rudy Barajas</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>caleb.quanrud@fhr.com</t>
+          <t>RUDY.BARAJAS@FHR.COM</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:28 PM</t>
+          <t>08-06-2025 04:56:54 AM</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:58 PM</t>
+          <t>08-08-2025 01:09:23 PM</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
+          <t>PC-33BYB25013M4, PC-2MQ514105T, FHR-J2V03Z3, FHR-MXL24156CF</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Jean Jaime</t>
+          <t>Braxton Holes</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>JEAN.JAIME@FHR.COM</t>
+          <t>braxton.holes@fhr.com</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4710,39 +4710,39 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:32 PM</t>
+          <t>08-07-2025 08:51:34 AM</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>08-07-2025 02:12:00 PM</t>
+          <t>08-08-2025 11:34:27 AM</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
+          <t>FHR-5CD231D3NH, PC-5CD5100KGP, FHR-5CD01052SN</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Andrea Unruh</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>ANDREA.UNRUH@FHR.COM</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4752,118 +4752,118 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>08-07-2025 02:10:24 PM</t>
+          <t>08-08-2025 08:17:28 AM</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:00 PM</t>
+          <t>08-08-2025 08:17:56 AM</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
+          <t>PC-36KG325193M4, PC-014GF22373BF</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Caleb Quanrud</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>caleb.quanrud@fhr.com</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:23 PM</t>
+          <t>08-07-2025 03:06:28 PM</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:59 PM</t>
+          <t>08-07-2025 03:06:58 PM</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
+          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Branden Roering</t>
+          <t>Jean Jaime</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>branden.roering@fhr.com</t>
+          <t>JEAN.JAIME@FHR.COM</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:17 PM</t>
+          <t>08-07-2025 02:11:32 PM</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:45 PM</t>
+          <t>08-07-2025 02:12:00 PM</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>PC-2MQ5141148</t>
+          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Christopher Brooks</t>
+          <t>Rick Schwing</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
+          <t>rick.schwing@fhr.com</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4873,22 +4873,22 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>08-06-2025 12:44:08 PM</t>
+          <t>08-07-2025 02:10:24 PM</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>08-07-2025 09:46:49 AM</t>
+          <t>08-07-2025 02:11:00 PM</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
+          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4900,12 +4900,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Justin Hinojosa</t>
+          <t>Rick Schwing</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>justin.hinojosa@fhr.com</t>
+          <t>rick.schwing@fhr.com</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4915,22 +4915,22 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:01 AM</t>
+          <t>08-07-2025 02:09:23 PM</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:29 AM</t>
+          <t>08-07-2025 02:09:59 PM</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>PC-MXL24156FQ SPC-MXL24156FQ FHR-8CG80416HL FHR-8CG806569G FHR-8CG7236C1X FHR-G3BCDZ3 FHR-MXL3132SS4 FHR-8CG80416GX FHR-MXL90224D2 FHR-8J5ZK44 FHR-MXL3132SN7 FHR-MXL3132SS3 FHR-9K8ZK44 FHR-MXL3132SQX KII-MXL2424F2T FHR-MXL5043GK1 FHR-MXL5043GK0 FHR-MXL3132SRR FHR-BK001HK222 FHR-MXL3132SNW FHR-5CD439J37S FHR-MXL3132SP1</t>
+          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4942,37 +4942,37 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Josiah Peterson</t>
+          <t>Branden Roering</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>JOSIAH.PETERSON@FHR.COM</t>
+          <t>branden.roering@fhr.com</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>08-06-2025 08:30:11 AM</t>
+          <t>08-07-2025 12:49:17 PM</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>08-06-2025 08:31:02 AM</t>
+          <t>08-07-2025 12:49:45 PM</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>FHR-5CD30764W6, PC-2MQ5270TC1</t>
+          <t>PC-2MQ5141148</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4984,205 +4984,205 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Andrew Berndt</t>
+          <t>Christopher Brooks</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>andrew.berndt@fhr.com</t>
+          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>08-05-2025 01:32:29 PM</t>
+          <t>08-06-2025 12:44:08 PM</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>08-05-2025 01:33:21 PM</t>
+          <t>08-07-2025 09:46:49 AM</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>PC-2MQ514100C</t>
+          <t>PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Matthew VanLanen</t>
+          <t>Justin Hinojosa</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>matthew.vanlanen@fhr.com</t>
+          <t>justin.hinojosa@fhr.com</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:12 AM</t>
+          <t>08-06-2025 11:55:01 AM</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:39 AM</t>
+          <t>08-06-2025 11:55:29 AM</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
+          <t>FHR-MXL5043GK0</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Arturo Vasquez Jr</t>
+          <t>Josiah Peterson</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ARTURO.VASQUEZ@FHR.COM</t>
+          <t>JOSIAH.PETERSON@FHR.COM</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>07-30-2025 12:56:40 PM</t>
+          <t>08-06-2025 08:30:11 AM</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>08-05-2025 09:13:23 AM</t>
+          <t>08-06-2025 08:31:02 AM</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>FHR-MXL4123NY2, FHR-8CG82809D5, FHR-5CG31302WM, SPC-37MW25123GX, FHR-MXL9223BRW</t>
+          <t>FHR-5CD30764W6, PC-2MQ5270TC1</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Christopher Koerner</t>
+          <t>Andrew Berndt</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.KOERNER@FHR.COM</t>
+          <t>andrew.berndt@fhr.com</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>08-05-2025 08:14:41 AM</t>
+          <t>08-05-2025 01:32:29 PM</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>08-05-2025 08:15:12 AM</t>
+          <t>08-05-2025 01:33:21 PM</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>PC-5CD4514XZX, FHR-59309202153</t>
+          <t>PC-2MQ514100C</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Eric Derieux</t>
+          <t>Matthew VanLanen</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ERIC.DERIEUX@FHR.COM</t>
+          <t>matthew.vanlanen@fhr.com</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>US-TX-BEAUMONT2 - FHR-Beaumont TX - Beaumont - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>08-05-2025 08:01:44 AM</t>
+          <t>08-05-2025 10:28:12 AM</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>08-05-2025 08:02:14 AM</t>
+          <t>08-05-2025 10:28:39 AM</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TDP, FHR-5CG8353ZC7, DESKTOP-JU70CMA</t>
+          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5194,54 +5194,54 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Ryan Sabin</t>
+          <t>Arturo Vasquez Jr</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ryan.sabin@fhr.com</t>
+          <t>ARTURO.VASQUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>08-04-2025 12:02:32 PM</t>
+          <t>07-30-2025 12:56:40 PM</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>08-04-2025 12:03:01 PM</t>
+          <t>08-05-2025 09:13:23 AM</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZHM, FHR-5CG1092Y8L, PC-2MQ5040SX3</t>
+          <t>FHR-MXL4123NY2, FHR-8CG82809D5, FHR-5CG31302WM, SPC-37MW25123GX, FHR-MXL9223BRW</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Nate Claseman</t>
+          <t>Christopher Koerner</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>nate.claseman@fhr.com</t>
+          <t>CHRISTOPHER.KOERNER@FHR.COM</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5251,22 +5251,22 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>08-03-2025 01:32:09 PM</t>
+          <t>08-05-2025 08:14:41 AM</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>08-03-2025 01:32:37 PM</t>
+          <t>08-05-2025 08:15:12 AM</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFN, FHR-MXL2394SXC, FHR-8CG7352CTV</t>
+          <t>PC-5CD4514XZX, FHR-59309202153</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5278,37 +5278,37 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Koy Straks</t>
+          <t>Eric Derieux</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>koy.straks@fhr.com</t>
+          <t>ERIC.DERIEUX@FHR.COM</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-TX-BEAUMONT2 - FHR-Beaumont TX - Beaumont - Koch</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>08-01-2025 02:42:24 PM</t>
+          <t>08-05-2025 08:01:44 AM</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>08-01-2025 02:42:52 PM</t>
+          <t>08-05-2025 08:02:14 AM</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TF5</t>
+          <t>PC-2MQ5270TDP, FHR-5CG8353ZC7, DESKTOP-JU70CMA</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5320,12 +5320,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Gaven Girton</t>
+          <t>Ryan Sabin</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>gaven.girton@fhr.com</t>
+          <t>ryan.sabin@fhr.com</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5340,17 +5340,17 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>08-01-2025 02:05:31 PM</t>
+          <t>08-04-2025 12:02:32 PM</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>08-01-2025 02:05:58 PM</t>
+          <t>08-04-2025 12:03:01 PM</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZGG</t>
+          <t>PC-2MQ5140ZHM, FHR-5CG1092Y8L, PC-2MQ5040SX3</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">

--- a/output/fhr_computer_requests.xlsx
+++ b/output/fhr_computer_requests.xlsx
@@ -532,12 +532,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nicholas Hanson</t>
+          <t>Grant Creasman</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NICK.HANSON@FHR.COM</t>
+          <t>grant.creasman@fhr.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -547,22 +547,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09-25-2025 04:07:28 PM</t>
+          <t>09-29-2025 07:40:30 AM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>09-25-2025 04:07:56 PM</t>
+          <t>09-29-2025 07:40:58 AM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
+          <t>PC-5CD42993JX, PC-001F323233BF, FHR-CND11935ZS, FHR-BK001F3</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -574,17 +574,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sam Raimann</t>
+          <t>Stephen Mieth</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAM.RAIMANN@FHR.COM</t>
+          <t>STEPHEN.MIETH@FHR.COM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -594,118 +594,118 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09-25-2025 03:18:39 PM</t>
+          <t>09-28-2025 06:12:27 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>09-25-2025 03:19:11 PM</t>
+          <t>09-28-2025 06:12:56 PM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FHR-5CG1465ZKQ</t>
+          <t>FHR-5CG0511HN8</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Todd Holder</t>
+          <t>Dj Yarwood</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>todd.holder@fhr.com</t>
+          <t>DEREK.YARWOOD@FHR.COM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>US-TX-AUSTIN2 - FHR-Austin - Austin - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09-25-2025 10:44:40 AM</t>
+          <t>09-27-2025 03:39:16 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09-25-2025 10:45:09 AM</t>
+          <t>09-27-2025 03:39:44 PM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PC-5CG3341P05</t>
+          <t>FHR-5CG12812HD</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alex Pierce</t>
+          <t>Christian Makhoul</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ALEXANDER.PIERCE@FHR.COM</t>
+          <t>christian.makhoul@fhr.com</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09-24-2025 07:19:02 PM</t>
+          <t>09-27-2025 01:26:04 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09-24-2025 07:19:31 PM</t>
+          <t>09-27-2025 01:26:31 PM</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FHR-0F01W2H2301</t>
+          <t>FHR-5CG128139P</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lindsey Kuzma</t>
+          <t>Nicholas Hanson</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LINDSEY.KUZMA@FHR.COM</t>
+          <t>NICK.HANSON@FHR.COM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -715,22 +715,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09-24-2025 01:01:16 PM</t>
+          <t>09-25-2025 04:07:28 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-24-2025 01:01:46 PM</t>
+          <t>09-25-2025 04:07:56 PM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PC-000PN23253BF</t>
+          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -742,96 +742,96 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Antonio Vargas</t>
+          <t>Sam Raimann</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>antonio.vargas@fhr.com</t>
+          <t>SAM.RAIMANN@FHR.COM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09-22-2025 10:19:51 AM</t>
+          <t>09-25-2025 03:18:39 PM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-24-2025 12:54:47 PM</t>
+          <t>09-25-2025 03:19:11 PM</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>FHR-5CG1465ZKQ</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tammie Fletchall</t>
+          <t>Todd Holder</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TAMMIE.FLETCHALL@FHR.COM</t>
+          <t>todd.holder@fhr.com</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-AUSTIN2 - FHR-Austin - Austin - Koch</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-23-2025 03:41:36 PM</t>
+          <t>09-25-2025 10:44:40 AM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-24-2025 11:34:29 AM</t>
+          <t>09-25-2025 10:45:09 AM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PC-5CG2261RSB</t>
+          <t>PC-5CG3341P05</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jimmy Nguyen</t>
+          <t>Alex Pierce</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jimmy.nguyen@fhr.com</t>
+          <t>ALEXANDER.PIERCE@FHR.COM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -841,22 +841,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>08-04-2025 01:48:09 PM</t>
+          <t>09-24-2025 07:19:02 PM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-23-2025 03:22:38 PM</t>
+          <t>09-24-2025 07:19:31 PM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>FHR-2M9CK74, FHR-5CG1465S8V</t>
+          <t>FHR-0F01W2H2301</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -868,54 +868,54 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Robert Cliburn</t>
+          <t>Lindsey Kuzma</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ROBERT.CLIBURN@FHR.COM</t>
+          <t>LINDSEY.KUZMA@FHR.COM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-23-2025 07:36:34 AM</t>
+          <t>09-24-2025 01:01:16 PM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-23-2025 07:37:02 AM</t>
+          <t>09-24-2025 01:01:46 PM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FHR-5CG0472YYT</t>
+          <t>PC-000PN23253BF</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brinson Bryan</t>
+          <t>Antonio Vargas</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BRINSON.BRYAN@FHR.COM</t>
+          <t>antonio.vargas@fhr.com</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -930,17 +930,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09-22-2025 08:31:09 AM</t>
+          <t>09-22-2025 10:19:51 AM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-22-2025 08:31:38 AM</t>
+          <t>09-24-2025 12:54:47 PM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>FHR-5CD229GR46</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -952,138 +952,138 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Vicente Castillo</t>
+          <t>Tammie Fletchall</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>VICENTE.CASTILLO@FHR.COM</t>
+          <t>TAMMIE.FLETCHALL@FHR.COM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09-22-2025 08:10:41 AM</t>
+          <t>09-23-2025 03:41:36 PM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09-22-2025 08:11:09 AM</t>
+          <t>09-24-2025 11:34:29 AM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PC-334QH231933F, FHR-MXL3132SQX</t>
+          <t>PC-5CG2261RSB</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dillon Sailer</t>
+          <t>Jimmy Nguyen</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>dillon.sailer@fhr.com</t>
+          <t>jimmy.nguyen@fhr.com</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09-19-2025 04:55:25 PM</t>
+          <t>08-04-2025 01:48:09 PM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09-19-2025 04:55:54 PM</t>
+          <t>09-23-2025 03:22:38 PM</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>FHR-LOANPB18, FHR-5CG201416N</t>
+          <t>FHR-5CG1465S8V</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Robert Cliburn</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DANIEL.BRAUN@FHR.COM</t>
+          <t>ROBERT.CLIBURN@FHR.COM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09-18-2025 02:27:18 PM</t>
+          <t>09-23-2025 07:36:34 AM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-18-2025 02:27:46 PM</t>
+          <t>09-23-2025 07:37:02 AM</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>FHR-5CG7312MP6, PC-1H85200B0S</t>
+          <t>FHR-5CG0472YYT</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Roberto Montelongo</t>
+          <t>Brinson Bryan</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>roberto.montelongo@fhr.com</t>
+          <t>BRINSON.BRYAN@FHR.COM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1093,22 +1093,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09-18-2025 09:01:15 AM</t>
+          <t>09-22-2025 08:31:09 AM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09-18-2025 09:01:46 AM</t>
+          <t>09-22-2025 08:31:38 AM</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>PC-33VX725273R3, FHR-5CG2156GT3, USWHL-1276WN9</t>
+          <t>FHR-5CD229GR46</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1120,54 +1120,54 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Trevor Willberg</t>
+          <t>Vicente Castillo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>trevor.willberg@fhr.com</t>
+          <t>VICENTE.CASTILLO@FHR.COM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09-17-2025 10:21:00 AM</t>
+          <t>09-22-2025 08:10:41 AM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-17-2025 12:52:13 PM</t>
+          <t>09-22-2025 08:11:09 AM</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>PC-334QH231933F, FHR-MXL3132SQX</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cory Strandlien</t>
+          <t>Dillon Sailer</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cory.strandlien@fhr.com</t>
+          <t>dillon.sailer@fhr.com</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1177,22 +1177,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09-17-2025 09:55:48 AM</t>
+          <t>09-19-2025 04:55:25 PM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-17-2025 12:44:37 PM</t>
+          <t>09-19-2025 04:55:54 PM</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>PC-1H852009ZL, FHR-LOANPB18, FHR-5CG201416N</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1204,17 +1204,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Enrique Flores</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ENRIQUE.FLORES@FHR.COM</t>
+          <t>DANIEL.BRAUN@FHR.COM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1224,76 +1224,76 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09-17-2025 10:03:05 AM</t>
+          <t>09-18-2025 02:27:18 PM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-17-2025 10:03:36 AM</t>
+          <t>09-18-2025 02:27:46 PM</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>FHR-5CG1240T5M, FHR-2UA8311QWT, FHR-5CD4154J0P</t>
+          <t>FHR-5CG7312MP6, PC-1H85200B0S</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Jason Henke</t>
+          <t>Roberto Montelongo</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>JASON.HENKE@FHR.COM</t>
+          <t>roberto.montelongo@fhr.com</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09-17-2025 09:38:30 AM</t>
+          <t>09-18-2025 09:01:15 AM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-17-2025 09:39:02 AM</t>
+          <t>09-18-2025 09:01:46 AM</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>FHR-5CG2151LHM, PC-2MQ5290Z9F</t>
+          <t>FHR-5CG2156GT3, PC-33VX725273R3, USWHL-1276WN9</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Jed Illg</t>
+          <t>Trevor Willberg</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jed.Illg@fhr.com</t>
+          <t>trevor.willberg@fhr.com</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1303,22 +1303,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>09-17-2025 08:33:21 AM</t>
+          <t>09-17-2025 10:21:00 AM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09-17-2025 08:33:50 AM</t>
+          <t>09-17-2025 12:52:13 PM</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>FHR-5CG2156GG9, PC-2MQ5290Z98</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1330,54 +1330,54 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Shannon Angle</t>
+          <t>Cory Strandlien</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>shannon.angle@kochcc.com</t>
+          <t>cory.strandlien@fhr.com</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>09-17-2025 07:50:45 AM</t>
+          <t>09-17-2025 09:55:48 AM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>09-17-2025 07:51:14 AM</t>
+          <t>09-17-2025 12:44:37 PM</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bryeton Canchola</t>
+          <t>Enrique Flores</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>bryeton.canchola@fhr.com</t>
+          <t>ENRIQUE.FLORES@FHR.COM</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1387,22 +1387,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>09-16-2025 03:26:59 PM</t>
+          <t>09-17-2025 10:03:05 AM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>09-16-2025 03:27:26 PM</t>
+          <t>09-17-2025 10:03:36 AM</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>SPC-MXL24155VV FHR-MXL1022SZ3 FHR-MXL24156C3 SPC-MXL24155W5 SPC-MXL3324PYM SPC-MXL3324PZ0 FHR-MXL2223BDL FHR-MXL9502C5W FHR-MXL9333W07 PC-01W3B23013BF FHR-MXL1022T0R FHR-MXL24155WF FHR-MXL13349Z2 SPC-MXL3324PZ2 FHR-MXL90224C1 FHR-BK000V1 FHR-B9XFH04 SPC-MXL3324PYD SPC-MXL3324PYP FHR-8V4TNZ3</t>
+          <t>FHR-2UA8311QWT, PC-1H85200B0B, FHR-5CG1240T5M, FHR-5CD4154J0P</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1414,101 +1414,101 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Charles Cooley Jr</t>
+          <t>Jason Henke</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CHARLES.COOLEY@FHR.COM</t>
+          <t>JASON.HENKE@FHR.COM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>09-16-2025 02:26:57 PM</t>
+          <t>09-17-2025 09:38:30 AM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>09-16-2025 02:27:28 PM</t>
+          <t>09-17-2025 09:39:02 AM</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>FHR-5CG225854R, PC-2MQ5140ZJR</t>
+          <t>FHR-5CG2151LHM, PC-2MQ5290Z9F</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Patrick Tiller</t>
+          <t>Jed Illg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PATRICK.TILLER@FHR.COM</t>
+          <t>Jed.Illg@fhr.com</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>09-16-2025 12:20:22 PM</t>
+          <t>09-17-2025 08:33:21 AM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>09-16-2025 12:20:49 PM</t>
+          <t>09-17-2025 08:33:50 AM</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>PC-JZ4TNZ3, FHR-5CG1240T4Q, PC-1H85200B13, FHR-5CG815441G, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
+          <t>PC-2MQ5290Z98, FHR-5CG2156GG9</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bryan Garcia</t>
+          <t>Shannon Angle</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>bryan.garcia1@fhr.com</t>
+          <t>shannon.angle@kochcc.com</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1518,34 +1518,34 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09-16-2025 07:46:13 AM</t>
+          <t>09-17-2025 07:50:45 AM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>09-16-2025 07:46:49 AM</t>
+          <t>09-17-2025 07:51:14 AM</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>PC-33J3M25073R3, PC-BZQ03Z3, PC-5CG408495P</t>
+          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Troy Hull</t>
+          <t>Bryeton Canchola</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TROY.HULL@FHR.COM</t>
+          <t>bryeton.canchola@fhr.com</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1560,17 +1560,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>09-16-2025 06:55:54 AM</t>
+          <t>09-16-2025 03:26:59 PM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09-16-2025 06:56:26 AM</t>
+          <t>09-16-2025 03:27:26 PM</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>FHR-MXL24155WF, PC-33PCV25273R3, FHR-MXL2394ST8, PC-5CG4151LFY</t>
+          <t>SPC-MXL24155VV FHR-MXL1022SZ3 FHR-MXL24156C3 SPC-MXL24155W5 SPC-MXL3324PYM SPC-MXL3324PZ0 FHR-MXL2223BDL FHR-MXL9502C5W FHR-MXL9333W07 PC-01W3B23013BF FHR-MXL1022T0R FHR-MXL24155WF FHR-MXL13349Z2 SPC-MXL3324PZ2 FHR-MXL90224C1 FHR-BK000V1 FHR-B9XFH04 SPC-MXL3324PYD SPC-MXL3324PYP FHR-8V4TNZ3</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1582,138 +1582,138 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Crystal Link</t>
+          <t>Charles Cooley Jr</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CRYSTAL.LINK@FHR.COM</t>
+          <t>CHARLES.COOLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09-15-2025 11:01:25 AM</t>
+          <t>09-16-2025 02:26:57 PM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-15-2025 11:01:54 AM</t>
+          <t>09-16-2025 02:27:28 PM</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>PC-5CG1465ZKZ, PC-1H85200B04, FHR-5CG0254D4T</t>
+          <t>FHR-5CG225854R, PC-2MQ5140ZJR</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Alex Lodholz</t>
+          <t>Patrick Tiller</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>alex.lodholz@fhr.com</t>
+          <t>PATRICK.TILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09-15-2025 09:14:43 AM</t>
+          <t>09-16-2025 12:20:22 PM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-15-2025 09:15:12 AM</t>
+          <t>09-16-2025 12:20:49 PM</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>PC-2MQ514103N</t>
+          <t>FHR-5CG1240T4Q, PC-JZ4TNZ3, PC-1H85200B13, FHR-5CG815441G, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Brendan Snell</t>
+          <t>Bryan Garcia</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>brendan.snell@fhr.com</t>
+          <t>bryan.garcia1@fhr.com</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:12 AM</t>
+          <t>09-16-2025 07:46:13 AM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:46 AM</t>
+          <t>09-16-2025 07:46:49 AM</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>FHR-5CG2156XDV</t>
+          <t>PC-33J3M25073R3, PC-BZQ03Z3, PC-5CG408495P</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Joey Guerrero</t>
+          <t>Troy Hull</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>joey.guerrero1@fhr.com</t>
+          <t>TROY.HULL@FHR.COM</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1728,17 +1728,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09-15-2025 06:33:41 AM</t>
+          <t>09-16-2025 06:55:54 AM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-15-2025 06:34:14 AM</t>
+          <t>09-16-2025 06:56:26 AM</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>PC-33B8725073R3, PC-9659600351</t>
+          <t>FHR-MXL24155WF, PC-33PCV25273R3, PC-5CG4151LFY</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1750,17 +1750,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Eddie Buskirk</t>
+          <t>Crystal Link</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>EDDIE.BUSKIRK@FHR.COM</t>
+          <t>CRYSTAL.LINK@FHR.COM</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1770,39 +1770,39 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09-12-2025 01:52:56 PM</t>
+          <t>09-15-2025 11:01:25 AM</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09-12-2025 01:53:24 PM</t>
+          <t>09-15-2025 11:01:54 AM</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>PC-1H85200B0W, FHR-5CG9326W2B</t>
+          <t>PC-5CG1465ZKZ, FHR-5CG0254D4T, PC-1H85200B04</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sammantha Reynolds</t>
+          <t>Alex Lodholz</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>sammantha.reynolds1@fhr.com</t>
+          <t>alex.lodholz@fhr.com</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1812,118 +1812,118 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09-12-2025 08:18:55 AM</t>
+          <t>09-15-2025 09:14:43 AM</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09-12-2025 08:19:25 AM</t>
+          <t>09-15-2025 09:15:12 AM</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
+          <t>PC-2MQ514103N</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Victor Sauceda</t>
+          <t>Brendan Snell</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>victor.sauceda@fhr.com</t>
+          <t>brendan.snell@fhr.com</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:03 AM</t>
+          <t>09-15-2025 08:15:12 AM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:33 AM</t>
+          <t>09-15-2025 08:15:46 AM</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>PC-33W4325273R3, FHR-5CD8522C54</t>
+          <t>FHR-5CG2156XDV</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mitch O'Keefe</t>
+          <t>Joey Guerrero</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MITCH.OKEEFE@FHR.COM</t>
+          <t>joey.guerrero1@fhr.com</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:11 PM</t>
+          <t>09-15-2025 06:33:41 AM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:39 PM</t>
+          <t>09-15-2025 06:34:14 AM</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>MSP-CTLU27, FHR-MXL23843MP, PC-1H85200B09, FHR-5CG1344HQ7</t>
+          <t>PC-33B8725073R3, PC-9659600351</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Joe Bedynek</t>
+          <t>Eddie Buskirk</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>JOE.BEDYNEK@FHR.COM</t>
+          <t>EDDIE.BUSKIRK@FHR.COM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1933,22 +1933,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:10 PM</t>
+          <t>09-12-2025 01:52:56 PM</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:36 PM</t>
+          <t>09-12-2025 01:53:24 PM</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>PC-33W6D25273R3, FHR-5CD026KSTV</t>
+          <t>PC-1H85200B0W, FHR-5CG9326W2B</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1960,17 +1960,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ruben Hernandez</t>
+          <t>Sammantha Reynolds</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ruben.hernandez@fhr.com</t>
+          <t>sammantha.reynolds1@fhr.com</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1980,34 +1980,34 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09-10-2025 02:51:54 PM</t>
+          <t>09-12-2025 08:18:55 AM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-10-2025 02:52:21 PM</t>
+          <t>09-12-2025 08:19:25 AM</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>PC-5CD231GKV7, PC-2MQ5141117</t>
+          <t>PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Lauren Sada</t>
+          <t>Victor Sauceda</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>lauren.sada@fhr.com</t>
+          <t>victor.sauceda@fhr.com</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2017,22 +2017,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:21 PM</t>
+          <t>09-11-2025 09:46:03 AM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:49 PM</t>
+          <t>09-11-2025 09:46:33 AM</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZMH</t>
+          <t>FHR-5CD8522C54, PC-33W4325273R3</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2044,12 +2044,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Kevin Harvey</t>
+          <t>Mitch O'Keefe</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>KEVIN.HARVEY@FHR.COM</t>
+          <t>MITCH.OKEEFE@FHR.COM</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2059,22 +2059,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09-10-2025 08:38:42 AM</t>
+          <t>09-10-2025 05:54:11 PM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-10-2025 08:39:13 AM</t>
+          <t>09-10-2025 05:54:39 PM</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>PC-2MQ5290Z3G, FHR-5CG1236JK6</t>
+          <t>MSP-CTLU27, PC-1H85200B09, FHR-5CG1344HQ7</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2086,138 +2086,138 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Matt Olson</t>
+          <t>Joe Bedynek</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MATTHEW.OLSON@FHR.COM</t>
+          <t>JOE.BEDYNEK@FHR.COM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09-09-2025 11:43:57 AM</t>
+          <t>09-10-2025 02:54:10 PM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-09-2025 11:44:26 AM</t>
+          <t>09-10-2025 02:54:36 PM</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>FHR-5CD40711PF, PC-2MQ5290Z8Z, FHR-5CG918242Z</t>
+          <t>PC-33W6D25273R3, FHR-5CD026KSTV</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sam Weldemariam</t>
+          <t>Ruben Hernandez</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SAM.WELDEMARIAM@FHR.COM</t>
+          <t>ruben.hernandez@fhr.com</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:23 AM</t>
+          <t>09-10-2025 02:51:54 PM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:51 AM</t>
+          <t>09-10-2025 02:52:21 PM</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>FHR-3KJBQ54, PC-GQMKN34, FHR-G8GR624, FHR-F9GR624, FHR-MXL9144C61, FHR-5CG213BX6D, FHR-D90QDZ3, FHR-5CD8506CR3</t>
+          <t>PC-5CD231GKV7, PC-2MQ5141117</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Derek Wilfong</t>
+          <t>Lauren Sada</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DEREK.WILFONG@FHR.COM</t>
+          <t>lauren.sada@fhr.com</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-09-2025 09:02:55 AM</t>
+          <t>09-10-2025 01:27:21 PM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>09-09-2025 09:03:28 AM</t>
+          <t>09-10-2025 01:27:49 PM</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>FHR-5CG1314K33</t>
+          <t>PC-2MQ5140ZMH</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Joel Mccabe</t>
+          <t>Kevin Harvey</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>JOEL.MCCABE@FHR.COM</t>
+          <t>KEVIN.HARVEY@FHR.COM</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2227,22 +2227,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-05-2025 03:04:34 PM</t>
+          <t>09-10-2025 08:38:42 AM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09-08-2025 09:08:16 AM</t>
+          <t>09-10-2025 08:39:13 AM</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>FHR-1B1KH04, SPC-G942X54, MSP-005054</t>
+          <t>PC-2MQ5290Z3G, FHR-5CG1236JK6</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2254,17 +2254,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Devon Holz</t>
+          <t>Matt Olson</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DEVON.HOLZ@FHR.COM</t>
+          <t>MATTHEW.OLSON@FHR.COM</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2274,160 +2274,160 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:14 PM</t>
+          <t>09-09-2025 11:43:57 AM</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:42 PM</t>
+          <t>09-09-2025 11:44:26 AM</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZD9, FHR-5CG2219ZDW</t>
+          <t>PC-2MQ5290Z8Z, FHR-5CD40711PF, FHR-5CG918242Z</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Shawn Sieben</t>
+          <t>Sam Weldemariam</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Shawn.Sieben@fhr.com</t>
+          <t>SAM.WELDEMARIAM@FHR.COM</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-04-2025 09:29:38 AM</t>
+          <t>09-09-2025 09:48:23 AM</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09-05-2025 12:58:04 PM</t>
+          <t>09-09-2025 09:48:51 AM</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>FHR-MXL0041QDS, FHR-CND8426B2G, FHR-5CD3507T46, FHR-8CC84008DL</t>
+          <t>FHR-F9GR624, FHR-MXL9152YMX, PC-GQMKN34, FHR-D90QDZ3, FHR-3KJBQ54, FHR-G8GR624, FHR-MXL9144C61, FHR-5CG213BX6D, FHR-5CD8506CR3</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Carrie Simpson</t>
+          <t>Derek Wilfong</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CARRIE.SIMPSON@FHR.COM</t>
+          <t>DEREK.WILFONG@FHR.COM</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:03 PM</t>
+          <t>09-09-2025 09:02:55 AM</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:30 PM</t>
+          <t>09-09-2025 09:03:28 AM</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZSD, PC-001NS23373BF</t>
+          <t>FHR-5CG1314K33, PC-34XVM25063R3</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Chris Pratt</t>
+          <t>Joel Mccabe</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chris.Pratt@fhr.com</t>
+          <t>JOEL.MCCABE@FHR.COM</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-02-2025 04:16:05 PM</t>
+          <t>09-05-2025 03:04:34 PM</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>09-04-2025 01:23:58 PM</t>
+          <t>09-08-2025 09:08:16 AM</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>FHR-5CD016BPV0, PC-MXL53644K5, FHR-MXL8361TTS</t>
+          <t>SPC-G942X54, FHR-1B1KH04, MSP-005054</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Manuel Moreno Jr</t>
+          <t>Devon Holz</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MANUEL.MORENO@FHR.COM</t>
+          <t>DEVON.HOLZ@FHR.COM</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2437,22 +2437,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>05-02-2025 08:54:50 AM</t>
+          <t>09-05-2025 02:23:14 PM</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>09-04-2025 01:17:10 PM</t>
+          <t>09-05-2025 02:23:42 PM</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>SPC-5BJ8D14, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
+          <t>PC-2MQ5140ZD9, FHR-5CG2219ZDW</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2464,138 +2464,138 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ben Sandiford</t>
+          <t>Shawn Sieben</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ben.sandiford@fhr.com</t>
+          <t>Shawn.Sieben@fhr.com</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:18 PM</t>
+          <t>09-04-2025 09:29:38 AM</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:48 PM</t>
+          <t>09-05-2025 12:58:04 PM</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>PC-33VW824233M4, PC-1H95220MS6</t>
+          <t>FHR-MXL0041QDS, FHR-5CD3507T46, FHR-CND8426B2G, FHR-8CC84008DL</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Denise Schardt</t>
+          <t>Carrie Simpson</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DENISE.SCHARDT@FHR.COM</t>
+          <t>CARRIE.SIMPSON@FHR.COM</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-03-2025 02:48:18 PM</t>
+          <t>09-04-2025 03:17:03 PM</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>09-04-2025 01:00:11 PM</t>
+          <t>09-04-2025 03:17:30 PM</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
+          <t>PC-2MQ5140ZSD, PC-001NS23373BF</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Ray Aslesen</t>
+          <t>Chris Pratt</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>RAY.ASLESEN@FHR.COM</t>
+          <t>Chris.Pratt@fhr.com</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-04-2025 07:28:33 AM</t>
+          <t>09-02-2025 04:16:05 PM</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09-04-2025 07:29:01 AM</t>
+          <t>09-04-2025 01:23:58 PM</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>PC-MXL4523KGB, PC-2MQ5140ZSW, FHR-0F00CQM2332, FHR-CND1440HBV</t>
+          <t>FHR-5CD016BPV0, PC-MXL53644K5, FHR-MXL8361TTS</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>Manuel Moreno Jr</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>MANUEL.MORENO@FHR.COM</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2605,22 +2605,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-04-2025 06:11:34 AM</t>
+          <t>05-02-2025 08:54:50 AM</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>09-04-2025 06:12:02 AM</t>
+          <t>09-04-2025 01:17:10 PM</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>SPC-5BJ8D14, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2632,12 +2632,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Dora Heimsoth</t>
+          <t>Ben Sandiford</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>dora.heimsoth1@fhr.com</t>
+          <t>ben.sandiford@fhr.com</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2647,22 +2647,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-03-2025 03:00:34 PM</t>
+          <t>09-04-2025 01:11:18 PM</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>09-03-2025 03:01:01 PM</t>
+          <t>09-04-2025 01:11:48 PM</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>PC-339W925073R3, PC-86XGSV3</t>
+          <t>PC-1H95220MS6, PC-33VW824233M4</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2674,96 +2674,96 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Stephen Rodriguez</t>
+          <t>Denise Schardt</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
+          <t>DENISE.SCHARDT@FHR.COM</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-03-2025 02:28:45 PM</t>
+          <t>09-03-2025 02:48:18 PM</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>09-03-2025 02:29:20 PM</t>
+          <t>09-04-2025 01:00:11 PM</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>FHR-MXL90223C1 FHR-MXL902239Z FHR-MXL9332KN0 FHR-MXL902239R CND837B026 FHR-MXL9153QWC KII-MXL2424F2T FHR-5CG12812WW FHR-MXL3132SQX FHR-MXL3132SN7 FHR-MXL3132SNW FHR-MXL3132SS3 FHR-MXL3132SS4 FHR-MXL90224D2 FHR-8CG806569G KII-MXL24156FT FHR-MXL4424X3B FHR-MXL5043GK0 FHR-MXL5043GK1 SPC-DX6LZ84 SPC-MXL24156CD</t>
+          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Matt Skrobarcek</t>
+          <t>Ray Aslesen</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
+          <t>RAY.ASLESEN@FHR.COM</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:08 AM</t>
+          <t>09-04-2025 07:28:33 AM</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:38 AM</t>
+          <t>09-04-2025 07:29:01 AM</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
+          <t>PC-2MQ5140ZSW, PC-MXL4523KGB, FHR-0F00CQM2332, FHR-CND1440HBV</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Justin Nava</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>JUSTIN.NAVA@FHR.COM</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2773,22 +2773,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-03-2025 09:44:33 AM</t>
+          <t>09-04-2025 06:11:34 AM</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>09-03-2025 09:45:02 AM</t>
+          <t>09-04-2025 06:12:02 AM</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>FHR-5CG4240WQT, SPC-82TKZ84, FHR-MXL9223BVJ</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2800,12 +2800,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Logan Tom</t>
+          <t>Dora Heimsoth</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>logan.tom@fhr.com</t>
+          <t>dora.heimsoth1@fhr.com</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2815,22 +2815,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:15 PM</t>
+          <t>09-03-2025 03:00:34 PM</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:42 PM</t>
+          <t>09-03-2025 03:01:01 PM</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
+          <t>PC-339W925073R3, PC-86XGSV3</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2842,54 +2842,54 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Travis Sumerfelt</t>
+          <t>Stephen Rodriguez</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>travis.sumerfelt@fhr.com</t>
+          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-02-2025 11:06:03 AM</t>
+          <t>09-03-2025 02:28:45 PM</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>09-02-2025 11:07:05 AM</t>
+          <t>09-03-2025 02:29:20 PM</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>PC-2MQ514108Q</t>
+          <t>FHR-MXL90223C1 FHR-MXL902239Z FHR-MXL9332KN0 FHR-MXL902239R CND837B026 FHR-MXL9153QWC KII-MXL2424F2T FHR-5CG12812WW FHR-MXL3132SQX FHR-MXL3132SN7 FHR-MXL3132SNW FHR-MXL3132SS3 FHR-MXL3132SS4 FHR-MXL90224D2 FHR-8CG806569G KII-MXL24156FT FHR-MXL4424X3B FHR-MXL5043GK0 FHR-MXL5043GK1 SPC-DX6LZ84 SPC-MXL24156CD</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Carlos Garcia Jr.</t>
+          <t>Matt Skrobarcek</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CARLOS.GARCIAJR@FHR.COM</t>
+          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2899,22 +2899,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>08-27-2025 09:24:59 PM</t>
+          <t>09-03-2025 09:46:08 AM</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>09-02-2025 08:26:34 AM</t>
+          <t>09-03-2025 09:46:38 AM</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>FHR-FRMKN34</t>
+          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2926,12 +2926,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Billy Royal</t>
+          <t>Justin Nava</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BILLY.ROYAL@FHR.COM</t>
+          <t>JUSTIN.NAVA@FHR.COM</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2941,22 +2941,22 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:06 PM</t>
+          <t>09-03-2025 09:44:33 AM</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:34 PM</t>
+          <t>09-03-2025 09:45:02 AM</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>FHR-5CD2331XLD</t>
+          <t>SPC-82TKZ84, FHR-5CG4240WQT, FHR-MXL9223BVJ</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2968,17 +2968,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Samuel Paulus</t>
+          <t>Logan Tom</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>samuel.paulus@fhr.com</t>
+          <t>logan.tom@fhr.com</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2988,17 +2988,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:17 PM</t>
+          <t>09-02-2025 02:39:15 PM</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:45 PM</t>
+          <t>09-02-2025 02:39:42 PM</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
+          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3010,17 +3010,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Derya Broll</t>
+          <t>Travis Sumerfelt</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DERYA.BROLL@FHR.COM</t>
+          <t>travis.sumerfelt@fhr.com</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3030,76 +3030,76 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:07 PM</t>
+          <t>09-02-2025 11:06:03 AM</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:37 PM</t>
+          <t>09-02-2025 11:07:05 AM</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
+          <t>PC-2MQ514108Q</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Joseph Moberly</t>
+          <t>Carlos Garcia Jr.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>joseph.moberly@fhr.com</t>
+          <t>CARLOS.GARCIAJR@FHR.COM</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>08-28-2025 01:10:49 PM</t>
+          <t>08-27-2025 09:24:59 PM</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>08-28-2025 01:11:16 PM</t>
+          <t>09-02-2025 08:26:34 AM</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>PC-1H852009W3, PC-5CG2415PYM</t>
+          <t>FHR-FRMKN34</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Lindi Dinn</t>
+          <t>Billy Royal</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LINDI.DINN@FHR.COM</t>
+          <t>BILLY.ROYAL@FHR.COM</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3114,17 +3114,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:14 PM</t>
+          <t>08-29-2025 04:48:06 PM</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:40 PM</t>
+          <t>08-29-2025 04:48:34 PM</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>FHR-8CC8412KMN, FHR-CND1440HKF, PC-36KMG25193M4, PC-1H852009X5, FHR-51990492553</t>
+          <t>FHR-5CD2331XLD</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3136,138 +3136,138 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Rodney Cotten</t>
+          <t>Samuel Paulus</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>RODNEY.COTTEN@FHR.COM</t>
+          <t>samuel.paulus@fhr.com</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:02 PM</t>
+          <t>08-29-2025 01:00:17 PM</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:30 PM</t>
+          <t>08-29-2025 01:00:45 PM</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>PC-33JGC25073R3, PC-5CD5100K7L, FHR-5CG7515059</t>
+          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Chad Schaner</t>
+          <t>Derya Broll</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CHAD.SCHANER@FHR.COM</t>
+          <t>DERYA.BROLL@FHR.COM</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Dell Pro Rugged RB14250 14" Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>08-04-2025 01:41:48 PM</t>
+          <t>08-29-2025 12:10:07 PM</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>08-27-2025 01:20:37 PM</t>
+          <t>08-29-2025 12:10:37 PM</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>FHR-8H0GH04, FHR-8CG7352CR5, FHR-DYW9BT3, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-187491253</t>
+          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Denise Gonzalez</t>
+          <t>Joseph Moberly</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DENISE.GONZALEZ@FHR.COM</t>
+          <t>joseph.moberly@fhr.com</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:17 AM</t>
+          <t>08-28-2025 01:10:49 PM</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:45 AM</t>
+          <t>08-28-2025 01:11:16 PM</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>SPC-83V03Z3, SPC-D0R03Z3, SPC-G1V03Z3, PC-34Y4825063R3, PC-5WXDQV3</t>
+          <t>PC-1H852009W3, PC-5CG2415PYM</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Kris Adkins</t>
+          <t>Lindi Dinn</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>KRISTOPHER.ADKINS@FHR.COM</t>
+          <t>LINDI.DINN@FHR.COM</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3277,22 +3277,22 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-26-2025 08:20:43 PM</t>
+          <t>08-27-2025 02:53:14 PM</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-26-2025 08:21:16 PM</t>
+          <t>08-27-2025 02:53:40 PM</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>PC-34WWG25063R3</t>
+          <t>PC-36KMG25193M4, FHR-8CC8412KMN, PC-1H852009X5, FHR-CND1440HKF, FHR-51990492553</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3304,12 +3304,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Jose Cardona</t>
+          <t>Rodney Cotten</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>JOSE.CARDONA@FHR.COM</t>
+          <t>RODNEY.COTTEN@FHR.COM</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3319,22 +3319,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-26-2025 09:00:40 AM</t>
+          <t>08-27-2025 02:27:02 PM</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-26-2025 09:01:09 AM</t>
+          <t>08-27-2025 02:27:30 PM</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>FHR-5CG30935LZ, CPC-JOSEC-BGVEA, SPC-5CG40111D5</t>
+          <t>PC-5CD5100K7L, PC-33JGC25073R3, FHR-5CG7515059</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3346,12 +3346,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Phillip Norell</t>
+          <t>Chad Schaner</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PHILLIP.NORELL@FHR.COM</t>
+          <t>CHAD.SCHANER@FHR.COM</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3361,22 +3361,22 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Dell Pro Rugged RB14250 14" Laptop</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:13 PM</t>
+          <t>08-04-2025 01:41:48 PM</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:39 PM</t>
+          <t>08-27-2025 01:20:37 PM</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>FHR-5CG213CGKR, PC-1H85200B08</t>
+          <t>FHR-8H0GH04, FHR-8CG7352CR5, FHR-DYW9BT3, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-187491253</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3388,54 +3388,54 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Anne Lee</t>
+          <t>Denise Gonzalez</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ANNE.LEE@FHR.COM</t>
+          <t>DENISE.GONZALEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:00 AM</t>
+          <t>08-27-2025 07:15:17 AM</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:30 AM</t>
+          <t>08-27-2025 07:15:45 AM</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
+          <t>SPC-G1V03Z3, SPC-83V03Z3, PC-34Y4825063R3, PC-5WXDQV3</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>David Barnholt</t>
+          <t>Kris Adkins</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>david.barnholt@fhr.com</t>
+          <t>KRISTOPHER.ADKINS@FHR.COM</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3445,22 +3445,22 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:27 AM</t>
+          <t>08-26-2025 08:20:43 PM</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:54 AM</t>
+          <t>08-26-2025 08:21:16 PM</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>PC-1H852009SD</t>
+          <t>PC-34WWG25063R3</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3472,17 +3472,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Eric Enders</t>
+          <t>Jose Cardona</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>eric.enders@fhr.com</t>
+          <t>JOSE.CARDONA@FHR.COM</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3492,76 +3492,76 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:30 AM</t>
+          <t>08-26-2025 09:00:40 AM</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:59 AM</t>
+          <t>08-26-2025 09:01:09 AM</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>PC-2MQ514115J</t>
+          <t>FHR-5CG30935LZ, SPC-5CG4084VQ2, SPC-5CG4084VQJ, CPC-JOSEC-BGVEA</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sean Garza</t>
+          <t>Phillip Norell</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>sean.garza@fhr.com</t>
+          <t>PHILLIP.NORELL@FHR.COM</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-19-2025 01:01:15 AM</t>
+          <t>08-25-2025 02:58:13 PM</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:18 AM</t>
+          <t>08-25-2025 02:58:39 PM</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>FHR-GTQKN34, SPC-3B6G25073R3</t>
+          <t>FHR-5CG213CGKR, PC-1H85200B08</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Joe Rohl</t>
+          <t>Anne Lee</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>JOE.ROHL@FHR.COM</t>
+          <t>ANNE.LEE@FHR.COM</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3571,22 +3571,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-19-2025 02:44:07 PM</t>
+          <t>08-25-2025 10:13:00 AM</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:14 AM</t>
+          <t>08-25-2025 10:13:30 AM</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
+          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3598,12 +3598,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>David Ybarra</t>
+          <t>David Barnholt</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DAVID.YBARRA@FHR.COM</t>
+          <t>david.barnholt@fhr.com</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3618,17 +3618,17 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:30 AM</t>
+          <t>08-22-2025 11:11:27 AM</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:58 AM</t>
+          <t>08-22-2025 11:11:54 AM</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
+          <t>PC-1H852009SD</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3640,17 +3640,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>Eric Enders</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>eric.enders@fhr.com</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3660,39 +3660,39 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:19 AM</t>
+          <t>08-22-2025 07:55:30 AM</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:48 AM</t>
+          <t>08-22-2025 07:55:59 AM</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>PC-2MQ514115J</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Cole Brewster</t>
+          <t>Sean Garza</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>cole.brewster@fhr.com</t>
+          <t>sean.garza@fhr.com</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3702,101 +3702,101 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-20-2025 01:48:49 PM</t>
+          <t>08-19-2025 01:01:15 AM</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>08-20-2025 01:49:17 PM</t>
+          <t>08-22-2025 07:34:18 AM</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>PC-34Y3Q25063R3, FHR-5CG1276WN7</t>
+          <t>SPC-3B6G25073R3</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Brenna Gerety</t>
+          <t>Joe Rohl</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BRENNA.GERETY@FHR.COM</t>
+          <t>JOE.ROHL@FHR.COM</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:01 AM</t>
+          <t>08-19-2025 02:44:07 PM</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:29 AM</t>
+          <t>08-22-2025 07:34:14 AM</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>PC-5CG5040677, FHR-5CG0036B94</t>
+          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Daniel Jurach</t>
+          <t>David Ybarra</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>daniel.jurach@fhr.com</t>
+          <t>DAVID.YBARRA@FHR.COM</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-18-2025 11:58:20 AM</t>
+          <t>08-22-2025 07:18:30 AM</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>08-19-2025 10:21:28 AM</t>
+          <t>08-22-2025 07:18:58 AM</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>PC-2MQ514110T</t>
+          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3808,101 +3808,101 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Tony Short</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ANTHONY.SHORT@KPLSRV.COM</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:07 AM</t>
+          <t>08-22-2025 06:59:19 AM</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:38 AM</t>
+          <t>08-22-2025 06:59:48 AM</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>PC-5CD229GR66, PC-5CD5100KK7, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Chad Remer</t>
+          <t>Cole Brewster</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CHAD.REMER@FHR.COM</t>
+          <t>cole.brewster@fhr.com</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:04 AM</t>
+          <t>08-20-2025 01:48:49 PM</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:34 AM</t>
+          <t>08-20-2025 01:49:17 PM</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
+          <t>FHR-5CG1276WN7, PC-34Y3Q25063R3</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Nicholas Hanson</t>
+          <t>Brenna Gerety</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NICK.HANSON@FHR.COM</t>
+          <t>BRENNA.GERETY@FHR.COM</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3912,39 +3912,39 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:17 AM</t>
+          <t>08-20-2025 07:58:01 AM</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:46 AM</t>
+          <t>08-20-2025 07:58:29 AM</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
+          <t>PC-5CG5040677, FHR-5CG0036B94</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Harold Irvin</t>
+          <t>Daniel Jurach</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>HAROLD.IRVIN@FHR.COM</t>
+          <t>daniel.jurach@fhr.com</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
+          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3954,76 +3954,76 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:06 PM</t>
+          <t>08-18-2025 11:58:20 AM</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:37 PM</t>
+          <t>08-19-2025 10:21:28 AM</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>FHR-5CG2156Z1X, PC-2MQ51410F2</t>
+          <t>PC-2MQ514110T</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sandra Akarolo</t>
+          <t>Tony Short</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>sandra.akarolo@fhr.com</t>
+          <t>ANTHONY.SHORT@KPLSRV.COM</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>08-13-2025 01:51:42 PM</t>
+          <t>08-18-2025 10:21:07 AM</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>08-14-2025 08:58:56 AM</t>
+          <t>08-18-2025 10:21:38 AM</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>FHR-5CG213CDWV</t>
+          <t>PC-5CD5100KK7, PC-5CD229GR66, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Paul Fisher</t>
+          <t>Chad Remer</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PAUL.FISHER@FHR.COM</t>
+          <t>CHAD.REMER@FHR.COM</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4033,22 +4033,22 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:23 PM</t>
+          <t>08-18-2025 09:26:04 AM</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:56 PM</t>
+          <t>08-18-2025 09:26:34 AM</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
+          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4060,79 +4060,79 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Robert Corley</t>
+          <t>Nicholas Hanson</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ROBERT.CORLEY@FHR.COM</t>
+          <t>NICK.HANSON@FHR.COM</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>08-12-2025 06:27:18 PM</t>
+          <t>08-15-2025 07:06:17 AM</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>08-13-2025 12:47:38 PM</t>
+          <t>08-15-2025 07:06:46 AM</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
+          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Jeff Baker</t>
+          <t>Harold Irvin</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>JEFF.BAKER@FHR.COM</t>
+          <t>HAROLD.IRVIN@FHR.COM</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:02 AM</t>
+          <t>08-14-2025 02:45:06 PM</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:30 AM</t>
+          <t>08-14-2025 02:45:37 PM</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
+          <t>PC-2MQ51410F2, FHR-5CG2156Z1X</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4144,12 +4144,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Kemal Simpson</t>
+          <t>Sandra Akarolo</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>kemal.simpson@fhr.com</t>
+          <t>sandra.akarolo@fhr.com</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4159,22 +4159,22 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>08-13-2025 07:17:41 AM</t>
+          <t>08-13-2025 01:51:42 PM</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>08-13-2025 07:18:09 AM</t>
+          <t>08-14-2025 08:58:56 AM</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>FHR-5CG1073F3X</t>
+          <t>FHR-5CG213CDWV</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4186,96 +4186,96 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Robert Jimenez</t>
+          <t>Paul Fisher</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ROBERT.JIMENEZ@FHR.COM</t>
+          <t>PAUL.FISHER@FHR.COM</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:22 AM</t>
+          <t>08-13-2025 05:07:23 PM</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:51 AM</t>
+          <t>08-13-2025 05:07:56 PM</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
+          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Kevin Miller</t>
+          <t>Robert Corley</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>KEVIN.MILLER@FHR.COM</t>
+          <t>ROBERT.CORLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:21 AM</t>
+          <t>08-12-2025 06:27:18 PM</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:49 AM</t>
+          <t>08-13-2025 12:47:38 PM</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
+          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Tucker Lansing</t>
+          <t>Jeff Baker</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>tucker.lansing@fhr.com</t>
+          <t>JEFF.BAKER@FHR.COM</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4285,22 +4285,22 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:05 AM</t>
+          <t>08-13-2025 09:11:02 AM</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:44 AM</t>
+          <t>08-13-2025 09:11:30 AM</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>PC-2MQ5141103</t>
+          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4312,17 +4312,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Kairos Logan</t>
+          <t>Kemal Simpson</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>kairos.logan@fhr.com</t>
+          <t>kemal.simpson@fhr.com</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4332,34 +4332,34 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:17 PM</t>
+          <t>08-13-2025 07:17:41 AM</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:45 PM</t>
+          <t>08-13-2025 07:18:09 AM</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>PC-2MQ51410BZ</t>
+          <t>FHR-5CG1073F3X</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Louis Stump</t>
+          <t>Robert Jimenez</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>LOUIS.STUMP@FHR.COM</t>
+          <t>ROBERT.JIMENEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4374,17 +4374,17 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>07-20-2025 06:49:35 AM</t>
+          <t>08-12-2025 11:43:22 AM</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>08-11-2025 03:03:35 PM</t>
+          <t>08-12-2025 11:43:51 AM</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
+          <t>SPC-MXL41235GZ, PC-34P9Q25193M4, FHR-BK001K2222</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4396,12 +4396,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Kevin Miller</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>KEVIN.MILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4411,22 +4411,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>08-11-2025 12:57:47 PM</t>
+          <t>08-12-2025 09:11:21 AM</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>08-11-2025 12:58:15 PM</t>
+          <t>08-12-2025 09:11:49 AM</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
+          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4438,12 +4438,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Alex Fairbanks</t>
+          <t>Tucker Lansing</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Alex.Fairbanks@fhr.com</t>
+          <t>tucker.lansing@fhr.com</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4453,22 +4453,22 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>08-11-2025 09:58:56 AM</t>
+          <t>08-12-2025 08:13:05 AM</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>08-11-2025 09:59:25 AM</t>
+          <t>08-12-2025 08:13:44 AM</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>FHR-MXL3132S8S, PC-5CD5100K77, FHR-5CG2261RYZ</t>
+          <t>PC-2MQ5141103</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4480,54 +4480,54 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Cole Wilson</t>
+          <t>Kairos Logan</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>cole.wilson@fhr.com</t>
+          <t>kairos.logan@fhr.com</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>08-11-2025 08:57:56 AM</t>
+          <t>08-11-2025 04:54:17 PM</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>08-11-2025 08:58:25 AM</t>
+          <t>08-11-2025 04:54:45 PM</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z9H</t>
+          <t>PC-2MQ51410BZ</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Louis Stump</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>LOUIS.STUMP@FHR.COM</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4542,17 +4542,17 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:07 AM</t>
+          <t>07-20-2025 06:49:35 AM</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:36 AM</t>
+          <t>08-11-2025 03:03:35 PM</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
+          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4564,96 +4564,96 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Bobby Peddycord</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>bobby.peddycord@fhr.com</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>08-07-2025 10:38:48 AM</t>
+          <t>08-11-2025 12:57:47 PM</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>08-11-2025 07:13:21 AM</t>
+          <t>08-11-2025 12:58:15 PM</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
+          <t>PC-01VYP23013BF, PC-2MQ5270TFX</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Charles Oliver</t>
+          <t>Alex Fairbanks</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CHARLES.OLIVER@FHR.COM</t>
+          <t>Alex.Fairbanks@fhr.com</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>08-11-2025 05:46:52 AM</t>
+          <t>08-11-2025 09:58:56 AM</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>08-11-2025 05:47:20 AM</t>
+          <t>08-11-2025 09:59:25 AM</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>PC-36KFF25193M4</t>
+          <t>PC-5CD5100K77, FHR-MXL3132S8S, FHR-5CG2261RYZ</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Rudy Barajas</t>
+          <t>Cole Wilson</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>RUDY.BARAJAS@FHR.COM</t>
+          <t>cole.wilson@fhr.com</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4663,22 +4663,22 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>08-06-2025 04:56:54 AM</t>
+          <t>08-11-2025 08:57:56 AM</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>08-08-2025 01:09:23 PM</t>
+          <t>08-11-2025 08:58:25 AM</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>PC-33BYB25013M4, PC-2MQ514105T, FHR-J2V03Z3, FHR-MXL24156CF</t>
+          <t>PC-2MQ5140Z9H</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4690,138 +4690,138 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Braxton Holes</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>braxton.holes@fhr.com</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>08-07-2025 08:51:34 AM</t>
+          <t>08-11-2025 08:33:07 AM</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>08-08-2025 11:34:27 AM</t>
+          <t>08-11-2025 08:33:36 AM</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>FHR-5CD231D3NH, PC-5CD5100KGP, FHR-5CD01052SN</t>
+          <t>PC-01VYP23013BF, PC-2MQ5270TFX</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Andrea Unruh</t>
+          <t>Bobby Peddycord</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ANDREA.UNRUH@FHR.COM</t>
+          <t>bobby.peddycord@fhr.com</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:28 AM</t>
+          <t>08-07-2025 10:38:48 AM</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:56 AM</t>
+          <t>08-11-2025 07:13:21 AM</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>PC-36KG325193M4, PC-014GF22373BF</t>
+          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Caleb Quanrud</t>
+          <t>Charles Oliver</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>caleb.quanrud@fhr.com</t>
+          <t>CHARLES.OLIVER@FHR.COM</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:28 PM</t>
+          <t>08-11-2025 05:46:52 AM</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:58 PM</t>
+          <t>08-11-2025 05:47:20 AM</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
+          <t>PC-36KFF25193M4</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Jean Jaime</t>
+          <t>Rudy Barajas</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>JEAN.JAIME@FHR.COM</t>
+          <t>RUDY.BARAJAS@FHR.COM</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4831,22 +4831,22 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:32 PM</t>
+          <t>08-06-2025 04:56:54 AM</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>08-07-2025 02:12:00 PM</t>
+          <t>08-08-2025 01:09:23 PM</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
+          <t>PC-33BYB25013M4, PC-2MQ514105T, FHR-J2V03Z3, FHR-MXL24156CF</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4858,59 +4858,59 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Braxton Holes</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>braxton.holes@fhr.com</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>08-07-2025 02:10:24 PM</t>
+          <t>08-07-2025 08:51:34 AM</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:00 PM</t>
+          <t>08-08-2025 11:34:27 AM</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
+          <t>FHR-5CD231D3NH, PC-5CD5100KGP, FHR-5CD01052SN</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Andrea Unruh</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>ANDREA.UNRUH@FHR.COM</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4920,59 +4920,59 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:23 PM</t>
+          <t>08-08-2025 08:17:28 AM</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:59 PM</t>
+          <t>08-08-2025 08:17:56 AM</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
+          <t>PC-36KG325193M4, PC-014GF22373BF</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Branden Roering</t>
+          <t>Caleb Quanrud</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>branden.roering@fhr.com</t>
+          <t>caleb.quanrud@fhr.com</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:17 PM</t>
+          <t>08-07-2025 03:06:28 PM</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:45 PM</t>
+          <t>08-07-2025 03:06:58 PM</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>PC-2MQ5141148</t>
+          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4984,12 +4984,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Christopher Brooks</t>
+          <t>Jean Jaime</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
+          <t>JEAN.JAIME@FHR.COM</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5004,17 +5004,17 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>08-06-2025 12:44:08 PM</t>
+          <t>08-07-2025 02:11:32 PM</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>08-07-2025 09:46:49 AM</t>
+          <t>08-07-2025 02:12:00 PM</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
+          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5026,12 +5026,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Justin Hinojosa</t>
+          <t>Rick Schwing</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>justin.hinojosa@fhr.com</t>
+          <t>rick.schwing@fhr.com</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:01 AM</t>
+          <t>08-07-2025 02:10:24 PM</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:29 AM</t>
+          <t>08-07-2025 02:11:00 PM</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>FHR-MXL5043GK0</t>
+          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5068,59 +5068,59 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Josiah Peterson</t>
+          <t>Rick Schwing</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>JOSIAH.PETERSON@FHR.COM</t>
+          <t>rick.schwing@fhr.com</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>08-06-2025 08:30:11 AM</t>
+          <t>08-07-2025 02:09:23 PM</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>08-06-2025 08:31:02 AM</t>
+          <t>08-07-2025 02:09:59 PM</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>FHR-5CD30764W6, PC-2MQ5270TC1</t>
+          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Andrew Berndt</t>
+          <t>Branden Roering</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>andrew.berndt@fhr.com</t>
+          <t>branden.roering@fhr.com</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
+          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5130,76 +5130,76 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>08-05-2025 01:32:29 PM</t>
+          <t>08-07-2025 12:49:17 PM</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>08-05-2025 01:33:21 PM</t>
+          <t>08-07-2025 12:49:45 PM</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>PC-2MQ514100C</t>
+          <t>PC-2MQ5141148</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Matthew VanLanen</t>
+          <t>Christopher Brooks</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>matthew.vanlanen@fhr.com</t>
+          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:12 AM</t>
+          <t>08-06-2025 12:44:08 PM</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:39 AM</t>
+          <t>08-07-2025 09:46:49 AM</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
+          <t>PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Arturo Vasquez Jr</t>
+          <t>Justin Hinojosa</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ARTURO.VASQUEZ@FHR.COM</t>
+          <t>justin.hinojosa@fhr.com</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5214,17 +5214,17 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>07-30-2025 12:56:40 PM</t>
+          <t>08-06-2025 11:55:01 AM</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>08-05-2025 09:13:23 AM</t>
+          <t>08-06-2025 11:55:29 AM</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>FHR-MXL4123NY2, FHR-8CG82809D5, FHR-5CG31302WM, SPC-37MW25123GX, FHR-MXL9223BRW</t>
+          <t>PC-MXL24156FQ SPC-MXL24156FQ FHR-8CG80416HL FHR-8CG806569G FHR-8CG7236C1X FHR-G3BCDZ3 FHR-MXL3132SS4 FHR-8CG80416GX FHR-MXL90224D2 FHR-8J5ZK44 FHR-MXL3132SN7 FHR-MXL3132SS3 FHR-9K8ZK44 FHR-MXL3132SQX KII-MXL2424F2T FHR-MXL5043GK1 FHR-MXL5043GK0 FHR-MXL3132SRR FHR-BK001HK222 FHR-MXL3132SNW FHR-5CD439J37S FHR-MXL3132SP1</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5236,12 +5236,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Christopher Koerner</t>
+          <t>Josiah Peterson</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.KOERNER@FHR.COM</t>
+          <t>JOSIAH.PETERSON@FHR.COM</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5251,22 +5251,22 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>08-05-2025 08:14:41 AM</t>
+          <t>08-06-2025 08:30:11 AM</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>08-05-2025 08:15:12 AM</t>
+          <t>08-06-2025 08:31:02 AM</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>PC-5CD4514XZX, FHR-59309202153</t>
+          <t>PC-2MQ5270TC1, FHR-5CD30764W6</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5278,37 +5278,37 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Eric Derieux</t>
+          <t>Andrew Berndt</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ERIC.DERIEUX@FHR.COM</t>
+          <t>andrew.berndt@fhr.com</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>US-TX-BEAUMONT2 - FHR-Beaumont TX - Beaumont - Koch</t>
+          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>08-05-2025 08:01:44 AM</t>
+          <t>08-05-2025 01:32:29 PM</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>08-05-2025 08:02:14 AM</t>
+          <t>08-05-2025 01:33:21 PM</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TDP, FHR-5CG8353ZC7, DESKTOP-JU70CMA</t>
+          <t>PC-2MQ514100C</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5320,17 +5320,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Ryan Sabin</t>
+          <t>Matthew VanLanen</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ryan.sabin@fhr.com</t>
+          <t>matthew.vanlanen@fhr.com</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5340,22 +5340,22 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>08-04-2025 12:02:32 PM</t>
+          <t>08-05-2025 10:28:12 AM</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>08-04-2025 12:03:01 PM</t>
+          <t>08-05-2025 10:28:39 AM</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZHM, FHR-5CG1092Y8L, PC-2MQ5040SX3</t>
+          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>

--- a/output/fhr_computer_requests.xlsx
+++ b/output/fhr_computer_requests.xlsx
@@ -532,59 +532,59 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Grant Creasman</t>
+          <t>Corey Brittain</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>grant.creasman@fhr.com</t>
+          <t>COREY.BRITTAIN@FHR.COM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09-29-2025 07:40:30 AM</t>
+          <t>09-30-2025 07:35:08 AM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>09-29-2025 07:40:58 AM</t>
+          <t>09-30-2025 07:35:38 AM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PC-5CD42993JX, PC-001F323233BF, FHR-CND11935ZS, FHR-BK001F3</t>
+          <t>FHR-MXL90224C0 FHR-8CG828099Y FHR-8CG82809F9 FHR-MXL9153QP5 FHR-8CG82809D7 FHR-MXL902244L FHR-8CG83488SZ FHR-8CG7236C2D FHR-8CG7236C22 FHR-MXL9032SMM FHR-MXL2302P36 FHR-MXL2424F2R FHR-MXL24155WF FHR-G3BCDZ3 FHR-MXL9153QQP FHR-MXL24155YR FHR5CG2096G7D FHR-8CC8412KQ2 FHR-MXL1334C90 FHR-5ZP221700D</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Stephen Mieth</t>
+          <t>Duane Lindquist</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>STEPHEN.MIETH@FHR.COM</t>
+          <t>DUANE.LINDQUIST@FHR.COM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -594,34 +594,34 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09-28-2025 06:12:27 PM</t>
+          <t>09-30-2025 07:02:29 AM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>09-28-2025 06:12:56 PM</t>
+          <t>09-30-2025 07:02:56 AM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FHR-5CG0511HN8</t>
+          <t>FHR-26931792853</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dj Yarwood</t>
+          <t>Evan Mitchell</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DEREK.YARWOOD@FHR.COM</t>
+          <t>evan.mitchell@fhr.com</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -631,22 +631,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09-27-2025 03:39:16 PM</t>
+          <t>09-29-2025 01:30:55 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09-27-2025 03:39:44 PM</t>
+          <t>09-29-2025 01:31:22 PM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FHR-5CG12812HD</t>
+          <t>FHR-8CG7333J8D FHR-5CG313030W</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -658,12 +658,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Christian Makhoul</t>
+          <t>Diego Lowney</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>christian.makhoul@fhr.com</t>
+          <t>diego.lowney@fhr.com</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -673,22 +673,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09-27-2025 01:26:04 PM</t>
+          <t>09-29-2025 01:29:53 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09-27-2025 01:26:31 PM</t>
+          <t>09-29-2025 01:30:21 PM</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FHR-5CG128139P</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -700,12 +700,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nicholas Hanson</t>
+          <t>Matt Cordina</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NICK.HANSON@FHR.COM</t>
+          <t>MATT.CORDINA@FHR.COM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -715,22 +715,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09-25-2025 04:07:28 PM</t>
+          <t>09-29-2025 01:18:31 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-25-2025 04:07:56 PM</t>
+          <t>09-29-2025 01:18:57 PM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
+          <t>FHR-5CG2219ZD1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -742,12 +742,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sam Raimann</t>
+          <t>Grant Creasman</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAM.RAIMANN@FHR.COM</t>
+          <t>grant.creasman@fhr.com</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09-25-2025 03:18:39 PM</t>
+          <t>09-29-2025 07:40:30 AM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-25-2025 03:19:11 PM</t>
+          <t>09-29-2025 07:40:58 AM</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>FHR-5CG1465ZKQ</t>
+          <t>PC-001F323233BF, PC-5CD42993JX, FHR-CND11935ZS, FHR-BK001F3</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -784,96 +784,96 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Todd Holder</t>
+          <t>Stephen Mieth</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>todd.holder@fhr.com</t>
+          <t>STEPHEN.MIETH@FHR.COM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>US-TX-AUSTIN2 - FHR-Austin - Austin - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-25-2025 10:44:40 AM</t>
+          <t>09-28-2025 06:12:27 PM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-25-2025 10:45:09 AM</t>
+          <t>09-28-2025 06:12:56 PM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PC-5CG3341P05</t>
+          <t>FHR-5CG0511HN8</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Alex Pierce</t>
+          <t>Dj Yarwood</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ALEXANDER.PIERCE@FHR.COM</t>
+          <t>DEREK.YARWOOD@FHR.COM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-24-2025 07:19:02 PM</t>
+          <t>09-27-2025 03:39:16 PM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-24-2025 07:19:31 PM</t>
+          <t>09-27-2025 03:39:44 PM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>FHR-0F01W2H2301</t>
+          <t>FHR-5CG12812HD</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lindsey Kuzma</t>
+          <t>Christian Makhoul</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LINDSEY.KUZMA@FHR.COM</t>
+          <t>christian.makhoul@fhr.com</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -883,22 +883,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-24-2025 01:01:16 PM</t>
+          <t>09-27-2025 01:26:04 PM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-24-2025 01:01:46 PM</t>
+          <t>09-27-2025 01:26:31 PM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>PC-000PN23253BF</t>
+          <t>FHR-5CG128139P</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -910,138 +910,138 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Antonio Vargas</t>
+          <t>Nicholas Hanson</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>antonio.vargas@fhr.com</t>
+          <t>NICK.HANSON@FHR.COM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09-22-2025 10:19:51 AM</t>
+          <t>09-25-2025 04:07:28 PM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-24-2025 12:54:47 PM</t>
+          <t>09-25-2025 04:07:56 PM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tammie Fletchall</t>
+          <t>Sam Raimann</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TAMMIE.FLETCHALL@FHR.COM</t>
+          <t>SAM.RAIMANN@FHR.COM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09-23-2025 03:41:36 PM</t>
+          <t>09-25-2025 03:18:39 PM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09-24-2025 11:34:29 AM</t>
+          <t>09-25-2025 03:19:11 PM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PC-5CG2261RSB</t>
+          <t>FHR-5CG1465ZKQ</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jimmy Nguyen</t>
+          <t>Todd Holder</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jimmy.nguyen@fhr.com</t>
+          <t>todd.holder@fhr.com</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-AUSTIN2 - FHR-Austin - Austin - Koch</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>08-04-2025 01:48:09 PM</t>
+          <t>09-25-2025 10:44:40 AM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09-23-2025 03:22:38 PM</t>
+          <t>09-25-2025 10:45:09 AM</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>FHR-5CG1465S8V</t>
+          <t>PC-5CG3341P05</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Robert Cliburn</t>
+          <t>Alex Pierce</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ROBERT.CLIBURN@FHR.COM</t>
+          <t>ALEXANDER.PIERCE@FHR.COM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1051,22 +1051,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09-23-2025 07:36:34 AM</t>
+          <t>09-24-2025 07:19:02 PM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-23-2025 07:37:02 AM</t>
+          <t>09-24-2025 07:19:31 PM</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>FHR-5CG0472YYT</t>
+          <t>PC-2MQ5140ZZK, FHR-0F01W2H2301</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1078,54 +1078,54 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brinson Bryan</t>
+          <t>Lindsey Kuzma</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BRINSON.BRYAN@FHR.COM</t>
+          <t>LINDSEY.KUZMA@FHR.COM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09-22-2025 08:31:09 AM</t>
+          <t>09-24-2025 01:01:16 PM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09-22-2025 08:31:38 AM</t>
+          <t>09-24-2025 01:01:46 PM</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>FHR-5CD229GR46</t>
+          <t>PC-000PN23253BF</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Vicente Castillo</t>
+          <t>Antonio Vargas</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>VICENTE.CASTILLO@FHR.COM</t>
+          <t>antonio.vargas@fhr.com</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1135,22 +1135,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09-22-2025 08:10:41 AM</t>
+          <t>09-22-2025 10:19:51 AM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-22-2025 08:11:09 AM</t>
+          <t>09-24-2025 12:54:47 PM</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>PC-334QH231933F, FHR-MXL3132SQX</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1162,96 +1162,96 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dillon Sailer</t>
+          <t>Tammie Fletchall</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>dillon.sailer@fhr.com</t>
+          <t>TAMMIE.FLETCHALL@FHR.COM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09-19-2025 04:55:25 PM</t>
+          <t>09-23-2025 03:41:36 PM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-19-2025 04:55:54 PM</t>
+          <t>09-24-2025 11:34:29 AM</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>PC-1H852009ZL, FHR-LOANPB18, FHR-5CG201416N</t>
+          <t>PC-5CG2261RSB, PC-2MQ53508VD</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Jimmy Nguyen</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DANIEL.BRAUN@FHR.COM</t>
+          <t>jimmy.nguyen@fhr.com</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09-18-2025 02:27:18 PM</t>
+          <t>08-04-2025 01:48:09 PM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-18-2025 02:27:46 PM</t>
+          <t>09-23-2025 03:22:38 PM</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>FHR-5CG7312MP6, PC-1H85200B0S</t>
+          <t>FHR-7TDCK74, FHR-5CG1465S8V</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Roberto Montelongo</t>
+          <t>Robert Cliburn</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>roberto.montelongo@fhr.com</t>
+          <t>ROBERT.CLIBURN@FHR.COM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1261,22 +1261,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09-18-2025 09:01:15 AM</t>
+          <t>09-23-2025 07:36:34 AM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-18-2025 09:01:46 AM</t>
+          <t>09-23-2025 07:37:02 AM</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>FHR-5CG2156GT3, PC-33VX725273R3, USWHL-1276WN9</t>
+          <t>PC-2MQ53508TY, FHR-5CG0472YYT</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1288,101 +1288,101 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Trevor Willberg</t>
+          <t>Brinson Bryan</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>trevor.willberg@fhr.com</t>
+          <t>BRINSON.BRYAN@FHR.COM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>09-17-2025 10:21:00 AM</t>
+          <t>09-22-2025 08:31:09 AM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09-17-2025 12:52:13 PM</t>
+          <t>09-22-2025 08:31:38 AM</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>FHR-5CD229GR46</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Cory Strandlien</t>
+          <t>Vicente Castillo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cory.strandlien@fhr.com</t>
+          <t>VICENTE.CASTILLO@FHR.COM</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>09-17-2025 09:55:48 AM</t>
+          <t>09-22-2025 08:10:41 AM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>09-17-2025 12:44:37 PM</t>
+          <t>09-22-2025 08:11:09 AM</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>PC-334QH231933F, FHR-MXL3132SQX</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Enrique Flores</t>
+          <t>Dillon Sailer</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ENRIQUE.FLORES@FHR.COM</t>
+          <t>dillon.sailer@fhr.com</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1392,202 +1392,202 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>09-17-2025 10:03:05 AM</t>
+          <t>09-19-2025 04:55:25 PM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>09-17-2025 10:03:36 AM</t>
+          <t>09-19-2025 04:55:54 PM</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>FHR-2UA8311QWT, PC-1H85200B0B, FHR-5CG1240T5M, FHR-5CD4154J0P</t>
+          <t>PC-1H852009ZL, FHR-LOANPB18, FHR-5CG201416N</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jason Henke</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>JASON.HENKE@FHR.COM</t>
+          <t>DANIEL.BRAUN@FHR.COM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>09-17-2025 09:38:30 AM</t>
+          <t>09-18-2025 02:27:18 PM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>09-17-2025 09:39:02 AM</t>
+          <t>09-18-2025 02:27:46 PM</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>FHR-5CG2151LHM, PC-2MQ5290Z9F</t>
+          <t>FHR-5CG7312MP6, PC-1H85200B0S</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jed Illg</t>
+          <t>Roberto Montelongo</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Jed.Illg@fhr.com</t>
+          <t>roberto.montelongo@fhr.com</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>09-17-2025 08:33:21 AM</t>
+          <t>09-18-2025 09:01:15 AM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>09-17-2025 08:33:50 AM</t>
+          <t>09-18-2025 09:01:46 AM</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>PC-2MQ5290Z98, FHR-5CG2156GG9</t>
+          <t>FHR-5CG2156GT3, PC-33VX725273R3, USWHL-1276WN9</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Shannon Angle</t>
+          <t>Trevor Willberg</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>shannon.angle@kochcc.com</t>
+          <t>trevor.willberg@fhr.com</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09-17-2025 07:50:45 AM</t>
+          <t>09-17-2025 10:21:00 AM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>09-17-2025 07:51:14 AM</t>
+          <t>09-17-2025 12:52:13 PM</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
+          <t>PC-2MQ5140ZPY</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bryeton Canchola</t>
+          <t>Cory Strandlien</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bryeton.canchola@fhr.com</t>
+          <t>cory.strandlien@fhr.com</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>09-16-2025 03:26:59 PM</t>
+          <t>09-17-2025 09:55:48 AM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09-16-2025 03:27:26 PM</t>
+          <t>09-17-2025 12:44:37 PM</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>SPC-MXL24155VV FHR-MXL1022SZ3 FHR-MXL24156C3 SPC-MXL24155W5 SPC-MXL3324PYM SPC-MXL3324PZ0 FHR-MXL2223BDL FHR-MXL9502C5W FHR-MXL9333W07 PC-01W3B23013BF FHR-MXL1022T0R FHR-MXL24155WF FHR-MXL13349Z2 SPC-MXL3324PZ2 FHR-MXL90224C1 FHR-BK000V1 FHR-B9XFH04 SPC-MXL3324PYD SPC-MXL3324PYP FHR-8V4TNZ3</t>
+          <t>PC-2MQ5140ZJ5</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Charles Cooley Jr</t>
+          <t>Enrique Flores</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHARLES.COOLEY@FHR.COM</t>
+          <t>ENRIQUE.FLORES@FHR.COM</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1597,22 +1597,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09-16-2025 02:26:57 PM</t>
+          <t>09-17-2025 10:03:05 AM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-16-2025 02:27:28 PM</t>
+          <t>09-17-2025 10:03:36 AM</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>FHR-5CG225854R, PC-2MQ5140ZJR</t>
+          <t>PC-1H85200B0B, FHR-2UA8311QWT, FHR-5CG1240T5M, FHR-5CD4154J0P</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1624,12 +1624,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Patrick Tiller</t>
+          <t>Jason Henke</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PATRICK.TILLER@FHR.COM</t>
+          <t>JASON.HENKE@FHR.COM</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1639,22 +1639,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09-16-2025 12:20:22 PM</t>
+          <t>09-17-2025 09:38:30 AM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-16-2025 12:20:49 PM</t>
+          <t>09-17-2025 09:39:02 AM</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>FHR-5CG1240T4Q, PC-JZ4TNZ3, PC-1H85200B13, FHR-5CG815441G, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
+          <t>PC-2MQ5290Z9F, FHR-5CG2151LHM</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1666,59 +1666,59 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bryan Garcia</t>
+          <t>Jed Illg</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>bryan.garcia1@fhr.com</t>
+          <t>Jed.Illg@fhr.com</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09-16-2025 07:46:13 AM</t>
+          <t>09-17-2025 08:33:21 AM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-16-2025 07:46:49 AM</t>
+          <t>09-17-2025 08:33:50 AM</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>PC-33J3M25073R3, PC-BZQ03Z3, PC-5CG408495P</t>
+          <t>FHR-5CG2156GG9, PC-2MQ5290Z98</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Troy Hull</t>
+          <t>Shannon Angle</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TROY.HULL@FHR.COM</t>
+          <t>shannon.angle@kochcc.com</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1728,81 +1728,81 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09-16-2025 06:55:54 AM</t>
+          <t>09-17-2025 07:50:45 AM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-16-2025 06:56:26 AM</t>
+          <t>09-17-2025 07:51:14 AM</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>FHR-MXL24155WF, PC-33PCV25273R3, PC-5CG4151LFY</t>
+          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Crystal Link</t>
+          <t>Bryeton Canchola</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CRYSTAL.LINK@FHR.COM</t>
+          <t>bryeton.canchola@fhr.com</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09-15-2025 11:01:25 AM</t>
+          <t>09-16-2025 03:26:59 PM</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09-15-2025 11:01:54 AM</t>
+          <t>09-16-2025 03:27:26 PM</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>PC-5CG1465ZKZ, FHR-5CG0254D4T, PC-1H85200B04</t>
+          <t>SPC-MXL24155VV FHR-MXL1022SZ3 FHR-MXL24156C3 SPC-MXL24155W5 SPC-MXL3324PYM SPC-MXL3324PZ0 FHR-MXL2223BDL FHR-MXL9502C5W FHR-MXL9333W07 PC-01W3B23013BF FHR-MXL1022T0R FHR-MXL24155WF FHR-MXL13349Z2 SPC-MXL3324PZ2 FHR-MXL90224C1 FHR-BK000V1 FHR-B9XFH04 SPC-MXL3324PYD SPC-MXL3324PYP FHR-8V4TNZ3</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Alex Lodholz</t>
+          <t>Charles Cooley Jr</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>alex.lodholz@fhr.com</t>
+          <t>CHARLES.COOLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1812,34 +1812,34 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09-15-2025 09:14:43 AM</t>
+          <t>09-16-2025 02:26:57 PM</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09-15-2025 09:15:12 AM</t>
+          <t>09-16-2025 02:27:28 PM</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>PC-2MQ514103N</t>
+          <t>FHR-5CG225854R, PC-2MQ5140ZJR</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Brendan Snell</t>
+          <t>Patrick Tiller</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>brendan.snell@fhr.com</t>
+          <t>PATRICK.TILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1849,22 +1849,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:12 AM</t>
+          <t>09-16-2025 12:20:22 PM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:46 AM</t>
+          <t>09-16-2025 12:20:49 PM</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>FHR-5CG2156XDV</t>
+          <t>PC-1H85200B13, FHR-5CG1240T4Q, PC-JZ4TNZ3, FHR-5CG815441G, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1876,12 +1876,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Joey Guerrero</t>
+          <t>Bryan Garcia</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>joey.guerrero1@fhr.com</t>
+          <t>bryan.garcia1@fhr.com</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1896,17 +1896,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09-15-2025 06:33:41 AM</t>
+          <t>09-16-2025 07:46:13 AM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09-15-2025 06:34:14 AM</t>
+          <t>09-16-2025 07:46:49 AM</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>PC-33B8725073R3, PC-9659600351</t>
+          <t>PC-33J3M25073R3, PC-BZQ03Z3, PC-5CG408495P</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1918,12 +1918,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Eddie Buskirk</t>
+          <t>Troy Hull</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EDDIE.BUSKIRK@FHR.COM</t>
+          <t>TROY.HULL@FHR.COM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1933,22 +1933,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09-12-2025 01:52:56 PM</t>
+          <t>09-16-2025 06:55:54 AM</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-12-2025 01:53:24 PM</t>
+          <t>09-16-2025 06:56:26 AM</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>PC-1H85200B0W, FHR-5CG9326W2B</t>
+          <t>FHR-BK001VG, FHR-MXL24155WF, PC-33PCV25273R3, PC-5CG4151LFY</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1960,54 +1960,54 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sammantha Reynolds</t>
+          <t>Crystal Link</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>sammantha.reynolds1@fhr.com</t>
+          <t>CRYSTAL.LINK@FHR.COM</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09-12-2025 08:18:55 AM</t>
+          <t>09-15-2025 11:01:25 AM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-12-2025 08:19:25 AM</t>
+          <t>09-15-2025 11:01:54 AM</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
+          <t>PC-5CG1465ZKZ, PC-1H85200B04, FHR-5CG0254D4T</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Victor Sauceda</t>
+          <t>Alex Lodholz</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>victor.sauceda@fhr.com</t>
+          <t>alex.lodholz@fhr.com</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2017,22 +2017,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:03 AM</t>
+          <t>09-15-2025 09:14:43 AM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:33 AM</t>
+          <t>09-15-2025 09:15:12 AM</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>FHR-5CD8522C54, PC-33W4325273R3</t>
+          <t>PC-2MQ514103N</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2044,54 +2044,54 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mitch O'Keefe</t>
+          <t>Brendan Snell</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MITCH.OKEEFE@FHR.COM</t>
+          <t>brendan.snell@fhr.com</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:11 PM</t>
+          <t>09-15-2025 08:15:12 AM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:39 PM</t>
+          <t>09-15-2025 08:15:46 AM</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>MSP-CTLU27, PC-1H85200B09, FHR-5CG1344HQ7</t>
+          <t>FHR-5CG2156XDV</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Joe Bedynek</t>
+          <t>Joey Guerrero</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>JOE.BEDYNEK@FHR.COM</t>
+          <t>joey.guerrero1@fhr.com</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2106,17 +2106,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:10 PM</t>
+          <t>09-15-2025 06:33:41 AM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:36 PM</t>
+          <t>09-15-2025 06:34:14 AM</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>PC-33W6D25273R3, FHR-5CD026KSTV</t>
+          <t>PC-33B8725073R3, PC-9659600351</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2128,59 +2128,59 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ruben Hernandez</t>
+          <t>Eddie Buskirk</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ruben.hernandez@fhr.com</t>
+          <t>EDDIE.BUSKIRK@FHR.COM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>09-10-2025 02:51:54 PM</t>
+          <t>09-12-2025 01:52:56 PM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>09-10-2025 02:52:21 PM</t>
+          <t>09-12-2025 01:53:24 PM</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>PC-5CD231GKV7, PC-2MQ5141117</t>
+          <t>PC-1H85200B0W, FHR-5CG9326W2B</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Lauren Sada</t>
+          <t>Sammantha Reynolds</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>lauren.sada@fhr.com</t>
+          <t>sammantha.reynolds1@fhr.com</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2190,34 +2190,34 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:21 PM</t>
+          <t>09-12-2025 08:18:55 AM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:49 PM</t>
+          <t>09-12-2025 08:19:25 AM</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZMH</t>
+          <t>PC-2MQ51410FZ, PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Kevin Harvey</t>
+          <t>Victor Sauceda</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>KEVIN.HARVEY@FHR.COM</t>
+          <t>victor.sauceda@fhr.com</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2227,22 +2227,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-10-2025 08:38:42 AM</t>
+          <t>09-11-2025 09:46:03 AM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09-10-2025 08:39:13 AM</t>
+          <t>09-11-2025 09:46:33 AM</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>PC-2MQ5290Z3G, FHR-5CG1236JK6</t>
+          <t>FHR-5CD8522C54, PC-33W4325273R3</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2254,12 +2254,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Matt Olson</t>
+          <t>Mitch O'Keefe</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MATTHEW.OLSON@FHR.COM</t>
+          <t>MITCH.OKEEFE@FHR.COM</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2269,22 +2269,22 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-09-2025 11:43:57 AM</t>
+          <t>09-10-2025 05:54:11 PM</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09-09-2025 11:44:26 AM</t>
+          <t>09-10-2025 05:54:39 PM</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>PC-2MQ5290Z8Z, FHR-5CD40711PF, FHR-5CG918242Z</t>
+          <t>MSP-CTLU27, PC-1H85200B09, FHR-5CG1344HQ7</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2296,96 +2296,96 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sam Weldemariam</t>
+          <t>Joe Bedynek</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SAM.WELDEMARIAM@FHR.COM</t>
+          <t>JOE.BEDYNEK@FHR.COM</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:23 AM</t>
+          <t>09-10-2025 02:54:10 PM</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:51 AM</t>
+          <t>09-10-2025 02:54:36 PM</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>FHR-F9GR624, FHR-MXL9152YMX, PC-GQMKN34, FHR-D90QDZ3, FHR-3KJBQ54, FHR-G8GR624, FHR-MXL9144C61, FHR-5CG213BX6D, FHR-5CD8506CR3</t>
+          <t>PC-33W6D25273R3, FHR-5CD026KSTV</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Derek Wilfong</t>
+          <t>Ruben Hernandez</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DEREK.WILFONG@FHR.COM</t>
+          <t>ruben.hernandez@fhr.com</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-09-2025 09:02:55 AM</t>
+          <t>09-10-2025 02:51:54 PM</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>09-09-2025 09:03:28 AM</t>
+          <t>09-10-2025 02:52:21 PM</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>FHR-5CG1314K33, PC-34XVM25063R3</t>
+          <t>PC-2MQ5141117, PC-5CD231GKV7</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Joel Mccabe</t>
+          <t>Lauren Sada</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>JOEL.MCCABE@FHR.COM</t>
+          <t>lauren.sada@fhr.com</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2395,22 +2395,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-05-2025 03:04:34 PM</t>
+          <t>09-10-2025 01:27:21 PM</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>09-08-2025 09:08:16 AM</t>
+          <t>09-10-2025 01:27:49 PM</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>SPC-G942X54, FHR-1B1KH04, MSP-005054</t>
+          <t>PC-2MQ5140ZMH</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2422,17 +2422,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Devon Holz</t>
+          <t>Kevin Harvey</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DEVON.HOLZ@FHR.COM</t>
+          <t>KEVIN.HARVEY@FHR.COM</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2442,143 +2442,143 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:14 PM</t>
+          <t>09-10-2025 08:38:42 AM</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:42 PM</t>
+          <t>09-10-2025 08:39:13 AM</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZD9, FHR-5CG2219ZDW</t>
+          <t>PC-2MQ5290Z3G, FHR-5CG1236JK6</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Shawn Sieben</t>
+          <t>Matt Olson</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Shawn.Sieben@fhr.com</t>
+          <t>MATTHEW.OLSON@FHR.COM</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-04-2025 09:29:38 AM</t>
+          <t>09-09-2025 11:43:57 AM</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>09-05-2025 12:58:04 PM</t>
+          <t>09-09-2025 11:44:26 AM</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>FHR-MXL0041QDS, FHR-5CD3507T46, FHR-CND8426B2G, FHR-8CC84008DL</t>
+          <t>FHR-5CD40711PF, PC-2MQ5290Z8Z, FHR-5CG918242Z</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Carrie Simpson</t>
+          <t>Sam Weldemariam</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CARRIE.SIMPSON@FHR.COM</t>
+          <t>SAM.WELDEMARIAM@FHR.COM</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:03 PM</t>
+          <t>09-09-2025 09:48:23 AM</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:30 PM</t>
+          <t>09-09-2025 09:48:51 AM</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZSD, PC-001NS23373BF</t>
+          <t>FHR-MXL9152YMX, FHR-3KJBQ54, FHR-D90QDZ3, PC-GQMKN34, FHR-G8GR624, FHR-F9GR624, FHR-MXL9144C61, FHR-5CG213BX6D, FHR-5CD8506CR3</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Chris Pratt</t>
+          <t>Derek Wilfong</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chris.Pratt@fhr.com</t>
+          <t>DEREK.WILFONG@FHR.COM</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-02-2025 04:16:05 PM</t>
+          <t>09-09-2025 09:02:55 AM</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09-04-2025 01:23:58 PM</t>
+          <t>09-09-2025 09:03:28 AM</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>FHR-5CD016BPV0, PC-MXL53644K5, FHR-MXL8361TTS</t>
+          <t>FHR-5CG1314K33, PC-34XVM25063R3</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2590,121 +2590,121 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Manuel Moreno Jr</t>
+          <t>Joel Mccabe</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MANUEL.MORENO@FHR.COM</t>
+          <t>JOEL.MCCABE@FHR.COM</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>05-02-2025 08:54:50 AM</t>
+          <t>09-05-2025 03:04:34 PM</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>09-04-2025 01:17:10 PM</t>
+          <t>09-08-2025 09:08:16 AM</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>SPC-5BJ8D14, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
+          <t>FHR-1B1KH04, MSP-005054</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Ben Sandiford</t>
+          <t>Devon Holz</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ben.sandiford@fhr.com</t>
+          <t>DEVON.HOLZ@FHR.COM</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:18 PM</t>
+          <t>09-05-2025 02:23:14 PM</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:48 PM</t>
+          <t>09-05-2025 02:23:42 PM</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>PC-1H95220MS6, PC-33VW824233M4</t>
+          <t>FHR-5CG2219ZDW, PC-2MQ5140ZD9</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Denise Schardt</t>
+          <t>Shawn Sieben</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DENISE.SCHARDT@FHR.COM</t>
+          <t>Shawn.Sieben@fhr.com</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-03-2025 02:48:18 PM</t>
+          <t>09-04-2025 09:29:38 AM</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>09-04-2025 01:00:11 PM</t>
+          <t>09-05-2025 12:58:04 PM</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
+          <t>FHR-MXL0041QDS, FHR-CND8426B2G, FHR-5CD3507T46, FHR-8CC84008DL</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2716,17 +2716,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Ray Aslesen</t>
+          <t>Carrie Simpson</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>RAY.ASLESEN@FHR.COM</t>
+          <t>CARRIE.SIMPSON@FHR.COM</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2736,328 +2736,328 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-04-2025 07:28:33 AM</t>
+          <t>09-04-2025 03:17:03 PM</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>09-04-2025 07:29:01 AM</t>
+          <t>09-04-2025 03:17:30 PM</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZSW, PC-MXL4523KGB, FHR-0F00CQM2332, FHR-CND1440HBV</t>
+          <t>PC-2MQ5140ZSD, PC-001NS23373BF</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>Chris Pratt</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>Chris.Pratt@fhr.com</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-04-2025 06:11:34 AM</t>
+          <t>09-02-2025 04:16:05 PM</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>09-04-2025 06:12:02 AM</t>
+          <t>09-04-2025 01:23:58 PM</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>PC-MXL53644K5, FHR-5CD016BPV0, FHR-MXL8361TTS</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Dora Heimsoth</t>
+          <t>Manuel Moreno Jr</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>dora.heimsoth1@fhr.com</t>
+          <t>MANUEL.MORENO@FHR.COM</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-03-2025 03:00:34 PM</t>
+          <t>05-02-2025 08:54:50 AM</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>09-03-2025 03:01:01 PM</t>
+          <t>09-04-2025 01:17:10 PM</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>PC-339W925073R3, PC-86XGSV3</t>
+          <t>PC-5CG4143GRG, SPC-5BJ8D14, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Stephen Rodriguez</t>
+          <t>Ben Sandiford</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
+          <t>ben.sandiford@fhr.com</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-03-2025 02:28:45 PM</t>
+          <t>09-04-2025 01:11:18 PM</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>09-03-2025 02:29:20 PM</t>
+          <t>09-04-2025 01:11:48 PM</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>FHR-MXL90223C1 FHR-MXL902239Z FHR-MXL9332KN0 FHR-MXL902239R CND837B026 FHR-MXL9153QWC KII-MXL2424F2T FHR-5CG12812WW FHR-MXL3132SQX FHR-MXL3132SN7 FHR-MXL3132SNW FHR-MXL3132SS3 FHR-MXL3132SS4 FHR-MXL90224D2 FHR-8CG806569G KII-MXL24156FT FHR-MXL4424X3B FHR-MXL5043GK0 FHR-MXL5043GK1 SPC-DX6LZ84 SPC-MXL24156CD</t>
+          <t>PC-33VW824233M4, PC-1H95220MS6</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Matt Skrobarcek</t>
+          <t>Denise Schardt</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
+          <t>DENISE.SCHARDT@FHR.COM</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:08 AM</t>
+          <t>09-03-2025 02:48:18 PM</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:38 AM</t>
+          <t>09-04-2025 01:00:11 PM</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
+          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Justin Nava</t>
+          <t>Ray Aslesen</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>JUSTIN.NAVA@FHR.COM</t>
+          <t>RAY.ASLESEN@FHR.COM</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-03-2025 09:44:33 AM</t>
+          <t>09-04-2025 07:28:33 AM</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>09-03-2025 09:45:02 AM</t>
+          <t>09-04-2025 07:29:01 AM</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>SPC-82TKZ84, FHR-5CG4240WQT, FHR-MXL9223BVJ</t>
+          <t>PC-MXL4523KGB, PC-2MQ5140ZSW, FHR-0F00CQM2332, FHR-CND1440HBV</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Logan Tom</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>logan.tom@fhr.com</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:15 PM</t>
+          <t>09-04-2025 06:11:34 AM</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:42 PM</t>
+          <t>09-04-2025 06:12:02 AM</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Travis Sumerfelt</t>
+          <t>Dora Heimsoth</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>travis.sumerfelt@fhr.com</t>
+          <t>dora.heimsoth1@fhr.com</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-02-2025 11:06:03 AM</t>
+          <t>09-03-2025 03:00:34 PM</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>09-02-2025 11:07:05 AM</t>
+          <t>09-03-2025 03:01:01 PM</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>PC-2MQ514108Q</t>
+          <t>PC-339W925073R3, PC-86XGSV3</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Carlos Garcia Jr.</t>
+          <t>Stephen Rodriguez</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CARLOS.GARCIAJR@FHR.COM</t>
+          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3067,22 +3067,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>08-27-2025 09:24:59 PM</t>
+          <t>09-03-2025 02:28:45 PM</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>09-02-2025 08:26:34 AM</t>
+          <t>09-03-2025 02:29:20 PM</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>FHR-FRMKN34</t>
+          <t>FHR-MXL90223C1 FHR-MXL902239Z FHR-MXL9332KN0 FHR-MXL902239R CND837B026 FHR-MXL9153QWC KII-MXL2424F2T FHR-5CG12812WW FHR-MXL3132SQX FHR-MXL3132SN7 FHR-MXL3132SNW FHR-MXL3132SS3 FHR-MXL3132SS4 FHR-MXL90224D2 FHR-8CG806569G KII-MXL24156FT FHR-MXL4424X3B FHR-MXL5043GK0 FHR-MXL5043GK1 SPC-DX6LZ84 SPC-MXL24156CD</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3094,12 +3094,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Billy Royal</t>
+          <t>Matt Skrobarcek</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BILLY.ROYAL@FHR.COM</t>
+          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3109,22 +3109,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:06 PM</t>
+          <t>09-03-2025 09:46:08 AM</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:34 PM</t>
+          <t>09-03-2025 09:46:38 AM</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>FHR-5CD2331XLD</t>
+          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3136,59 +3136,59 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Samuel Paulus</t>
+          <t>Justin Nava</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>samuel.paulus@fhr.com</t>
+          <t>JUSTIN.NAVA@FHR.COM</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:17 PM</t>
+          <t>09-03-2025 09:44:33 AM</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:45 PM</t>
+          <t>09-03-2025 09:45:02 AM</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
+          <t>SPC-82TKZ84, FHR-5CG4240WQT, FHR-MXL9223BVJ</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Derya Broll</t>
+          <t>Logan Tom</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DERYA.BROLL@FHR.COM</t>
+          <t>logan.tom@fhr.com</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3198,76 +3198,76 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:07 PM</t>
+          <t>09-02-2025 02:39:15 PM</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:37 PM</t>
+          <t>09-02-2025 02:39:42 PM</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
+          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Joseph Moberly</t>
+          <t>Travis Sumerfelt</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>joseph.moberly@fhr.com</t>
+          <t>travis.sumerfelt@fhr.com</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-28-2025 01:10:49 PM</t>
+          <t>09-02-2025 11:06:03 AM</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>08-28-2025 01:11:16 PM</t>
+          <t>09-02-2025 11:07:05 AM</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>PC-1H852009W3, PC-5CG2415PYM</t>
+          <t>PC-2MQ514108Q</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Lindi Dinn</t>
+          <t>Carlos Garcia Jr.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>LINDI.DINN@FHR.COM</t>
+          <t>CARLOS.GARCIAJR@FHR.COM</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3277,22 +3277,22 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:14 PM</t>
+          <t>08-27-2025 09:24:59 PM</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:40 PM</t>
+          <t>09-02-2025 08:26:34 AM</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>PC-36KMG25193M4, FHR-8CC8412KMN, PC-1H852009X5, FHR-CND1440HKF, FHR-51990492553</t>
+          <t>SPC-39YG25073R3, FHR-FRMKN34</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3304,12 +3304,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Rodney Cotten</t>
+          <t>Billy Royal</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>RODNEY.COTTEN@FHR.COM</t>
+          <t>BILLY.ROYAL@FHR.COM</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3319,22 +3319,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:02 PM</t>
+          <t>08-29-2025 04:48:06 PM</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:30 PM</t>
+          <t>08-29-2025 04:48:34 PM</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>PC-5CD5100K7L, PC-33JGC25073R3, FHR-5CG7515059</t>
+          <t>FHR-5CD2331XLD</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3346,37 +3346,37 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Chad Schaner</t>
+          <t>Samuel Paulus</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CHAD.SCHANER@FHR.COM</t>
+          <t>samuel.paulus@fhr.com</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Dell Pro Rugged RB14250 14" Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-04-2025 01:41:48 PM</t>
+          <t>08-29-2025 01:00:17 PM</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-27-2025 01:20:37 PM</t>
+          <t>08-29-2025 01:00:45 PM</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>FHR-8H0GH04, FHR-8CG7352CR5, FHR-DYW9BT3, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-187491253</t>
+          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3388,12 +3388,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Denise Gonzalez</t>
+          <t>Derya Broll</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DENISE.GONZALEZ@FHR.COM</t>
+          <t>DERYA.BROLL@FHR.COM</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3403,22 +3403,22 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:17 AM</t>
+          <t>08-29-2025 12:10:07 PM</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:45 AM</t>
+          <t>08-29-2025 12:10:37 PM</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>SPC-G1V03Z3, SPC-83V03Z3, PC-34Y4825063R3, PC-5WXDQV3</t>
+          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3430,54 +3430,54 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Kris Adkins</t>
+          <t>Joseph Moberly</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>KRISTOPHER.ADKINS@FHR.COM</t>
+          <t>joseph.moberly@fhr.com</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-26-2025 08:20:43 PM</t>
+          <t>08-28-2025 01:10:49 PM</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-26-2025 08:21:16 PM</t>
+          <t>08-28-2025 01:11:16 PM</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>PC-34WWG25063R3</t>
+          <t>PC-1H852009W3, PC-5CG2415PYM</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Jose Cardona</t>
+          <t>Lindi Dinn</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>JOSE.CARDONA@FHR.COM</t>
+          <t>LINDI.DINN@FHR.COM</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3487,22 +3487,22 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-26-2025 09:00:40 AM</t>
+          <t>08-27-2025 02:53:14 PM</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>08-26-2025 09:01:09 AM</t>
+          <t>08-27-2025 02:53:40 PM</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>FHR-5CG30935LZ, SPC-5CG4084VQ2, SPC-5CG4084VQJ, CPC-JOSEC-BGVEA</t>
+          <t>FHR-CND1440HKF, PC-36KMG25193M4, FHR-8CC8412KMN, PC-1H852009X5, FHR-51990492553</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3514,54 +3514,54 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Phillip Norell</t>
+          <t>Rodney Cotten</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PHILLIP.NORELL@FHR.COM</t>
+          <t>RODNEY.COTTEN@FHR.COM</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:13 PM</t>
+          <t>08-27-2025 02:27:02 PM</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:39 PM</t>
+          <t>08-27-2025 02:27:30 PM</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>FHR-5CG213CGKR, PC-1H85200B08</t>
+          <t>PC-5CD5100K7L, PC-33JGC25073R3, FHR-5CG7515059</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Anne Lee</t>
+          <t>Chad Schaner</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ANNE.LEE@FHR.COM</t>
+          <t>CHAD.SCHANER@FHR.COM</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3571,22 +3571,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>Dell Pro Rugged RB14250 14" Laptop</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:00 AM</t>
+          <t>08-04-2025 01:41:48 PM</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:30 AM</t>
+          <t>08-27-2025 01:20:37 PM</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
+          <t>FHR-8H0GH04, FHR-8CG7352CR5, FHR-DYW9BT3, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-187491253</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3598,12 +3598,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>David Barnholt</t>
+          <t>Denise Gonzalez</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>david.barnholt@fhr.com</t>
+          <t>DENISE.GONZALEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3613,22 +3613,22 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:27 AM</t>
+          <t>08-27-2025 07:15:17 AM</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:54 AM</t>
+          <t>08-27-2025 07:15:45 AM</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>PC-1H852009SD</t>
+          <t>SPC-D0R03Z3, PC-34Y4825063R3, SPC-63V03Z3, SPC-23V03Z3, PC-5WXDQV3</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3640,54 +3640,54 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Eric Enders</t>
+          <t>Kris Adkins</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>eric.enders@fhr.com</t>
+          <t>KRISTOPHER.ADKINS@FHR.COM</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:30 AM</t>
+          <t>08-26-2025 08:20:43 PM</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:59 AM</t>
+          <t>08-26-2025 08:21:16 PM</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>PC-2MQ514115J</t>
+          <t>PC-34WWG25063R3</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sean Garza</t>
+          <t>Jose Cardona</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>sean.garza@fhr.com</t>
+          <t>JOSE.CARDONA@FHR.COM</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3697,22 +3697,22 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-19-2025 01:01:15 AM</t>
+          <t>08-26-2025 09:00:40 AM</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:18 AM</t>
+          <t>08-26-2025 09:01:09 AM</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>SPC-3B6G25073R3</t>
+          <t>FHR-5CG30935LZ, SPC-5CG4084VQ2, CPC-JOSEC-BGVEA</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3724,12 +3724,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Joe Rohl</t>
+          <t>Phillip Norell</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>JOE.ROHL@FHR.COM</t>
+          <t>PHILLIP.NORELL@FHR.COM</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3744,17 +3744,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-19-2025 02:44:07 PM</t>
+          <t>08-25-2025 02:58:13 PM</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:14 AM</t>
+          <t>08-25-2025 02:58:39 PM</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
+          <t>PC-1H85200B08, FHR-5CG213CGKR</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3766,54 +3766,54 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>David Ybarra</t>
+          <t>Anne Lee</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DAVID.YBARRA@FHR.COM</t>
+          <t>ANNE.LEE@FHR.COM</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:30 AM</t>
+          <t>08-25-2025 10:13:00 AM</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:58 AM</t>
+          <t>08-25-2025 10:13:30 AM</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
+          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>David Barnholt</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>david.barnholt@fhr.com</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3823,22 +3823,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:19 AM</t>
+          <t>08-22-2025 11:11:27 AM</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:48 AM</t>
+          <t>08-22-2025 11:11:54 AM</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>PC-1H852009SD</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3850,37 +3850,37 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Cole Brewster</t>
+          <t>Eric Enders</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>cole.brewster@fhr.com</t>
+          <t>eric.enders@fhr.com</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>08-20-2025 01:48:49 PM</t>
+          <t>08-22-2025 07:55:30 AM</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>08-20-2025 01:49:17 PM</t>
+          <t>08-22-2025 07:55:59 AM</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>FHR-5CG1276WN7, PC-34Y3Q25063R3</t>
+          <t>PC-2MQ514115J</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3892,101 +3892,101 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Brenna Gerety</t>
+          <t>Sean Garza</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BRENNA.GERETY@FHR.COM</t>
+          <t>sean.garza@fhr.com</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:01 AM</t>
+          <t>08-19-2025 01:01:15 AM</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:29 AM</t>
+          <t>08-22-2025 07:34:18 AM</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>PC-5CG5040677, FHR-5CG0036B94</t>
+          <t>SPC-3B6G25073R3</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Daniel Jurach</t>
+          <t>Joe Rohl</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>daniel.jurach@fhr.com</t>
+          <t>JOE.ROHL@FHR.COM</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>08-18-2025 11:58:20 AM</t>
+          <t>08-19-2025 02:44:07 PM</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>08-19-2025 10:21:28 AM</t>
+          <t>08-22-2025 07:34:14 AM</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>PC-2MQ514110T</t>
+          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Tony Short</t>
+          <t>David Ybarra</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ANTHONY.SHORT@KPLSRV.COM</t>
+          <t>DAVID.YBARRA@FHR.COM</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3996,123 +3996,123 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:07 AM</t>
+          <t>08-22-2025 07:18:30 AM</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:38 AM</t>
+          <t>08-22-2025 07:18:58 AM</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>PC-5CD5100KK7, PC-5CD229GR66, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
+          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Chad Remer</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CHAD.REMER@FHR.COM</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:04 AM</t>
+          <t>08-22-2025 06:59:19 AM</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:34 AM</t>
+          <t>08-22-2025 06:59:48 AM</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Nicholas Hanson</t>
+          <t>Cole Brewster</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NICK.HANSON@FHR.COM</t>
+          <t>cole.brewster@fhr.com</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:17 AM</t>
+          <t>08-20-2025 01:48:49 PM</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:46 AM</t>
+          <t>08-20-2025 01:49:17 PM</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
+          <t>PC-34Y3Q25063R3, FHR-5CG1276WN7</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Harold Irvin</t>
+          <t>Brenna Gerety</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>HAROLD.IRVIN@FHR.COM</t>
+          <t>BRENNA.GERETY@FHR.COM</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4122,160 +4122,160 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:06 PM</t>
+          <t>08-20-2025 07:58:01 AM</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:37 PM</t>
+          <t>08-20-2025 07:58:29 AM</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>PC-2MQ51410F2, FHR-5CG2156Z1X</t>
+          <t>PC-5CG5040677, FHR-5CG0036B94</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sandra Akarolo</t>
+          <t>Daniel Jurach</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>sandra.akarolo@fhr.com</t>
+          <t>daniel.jurach@fhr.com</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>08-13-2025 01:51:42 PM</t>
+          <t>08-18-2025 11:58:20 AM</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>08-14-2025 08:58:56 AM</t>
+          <t>08-19-2025 10:21:28 AM</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>FHR-5CG213CDWV</t>
+          <t>PC-2MQ514110T</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Paul Fisher</t>
+          <t>Tony Short</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PAUL.FISHER@FHR.COM</t>
+          <t>ANTHONY.SHORT@KPLSRV.COM</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:23 PM</t>
+          <t>08-18-2025 10:21:07 AM</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:56 PM</t>
+          <t>08-18-2025 10:21:38 AM</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
+          <t>PC-5CD5100KK7, PC-5CD229GR66, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Robert Corley</t>
+          <t>Chad Remer</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ROBERT.CORLEY@FHR.COM</t>
+          <t>CHAD.REMER@FHR.COM</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>08-12-2025 06:27:18 PM</t>
+          <t>08-18-2025 09:26:04 AM</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>08-13-2025 12:47:38 PM</t>
+          <t>08-18-2025 09:26:34 AM</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
+          <t>FHR-5CG3102HDY, PC-2MQ5140Z5D</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Jeff Baker</t>
+          <t>Nicholas Hanson</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>JEFF.BAKER@FHR.COM</t>
+          <t>NICK.HANSON@FHR.COM</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4285,22 +4285,22 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:02 AM</t>
+          <t>08-15-2025 07:06:17 AM</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:30 AM</t>
+          <t>08-15-2025 07:06:46 AM</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
+          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4312,17 +4312,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Kemal Simpson</t>
+          <t>Harold Irvin</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>kemal.simpson@fhr.com</t>
+          <t>HAROLD.IRVIN@FHR.COM</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4332,17 +4332,17 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>08-13-2025 07:17:41 AM</t>
+          <t>08-14-2025 02:45:06 PM</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>08-13-2025 07:18:09 AM</t>
+          <t>08-14-2025 02:45:37 PM</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>FHR-5CG1073F3X</t>
+          <t>PC-2MQ51410F2, FHR-5CG2156Z1X</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4354,17 +4354,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Robert Jimenez</t>
+          <t>Sandra Akarolo</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ROBERT.JIMENEZ@FHR.COM</t>
+          <t>sandra.akarolo@fhr.com</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4374,202 +4374,202 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:22 AM</t>
+          <t>08-13-2025 01:51:42 PM</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:51 AM</t>
+          <t>08-14-2025 08:58:56 AM</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>SPC-MXL41235GZ, PC-34P9Q25193M4, FHR-BK001K2222</t>
+          <t>FHR-5CG213CDWV</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Kevin Miller</t>
+          <t>Paul Fisher</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>KEVIN.MILLER@FHR.COM</t>
+          <t>PAUL.FISHER@FHR.COM</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:21 AM</t>
+          <t>08-13-2025 05:07:23 PM</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:49 AM</t>
+          <t>08-13-2025 05:07:56 PM</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
+          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Tucker Lansing</t>
+          <t>Robert Corley</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>tucker.lansing@fhr.com</t>
+          <t>ROBERT.CORLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:05 AM</t>
+          <t>08-12-2025 06:27:18 PM</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:44 AM</t>
+          <t>08-13-2025 12:47:38 PM</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>PC-2MQ5141103</t>
+          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Kairos Logan</t>
+          <t>Jeff Baker</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>kairos.logan@fhr.com</t>
+          <t>JEFF.BAKER@FHR.COM</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:17 PM</t>
+          <t>08-13-2025 09:11:02 AM</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:45 PM</t>
+          <t>08-13-2025 09:11:30 AM</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>PC-2MQ51410BZ</t>
+          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Louis Stump</t>
+          <t>Kemal Simpson</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>LOUIS.STUMP@FHR.COM</t>
+          <t>kemal.simpson@fhr.com</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>07-20-2025 06:49:35 AM</t>
+          <t>08-13-2025 07:17:41 AM</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>08-11-2025 03:03:35 PM</t>
+          <t>08-13-2025 07:18:09 AM</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
+          <t>FHR-5CG1073F3X</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Robert Jimenez</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>ROBERT.JIMENEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4579,22 +4579,22 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>08-11-2025 12:57:47 PM</t>
+          <t>08-12-2025 11:43:22 AM</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>08-11-2025 12:58:15 PM</t>
+          <t>08-12-2025 11:43:51 AM</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>PC-01VYP23013BF, PC-2MQ5270TFX</t>
+          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4606,17 +4606,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Alex Fairbanks</t>
+          <t>Kevin Miller</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Alex.Fairbanks@fhr.com</t>
+          <t>KEVIN.MILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4626,160 +4626,160 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>08-11-2025 09:58:56 AM</t>
+          <t>08-12-2025 09:11:21 AM</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>08-11-2025 09:59:25 AM</t>
+          <t>08-12-2025 09:11:49 AM</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>PC-5CD5100K77, FHR-MXL3132S8S, FHR-5CG2261RYZ</t>
+          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Cole Wilson</t>
+          <t>Tucker Lansing</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>cole.wilson@fhr.com</t>
+          <t>tucker.lansing@fhr.com</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>08-11-2025 08:57:56 AM</t>
+          <t>08-12-2025 08:13:05 AM</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>08-11-2025 08:58:25 AM</t>
+          <t>08-12-2025 08:13:44 AM</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z9H</t>
+          <t>PC-2MQ5141103</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Kairos Logan</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>kairos.logan@fhr.com</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:07 AM</t>
+          <t>08-11-2025 04:54:17 PM</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:36 AM</t>
+          <t>08-11-2025 04:54:45 PM</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>PC-01VYP23013BF, PC-2MQ5270TFX</t>
+          <t>PC-2MQ51410BZ</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Bobby Peddycord</t>
+          <t>Louis Stump</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>bobby.peddycord@fhr.com</t>
+          <t>LOUIS.STUMP@FHR.COM</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>08-07-2025 10:38:48 AM</t>
+          <t>07-20-2025 06:49:35 AM</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>08-11-2025 07:13:21 AM</t>
+          <t>08-11-2025 03:03:35 PM</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
+          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Charles Oliver</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CHARLES.OLIVER@FHR.COM</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4789,22 +4789,22 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>08-11-2025 05:46:52 AM</t>
+          <t>08-11-2025 12:57:47 PM</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>08-11-2025 05:47:20 AM</t>
+          <t>08-11-2025 12:58:15 PM</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>PC-36KFF25193M4</t>
+          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4816,101 +4816,101 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Rudy Barajas</t>
+          <t>Alex Fairbanks</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RUDY.BARAJAS@FHR.COM</t>
+          <t>Alex.Fairbanks@fhr.com</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>08-06-2025 04:56:54 AM</t>
+          <t>08-11-2025 09:58:56 AM</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>08-08-2025 01:09:23 PM</t>
+          <t>08-11-2025 09:59:25 AM</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>PC-33BYB25013M4, PC-2MQ514105T, FHR-J2V03Z3, FHR-MXL24156CF</t>
+          <t>PC-5CD5100K77, FHR-MXL3132S8S, FHR-5CG2261RYZ</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Braxton Holes</t>
+          <t>Cole Wilson</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>braxton.holes@fhr.com</t>
+          <t>cole.wilson@fhr.com</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>08-07-2025 08:51:34 AM</t>
+          <t>08-11-2025 08:57:56 AM</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>08-08-2025 11:34:27 AM</t>
+          <t>08-11-2025 08:58:25 AM</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>FHR-5CD231D3NH, PC-5CD5100KGP, FHR-5CD01052SN</t>
+          <t>PC-2MQ5140Z9H</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Andrea Unruh</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ANDREA.UNRUH@FHR.COM</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4920,76 +4920,76 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:28 AM</t>
+          <t>08-11-2025 08:33:07 AM</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:56 AM</t>
+          <t>08-11-2025 08:33:36 AM</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>PC-36KG325193M4, PC-014GF22373BF</t>
+          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Caleb Quanrud</t>
+          <t>Bobby Peddycord</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>caleb.quanrud@fhr.com</t>
+          <t>bobby.peddycord@fhr.com</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:28 PM</t>
+          <t>08-07-2025 10:38:48 AM</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:58 PM</t>
+          <t>08-11-2025 07:13:21 AM</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
+          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Jean Jaime</t>
+          <t>Charles Oliver</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>JEAN.JAIME@FHR.COM</t>
+          <t>CHARLES.OLIVER@FHR.COM</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4999,22 +4999,22 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:32 PM</t>
+          <t>08-11-2025 05:46:52 AM</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>08-07-2025 02:12:00 PM</t>
+          <t>08-11-2025 05:47:20 AM</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
+          <t>PC-36KFF25193M4</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5026,12 +5026,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Rudy Barajas</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>RUDY.BARAJAS@FHR.COM</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>08-07-2025 02:10:24 PM</t>
+          <t>08-06-2025 04:56:54 AM</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:00 PM</t>
+          <t>08-08-2025 01:09:23 PM</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
+          <t>PC-33BYB25013M4, PC-2MQ514105T, FHR-J2V03Z3, FHR-MXL24156CF</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5068,101 +5068,101 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Braxton Holes</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>braxton.holes@fhr.com</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:23 PM</t>
+          <t>08-07-2025 08:51:34 AM</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:59 PM</t>
+          <t>08-08-2025 11:34:27 AM</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
+          <t>FHR-5CD231D3NH, PC-5CD5100KGP, FHR-5CD01052SN</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Branden Roering</t>
+          <t>Andrea Unruh</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>branden.roering@fhr.com</t>
+          <t>ANDREA.UNRUH@FHR.COM</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:17 PM</t>
+          <t>08-08-2025 08:17:28 AM</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:45 PM</t>
+          <t>08-08-2025 08:17:56 AM</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>PC-2MQ5141148</t>
+          <t>PC-36KG325193M4, PC-014GF22373BF</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Christopher Brooks</t>
+          <t>Caleb Quanrud</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CHRISTOPHER.BROOKS@FHR.COM</t>
+          <t>caleb.quanrud@fhr.com</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5172,34 +5172,34 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>08-06-2025 12:44:08 PM</t>
+          <t>08-07-2025 03:06:28 PM</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>08-07-2025 09:46:49 AM</t>
+          <t>08-07-2025 03:06:58 PM</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGL, FHR-MXL2165D4V, FHR-5CG9222F4V</t>
+          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Justin Hinojosa</t>
+          <t>Jean Jaime</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>justin.hinojosa@fhr.com</t>
+          <t>JEAN.JAIME@FHR.COM</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5209,22 +5209,22 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:01 AM</t>
+          <t>08-07-2025 02:11:32 PM</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>08-06-2025 11:55:29 AM</t>
+          <t>08-07-2025 02:12:00 PM</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>PC-MXL24156FQ SPC-MXL24156FQ FHR-8CG80416HL FHR-8CG806569G FHR-8CG7236C1X FHR-G3BCDZ3 FHR-MXL3132SS4 FHR-8CG80416GX FHR-MXL90224D2 FHR-8J5ZK44 FHR-MXL3132SN7 FHR-MXL3132SS3 FHR-9K8ZK44 FHR-MXL3132SQX KII-MXL2424F2T FHR-MXL5043GK1 FHR-MXL5043GK0 FHR-MXL3132SRR FHR-BK001HK222 FHR-MXL3132SNW FHR-5CD439J37S FHR-MXL3132SP1</t>
+          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5236,101 +5236,101 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Josiah Peterson</t>
+          <t>Rick Schwing</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>JOSIAH.PETERSON@FHR.COM</t>
+          <t>rick.schwing@fhr.com</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>08-06-2025 08:30:11 AM</t>
+          <t>08-07-2025 02:10:24 PM</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>08-06-2025 08:31:02 AM</t>
+          <t>08-07-2025 02:11:00 PM</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TC1, FHR-5CD30764W6</t>
+          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Andrew Berndt</t>
+          <t>Rick Schwing</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>andrew.berndt@fhr.com</t>
+          <t>rick.schwing@fhr.com</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>US-WI-MCFARLAND - FHR-Madison/McFarland - Mcfarland - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>08-05-2025 01:32:29 PM</t>
+          <t>08-07-2025 02:09:23 PM</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>08-05-2025 01:33:21 PM</t>
+          <t>08-07-2025 02:09:59 PM</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>PC-2MQ514100C</t>
+          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Matthew VanLanen</t>
+          <t>Branden Roering</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>matthew.vanlanen@fhr.com</t>
+          <t>branden.roering@fhr.com</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5340,22 +5340,22 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:12 AM</t>
+          <t>08-07-2025 12:49:17 PM</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>08-05-2025 10:28:39 AM</t>
+          <t>08-07-2025 12:49:45 PM</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZLF, FHR-5CD145JGM7</t>
+          <t>PC-2MQ5141148</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>

--- a/output/fhr_computer_requests.xlsx
+++ b/output/fhr_computer_requests.xlsx
@@ -532,17 +532,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Corey Brittain</t>
+          <t>Steve Dayton</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>COREY.BRITTAIN@FHR.COM</t>
+          <t>STEPHAN.DAYTON@FHR.COM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -552,34 +552,34 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09-30-2025 07:35:08 AM</t>
+          <t>10-01-2025 07:00:18 AM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>09-30-2025 07:35:38 AM</t>
+          <t>10-01-2025 07:00:52 AM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>FHR-MXL90224C0 FHR-8CG828099Y FHR-8CG82809F9 FHR-MXL9153QP5 FHR-8CG82809D7 FHR-MXL902244L FHR-8CG83488SZ FHR-8CG7236C2D FHR-8CG7236C22 FHR-MXL9032SMM FHR-MXL2302P36 FHR-MXL2424F2R FHR-MXL24155WF FHR-G3BCDZ3 FHR-MXL9153QQP FHR-MXL24155YR FHR5CG2096G7D FHR-8CC8412KQ2 FHR-MXL1334C90 FHR-5ZP221700D</t>
+          <t>FHR-5CG213CF47</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Duane Lindquist</t>
+          <t>Fred Fox</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DUANE.LINDQUIST@FHR.COM</t>
+          <t>FREDDIE.FOX@FHR.COM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -594,17 +594,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09-30-2025 07:02:29 AM</t>
+          <t>09-30-2025 12:52:42 AM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>09-30-2025 07:02:56 AM</t>
+          <t>09-30-2025 02:40:30 PM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FHR-26931792853</t>
+          <t>FHR-5CG213CGR3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -616,17 +616,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Evan Mitchell</t>
+          <t>Mercedes Osbern</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>evan.mitchell@fhr.com</t>
+          <t>MERCEDES.OSBERN@FHR.COM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-DEERPARK1 - Deer Park, TX (USA) - Deer Park - Koch</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -636,118 +636,118 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09-29-2025 01:30:55 PM</t>
+          <t>09-25-2025 02:54:26 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09-29-2025 01:31:22 PM</t>
+          <t>09-30-2025 11:57:55 AM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FHR-8CG7333J8D FHR-5CG313030W</t>
+          <t>PC-5CG2060Q5N, 2MQ514105F - ZBOOK FIREFLY G11 14" WN11P U5-135U 16GB RAM 512GB SSD</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Diego Lowney</t>
+          <t>Taylor Snider</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>diego.lowney@fhr.com</t>
+          <t>TAYLOR.SNIDER@FHR.COM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09-29-2025 01:29:53 PM</t>
+          <t>09-30-2025 08:45:25 AM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09-29-2025 01:30:21 PM</t>
+          <t>09-30-2025 08:45:54 AM</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>PC-5CD344HXQK, DESKTOP-FFOKQBU</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Matt Cordina</t>
+          <t>Corey Brittain</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MATT.CORDINA@FHR.COM</t>
+          <t>COREY.BRITTAIN@FHR.COM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09-29-2025 01:18:31 PM</t>
+          <t>09-30-2025 07:35:08 AM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-29-2025 01:18:57 PM</t>
+          <t>09-30-2025 07:35:38 AM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>FHR-5CG2219ZD1</t>
+          <t>FHR-MXL9153QP5, FHR-MXL9032SMM</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Grant Creasman</t>
+          <t>Duane Lindquist</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>grant.creasman@fhr.com</t>
+          <t>DUANE.LINDQUIST@FHR.COM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09-29-2025 07:40:30 AM</t>
+          <t>09-30-2025 07:02:29 AM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-29-2025 07:40:58 AM</t>
+          <t>09-30-2025 07:02:56 AM</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PC-001F323233BF, PC-5CD42993JX, FHR-CND11935ZS, FHR-BK001F3</t>
+          <t>FHR-26931792853</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -784,54 +784,54 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Stephen Mieth</t>
+          <t>Evan Mitchell</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>STEPHEN.MIETH@FHR.COM</t>
+          <t>evan.mitchell@fhr.com</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-28-2025 06:12:27 PM</t>
+          <t>09-29-2025 01:30:55 PM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-28-2025 06:12:56 PM</t>
+          <t>09-29-2025 01:31:22 PM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>FHR-5CG0511HN8</t>
+          <t>FHR-8CG7333J8D FHR-5CG313030W</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dj Yarwood</t>
+          <t>Diego Lowney</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DEREK.YARWOOD@FHR.COM</t>
+          <t>diego.lowney@fhr.com</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -841,22 +841,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-27-2025 03:39:16 PM</t>
+          <t>09-29-2025 01:29:53 PM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-27-2025 03:39:44 PM</t>
+          <t>09-29-2025 01:30:21 PM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>FHR-5CG12812HD</t>
+          <t>FHR-GC7CXB4</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -868,12 +868,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Christian Makhoul</t>
+          <t>Matt Cordina</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>christian.makhoul@fhr.com</t>
+          <t>MATT.CORDINA@FHR.COM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-27-2025 01:26:04 PM</t>
+          <t>09-29-2025 01:18:31 PM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-27-2025 01:26:31 PM</t>
+          <t>09-29-2025 01:18:57 PM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FHR-5CG128139P</t>
+          <t>FHR-5CG2219ZD1</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -910,12 +910,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nicholas Hanson</t>
+          <t>Grant Creasman</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NICK.HANSON@FHR.COM</t>
+          <t>grant.creasman@fhr.com</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -925,22 +925,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09-25-2025 04:07:28 PM</t>
+          <t>09-29-2025 07:40:30 AM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-25-2025 04:07:56 PM</t>
+          <t>09-29-2025 07:40:58 AM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
+          <t>PC-001F323233BF, PC-5CD42993JX, FHR-CND11935ZS, FHR-BK001F3</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -952,17 +952,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sam Raimann</t>
+          <t>Stephen Mieth</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAM.RAIMANN@FHR.COM</t>
+          <t>STEPHEN.MIETH@FHR.COM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -972,118 +972,118 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09-25-2025 03:18:39 PM</t>
+          <t>09-28-2025 06:12:27 PM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09-25-2025 03:19:11 PM</t>
+          <t>09-28-2025 06:12:56 PM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>FHR-5CG1465ZKQ</t>
+          <t>FHR-5CG0511HN8</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Todd Holder</t>
+          <t>Dj Yarwood</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>todd.holder@fhr.com</t>
+          <t>DEREK.YARWOOD@FHR.COM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>US-TX-AUSTIN2 - FHR-Austin - Austin - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09-25-2025 10:44:40 AM</t>
+          <t>09-27-2025 03:39:16 PM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09-25-2025 10:45:09 AM</t>
+          <t>09-27-2025 03:39:44 PM</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>PC-5CG3341P05</t>
+          <t>FHR-5CG12812HD</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Alex Pierce</t>
+          <t>Christian Makhoul</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ALEXANDER.PIERCE@FHR.COM</t>
+          <t>christian.makhoul@fhr.com</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09-24-2025 07:19:02 PM</t>
+          <t>09-27-2025 01:26:04 PM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-24-2025 07:19:31 PM</t>
+          <t>09-27-2025 01:26:31 PM</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZZK, FHR-0F01W2H2301</t>
+          <t>FHR-5CG128139P</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lindsey Kuzma</t>
+          <t>Nicholas Hanson</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LINDSEY.KUZMA@FHR.COM</t>
+          <t>NICK.HANSON@FHR.COM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1093,22 +1093,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09-24-2025 01:01:16 PM</t>
+          <t>09-25-2025 04:07:28 PM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09-24-2025 01:01:46 PM</t>
+          <t>09-25-2025 04:07:56 PM</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>PC-000PN23253BF</t>
+          <t>PC-2MQ53508TS, PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1120,96 +1120,96 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Antonio Vargas</t>
+          <t>Sam Raimann</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>antonio.vargas@fhr.com</t>
+          <t>SAM.RAIMANN@FHR.COM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09-22-2025 10:19:51 AM</t>
+          <t>09-25-2025 03:18:39 PM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-24-2025 12:54:47 PM</t>
+          <t>09-25-2025 03:19:11 PM</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>FHR-5CG1465ZKQ</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Tammie Fletchall</t>
+          <t>Todd Holder</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TAMMIE.FLETCHALL@FHR.COM</t>
+          <t>todd.holder@fhr.com</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-AUSTIN2 - FHR-Austin - Austin - Koch</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09-23-2025 03:41:36 PM</t>
+          <t>09-25-2025 10:44:40 AM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-24-2025 11:34:29 AM</t>
+          <t>09-25-2025 10:45:09 AM</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>PC-5CG2261RSB, PC-2MQ53508VD</t>
+          <t>PC-5CG3341P05</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Jimmy Nguyen</t>
+          <t>Alex Pierce</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jimmy.nguyen@fhr.com</t>
+          <t>ALEXANDER.PIERCE@FHR.COM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1219,22 +1219,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>08-04-2025 01:48:09 PM</t>
+          <t>09-24-2025 07:19:02 PM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-23-2025 03:22:38 PM</t>
+          <t>09-24-2025 07:19:31 PM</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>FHR-7TDCK74, FHR-5CG1465S8V</t>
+          <t>PC-2MQ5140ZZK, FHR-0F01W2H2301</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1246,54 +1246,54 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Robert Cliburn</t>
+          <t>Lindsey Kuzma</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ROBERT.CLIBURN@FHR.COM</t>
+          <t>LINDSEY.KUZMA@FHR.COM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09-23-2025 07:36:34 AM</t>
+          <t>09-24-2025 01:01:16 PM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-23-2025 07:37:02 AM</t>
+          <t>09-24-2025 01:01:46 PM</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>PC-2MQ53508TY, FHR-5CG0472YYT</t>
+          <t>PC-000PN23253BF</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brinson Bryan</t>
+          <t>Antonio Vargas</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BRINSON.BRYAN@FHR.COM</t>
+          <t>antonio.vargas@fhr.com</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1308,17 +1308,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>09-22-2025 08:31:09 AM</t>
+          <t>09-22-2025 10:19:51 AM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09-22-2025 08:31:38 AM</t>
+          <t>09-24-2025 12:54:47 PM</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>FHR-5CD229GR46</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1330,138 +1330,138 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Vicente Castillo</t>
+          <t>Tammie Fletchall</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VICENTE.CASTILLO@FHR.COM</t>
+          <t>TAMMIE.FLETCHALL@FHR.COM</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>09-22-2025 08:10:41 AM</t>
+          <t>09-23-2025 03:41:36 PM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>09-22-2025 08:11:09 AM</t>
+          <t>09-24-2025 11:34:29 AM</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PC-334QH231933F, FHR-MXL3132SQX</t>
+          <t>PC-2MQ53508VD, PC-5CG2261RSB</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dillon Sailer</t>
+          <t>Jimmy Nguyen</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>dillon.sailer@fhr.com</t>
+          <t>jimmy.nguyen@fhr.com</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>09-19-2025 04:55:25 PM</t>
+          <t>08-04-2025 01:48:09 PM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>09-19-2025 04:55:54 PM</t>
+          <t>09-23-2025 03:22:38 PM</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>PC-1H852009ZL, FHR-LOANPB18, FHR-5CG201416N</t>
+          <t>FHR-7TDCK74, FHR-2M9CK74, PC-33QGD24383M4, FHR-5CG1465S8V</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Robert Cliburn</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DANIEL.BRAUN@FHR.COM</t>
+          <t>ROBERT.CLIBURN@FHR.COM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>09-18-2025 02:27:18 PM</t>
+          <t>09-23-2025 07:36:34 AM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>09-18-2025 02:27:46 PM</t>
+          <t>09-23-2025 07:37:02 AM</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>FHR-5CG7312MP6, PC-1H85200B0S</t>
+          <t>PC-2MQ53508TY, FHR-5CG0472YYT</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Roberto Montelongo</t>
+          <t>Brinson Bryan</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>roberto.montelongo@fhr.com</t>
+          <t>BRINSON.BRYAN@FHR.COM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1471,22 +1471,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>09-18-2025 09:01:15 AM</t>
+          <t>09-22-2025 08:31:09 AM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>09-18-2025 09:01:46 AM</t>
+          <t>09-22-2025 08:31:38 AM</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>FHR-5CG2156GT3, PC-33VX725273R3, USWHL-1276WN9</t>
+          <t>FHR-5CD229GR46</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1498,54 +1498,54 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Trevor Willberg</t>
+          <t>Vicente Castillo</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>trevor.willberg@fhr.com</t>
+          <t>VICENTE.CASTILLO@FHR.COM</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09-17-2025 10:21:00 AM</t>
+          <t>09-22-2025 08:10:41 AM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>09-17-2025 12:52:13 PM</t>
+          <t>09-22-2025 08:11:09 AM</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZPY</t>
+          <t>PC-334QH231933F, FHR-MXL3132SQX</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Cory Strandlien</t>
+          <t>Dillon Sailer</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cory.strandlien@fhr.com</t>
+          <t>dillon.sailer@fhr.com</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1555,22 +1555,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>09-17-2025 09:55:48 AM</t>
+          <t>09-19-2025 04:55:25 PM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09-17-2025 12:44:37 PM</t>
+          <t>09-19-2025 04:55:54 PM</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZJ5</t>
+          <t>PC-1H852009ZL, FHR-LOANPB18, FHR-5CG201416N</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1582,17 +1582,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Enrique Flores</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ENRIQUE.FLORES@FHR.COM</t>
+          <t>DANIEL.BRAUN@FHR.COM</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1602,76 +1602,76 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09-17-2025 10:03:05 AM</t>
+          <t>09-18-2025 02:27:18 PM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-17-2025 10:03:36 AM</t>
+          <t>09-18-2025 02:27:46 PM</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>PC-1H85200B0B, FHR-2UA8311QWT, FHR-5CG1240T5M, FHR-5CD4154J0P</t>
+          <t>PC-1H85200B0S, FHR-5CG7312MP6</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Jason Henke</t>
+          <t>Roberto Montelongo</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>JASON.HENKE@FHR.COM</t>
+          <t>roberto.montelongo@fhr.com</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09-17-2025 09:38:30 AM</t>
+          <t>09-18-2025 09:01:15 AM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-17-2025 09:39:02 AM</t>
+          <t>09-18-2025 09:01:46 AM</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>PC-2MQ5290Z9F, FHR-5CG2151LHM</t>
+          <t>FHR-5CG2156GT3, PC-33VX725273R3, USWHL-1276WN9</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Jed Illg</t>
+          <t>Trevor Willberg</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Jed.Illg@fhr.com</t>
+          <t>trevor.willberg@fhr.com</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1681,22 +1681,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09-17-2025 08:33:21 AM</t>
+          <t>09-17-2025 10:21:00 AM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-17-2025 08:33:50 AM</t>
+          <t>09-17-2025 12:52:13 PM</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>FHR-5CG2156GG9, PC-2MQ5290Z98</t>
+          <t>PC-2MQ5140ZPY</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1708,54 +1708,54 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Shannon Angle</t>
+          <t>Cory Strandlien</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>shannon.angle@kochcc.com</t>
+          <t>cory.strandlien@fhr.com</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09-17-2025 07:50:45 AM</t>
+          <t>09-17-2025 09:55:48 AM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-17-2025 07:51:14 AM</t>
+          <t>09-17-2025 12:44:37 PM</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
+          <t>PC-2MQ5140ZJ5</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Bryeton Canchola</t>
+          <t>Enrique Flores</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bryeton.canchola@fhr.com</t>
+          <t>ENRIQUE.FLORES@FHR.COM</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1765,22 +1765,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09-16-2025 03:26:59 PM</t>
+          <t>09-17-2025 10:03:05 AM</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09-16-2025 03:27:26 PM</t>
+          <t>09-17-2025 10:03:36 AM</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>SPC-MXL24155VV FHR-MXL1022SZ3 FHR-MXL24156C3 SPC-MXL24155W5 SPC-MXL3324PYM SPC-MXL3324PZ0 FHR-MXL2223BDL FHR-MXL9502C5W FHR-MXL9333W07 PC-01W3B23013BF FHR-MXL1022T0R FHR-MXL24155WF FHR-MXL13349Z2 SPC-MXL3324PZ2 FHR-MXL90224C1 FHR-BK000V1 FHR-B9XFH04 SPC-MXL3324PYD SPC-MXL3324PYP FHR-8V4TNZ3</t>
+          <t>PC-1H85200B0B, PC-DXXPDZ3, FHR-2UA8311QWT, FHR-5CG1240T5M, FHR-5CD4154J0P</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1792,101 +1792,101 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Charles Cooley Jr</t>
+          <t>Jason Henke</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CHARLES.COOLEY@FHR.COM</t>
+          <t>JASON.HENKE@FHR.COM</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09-16-2025 02:26:57 PM</t>
+          <t>09-17-2025 09:38:30 AM</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09-16-2025 02:27:28 PM</t>
+          <t>09-17-2025 09:39:02 AM</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>FHR-5CG225854R, PC-2MQ5140ZJR</t>
+          <t>PC-2MQ5290Z9F, FHR-5CG2151LHM</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Patrick Tiller</t>
+          <t>Jed Illg</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PATRICK.TILLER@FHR.COM</t>
+          <t>Jed.Illg@fhr.com</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09-16-2025 12:20:22 PM</t>
+          <t>09-17-2025 08:33:21 AM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-16-2025 12:20:49 PM</t>
+          <t>09-17-2025 08:33:50 AM</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>PC-1H85200B13, FHR-5CG1240T4Q, PC-JZ4TNZ3, FHR-5CG815441G, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
+          <t>PC-2MQ5290Z98, FHR-5CG2156GG9</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Bryan Garcia</t>
+          <t>Shannon Angle</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>bryan.garcia1@fhr.com</t>
+          <t>shannon.angle@fhr.com</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1896,34 +1896,34 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09-16-2025 07:46:13 AM</t>
+          <t>09-17-2025 07:50:45 AM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09-16-2025 07:46:49 AM</t>
+          <t>09-17-2025 07:51:14 AM</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>PC-33J3M25073R3, PC-BZQ03Z3, PC-5CG408495P</t>
+          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Troy Hull</t>
+          <t>Bryeton Canchola</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TROY.HULL@FHR.COM</t>
+          <t>bryeton.canchola@fhr.com</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1938,17 +1938,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09-16-2025 06:55:54 AM</t>
+          <t>09-16-2025 03:26:59 PM</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-16-2025 06:56:26 AM</t>
+          <t>09-16-2025 03:27:26 PM</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>FHR-BK001VG, FHR-MXL24155WF, PC-33PCV25273R3, PC-5CG4151LFY</t>
+          <t>SPC-MXL24155VV FHR-MXL1022SZ3 FHR-MXL24156C3 SPC-MXL24155W5 SPC-MXL3324PYM SPC-MXL3324PZ0 FHR-MXL2223BDL FHR-MXL9502C5W FHR-MXL9333W07 PC-01W3B23013BF FHR-MXL1022T0R FHR-MXL24155WF FHR-MXL13349Z2 SPC-MXL3324PZ2 FHR-MXL90224C1 FHR-BK000V1 FHR-B9XFH04 SPC-MXL3324PYD SPC-MXL3324PYP FHR-8V4TNZ3</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1960,138 +1960,138 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Crystal Link</t>
+          <t>Charles Cooley Jr</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CRYSTAL.LINK@FHR.COM</t>
+          <t>CHARLES.COOLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09-15-2025 11:01:25 AM</t>
+          <t>09-16-2025 02:26:57 PM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-15-2025 11:01:54 AM</t>
+          <t>09-16-2025 02:27:28 PM</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>PC-5CG1465ZKZ, PC-1H85200B04, FHR-5CG0254D4T</t>
+          <t>FHR-5CG225854R, PC-2MQ5140ZJR</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Alex Lodholz</t>
+          <t>Patrick Tiller</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>alex.lodholz@fhr.com</t>
+          <t>PATRICK.TILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-15-2025 09:14:43 AM</t>
+          <t>09-16-2025 12:20:22 PM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-15-2025 09:15:12 AM</t>
+          <t>09-16-2025 12:20:49 PM</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>PC-2MQ514103N</t>
+          <t>PC-JZ4TNZ3, PC-1H85200B13, FHR-5CG1240T4Q, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Brendan Snell</t>
+          <t>Bryan Garcia</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>brendan.snell@fhr.com</t>
+          <t>bryan.garcia1@fhr.com</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:12 AM</t>
+          <t>09-16-2025 07:46:13 AM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:46 AM</t>
+          <t>09-16-2025 07:46:49 AM</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>FHR-5CG2156XDV</t>
+          <t>PC-33J3M25073R3, PC-BZQ03Z3, PC-5CG408495P</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Joey Guerrero</t>
+          <t>Troy Hull</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>joey.guerrero1@fhr.com</t>
+          <t>TROY.HULL@FHR.COM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2106,17 +2106,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09-15-2025 06:33:41 AM</t>
+          <t>09-16-2025 06:55:54 AM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-15-2025 06:34:14 AM</t>
+          <t>09-16-2025 06:56:26 AM</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>PC-33B8725073R3, PC-9659600351</t>
+          <t>FHR-MXL24155WF, FHR-BK001VG, PC-33PCV25273R3, PC-5CG4151LFY</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2128,17 +2128,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Eddie Buskirk</t>
+          <t>Crystal Link</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>EDDIE.BUSKIRK@FHR.COM</t>
+          <t>CRYSTAL.LINK@FHR.COM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2148,39 +2148,39 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>09-12-2025 01:52:56 PM</t>
+          <t>09-15-2025 11:01:25 AM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>09-12-2025 01:53:24 PM</t>
+          <t>09-15-2025 11:01:54 AM</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>PC-1H85200B0W, FHR-5CG9326W2B</t>
+          <t>PC-5CG1465ZKZ, PC-1H85200B04, FHR-5CG0254D4T</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sammantha Reynolds</t>
+          <t>Alex Lodholz</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>sammantha.reynolds1@fhr.com</t>
+          <t>alex.lodholz@fhr.com</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2190,118 +2190,118 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-12-2025 08:18:55 AM</t>
+          <t>09-15-2025 09:14:43 AM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>09-12-2025 08:19:25 AM</t>
+          <t>09-15-2025 09:15:12 AM</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>PC-2MQ51410FZ, PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
+          <t>PC-2MQ514103N</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Victor Sauceda</t>
+          <t>Brendan Snell</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>victor.sauceda@fhr.com</t>
+          <t>brendan.snell@fhr.com</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:03 AM</t>
+          <t>09-15-2025 08:15:12 AM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09-11-2025 09:46:33 AM</t>
+          <t>09-15-2025 08:15:46 AM</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>FHR-5CD8522C54, PC-33W4325273R3</t>
+          <t>FHR-5CG2156XDV</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mitch O'Keefe</t>
+          <t>Joey Guerrero</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MITCH.OKEEFE@FHR.COM</t>
+          <t>joey.guerrero1@fhr.com</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:11 PM</t>
+          <t>09-15-2025 06:33:41 AM</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09-10-2025 05:54:39 PM</t>
+          <t>09-15-2025 06:34:14 AM</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>MSP-CTLU27, PC-1H85200B09, FHR-5CG1344HQ7</t>
+          <t>PC-33B8725073R3, PC-9659600351</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Joe Bedynek</t>
+          <t>Eddie Buskirk</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>JOE.BEDYNEK@FHR.COM</t>
+          <t>EDDIE.BUSKIRK@FHR.COM</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2311,22 +2311,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:10 PM</t>
+          <t>09-12-2025 01:52:56 PM</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09-10-2025 02:54:36 PM</t>
+          <t>09-12-2025 01:53:24 PM</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>PC-33W6D25273R3, FHR-5CD026KSTV</t>
+          <t>PC-1H85200B0W, FHR-5CG9326W2B</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2338,17 +2338,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ruben Hernandez</t>
+          <t>Sammantha Reynolds</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ruben.hernandez@fhr.com</t>
+          <t>sammantha.reynolds1@fhr.com</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2358,34 +2358,34 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-10-2025 02:51:54 PM</t>
+          <t>09-12-2025 08:18:55 AM</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>09-10-2025 02:52:21 PM</t>
+          <t>09-12-2025 08:19:25 AM</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>PC-2MQ5141117, PC-5CD231GKV7</t>
+          <t>PC-2MQ51410FZ, PC-5CG3402565, PC-2MQ5040B5K, PC-5CG12814MW</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Lauren Sada</t>
+          <t>Victor Sauceda</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>lauren.sada@fhr.com</t>
+          <t>victor.sauceda@fhr.com</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2395,22 +2395,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:21 PM</t>
+          <t>09-11-2025 09:46:03 AM</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>09-10-2025 01:27:49 PM</t>
+          <t>09-11-2025 09:46:33 AM</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZMH</t>
+          <t>FHR-5CD8522C54, PC-33W4325273R3</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2422,12 +2422,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Kevin Harvey</t>
+          <t>Mitch O'Keefe</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>KEVIN.HARVEY@FHR.COM</t>
+          <t>MITCH.OKEEFE@FHR.COM</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2437,22 +2437,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-10-2025 08:38:42 AM</t>
+          <t>09-10-2025 05:54:11 PM</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>09-10-2025 08:39:13 AM</t>
+          <t>09-10-2025 05:54:39 PM</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>PC-2MQ5290Z3G, FHR-5CG1236JK6</t>
+          <t>PC-1H85200B09, MSP-CTLU27, FHR-5CG1344HQ7</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2464,138 +2464,138 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Matt Olson</t>
+          <t>Joe Bedynek</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MATTHEW.OLSON@FHR.COM</t>
+          <t>JOE.BEDYNEK@FHR.COM</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-09-2025 11:43:57 AM</t>
+          <t>09-10-2025 02:54:10 PM</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>09-09-2025 11:44:26 AM</t>
+          <t>09-10-2025 02:54:36 PM</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>FHR-5CD40711PF, PC-2MQ5290Z8Z, FHR-5CG918242Z</t>
+          <t>PC-33W6D25273R3, FHR-5CD026KSTV</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sam Weldemariam</t>
+          <t>Ruben Hernandez</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SAM.WELDEMARIAM@FHR.COM</t>
+          <t>ruben.hernandez@fhr.com</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:23 AM</t>
+          <t>09-10-2025 02:51:54 PM</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>09-09-2025 09:48:51 AM</t>
+          <t>09-10-2025 02:52:21 PM</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>FHR-MXL9152YMX, FHR-3KJBQ54, FHR-D90QDZ3, PC-GQMKN34, FHR-G8GR624, FHR-F9GR624, FHR-MXL9144C61, FHR-5CG213BX6D, FHR-5CD8506CR3</t>
+          <t>PC-2MQ5141117, PC-5CD231GKV7</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Derek Wilfong</t>
+          <t>Lauren Sada</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DEREK.WILFONG@FHR.COM</t>
+          <t>lauren.sada@fhr.com</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-09-2025 09:02:55 AM</t>
+          <t>09-10-2025 01:27:21 PM</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09-09-2025 09:03:28 AM</t>
+          <t>09-10-2025 01:27:49 PM</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>FHR-5CG1314K33, PC-34XVM25063R3</t>
+          <t>PC-2MQ5140ZMH</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Joel Mccabe</t>
+          <t>Kevin Harvey</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>JOEL.MCCABE@FHR.COM</t>
+          <t>KEVIN.HARVEY@FHR.COM</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2605,22 +2605,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-05-2025 03:04:34 PM</t>
+          <t>09-10-2025 08:38:42 AM</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>09-08-2025 09:08:16 AM</t>
+          <t>09-10-2025 08:39:13 AM</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>FHR-1B1KH04, MSP-005054</t>
+          <t>PC-2MQ5290Z3G, FHR-5CG1236JK6</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2632,17 +2632,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Devon Holz</t>
+          <t>Matt Olson</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DEVON.HOLZ@FHR.COM</t>
+          <t>MATTHEW.OLSON@FHR.COM</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2652,160 +2652,160 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:14 PM</t>
+          <t>09-09-2025 11:43:57 AM</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>09-05-2025 02:23:42 PM</t>
+          <t>09-09-2025 11:44:26 AM</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>FHR-5CG2219ZDW, PC-2MQ5140ZD9</t>
+          <t>FHR-5CD40711PF, PC-2MQ5290Z8Z, FHR-5CG918242Z</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Shawn Sieben</t>
+          <t>Sam Weldemariam</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Shawn.Sieben@fhr.com</t>
+          <t>SAM.WELDEMARIAM@FHR.COM</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-04-2025 09:29:38 AM</t>
+          <t>09-09-2025 09:48:23 AM</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>09-05-2025 12:58:04 PM</t>
+          <t>09-09-2025 09:48:51 AM</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>FHR-MXL0041QDS, FHR-CND8426B2G, FHR-5CD3507T46, FHR-8CC84008DL</t>
+          <t>FHR-D90QDZ3, FHR-G8GR624, FHR-3KJBQ54, PC-GQMKN34, FHR-F9GR624, FHR-5CG213BX6D, FHR-MXL9144C61, FHR-5CD8506CR3</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Carrie Simpson</t>
+          <t>Derek Wilfong</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CARRIE.SIMPSON@FHR.COM</t>
+          <t>DEREK.WILFONG@FHR.COM</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:03 PM</t>
+          <t>09-09-2025 09:02:55 AM</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>09-04-2025 03:17:30 PM</t>
+          <t>09-09-2025 09:03:28 AM</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZSD, PC-001NS23373BF</t>
+          <t>PC-34XVM25063R3, FHR-5CG1314K33</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Chris Pratt</t>
+          <t>Joel Mccabe</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Chris.Pratt@fhr.com</t>
+          <t>JOEL.MCCABE@FHR.COM</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-02-2025 04:16:05 PM</t>
+          <t>09-05-2025 03:04:34 PM</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>09-04-2025 01:23:58 PM</t>
+          <t>09-08-2025 09:08:16 AM</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>PC-MXL53644K5, FHR-5CD016BPV0, FHR-MXL8361TTS</t>
+          <t>SPC-G942X54, FHR-1B1KH04, MSP-005054</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Manuel Moreno Jr</t>
+          <t>Devon Holz</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MANUEL.MORENO@FHR.COM</t>
+          <t>DEVON.HOLZ@FHR.COM</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2815,22 +2815,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>05-02-2025 08:54:50 AM</t>
+          <t>09-05-2025 02:23:14 PM</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>09-04-2025 01:17:10 PM</t>
+          <t>09-05-2025 02:23:42 PM</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>PC-5CG4143GRG, SPC-5BJ8D14, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
+          <t>FHR-5CG2219ZDW, PC-2MQ5140ZD9</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2842,138 +2842,138 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Ben Sandiford</t>
+          <t>Shawn Sieben</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ben.sandiford@fhr.com</t>
+          <t>Shawn.Sieben@fhr.com</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>CA-AB-HARDISTY - FHR - Flint Hills - Hardisty - Hardisty - Koch</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:18 PM</t>
+          <t>09-04-2025 09:29:38 AM</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>09-04-2025 01:11:48 PM</t>
+          <t>09-05-2025 12:58:04 PM</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>PC-33VW824233M4, PC-1H95220MS6</t>
+          <t>FHR-MXL0041QDS, FHR-5CD3507T46, FHR-CND8426B2G, FHR-8CC84008DL</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Denise Schardt</t>
+          <t>Carrie Simpson</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DENISE.SCHARDT@FHR.COM</t>
+          <t>CARRIE.SIMPSON@FHR.COM</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-03-2025 02:48:18 PM</t>
+          <t>09-04-2025 03:17:03 PM</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>09-04-2025 01:00:11 PM</t>
+          <t>09-04-2025 03:17:30 PM</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
+          <t>PC-2MQ5140ZSD, PC-001NS23373BF</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ray Aslesen</t>
+          <t>Chris Pratt</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>RAY.ASLESEN@FHR.COM</t>
+          <t>Chris.Pratt@fhr.com</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>CA-AB-CALGARY - Calgary, AB (CA) - Calgary - Koch</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (Canada)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-04-2025 07:28:33 AM</t>
+          <t>09-02-2025 04:16:05 PM</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>09-04-2025 07:29:01 AM</t>
+          <t>09-04-2025 01:23:58 PM</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>PC-MXL4523KGB, PC-2MQ5140ZSW, FHR-0F00CQM2332, FHR-CND1440HBV</t>
+          <t>PC-MXL53644K5, FHR-5CD016BPV0, FHR-MXL8361TTS</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>Manuel Moreno Jr</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>MANUEL.MORENO@FHR.COM</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2983,22 +2983,22 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-04-2025 06:11:34 AM</t>
+          <t>05-02-2025 08:54:50 AM</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>09-04-2025 06:12:02 AM</t>
+          <t>09-04-2025 01:17:10 PM</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>PC-5CG4143GRG, SPC-5BJ8D14, FHR-00979120215, SPC-H4F8D14, FHR-0B36RFC222</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3010,12 +3010,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Dora Heimsoth</t>
+          <t>Ben Sandiford</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>dora.heimsoth1@fhr.com</t>
+          <t>ben.sandiford@fhr.com</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3025,22 +3025,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-03-2025 03:00:34 PM</t>
+          <t>09-04-2025 01:11:18 PM</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>09-03-2025 03:01:01 PM</t>
+          <t>09-04-2025 01:11:48 PM</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>PC-339W925073R3, PC-86XGSV3</t>
+          <t>PC-33VW824233M4, PC-1H95220MS6</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3052,96 +3052,96 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Stephen Rodriguez</t>
+          <t>Denise Schardt</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
+          <t>DENISE.SCHARDT@FHR.COM</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-03-2025 02:28:45 PM</t>
+          <t>09-03-2025 02:48:18 PM</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>09-03-2025 02:29:20 PM</t>
+          <t>09-04-2025 01:00:11 PM</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>FHR-MXL90223C1 FHR-MXL902239Z FHR-MXL9332KN0 FHR-MXL902239R CND837B026 FHR-MXL9153QWC KII-MXL2424F2T FHR-5CG12812WW FHR-MXL3132SQX FHR-MXL3132SN7 FHR-MXL3132SNW FHR-MXL3132SS3 FHR-MXL3132SS4 FHR-MXL90224D2 FHR-8CG806569G KII-MXL24156FT FHR-MXL4424X3B FHR-MXL5043GK0 FHR-MXL5043GK1 SPC-DX6LZ84 SPC-MXL24156CD</t>
+          <t>FHR-5CD0191D8M, PC-2MQ5140Z93</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Matt Skrobarcek</t>
+          <t>Ray Aslesen</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
+          <t>RAY.ASLESEN@FHR.COM</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:08 AM</t>
+          <t>09-04-2025 07:28:33 AM</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>09-03-2025 09:46:38 AM</t>
+          <t>09-04-2025 07:29:01 AM</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
+          <t>PC-MXL4523KGB, PC-2MQ5140ZSW, FHR-0F00CQM2332, FHR-CND1440HBV</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Justin Nava</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>JUSTIN.NAVA@FHR.COM</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3151,22 +3151,22 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-03-2025 09:44:33 AM</t>
+          <t>09-04-2025 06:11:34 AM</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>09-03-2025 09:45:02 AM</t>
+          <t>09-04-2025 06:12:02 AM</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>SPC-82TKZ84, FHR-5CG4240WQT, FHR-MXL9223BVJ</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3178,12 +3178,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Logan Tom</t>
+          <t>Dora Heimsoth</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>logan.tom@fhr.com</t>
+          <t>dora.heimsoth1@fhr.com</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3193,22 +3193,22 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:15 PM</t>
+          <t>09-03-2025 03:00:34 PM</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>09-02-2025 02:39:42 PM</t>
+          <t>09-03-2025 03:01:01 PM</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
+          <t>PC-339W925073R3, PC-86XGSV3</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3220,54 +3220,54 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Travis Sumerfelt</t>
+          <t>Stephen Rodriguez</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>travis.sumerfelt@fhr.com</t>
+          <t>STEPHEN.RODRIGUEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-02-2025 11:06:03 AM</t>
+          <t>09-03-2025 02:28:45 PM</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>09-02-2025 11:07:05 AM</t>
+          <t>09-03-2025 02:29:20 PM</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>PC-2MQ514108Q</t>
+          <t>FHR-MXL90223C1 FHR-MXL902239Z FHR-MXL9332KN0 FHR-MXL902239R CND837B026 FHR-MXL9153QWC KII-MXL2424F2T FHR-5CG12812WW FHR-MXL3132SQX FHR-MXL3132SN7 FHR-MXL3132SNW FHR-MXL3132SS3 FHR-MXL3132SS4 FHR-MXL90224D2 FHR-8CG806569G KII-MXL24156FT FHR-MXL4424X3B FHR-MXL5043GK0 FHR-MXL5043GK1 SPC-DX6LZ84 SPC-MXL24156CD</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Carlos Garcia Jr.</t>
+          <t>Matt Skrobarcek</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CARLOS.GARCIAJR@FHR.COM</t>
+          <t>MATTHEW.SKROBARCEK@FHR.COM</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3277,22 +3277,22 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-27-2025 09:24:59 PM</t>
+          <t>09-03-2025 09:46:08 AM</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>09-02-2025 08:26:34 AM</t>
+          <t>09-03-2025 09:46:38 AM</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>SPC-39YG25073R3, FHR-FRMKN34</t>
+          <t>PC-1H95220MPS, FHR-5CG127C40Q, FHR-5CG213CYGT</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3304,12 +3304,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Billy Royal</t>
+          <t>Justin Nava</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BILLY.ROYAL@FHR.COM</t>
+          <t>JUSTIN.NAVA@FHR.COM</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3319,22 +3319,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:06 PM</t>
+          <t>09-03-2025 09:44:33 AM</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-29-2025 04:48:34 PM</t>
+          <t>09-03-2025 09:45:02 AM</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>FHR-5CD2331XLD</t>
+          <t>SPC-82TKZ84, FHR-5CG4240WQT, FHR-MXL9223BVJ</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3346,17 +3346,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Samuel Paulus</t>
+          <t>Logan Tom</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>samuel.paulus@fhr.com</t>
+          <t>logan.tom@fhr.com</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3366,17 +3366,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:17 PM</t>
+          <t>09-02-2025 02:39:15 PM</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-29-2025 01:00:45 PM</t>
+          <t>09-02-2025 02:39:42 PM</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
+          <t>PC-2MQ51410LR, FHR-5CG2151LJ2, FHR-16293653</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3388,17 +3388,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Derya Broll</t>
+          <t>Travis Sumerfelt</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DERYA.BROLL@FHR.COM</t>
+          <t>travis.sumerfelt@fhr.com</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-MARSHALL - FHR-Marshall - Marshall - Koch</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3408,76 +3408,76 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:07 PM</t>
+          <t>09-02-2025 11:06:03 AM</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-29-2025 12:10:37 PM</t>
+          <t>09-02-2025 11:07:05 AM</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
+          <t>PC-2MQ514108Q</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Joseph Moberly</t>
+          <t>Carlos Garcia Jr.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>joseph.moberly@fhr.com</t>
+          <t>CARLOS.GARCIAJR@FHR.COM</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-28-2025 01:10:49 PM</t>
+          <t>08-27-2025 09:24:59 PM</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-28-2025 01:11:16 PM</t>
+          <t>09-02-2025 08:26:34 AM</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>PC-1H852009W3, PC-5CG2415PYM</t>
+          <t>FHR-4PMKN34, SPC-39YG25073R3</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Lindi Dinn</t>
+          <t>Billy Royal</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>LINDI.DINN@FHR.COM</t>
+          <t>BILLY.ROYAL@FHR.COM</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3492,17 +3492,17 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:14 PM</t>
+          <t>08-29-2025 04:48:06 PM</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>08-27-2025 02:53:40 PM</t>
+          <t>08-29-2025 04:48:34 PM</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>FHR-CND1440HKF, PC-36KMG25193M4, FHR-8CC8412KMN, PC-1H852009X5, FHR-51990492553</t>
+          <t>FHR-5CD2331XLD</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3514,138 +3514,138 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Rodney Cotten</t>
+          <t>Samuel Paulus</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RODNEY.COTTEN@FHR.COM</t>
+          <t>samuel.paulus@fhr.com</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-EAUCLAIRE-004 - FHR-Pine Bend-Eau Claire - Eleva - Koch</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:02 PM</t>
+          <t>08-29-2025 01:00:17 PM</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>08-27-2025 02:27:30 PM</t>
+          <t>08-29-2025 01:00:45 PM</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>PC-5CD5100K7L, PC-33JGC25073R3, FHR-5CG7515059</t>
+          <t>PC-2MQ5141095, FHR-5CG04631H8</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Chad Schaner</t>
+          <t>Derya Broll</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CHAD.SCHANER@FHR.COM</t>
+          <t>DERYA.BROLL@FHR.COM</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Dell Pro Rugged RB14250 14" Laptop</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-04-2025 01:41:48 PM</t>
+          <t>08-29-2025 12:10:07 PM</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>08-27-2025 01:20:37 PM</t>
+          <t>08-29-2025 12:10:37 PM</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>FHR-8H0GH04, FHR-8CG7352CR5, FHR-DYW9BT3, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-187491253</t>
+          <t>PC-5CG4083HH2, FHR-5CG9326ZDG</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Denise Gonzalez</t>
+          <t>Joseph Moberly</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DENISE.GONZALEZ@FHR.COM</t>
+          <t>joseph.moberly@fhr.com</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:17 AM</t>
+          <t>08-28-2025 01:10:49 PM</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>08-27-2025 07:15:45 AM</t>
+          <t>08-28-2025 01:11:16 PM</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>SPC-D0R03Z3, PC-34Y4825063R3, SPC-63V03Z3, SPC-23V03Z3, PC-5WXDQV3</t>
+          <t>PC-1H852009W3, PC-5CG2415PYM</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Kris Adkins</t>
+          <t>Lindi Dinn</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>KRISTOPHER.ADKINS@FHR.COM</t>
+          <t>LINDI.DINN@FHR.COM</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3655,22 +3655,22 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-26-2025 08:20:43 PM</t>
+          <t>08-27-2025 02:53:14 PM</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>08-26-2025 08:21:16 PM</t>
+          <t>08-27-2025 02:53:40 PM</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>PC-34WWG25063R3</t>
+          <t>PC-36KMG25193M4, PC-1H852009X5, FHR-8CC8412KMN, FHR-CND1440HKF, FHR-51990492553</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3682,12 +3682,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Jose Cardona</t>
+          <t>Rodney Cotten</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>JOSE.CARDONA@FHR.COM</t>
+          <t>RODNEY.COTTEN@FHR.COM</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3697,22 +3697,22 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-26-2025 09:00:40 AM</t>
+          <t>08-27-2025 02:27:02 PM</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>08-26-2025 09:01:09 AM</t>
+          <t>08-27-2025 02:27:30 PM</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>FHR-5CG30935LZ, SPC-5CG4084VQ2, CPC-JOSEC-BGVEA</t>
+          <t>PC-5CD5100K7L, PC-33JGC25073R3, FHR-5CG7515059</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3724,12 +3724,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Phillip Norell</t>
+          <t>Chad Schaner</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PHILLIP.NORELL@FHR.COM</t>
+          <t>CHAD.SCHANER@FHR.COM</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3739,22 +3739,22 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Dell Pro Rugged RB14250 14" Laptop</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:13 PM</t>
+          <t>08-04-2025 01:41:48 PM</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>08-25-2025 02:58:39 PM</t>
+          <t>08-27-2025 01:20:37 PM</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>PC-1H85200B08, FHR-5CG213CGKR</t>
+          <t>FHR-8H0GH04, FHR-DYW9BT3, FHR-MXL1253LZB, FHR-2DF6BT3, FHR-FZS7FD3, FHR-187491253</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3766,54 +3766,54 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Anne Lee</t>
+          <t>Denise Gonzalez</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ANNE.LEE@FHR.COM</t>
+          <t>DENISE.GONZALEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:00 AM</t>
+          <t>08-27-2025 07:15:17 AM</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>08-25-2025 10:13:30 AM</t>
+          <t>08-27-2025 07:15:45 AM</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
+          <t>SPC-D0R03Z3, PC-34Y4825063R3, SPC-G3V03Z3, PC-5WXDQV3</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>David Barnholt</t>
+          <t>Kris Adkins</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>david.barnholt@fhr.com</t>
+          <t>KRISTOPHER.ADKINS@FHR.COM</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3823,22 +3823,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:27 AM</t>
+          <t>08-26-2025 08:20:43 PM</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>08-22-2025 11:11:54 AM</t>
+          <t>08-26-2025 08:21:16 PM</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>PC-1H852009SD</t>
+          <t>PC-34WWG25063R3</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3850,17 +3850,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Eric Enders</t>
+          <t>Jose Cardona</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>eric.enders@fhr.com</t>
+          <t>JOSE.CARDONA@FHR.COM</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3870,76 +3870,76 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:30 AM</t>
+          <t>08-26-2025 09:00:40 AM</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>08-22-2025 07:55:59 AM</t>
+          <t>08-26-2025 09:01:09 AM</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>PC-2MQ514115J</t>
+          <t>FHR-5CG30935LZ, CPC-JOSEC-BGVEA</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sean Garza</t>
+          <t>Phillip Norell</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>sean.garza@fhr.com</t>
+          <t>PHILLIP.NORELL@FHR.COM</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>08-19-2025 01:01:15 AM</t>
+          <t>08-25-2025 02:58:13 PM</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:18 AM</t>
+          <t>08-25-2025 02:58:39 PM</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>SPC-3B6G25073R3</t>
+          <t>FHR-5CG213CGKR, PC-1H85200B08</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Joe Rohl</t>
+          <t>Anne Lee</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>JOE.ROHL@FHR.COM</t>
+          <t>ANNE.LEE@FHR.COM</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3949,22 +3949,22 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>08-19-2025 02:44:07 PM</t>
+          <t>08-25-2025 10:13:00 AM</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>08-22-2025 07:34:14 AM</t>
+          <t>08-25-2025 10:13:30 AM</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
+          <t>PC-1H95220MNJ, FHR-0F01X0K2301</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3976,12 +3976,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>David Ybarra</t>
+          <t>David Barnholt</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DAVID.YBARRA@FHR.COM</t>
+          <t>david.barnholt@fhr.com</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3996,17 +3996,17 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:30 AM</t>
+          <t>08-22-2025 11:11:27 AM</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>08-22-2025 07:18:58 AM</t>
+          <t>08-22-2025 11:11:54 AM</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>PC-1H852009XZ, FHR-5CD9221SD0</t>
+          <t>PC-1H852009SD</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4018,17 +4018,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>David Landeros</t>
+          <t>Eric Enders</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>david.landeros2@fhr.com</t>
+          <t>eric.enders@fhr.com</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-WI-GREENBAY6 - FHR-Green Bay - Green Bay - Koch</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4038,39 +4038,39 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:19 AM</t>
+          <t>08-22-2025 07:55:30 AM</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>08-22-2025 06:59:48 AM</t>
+          <t>08-22-2025 07:55:59 AM</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
+          <t>PC-2MQ514115J</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Cole Brewster</t>
+          <t>Sean Garza</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>cole.brewster@fhr.com</t>
+          <t>sean.garza@fhr.com</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4080,101 +4080,101 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>08-20-2025 01:48:49 PM</t>
+          <t>08-19-2025 01:01:15 AM</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>08-20-2025 01:49:17 PM</t>
+          <t>08-22-2025 07:34:18 AM</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>PC-34Y3Q25063R3, FHR-5CG1276WN7</t>
+          <t>SPC-3B6G25073R3</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Brenna Gerety</t>
+          <t>Joe Rohl</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BRENNA.GERETY@FHR.COM</t>
+          <t>JOE.ROHL@FHR.COM</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:01 AM</t>
+          <t>08-19-2025 02:44:07 PM</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>08-20-2025 07:58:29 AM</t>
+          <t>08-22-2025 07:34:14 AM</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>PC-5CG5040677, FHR-5CG0036B94</t>
+          <t>SPC-5CD5100KJH, PC-2MQ44502KT, FHR-8CG7352CSQ</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Daniel Jurach</t>
+          <t>David Ybarra</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>daniel.jurach@fhr.com</t>
+          <t>DAVID.YBARRA@FHR.COM</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>08-18-2025 11:58:20 AM</t>
+          <t>08-22-2025 07:18:30 AM</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>08-19-2025 10:21:28 AM</t>
+          <t>08-22-2025 07:18:58 AM</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>PC-2MQ514110T</t>
+          <t>FHR-5CD9221SD0, PC-1H852009XZ</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4186,101 +4186,101 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Tony Short</t>
+          <t>David Landeros</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ANTHONY.SHORT@KPLSRV.COM</t>
+          <t>david.landeros2@fhr.com</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:07 AM</t>
+          <t>08-22-2025 06:59:19 AM</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>08-18-2025 10:21:38 AM</t>
+          <t>08-22-2025 06:59:48 AM</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>PC-5CD5100KK7, PC-5CD229GR66, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
+          <t>PC-1H85200B0P, PC-2MQ51410M5, FHR-CND1440CPJ</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Chad Remer</t>
+          <t>Cole Brewster</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CHAD.REMER@FHR.COM</t>
+          <t>cole.brewster@fhr.com</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-OK-TULSA - JZ-Tulsa OK (USA) - Tulsa - Koch</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:04 AM</t>
+          <t>08-20-2025 01:48:49 PM</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>08-18-2025 09:26:34 AM</t>
+          <t>08-20-2025 01:49:17 PM</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>FHR-5CG3102HDY, PC-2MQ5140Z5D</t>
+          <t>PC-34Y3Q25063R3, FHR-5CG1276WN7</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Nicholas Hanson</t>
+          <t>Brenna Gerety</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NICK.HANSON@FHR.COM</t>
+          <t>BRENNA.GERETY@FHR.COM</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4290,39 +4290,39 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:17 AM</t>
+          <t>08-20-2025 07:58:01 AM</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>08-15-2025 07:06:46 AM</t>
+          <t>08-20-2025 07:58:29 AM</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
+          <t>PC-5CG5040677</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Harold Irvin</t>
+          <t>Daniel Jurach</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HAROLD.IRVIN@FHR.COM</t>
+          <t>daniel.jurach@fhr.com</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
+          <t>US-TX-CORPUSCHRISTI2 - FHR LC-Terminals Corpus - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4332,76 +4332,76 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:06 PM</t>
+          <t>08-18-2025 11:58:20 AM</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>08-14-2025 02:45:37 PM</t>
+          <t>08-19-2025 10:21:28 AM</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>PC-2MQ51410F2, FHR-5CG2156Z1X</t>
+          <t>PC-2MQ514110T</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sandra Akarolo</t>
+          <t>Tony Short</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>sandra.akarolo@fhr.com</t>
+          <t>ANTHONY.SHORT@KPLSRV.COM</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>08-13-2025 01:51:42 PM</t>
+          <t>08-18-2025 10:21:07 AM</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>08-14-2025 08:58:56 AM</t>
+          <t>08-18-2025 10:21:38 AM</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>FHR-5CG213CDWV</t>
+          <t>PC-5CD5100KK7, PC-5CD229GR66, PC-5CG340255B, FHR-5CG83545Y8, FHR-5CG83541BB</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Paul Fisher</t>
+          <t>Chad Remer</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PAUL.FISHER@FHR.COM</t>
+          <t>CHAD.REMER@FHR.COM</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4411,22 +4411,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:23 PM</t>
+          <t>08-18-2025 09:26:04 AM</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>08-13-2025 05:07:56 PM</t>
+          <t>08-18-2025 09:26:34 AM</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
+          <t>PC-2MQ5140Z5D, FHR-5CG3102HDY</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4438,79 +4438,79 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Robert Corley</t>
+          <t>Nicholas Hanson</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ROBERT.CORLEY@FHR.COM</t>
+          <t>NICK.HANSON@FHR.COM</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>08-12-2025 06:27:18 PM</t>
+          <t>08-15-2025 07:06:17 AM</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>08-13-2025 12:47:38 PM</t>
+          <t>08-15-2025 07:06:46 AM</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
+          <t>PC-2MQ53508TS, PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Jeff Baker</t>
+          <t>Harold Irvin</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>JEFF.BAKER@FHR.COM</t>
+          <t>HAROLD.IRVIN@FHR.COM</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-IL-HARTFORD - FHR-Pine Bend-Hartford - Hartford - Koch</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:02 AM</t>
+          <t>08-14-2025 02:45:06 PM</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>08-13-2025 09:11:30 AM</t>
+          <t>08-14-2025 02:45:37 PM</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
+          <t>FHR-5CG2156Z1X, PC-2MQ51410F2</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4522,12 +4522,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Kemal Simpson</t>
+          <t>Sandra Akarolo</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>kemal.simpson@fhr.com</t>
+          <t>sandra.akarolo@fhr.com</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4537,22 +4537,22 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>08-13-2025 07:17:41 AM</t>
+          <t>08-13-2025 01:51:42 PM</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>08-13-2025 07:18:09 AM</t>
+          <t>08-14-2025 08:58:56 AM</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>FHR-5CG1073F3X</t>
+          <t>FHR-5CG213CDWV</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4564,96 +4564,96 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Robert Jimenez</t>
+          <t>Paul Fisher</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ROBERT.JIMENEZ@FHR.COM</t>
+          <t>PAUL.FISHER@FHR.COM</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:22 AM</t>
+          <t>08-13-2025 05:07:23 PM</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>08-12-2025 11:43:51 AM</t>
+          <t>08-13-2025 05:07:56 PM</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
+          <t>PC-2MQ5140ZMP, PC-2MQ5080VWF, FHR-5CG85200S6</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Kevin Miller</t>
+          <t>Robert Corley</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>KEVIN.MILLER@FHR.COM</t>
+          <t>ROBERT.CORLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-FRIENDSWOOD - FHR-Houston (Friendswood) - Friendswood - Koch</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:21 AM</t>
+          <t>08-12-2025 06:27:18 PM</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>08-12-2025 09:11:49 AM</t>
+          <t>08-13-2025 12:47:38 PM</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
+          <t>PC-1H95220MNZ, PC-5CG213BX38, FHR-5CG2225V68</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Tucker Lansing</t>
+          <t>Jeff Baker</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>tucker.lansing@fhr.com</t>
+          <t>JEFF.BAKER@FHR.COM</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4663,22 +4663,22 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:05 AM</t>
+          <t>08-13-2025 09:11:02 AM</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>08-12-2025 08:13:44 AM</t>
+          <t>08-13-2025 09:11:30 AM</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>PC-2MQ5141103</t>
+          <t>PC-2MQ5140ZCD, FHR-5CG1240ZMG</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4690,17 +4690,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Kairos Logan</t>
+          <t>Kemal Simpson</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>kairos.logan@fhr.com</t>
+          <t>kemal.simpson@fhr.com</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4710,34 +4710,34 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:17 PM</t>
+          <t>08-13-2025 07:17:41 AM</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>08-11-2025 04:54:45 PM</t>
+          <t>08-13-2025 07:18:09 AM</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>PC-2MQ51410BZ</t>
+          <t>FHR-5CG1073F3X</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Louis Stump</t>
+          <t>Robert Jimenez</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>LOUIS.STUMP@FHR.COM</t>
+          <t>ROBERT.JIMENEZ@FHR.COM</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4752,17 +4752,17 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>07-20-2025 06:49:35 AM</t>
+          <t>08-12-2025 11:43:22 AM</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>08-11-2025 03:03:35 PM</t>
+          <t>08-12-2025 11:43:51 AM</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
+          <t>PC-34P9Q25193M4, FHR-BK001K2222</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4774,12 +4774,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Kevin Miller</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>KEVIN.MILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4789,22 +4789,22 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>08-11-2025 12:57:47 PM</t>
+          <t>08-12-2025 09:11:21 AM</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>08-11-2025 12:58:15 PM</t>
+          <t>08-12-2025 09:11:49 AM</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
+          <t>PC-1H851300KN, FHR-5CG1240ZLL</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4816,12 +4816,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Alex Fairbanks</t>
+          <t>Tucker Lansing</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Alex.Fairbanks@fhr.com</t>
+          <t>tucker.lansing@fhr.com</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4831,22 +4831,22 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>08-11-2025 09:58:56 AM</t>
+          <t>08-12-2025 08:13:05 AM</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>08-11-2025 09:59:25 AM</t>
+          <t>08-12-2025 08:13:44 AM</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>PC-5CD5100K77, FHR-MXL3132S8S, FHR-5CG2261RYZ</t>
+          <t>PC-2MQ5141103</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4858,54 +4858,54 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Cole Wilson</t>
+          <t>Kairos Logan</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>cole.wilson@fhr.com</t>
+          <t>kairos.logan@fhr.com</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-EULESS - KBS-Euless,TX - Euless - Koch</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>08-11-2025 08:57:56 AM</t>
+          <t>08-11-2025 04:54:17 PM</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>08-11-2025 08:58:25 AM</t>
+          <t>08-11-2025 04:54:45 PM</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>PC-2MQ5140Z9H</t>
+          <t>PC-2MQ51410BZ</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Tomas Murillo</t>
+          <t>Louis Stump</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>tomas.murillo@fhr.com</t>
+          <t>LOUIS.STUMP@FHR.COM</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4920,17 +4920,17 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:07 AM</t>
+          <t>07-20-2025 06:49:35 AM</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>08-11-2025 08:33:36 AM</t>
+          <t>08-11-2025 03:03:35 PM</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
+          <t>PC-36KKT25193M4, FHR-2J0GH04</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4942,96 +4942,96 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Bobby Peddycord</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>bobby.peddycord@fhr.com</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>08-07-2025 10:38:48 AM</t>
+          <t>08-11-2025 12:57:47 PM</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>08-11-2025 07:13:21 AM</t>
+          <t>08-11-2025 12:58:15 PM</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
+          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Charles Oliver</t>
+          <t>Alex Fairbanks</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CHARLES.OLIVER@FHR.COM</t>
+          <t>Alex.Fairbanks@fhr.com</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>08-11-2025 05:46:52 AM</t>
+          <t>08-11-2025 09:58:56 AM</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>08-11-2025 05:47:20 AM</t>
+          <t>08-11-2025 09:59:25 AM</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>PC-36KFF25193M4</t>
+          <t>PC-5CD5100K77, FHR-5CG2261RYZ</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Rudy Barajas</t>
+          <t>Cole Wilson</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>RUDY.BARAJAS@FHR.COM</t>
+          <t>cole.wilson@fhr.com</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>08-06-2025 04:56:54 AM</t>
+          <t>08-11-2025 08:57:56 AM</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>08-08-2025 01:09:23 PM</t>
+          <t>08-11-2025 08:58:25 AM</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>PC-33BYB25013M4, PC-2MQ514105T, FHR-J2V03Z3, FHR-MXL24156CF</t>
+          <t>PC-2MQ5140Z9H</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5068,138 +5068,138 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Braxton Holes</t>
+          <t>Tomas Murillo</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>braxton.holes@fhr.com</t>
+          <t>tomas.murillo@fhr.com</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>08-07-2025 08:51:34 AM</t>
+          <t>08-11-2025 08:33:07 AM</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>08-08-2025 11:34:27 AM</t>
+          <t>08-11-2025 08:33:36 AM</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>FHR-5CD231D3NH, PC-5CD5100KGP, FHR-5CD01052SN</t>
+          <t>PC-2MQ5270TFX, PC-01VYP23013BF</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Andrea Unruh</t>
+          <t>Bobby Peddycord</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ANDREA.UNRUH@FHR.COM</t>
+          <t>bobby.peddycord@fhr.com</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-WI-WAUPUN - FHR-Terminals-Waupun - Waupun - Koch</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:28 AM</t>
+          <t>08-07-2025 10:38:48 AM</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>08-08-2025 08:17:56 AM</t>
+          <t>08-11-2025 07:13:21 AM</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>PC-36KG325193M4, PC-014GF22373BF</t>
+          <t>PC-2MQ5140ZJF, PC-5CG4143LD2</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Caleb Quanrud</t>
+          <t>Charles Oliver</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>caleb.quanrud@fhr.com</t>
+          <t>CHARLES.OLIVER@FHR.COM</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:28 PM</t>
+          <t>08-11-2025 05:46:52 AM</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>08-07-2025 03:06:58 PM</t>
+          <t>08-11-2025 05:47:20 AM</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
+          <t>PC-36KFF25193M4</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Jean Jaime</t>
+          <t>Rudy Barajas</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>JEAN.JAIME@FHR.COM</t>
+          <t>RUDY.BARAJAS@FHR.COM</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5209,22 +5209,22 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:32 PM</t>
+          <t>08-06-2025 04:56:54 AM</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>08-07-2025 02:12:00 PM</t>
+          <t>08-08-2025 01:09:23 PM</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>PC-5CD5100KGN, FHR-5CG1314JWS</t>
+          <t>PC-33BYB25013M4, PC-2MQ514105T, FHR-J2V03Z3, FHR-MXL24156CF</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5236,59 +5236,59 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Braxton Holes</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>braxton.holes@fhr.com</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-PETTUS - FHR-Corpus-Pettus - Pettus - Koch</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>08-07-2025 02:10:24 PM</t>
+          <t>08-07-2025 08:51:34 AM</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>08-07-2025 02:11:00 PM</t>
+          <t>08-08-2025 11:34:27 AM</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
+          <t>FHR-5CD231D3NH, PC-5CD5100KGP, FHR-5CD01052SN</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Rick Schwing</t>
+          <t>Andrea Unruh</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>rick.schwing@fhr.com</t>
+          <t>ANDREA.UNRUH@FHR.COM</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5298,59 +5298,59 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:23 PM</t>
+          <t>08-08-2025 08:17:28 AM</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>08-07-2025 02:09:59 PM</t>
+          <t>08-08-2025 08:17:56 AM</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>FHR-MXL3132SJ0, PC-36KGV25193M4</t>
+          <t>PC-36KG325193M4, PC-014GF22373BF</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Branden Roering</t>
+          <t>Caleb Quanrud</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>branden.roering@fhr.com</t>
+          <t>caleb.quanrud@fhr.com</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>US-MN-LITTLEFALLS - FHR-Pine Bend-Little Falls - Little Falls - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:17 PM</t>
+          <t>08-07-2025 03:06:28 PM</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:45 PM</t>
+          <t>08-07-2025 03:06:58 PM</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>PC-2MQ5141148</t>
+          <t>PC-5CD5100K79, FHR-5CD231D3LR</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">

--- a/output/fhr_computer_requests.xlsx
+++ b/output/fhr_computer_requests.xlsx
@@ -532,17 +532,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Steve Dayton</t>
+          <t>David Ortiz</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>STEPHAN.DAYTON@FHR.COM</t>
+          <t>DAVID.ORTIZ@FHR.COM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -552,101 +552,101 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10-01-2025 07:00:18 AM</t>
+          <t>10-02-2025 07:49:19 AM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10-01-2025 07:00:52 AM</t>
+          <t>10-02-2025 07:49:47 AM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>FHR-5CG213CF47</t>
+          <t>FHR-JQDCK74, PC-5CG35044D6</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fred Fox</t>
+          <t>PETER STANELAND</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FREDDIE.FOX@FHR.COM</t>
+          <t>peter.staneland1@fhr.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09-30-2025 12:52:42 AM</t>
+          <t>10-01-2025 09:10:03 AM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>09-30-2025 02:40:30 PM</t>
+          <t>10-01-2025 02:54:17 PM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FHR-5CG213CGR3</t>
+          <t>FHR-5CG213CF8T</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mercedes Osbern</t>
+          <t>Todd Adams</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MERCEDES.OSBERN@FHR.COM</t>
+          <t>TODD.ADAMS@FHR.COM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>US-TX-DEERPARK1 - Deer Park, TX (USA) - Deer Park - Koch</t>
+          <t>US-WI-JUNCTIONCITY - FHR-Terminals-Junction City - Junction City - Koch</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09-25-2025 02:54:26 PM</t>
+          <t>10-01-2025 01:47:29 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09-30-2025 11:57:55 AM</t>
+          <t>10-01-2025 01:48:02 PM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PC-5CG2060Q5N, 2MQ514105F - ZBOOK FIREFLY G11 14" WN11P U5-135U 16GB RAM 512GB SSD</t>
+          <t>FHR-5CG85200Z1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -658,185 +658,185 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Taylor Snider</t>
+          <t>Steve Dayton</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TAYLOR.SNIDER@FHR.COM</t>
+          <t>STEPHAN.DAYTON@FHR.COM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09-30-2025 08:45:25 AM</t>
+          <t>10-01-2025 07:00:18 AM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09-30-2025 08:45:54 AM</t>
+          <t>10-01-2025 07:00:52 AM</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PC-5CD344HXQK, DESKTOP-FFOKQBU</t>
+          <t>FHR-5CG213CF47</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Corey Brittain</t>
+          <t>Fred Fox</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>COREY.BRITTAIN@FHR.COM</t>
+          <t>FREDDIE.FOX@FHR.COM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09-30-2025 07:35:08 AM</t>
+          <t>09-30-2025 12:52:42 AM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-30-2025 07:35:38 AM</t>
+          <t>09-30-2025 02:40:30 PM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>FHR-MXL9153QP5, FHR-MXL9032SMM</t>
+          <t>FHR-5CG213CGR3</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Duane Lindquist</t>
+          <t>Mercedes Osbern</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DUANE.LINDQUIST@FHR.COM</t>
+          <t>MERCEDES.OSBERN@FHR.COM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-DEERPARK1 - Deer Park, TX (USA) - Deer Park - Koch</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09-30-2025 07:02:29 AM</t>
+          <t>09-25-2025 02:54:26 PM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-30-2025 07:02:56 AM</t>
+          <t>09-30-2025 11:57:55 AM</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>FHR-26931792853</t>
+          <t>PC-5CG2060Q5N, 2MQ514105F - ZBOOK FIREFLY G11 14" WN11P U5-135U 16GB RAM 512GB SSD</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Evan Mitchell</t>
+          <t>Taylor Snider</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>evan.mitchell@fhr.com</t>
+          <t>TAYLOR.SNIDER@FHR.COM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-29-2025 01:30:55 PM</t>
+          <t>09-30-2025 08:45:25 AM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-29-2025 01:31:22 PM</t>
+          <t>09-30-2025 08:45:54 AM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>FHR-8CG7333J8D FHR-5CG313030W</t>
+          <t>PC-5CD344HXQK, DESKTOP-FFOKQBU</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Diego Lowney</t>
+          <t>Corey Brittain</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>diego.lowney@fhr.com</t>
+          <t>COREY.BRITTAIN@FHR.COM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -846,34 +846,34 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-29-2025 01:29:53 PM</t>
+          <t>09-30-2025 07:35:08 AM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-29-2025 01:30:21 PM</t>
+          <t>09-30-2025 07:35:38 AM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>FHR-GC7CXB4</t>
+          <t>FHR-MXL9153QP5</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Matt Cordina</t>
+          <t>Duane Lindquist</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MATT.CORDINA@FHR.COM</t>
+          <t>DUANE.LINDQUIST@FHR.COM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -883,22 +883,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-29-2025 01:18:31 PM</t>
+          <t>09-30-2025 07:02:29 AM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-29-2025 01:18:57 PM</t>
+          <t>09-30-2025 07:02:56 AM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FHR-5CG2219ZD1</t>
+          <t>FHR-26931792853</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -910,12 +910,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Grant Creasman</t>
+          <t>Evan Mitchell</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>grant.creasman@fhr.com</t>
+          <t>evan.mitchell@fhr.com</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -925,22 +925,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09-29-2025 07:40:30 AM</t>
+          <t>09-29-2025 01:30:55 PM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-29-2025 07:40:58 AM</t>
+          <t>09-29-2025 01:31:22 PM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>PC-001F323233BF, PC-5CD42993JX, FHR-CND11935ZS, FHR-BK001F3</t>
+          <t>FHR-GC7CXB4</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -952,54 +952,54 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Stephen Mieth</t>
+          <t>Diego Lowney</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>STEPHEN.MIETH@FHR.COM</t>
+          <t>diego.lowney@fhr.com</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09-28-2025 06:12:27 PM</t>
+          <t>09-29-2025 01:29:53 PM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09-28-2025 06:12:56 PM</t>
+          <t>09-29-2025 01:30:21 PM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>FHR-5CG0511HN8</t>
+          <t>FHR-GC7CXB4</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dj Yarwood</t>
+          <t>Matt Cordina</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DEREK.YARWOOD@FHR.COM</t>
+          <t>MATT.CORDINA@FHR.COM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1009,22 +1009,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09-27-2025 03:39:16 PM</t>
+          <t>09-29-2025 01:18:31 PM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09-27-2025 03:39:44 PM</t>
+          <t>09-29-2025 01:18:57 PM</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>FHR-5CG12812HD</t>
+          <t>FHR-5CG2219ZD1</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1036,12 +1036,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Christian Makhoul</t>
+          <t>Grant Creasman</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>christian.makhoul@fhr.com</t>
+          <t>grant.creasman@fhr.com</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1051,22 +1051,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP Elite x360 1040 14" 2-in-1 Hybrid Laptop Bundle (US Only)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09-27-2025 01:26:04 PM</t>
+          <t>09-29-2025 07:40:30 AM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-27-2025 01:26:31 PM</t>
+          <t>09-29-2025 07:40:58 AM</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>FHR-5CG128139P</t>
+          <t>PC-1H95220MQ1, PC-5CD42993JX, PC-001F323233BF, FHR-CND11935ZS, FHR-BK001F3</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1078,54 +1078,54 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nicholas Hanson</t>
+          <t>Stephen Mieth</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NICK.HANSON@FHR.COM</t>
+          <t>STEPHEN.MIETH@FHR.COM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09-25-2025 04:07:28 PM</t>
+          <t>09-28-2025 06:12:27 PM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09-25-2025 04:07:56 PM</t>
+          <t>09-28-2025 06:12:56 PM</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>PC-2MQ53508TS, PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
+          <t>FHR-5CG0511HN8</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sam Raimann</t>
+          <t>Dj Yarwood</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAM.RAIMANN@FHR.COM</t>
+          <t>DEREK.YARWOOD@FHR.COM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1140,17 +1140,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09-25-2025 03:18:39 PM</t>
+          <t>09-27-2025 03:39:16 PM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-25-2025 03:19:11 PM</t>
+          <t>09-27-2025 03:39:44 PM</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>FHR-5CG1465ZKQ</t>
+          <t>FHR-5CG12812HD</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1162,96 +1162,96 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Todd Holder</t>
+          <t>Christian Makhoul</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>todd.holder@fhr.com</t>
+          <t>christian.makhoul@fhr.com</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>US-TX-AUSTIN2 - FHR-Austin - Austin - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09-25-2025 10:44:40 AM</t>
+          <t>09-27-2025 01:26:04 PM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-25-2025 10:45:09 AM</t>
+          <t>09-27-2025 01:26:31 PM</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>PC-5CG3341P05</t>
+          <t>FHR-5CG128139P</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Alex Pierce</t>
+          <t>Nicholas Hanson</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ALEXANDER.PIERCE@FHR.COM</t>
+          <t>NICK.HANSON@FHR.COM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09-24-2025 07:19:02 PM</t>
+          <t>09-25-2025 04:07:28 PM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-24-2025 07:19:31 PM</t>
+          <t>09-25-2025 04:07:56 PM</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZZK, FHR-0F01W2H2301</t>
+          <t>PC-2MQ53508TS, PC-MXL41338PX, FHR-5CG1411R5N, FHR-MXL41338PX</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lindsey Kuzma</t>
+          <t>Sam Raimann</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LINDSEY.KUZMA@FHR.COM</t>
+          <t>SAM.RAIMANN@FHR.COM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1261,22 +1261,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09-24-2025 01:01:16 PM</t>
+          <t>09-25-2025 03:18:39 PM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-24-2025 01:01:46 PM</t>
+          <t>09-25-2025 03:19:11 PM</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>PC-000PN23253BF</t>
+          <t>FHR-5CG1465ZKQ</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1288,138 +1288,138 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Antonio Vargas</t>
+          <t>Todd Holder</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>antonio.vargas@fhr.com</t>
+          <t>todd.holder@fhr.com</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-TX-AUSTIN2 - FHR-Austin - Austin - Koch</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>09-22-2025 10:19:51 AM</t>
+          <t>09-25-2025 10:44:40 AM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09-24-2025 12:54:47 PM</t>
+          <t>09-25-2025 10:45:09 AM</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>PC-5CG3341P05</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tammie Fletchall</t>
+          <t>Alex Pierce</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TAMMIE.FLETCHALL@FHR.COM</t>
+          <t>ALEXANDER.PIERCE@FHR.COM</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>09-23-2025 03:41:36 PM</t>
+          <t>09-24-2025 07:19:02 PM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>09-24-2025 11:34:29 AM</t>
+          <t>09-24-2025 07:19:31 PM</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PC-2MQ53508VD, PC-5CG2261RSB</t>
+          <t>PC-2MQ5140ZZK, FHR-0F01W2H2301</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Jimmy Nguyen</t>
+          <t>Lindsey Kuzma</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jimmy.nguyen@fhr.com</t>
+          <t>LINDSEY.KUZMA@FHR.COM</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>08-04-2025 01:48:09 PM</t>
+          <t>09-24-2025 01:01:16 PM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>09-23-2025 03:22:38 PM</t>
+          <t>09-24-2025 01:01:46 PM</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>FHR-7TDCK74, FHR-2M9CK74, PC-33QGD24383M4, FHR-5CG1465S8V</t>
+          <t>PC-000PN23253BF</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Robert Cliburn</t>
+          <t>Antonio Vargas</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ROBERT.CLIBURN@FHR.COM</t>
+          <t>antonio.vargas@fhr.com</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1429,22 +1429,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>09-23-2025 07:36:34 AM</t>
+          <t>09-22-2025 10:19:51 AM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>09-23-2025 07:37:02 AM</t>
+          <t>09-24-2025 12:54:47 PM</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>PC-2MQ53508TY, FHR-5CG0472YYT</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1456,54 +1456,54 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brinson Bryan</t>
+          <t>Tammie Fletchall</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BRINSON.BRYAN@FHR.COM</t>
+          <t>TAMMIE.FLETCHALL@FHR.COM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>09-22-2025 08:31:09 AM</t>
+          <t>09-23-2025 03:41:36 PM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>09-22-2025 08:31:38 AM</t>
+          <t>09-24-2025 11:34:29 AM</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>FHR-5CD229GR46</t>
+          <t>PC-5CG2261RSB, PC-2MQ53508VD</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Vicente Castillo</t>
+          <t>Jimmy Nguyen</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VICENTE.CASTILLO@FHR.COM</t>
+          <t>jimmy.nguyen@fhr.com</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1513,22 +1513,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Microsoft Surface Go 4</t>
+          <t>Microsoft Surface Pro 10 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09-22-2025 08:10:41 AM</t>
+          <t>08-04-2025 01:48:09 PM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>09-22-2025 08:11:09 AM</t>
+          <t>09-23-2025 03:22:38 PM</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>PC-334QH231933F, FHR-MXL3132SQX</t>
+          <t>PC-33QGD24383M4, FHR-5CG1465S8V</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1540,59 +1540,59 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dillon Sailer</t>
+          <t>Robert Cliburn</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>dillon.sailer@fhr.com</t>
+          <t>ROBERT.CLIBURN@FHR.COM</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>09-19-2025 04:55:25 PM</t>
+          <t>09-23-2025 07:36:34 AM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09-19-2025 04:55:54 PM</t>
+          <t>09-23-2025 07:37:02 AM</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>PC-1H852009ZL, FHR-LOANPB18, FHR-5CG201416N</t>
+          <t>PC-2MQ53508TY, FHR-5CG0472YYT</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Brinson Bryan</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DANIEL.BRAUN@FHR.COM</t>
+          <t>BRINSON.BRYAN@FHR.COM</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1602,34 +1602,34 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09-18-2025 02:27:18 PM</t>
+          <t>09-22-2025 08:31:09 AM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-18-2025 02:27:46 PM</t>
+          <t>09-22-2025 08:31:38 AM</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>PC-1H85200B0S, FHR-5CG7312MP6</t>
+          <t>FHR-5CD229GR46</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Roberto Montelongo</t>
+          <t>Vicente Castillo</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>roberto.montelongo@fhr.com</t>
+          <t>VICENTE.CASTILLO@FHR.COM</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1639,22 +1639,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>Microsoft Surface Go 4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09-18-2025 09:01:15 AM</t>
+          <t>09-22-2025 08:10:41 AM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-18-2025 09:01:46 AM</t>
+          <t>09-22-2025 08:11:09 AM</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>FHR-5CG2156GT3, PC-33VX725273R3, USWHL-1276WN9</t>
+          <t>PC-334QH231933F, FHR-MXL3132SQX</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1666,12 +1666,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Trevor Willberg</t>
+          <t>Dillon Sailer</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>trevor.willberg@fhr.com</t>
+          <t>dillon.sailer@fhr.com</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1681,22 +1681,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09-17-2025 10:21:00 AM</t>
+          <t>09-19-2025 04:55:25 PM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-17-2025 12:52:13 PM</t>
+          <t>09-19-2025 04:55:54 PM</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZPY</t>
+          <t>PC-1H852009ZL, FHR-LOANPB18, FHR-5CG201416N</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1708,54 +1708,54 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cory Strandlien</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>cory.strandlien@fhr.com</t>
+          <t>DANIEL.BRAUN@FHR.COM</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09-17-2025 09:55:48 AM</t>
+          <t>09-18-2025 02:27:18 PM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-17-2025 12:44:37 PM</t>
+          <t>09-18-2025 02:27:46 PM</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>PC-2MQ5140ZJ5</t>
+          <t>PC-1H85200B0S, FHR-5CG7312MP6</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Enrique Flores</t>
+          <t>Roberto Montelongo</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ENRIQUE.FLORES@FHR.COM</t>
+          <t>roberto.montelongo@fhr.com</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1765,22 +1765,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09-17-2025 10:03:05 AM</t>
+          <t>09-18-2025 09:01:15 AM</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09-17-2025 10:03:36 AM</t>
+          <t>09-18-2025 09:01:46 AM</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>PC-1H85200B0B, PC-DXXPDZ3, FHR-2UA8311QWT, FHR-5CG1240T5M, FHR-5CD4154J0P</t>
+          <t>FHR-5CG2156GT3, PC-33VX725273R3, USWHL-1276WN9</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1792,54 +1792,54 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Jason Henke</t>
+          <t>Trevor Willberg</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>JASON.HENKE@FHR.COM</t>
+          <t>trevor.willberg@fhr.com</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09-17-2025 09:38:30 AM</t>
+          <t>09-17-2025 10:21:00 AM</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09-17-2025 09:39:02 AM</t>
+          <t>09-17-2025 12:52:13 PM</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>PC-2MQ5290Z9F, FHR-5CG2151LHM</t>
+          <t>PC-2MQ5140ZPY</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Jed Illg</t>
+          <t>Cory Strandlien</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Jed.Illg@fhr.com</t>
+          <t>cory.strandlien@fhr.com</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1849,22 +1849,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09-17-2025 08:33:21 AM</t>
+          <t>09-17-2025 09:55:48 AM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-17-2025 08:33:50 AM</t>
+          <t>09-17-2025 12:44:37 PM</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>PC-2MQ5290Z98, FHR-5CG2156GG9</t>
+          <t>PC-2MQ5140ZJ5</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1876,138 +1876,138 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Shannon Angle</t>
+          <t>Enrique Flores</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>shannon.angle@fhr.com</t>
+          <t>ENRIQUE.FLORES@FHR.COM</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09-17-2025 07:50:45 AM</t>
+          <t>09-17-2025 10:03:05 AM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09-17-2025 07:51:14 AM</t>
+          <t>09-17-2025 10:03:36 AM</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
+          <t>PC-1H85200B0B, FHR-2UA8311QWT, FHR-5CG1240T5M, FHR-5CD4154J0P</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bryeton Canchola</t>
+          <t>Jason Henke</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>bryeton.canchola@fhr.com</t>
+          <t>JASON.HENKE@FHR.COM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09-16-2025 03:26:59 PM</t>
+          <t>09-17-2025 09:38:30 AM</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-16-2025 03:27:26 PM</t>
+          <t>09-17-2025 09:39:02 AM</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>SPC-MXL24155VV FHR-MXL1022SZ3 FHR-MXL24156C3 SPC-MXL24155W5 SPC-MXL3324PYM SPC-MXL3324PZ0 FHR-MXL2223BDL FHR-MXL9502C5W FHR-MXL9333W07 PC-01W3B23013BF FHR-MXL1022T0R FHR-MXL24155WF FHR-MXL13349Z2 SPC-MXL3324PZ2 FHR-MXL90224C1 FHR-BK000V1 FHR-B9XFH04 SPC-MXL3324PYD SPC-MXL3324PYP FHR-8V4TNZ3</t>
+          <t>PC-2MQ5290Z9F, FHR-5CG2151LHM</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Charles Cooley Jr</t>
+          <t>Jed Illg</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CHARLES.COOLEY@FHR.COM</t>
+          <t>Jed.Illg@fhr.com</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>HP 14" Laptop with Dock - Firefly 32 GB/512 SSD (US Only)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09-16-2025 02:26:57 PM</t>
+          <t>09-17-2025 08:33:21 AM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-16-2025 02:27:28 PM</t>
+          <t>09-17-2025 08:33:50 AM</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>FHR-5CG225854R, PC-2MQ5140ZJR</t>
+          <t>FHR-5CG2156GG9, PC-2MQ5290Z98</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Rosemount</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Patrick Tiller</t>
+          <t>Shannon Angle</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PATRICK.TILLER@FHR.COM</t>
+          <t>shannon.angle@fhr.com</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2017,22 +2017,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-16-2025 12:20:22 PM</t>
+          <t>09-17-2025 07:50:45 AM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-16-2025 12:20:49 PM</t>
+          <t>09-17-2025 07:51:14 AM</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>PC-JZ4TNZ3, PC-1H85200B13, FHR-5CG1240T4Q, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
+          <t>PC-5CG5032YLP, PC-5CG2060QGP</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2044,12 +2044,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Bryan Garcia</t>
+          <t>Bryeton Canchola</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>bryan.garcia1@fhr.com</t>
+          <t>bryeton.canchola@fhr.com</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2064,17 +2064,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09-16-2025 07:46:13 AM</t>
+          <t>09-16-2025 03:26:59 PM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-16-2025 07:46:49 AM</t>
+          <t>09-16-2025 03:27:26 PM</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>PC-33J3M25073R3, PC-BZQ03Z3, PC-5CG408495P</t>
+          <t>SPC-MXL24155VV FHR-MXL1022SZ3 FHR-MXL24156C3 SPC-MXL24155W5 SPC-MXL3324PYM SPC-MXL3324PZ0 FHR-MXL2223BDL FHR-MXL9502C5W FHR-MXL9333W07 PC-01W3B23013BF FHR-MXL1022T0R FHR-MXL24155WF FHR-MXL13349Z2 SPC-MXL3324PZ2 FHR-MXL90224C1 FHR-BK000V1 FHR-B9XFH04 SPC-MXL3324PYD SPC-MXL3324PYP FHR-8V4TNZ3</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2086,12 +2086,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Troy Hull</t>
+          <t>Charles Cooley Jr</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TROY.HULL@FHR.COM</t>
+          <t>CHARLES.COOLEY@FHR.COM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2101,22 +2101,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09-16-2025 06:55:54 AM</t>
+          <t>09-16-2025 02:26:57 PM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-16-2025 06:56:26 AM</t>
+          <t>09-16-2025 02:27:28 PM</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>FHR-MXL24155WF, FHR-BK001VG, PC-33PCV25273R3, PC-5CG4151LFY</t>
+          <t>FHR-5CG225854R, PC-2MQ5140ZJR</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2128,17 +2128,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Crystal Link</t>
+          <t>Patrick Tiller</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CRYSTAL.LINK@FHR.COM</t>
+          <t>PATRICK.TILLER@FHR.COM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
+          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2148,249 +2148,249 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>09-15-2025 11:01:25 AM</t>
+          <t>09-16-2025 12:20:22 PM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>09-15-2025 11:01:54 AM</t>
+          <t>09-16-2025 12:20:49 PM</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>PC-5CG1465ZKZ, PC-1H85200B04, FHR-5CG0254D4T</t>
+          <t>PC-JZ4TNZ3, PC-1H85200B13, FHR-5CG1240T4Q, OPTIPLEX MICRO 7020 I5-14500T 512GB 16GB W11P64</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Wichita</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Alex Lodholz</t>
+          <t>Bryan Garcia</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>alex.lodholz@fhr.com</t>
+          <t>bryan.garcia1@fhr.com</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-15-2025 09:14:43 AM</t>
+          <t>09-16-2025 07:46:13 AM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>09-15-2025 09:15:12 AM</t>
+          <t>09-16-2025 07:46:49 AM</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>PC-2MQ514103N</t>
+          <t>PC-33J3M25073R3, PC-BZQ03Z3, PC-5CG408495P</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Rosemount</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Brendan Snell</t>
+          <t>Troy Hull</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>brendan.snell@fhr.com</t>
+          <t>TROY.HULL@FHR.COM</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>US-KS-WICHITA1 - Wichita KS-Headquarters - Wichita - Koch</t>
+          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HP ZBook Firefly Lightweight Travel Engineering Laptop (US Only)</t>
+          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:12 AM</t>
+          <t>09-16-2025 06:55:54 AM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09-15-2025 08:15:46 AM</t>
+          <t>09-16-2025 06:56:26 AM</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>FHR-5CG2156XDV</t>
+          <t>FHR-MXL24155WF, FHR-BK001VG, PC-33PCV25273R3, PC-5CG4151LFY</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Joey Guerrero</t>
+          <t>Crystal Link</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>joey.guerrero1@fhr.com</t>
+          <t>CRYSTAL.LINK@FHR.COM</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-SAVAGE2 - FHR-Savage - Savage - Koch</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 11 for Business Bundle (US Only)</t>
+          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-15-2025 06:33:41 AM</t>
+          <t>09-15-2025 11:01:25 AM</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09-15-2025 06:34:14 AM</t>
+          <t>09-15-2025 11:01:54 AM</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>PC-33B8725073R3, PC-9659600351</t>
+          <t>PC-5CG1465ZKZ, PC-1H85200B04, FHR-5CG0254D4T</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Corpus Christi</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Eddie Buskirk</t>
+          <t>Alex Lodholz</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>EDDIE.BUSKIRK@FHR.COM</t>
+          <t>alex.lodholz@fhr.com</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>US-TX-CORPUSCHRISTI1 - FHR-Corpus Refinery - Corpus Christi - Koch</t>
+          <t>US-MN-ROSEMOUNT - FHR-Pine Bend - Rosemount - Koch</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>HP ZBook Power 16 Standard Engineering Laptop (US)</t>
+          <t>HP 14" Standard Laptop with Dock - Firefly 16 GB/512 SSD  (US Only)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-12-2025 01:52:56 PM</t>
+          <t>09-15-2025 09:14:43 AM</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-